--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -611,10 +611,6 @@
     <t>CastRange</t>
   </si>
   <si>
-    <t>5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cooldown</t>
   </si>
   <si>
@@ -636,6 +632,10 @@
   </si>
   <si>
     <t>ManaCost</t>
+  </si>
+  <si>
+    <t>13,14,16,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1009,13 +1009,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
@@ -1074,19 +1075,19 @@
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -1142,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="U2">
         <v>-1</v>
       </c>
       <c r="V2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W2">
         <v>25</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -539,12 +539,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对目标造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否瞬间移动到目的地 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,28 +692,45 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>12,11,10,9,8</t>
+    <t>HurtValue</t>
+  </si>
+  <si>
+    <t>HurtRange</t>
+  </si>
+  <si>
+    <t>NormalHurt</t>
+  </si>
+  <si>
+    <t>ManaCost</t>
+  </si>
+  <si>
+    <t>TargetBuff</t>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HurtValue</t>
-  </si>
-  <si>
-    <t>HurtRange</t>
-  </si>
-  <si>
-    <t>NormalHurt</t>
-  </si>
-  <si>
-    <t>0.3,0.4,0.5,0.6,0.7</t>
+    <t>5.25,7.50,9.75,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ManaCost</t>
-  </si>
-  <si>
-    <t>13,14,16,8,9</t>
+    <t>PA的b</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,9,7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,40,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkToTarget</t>
+  </si>
+  <si>
+    <t>MyBuff</t>
   </si>
 </sst>
 </file>
@@ -1007,19 +1102,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,19 +1176,28 @@
         <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1128,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
         <v>0.5</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1140,25 +1247,105 @@
         <v>2</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
-        <v>21</v>
+      <c r="S2">
+        <v>6</v>
       </c>
       <c r="T2">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="U2">
         <v>-1</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W2">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>-1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -617,12 +617,105 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//拥有技能技能时的buff (技能携带的buff)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>//触发几率 0.5表示50%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//触发的暴击 倍数 2.5表示2.5倍攻击 1表示正常攻击</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +824,34 @@
   </si>
   <si>
     <t>MyBuff</t>
+  </si>
+  <si>
+    <t>PA的闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBuff</t>
+  </si>
+  <si>
+    <t>60,55,50,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerTime</t>
+  </si>
+  <si>
+    <t>TriggerProbability</t>
+  </si>
+  <si>
+    <t>TriggerCrit</t>
+  </si>
+  <si>
+    <t>PA的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3.25,4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1102,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1238,7 @@
     <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1317,20 @@
       <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1273,8 +1406,17 @@
       <c r="Y2">
         <v>2</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1346,6 +1488,184 @@
       </c>
       <c r="Z3">
         <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>0.1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0.9</v>
+      </c>
+      <c r="N5">
+        <v>0.1</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0.15</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -710,12 +710,116 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//拥有技能技能时的halo (技能携带的halo)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//释放时 对自己的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//释放时 对目标的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,6 +956,30 @@
   <si>
     <t>2,3.25,4.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyHalo</t>
+  </si>
+  <si>
+    <t>InitHalo</t>
+  </si>
+  <si>
+    <t>120,110,100,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,34,26,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyClearLevel</t>
+  </si>
+  <si>
+    <t>TargetClearLevel</t>
   </si>
 </sst>
 </file>
@@ -1223,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,7 +1366,7 @@
     <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1329,8 +1457,20 @@
       <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1415,8 +1555,14 @@
       <c r="AD2">
         <v>1</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1498,8 +1644,14 @@
       <c r="AD3">
         <v>1</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1584,8 +1736,14 @@
       <c r="AD4">
         <v>1</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1666,6 +1824,104 @@
       </c>
       <c r="AD5" t="s">
         <v>40</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0.9</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -814,12 +814,145 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤数量 0表示没有召唤</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位 类型ID 0表示当前召唤者 -1表示目标对象 其他类型id对应其他单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位携带额外buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位携带额外halo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位在目标位置的随机偏移位置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0">
+      <text/>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,6 +1113,29 @@
   </si>
   <si>
     <t>TargetClearLevel</t>
+  </si>
+  <si>
+    <t>CallUnitCount</t>
+  </si>
+  <si>
+    <t>CallUnitTypeID</t>
+  </si>
+  <si>
+    <t>CallUnitBuff</t>
+  </si>
+  <si>
+    <t>CallUnitHalo</t>
+  </si>
+  <si>
+    <t>CallUnitOffsetPos</t>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1351,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1366,7 +1522,7 @@
     <col min="19" max="19" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1469,8 +1625,24 @@
       <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1561,8 +1733,17 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1650,8 +1831,17 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1742,8 +1932,17 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1831,8 +2030,17 @@
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1921,6 +2129,116 @@
         <v>1</v>
       </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>140</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7">
+        <v>1001</v>
+      </c>
+      <c r="AM7">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -952,7 +952,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,6 +1135,22 @@
   </si>
   <si>
     <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.25,0.3,0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,275,350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,9 +1216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1507,19 +1524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
@@ -1995,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -2011,9 +2029,6 @@
       </c>
       <c r="Y5">
         <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -2239,6 +2254,203 @@
         <v>1001</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0.9</v>
+      </c>
+      <c r="N8">
+        <v>0.1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8">
+        <v>1.8</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>0.1</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>4.25</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1002</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -67,7 +67,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-施法目标类型 1:自身为目标 2:以单位为目标 3:以地面1点为目标</t>
+施法目标类型 1:自身为目标 2:以单位为目标 3:以地面1点为目标
+4:攻击时自动释放(攻击特效)</t>
         </r>
       </text>
     </comment>
@@ -952,7 +953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,108 +1050,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35,40,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkToTarget</t>
+  </si>
+  <si>
+    <t>MyBuff</t>
+  </si>
+  <si>
+    <t>PA的闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBuff</t>
+  </si>
+  <si>
+    <t>60,55,50,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerTime</t>
+  </si>
+  <si>
+    <t>TriggerProbability</t>
+  </si>
+  <si>
+    <t>TriggerCrit</t>
+  </si>
+  <si>
+    <t>PA的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3.25,4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyHalo</t>
+  </si>
+  <si>
+    <t>InitHalo</t>
+  </si>
+  <si>
+    <t>120,110,100,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,34,26,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyClearLevel</t>
+  </si>
+  <si>
+    <t>TargetClearLevel</t>
+  </si>
+  <si>
+    <t>CallUnitCount</t>
+  </si>
+  <si>
+    <t>CallUnitTypeID</t>
+  </si>
+  <si>
+    <t>CallUnitBuff</t>
+  </si>
+  <si>
+    <t>CallUnitHalo</t>
+  </si>
+  <si>
+    <t>CallUnitOffsetPos</t>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.25,0.3,0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,275,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>11,9,7,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,40,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkToTarget</t>
-  </si>
-  <si>
-    <t>MyBuff</t>
-  </si>
-  <si>
-    <t>PA的闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitBuff</t>
-  </si>
-  <si>
-    <t>60,55,50,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerTime</t>
-  </si>
-  <si>
-    <t>TriggerProbability</t>
-  </si>
-  <si>
-    <t>TriggerCrit</t>
-  </si>
-  <si>
-    <t>PA的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3.25,4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyHalo</t>
-  </si>
-  <si>
-    <t>InitHalo</t>
-  </si>
-  <si>
-    <t>120,110,100,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,34,26,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyClearLevel</t>
-  </si>
-  <si>
-    <t>TargetClearLevel</t>
-  </si>
-  <si>
-    <t>CallUnitCount</t>
-  </si>
-  <si>
-    <t>CallUnitTypeID</t>
-  </si>
-  <si>
-    <t>CallUnitBuff</t>
-  </si>
-  <si>
-    <t>CallUnitHalo</t>
-  </si>
-  <si>
-    <t>CallUnitOffsetPos</t>
-  </si>
-  <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.25,0.3,0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,275,350</t>
+    <t>小黑冰箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1524,15 +1529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="16.125" customWidth="1"/>
@@ -1614,49 +1620,49 @@
         <v>25</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AN1" s="1"/>
     </row>
@@ -1814,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1864,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1912,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1965,7 +1971,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2037,7 +2043,7 @@
         <v>0.15</v>
       </c>
       <c r="AD5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -2060,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -2161,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2248,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="AK7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL7">
         <v>1001</v>
@@ -2262,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2331,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="AC8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD8">
         <v>1.8</v>
@@ -2357,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2417,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9">
@@ -2451,6 +2457,104 @@
         <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>0.1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -68,7 +68,7 @@
           </rPr>
           <t xml:space="preserve">
 施法目标类型 1:自身为目标 2:以单位为目标 3:以地面1点为目标
-4:攻击时自动释放(攻击特效)</t>
+4:攻击时自动释放(攻击特效)5:以地面一点为方向</t>
         </r>
       </text>
     </comment>
@@ -510,11 +510,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//总是造成伤害 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -815,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,15 +971,78 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
-      <text/>
+    <comment ref="AO1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>//强制移动时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//强制移动速度大小</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//强制移动等级</t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1157,6 +1246,26 @@
   <si>
     <t>小黑冰箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwaysHurt</t>
+  </si>
+  <si>
+    <t>小黑沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveTime</t>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveSpeedSize</t>
+  </si>
+  <si>
+    <t>ForceMoveLevel</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1543,10 +1652,10 @@
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1611,62 +1720,73 @@
         <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="1"/>
+      <c r="AO1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1730,29 +1850,29 @@
       <c r="U2">
         <v>-1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
         <v>26</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>30</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1763,11 +1883,23 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AM2">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1829,28 +1961,28 @@
         <v>-1</v>
       </c>
       <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>29</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
       <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1861,11 +1993,23 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AM3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1927,31 +2071,31 @@
         <v>-1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>50</v>
       </c>
-      <c r="Y4">
-        <v>2</v>
-      </c>
       <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
         <v>4</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1962,11 +2106,23 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AM4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2028,26 +2184,26 @@
         <v>-1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
       </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>0.15</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>39</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
       <c r="AH5">
         <v>0</v>
       </c>
@@ -2057,11 +2213,23 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AM5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2123,34 +2291,34 @@
         <v>-1</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
       <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
         <v>5</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
         <v>1000</v>
       </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -2158,11 +2326,23 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AM6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2224,46 +2404,58 @@
         <v>-1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>140</v>
       </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
+      <c r="Z7">
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
         <v>4</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>53</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1001</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2325,26 +2517,26 @@
         <v>-1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
         <v>55</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1.8</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
         <v>0</v>
       </c>
@@ -2354,11 +2546,23 @@
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AM8">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2419,36 +2623,36 @@
       <c r="U9">
         <v>-1</v>
       </c>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2" t="s">
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>9</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
         <v>1002</v>
       </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -2456,11 +2660,23 @@
       <c r="AJ9">
         <v>0</v>
       </c>
-      <c r="AM9">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2522,28 +2738,28 @@
         <v>-1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>12</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>10</v>
       </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
+      <c r="Z10">
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2554,8 +2770,133 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <v>0.1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>11</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11">
+        <v>6</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1266,10 @@
   </si>
   <si>
     <t>ForceMoveLevel</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1638,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AS16" sqref="AS16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2899,6 +2903,116 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
+        <v>0.1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1003</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -759,11 +759,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//无视闪避几率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//物理护甲削弱 -7表示本次计算伤害减7点护甲  -10000表示本次计算伤害减光目标的基础护甲</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -789,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -815,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1094,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1269,6 +1321,21 @@
   </si>
   <si>
     <t>小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareDodge</t>
+  </si>
+  <si>
+    <t>PhysicalAmaorCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.3,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1659,7 +1726,7 @@
     <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1754,43 +1821,49 @@
         <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1878,10 +1951,10 @@
       <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>0</v>
       </c>
       <c r="AJ2">
@@ -1890,10 +1963,10 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>0</v>
       </c>
       <c r="AP2">
@@ -1902,8 +1975,14 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1988,10 +2067,10 @@
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>0</v>
       </c>
       <c r="AJ3">
@@ -2000,10 +2079,10 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>0</v>
       </c>
       <c r="AP3">
@@ -2012,8 +2091,14 @@
       <c r="AQ3">
         <v>0</v>
       </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2101,10 +2186,10 @@
       <c r="AE4">
         <v>1</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0</v>
       </c>
       <c r="AJ4">
@@ -2113,10 +2198,10 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>0</v>
       </c>
       <c r="AP4">
@@ -2125,8 +2210,14 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2208,10 +2299,10 @@
       <c r="AE5" t="s">
         <v>39</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0</v>
       </c>
       <c r="AJ5">
@@ -2220,10 +2311,10 @@
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>0</v>
       </c>
       <c r="AP5">
@@ -2232,8 +2323,14 @@
       <c r="AQ5">
         <v>0</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2319,24 +2416,24 @@
         <v>1</v>
       </c>
       <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>1000</v>
       </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>0</v>
       </c>
       <c r="AP6">
@@ -2345,8 +2442,14 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2428,38 +2531,44 @@
       <c r="AE7">
         <v>1</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>4</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>53</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>1001</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
       <c r="AP7">
         <v>0</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2541,10 +2650,10 @@
       <c r="AE8">
         <v>1.8</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
         <v>0</v>
       </c>
       <c r="AJ8">
@@ -2553,10 +2662,10 @@
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>0</v>
       </c>
       <c r="AP8">
@@ -2565,8 +2674,14 @@
       <c r="AQ8">
         <v>0</v>
       </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2653,24 +2768,24 @@
         <v>1</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
         <v>1002</v>
       </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0</v>
       </c>
       <c r="AP9">
@@ -2679,8 +2794,14 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2765,10 +2886,10 @@
       <c r="AE10">
         <v>1</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>0</v>
       </c>
       <c r="AJ10">
@@ -2777,10 +2898,10 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>0</v>
       </c>
       <c r="AP10">
@@ -2789,8 +2910,14 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2878,10 +3005,10 @@
       <c r="AE11">
         <v>1</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>0</v>
       </c>
       <c r="AJ11">
@@ -2890,20 +3017,26 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="s">
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>63</v>
       </c>
-      <c r="AP11">
+      <c r="AR11">
         <v>6</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2985,31 +3118,150 @@
       <c r="AE12">
         <v>1</v>
       </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
       <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>1003</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
       <c r="AJ12">
         <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0.9</v>
+      </c>
+      <c r="N13">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.1</v>
+      </c>
+      <c r="T13">
+        <v>120</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>-10000</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1089,12 +1089,142 @@
         </r>
       </text>
     </comment>
+    <comment ref="AT1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//强制移动时的buff 随着移动结束消失</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//加血类型 0:不加 1:以AddHPValue为固定值 2:以AddHPValue为时间 加单位在此时间内受到的伤害值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//加血值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//加血的目标 1:表示自己 2:表示目标</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1337,6 +1467,29 @@
   <si>
     <t>0.2,0.3,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveType</t>
+  </si>
+  <si>
+    <t>虚空的位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveBuff</t>
+  </si>
+  <si>
+    <t>AddHPType</t>
+  </si>
+  <si>
+    <t>AddHPValue</t>
+  </si>
+  <si>
+    <t>AddHPTarget</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AY20" sqref="AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,9 +1877,10 @@
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1862,8 +2016,23 @@
       <c r="AS1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1981,8 +2150,20 @@
       <c r="AS2">
         <v>0</v>
       </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2097,8 +2278,20 @@
       <c r="AS3">
         <v>0</v>
       </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2216,8 +2409,20 @@
       <c r="AS4">
         <v>0</v>
       </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2329,8 +2534,20 @@
       <c r="AS5">
         <v>0</v>
       </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2448,8 +2665,20 @@
       <c r="AS6">
         <v>0</v>
       </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2567,8 +2796,20 @@
       <c r="AS7">
         <v>0</v>
       </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2680,8 +2921,20 @@
       <c r="AS8">
         <v>0</v>
       </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2800,8 +3053,20 @@
       <c r="AS9">
         <v>0</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2916,8 +3181,20 @@
       <c r="AS10">
         <v>0</v>
       </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3035,8 +3312,20 @@
       <c r="AS11">
         <v>1</v>
       </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3151,8 +3440,20 @@
       <c r="AS12">
         <v>0</v>
       </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3263,6 +3564,146 @@
       </c>
       <c r="AS13">
         <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0.9</v>
+      </c>
+      <c r="N14">
+        <v>0.1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>6.75</v>
+      </c>
+      <c r="S14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>40</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14">
+        <v>10</v>
+      </c>
+      <c r="AS14">
+        <v>2</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>13</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -811,11 +811,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//释放时 对目标造成的halo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -841,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -971,7 +997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -997,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1063,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1167,7 +1193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1193,7 +1219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1244,9 +1270,6 @@
     <t>CastTargetType</t>
   </si>
   <si>
-    <t>CastTargetRange</t>
-  </si>
-  <si>
     <t>UnitTargetTeam</t>
   </si>
   <si>
@@ -1490,6 +1513,49 @@
   </si>
   <si>
     <t>AddHPTarget</t>
+  </si>
+  <si>
+    <t>虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastTargetRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,35,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetHalo</t>
+  </si>
+  <si>
+    <t>1004,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1862,25 +1928,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AY20" sqref="AY20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.125" customWidth="1"/>
+    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1894,145 +1961,148 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AU1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2058,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>7</v>
@@ -2085,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2">
         <v>6</v>
@@ -2100,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="W2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X2">
         <v>30</v>
@@ -2126,9 +2196,6 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
@@ -2138,7 +2205,7 @@
       <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AP2">
+      <c r="AN2">
         <v>0</v>
       </c>
       <c r="AQ2">
@@ -2153,7 +2220,7 @@
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AV2">
+      <c r="AU2">
         <v>0</v>
       </c>
       <c r="AW2">
@@ -2162,13 +2229,16 @@
       <c r="AX2">
         <v>0</v>
       </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2216,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2231,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -2254,9 +2324,6 @@
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
@@ -2266,7 +2333,7 @@
       <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AP3">
+      <c r="AN3">
         <v>0</v>
       </c>
       <c r="AQ3">
@@ -2281,7 +2348,7 @@
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AV3">
+      <c r="AU3">
         <v>0</v>
       </c>
       <c r="AW3">
@@ -2290,13 +2357,16 @@
       <c r="AX3">
         <v>0</v>
       </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2344,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2385,9 +2455,6 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
@@ -2397,7 +2464,7 @@
       <c r="AM4">
         <v>0</v>
       </c>
-      <c r="AP4">
+      <c r="AN4">
         <v>0</v>
       </c>
       <c r="AQ4">
@@ -2412,7 +2479,7 @@
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AV4">
+      <c r="AU4">
         <v>0</v>
       </c>
       <c r="AW4">
@@ -2421,13 +2488,16 @@
       <c r="AX4">
         <v>0</v>
       </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2502,7 +2572,7 @@
         <v>0.15</v>
       </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -2510,9 +2580,6 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
@@ -2522,7 +2589,7 @@
       <c r="AM5">
         <v>0</v>
       </c>
-      <c r="AP5">
+      <c r="AN5">
         <v>0</v>
       </c>
       <c r="AQ5">
@@ -2537,7 +2604,7 @@
       <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AV5">
+      <c r="AU5">
         <v>0</v>
       </c>
       <c r="AW5">
@@ -2546,13 +2613,16 @@
       <c r="AX5">
         <v>0</v>
       </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2600,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -2615,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6">
         <v>2</v>
@@ -2638,14 +2708,11 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1000</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -2653,7 +2720,7 @@
       <c r="AM6">
         <v>0</v>
       </c>
-      <c r="AP6">
+      <c r="AN6">
         <v>0</v>
       </c>
       <c r="AQ6">
@@ -2668,7 +2735,7 @@
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AV6">
+      <c r="AU6">
         <v>0</v>
       </c>
       <c r="AW6">
@@ -2677,13 +2744,16 @@
       <c r="AX6">
         <v>0</v>
       </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2766,27 +2836,24 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>4</v>
       </c>
-      <c r="AN7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO7">
+      <c r="AO7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7">
         <v>1001</v>
       </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
       <c r="AQ7">
         <v>0</v>
       </c>
@@ -2799,7 +2866,7 @@
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AV7">
+      <c r="AU7">
         <v>0</v>
       </c>
       <c r="AW7">
@@ -2808,13 +2875,16 @@
       <c r="AX7">
         <v>0</v>
       </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2886,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE8">
         <v>1.8</v>
@@ -2897,9 +2967,6 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
@@ -2909,7 +2976,7 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AP8">
+      <c r="AN8">
         <v>0</v>
       </c>
       <c r="AQ8">
@@ -2924,7 +2991,7 @@
       <c r="AT8">
         <v>0</v>
       </c>
-      <c r="AV8">
+      <c r="AU8">
         <v>0</v>
       </c>
       <c r="AW8">
@@ -2933,13 +3000,16 @@
       <c r="AX8">
         <v>0</v>
       </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3002,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9">
@@ -3026,14 +3096,11 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1002</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -3041,7 +3108,7 @@
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AP9">
+      <c r="AN9">
         <v>0</v>
       </c>
       <c r="AQ9">
@@ -3056,7 +3123,7 @@
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AV9">
+      <c r="AU9">
         <v>0</v>
       </c>
       <c r="AW9">
@@ -3065,13 +3132,16 @@
       <c r="AX9">
         <v>0</v>
       </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3157,9 +3227,6 @@
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
@@ -3169,7 +3236,7 @@
       <c r="AM10">
         <v>0</v>
       </c>
-      <c r="AP10">
+      <c r="AN10">
         <v>0</v>
       </c>
       <c r="AQ10">
@@ -3184,7 +3251,7 @@
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AV10">
+      <c r="AU10">
         <v>0</v>
       </c>
       <c r="AW10">
@@ -3193,13 +3260,16 @@
       <c r="AX10">
         <v>0</v>
       </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3220,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -3288,9 +3358,6 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
@@ -3300,23 +3367,23 @@
       <c r="AM11">
         <v>0</v>
       </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR11">
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS11">
         <v>6</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
       <c r="AT11">
         <v>1</v>
       </c>
-      <c r="AV11">
-        <v>0</v>
+      <c r="AU11">
+        <v>1</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -3324,13 +3391,16 @@
       <c r="AX11">
         <v>0</v>
       </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3413,12 +3483,9 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1003</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
@@ -3428,7 +3495,7 @@
       <c r="AM12">
         <v>0</v>
       </c>
-      <c r="AP12">
+      <c r="AN12">
         <v>0</v>
       </c>
       <c r="AQ12">
@@ -3443,7 +3510,7 @@
       <c r="AT12">
         <v>0</v>
       </c>
-      <c r="AV12">
+      <c r="AU12">
         <v>0</v>
       </c>
       <c r="AW12">
@@ -3452,13 +3519,16 @@
       <c r="AX12">
         <v>0</v>
       </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3530,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -3541,9 +3611,6 @@
       <c r="AG13">
         <v>-10000</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
@@ -3553,7 +3620,7 @@
       <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AP13">
+      <c r="AN13">
         <v>0</v>
       </c>
       <c r="AQ13">
@@ -3568,7 +3635,7 @@
       <c r="AT13">
         <v>0</v>
       </c>
-      <c r="AV13">
+      <c r="AU13">
         <v>0</v>
       </c>
       <c r="AW13">
@@ -3577,13 +3644,16 @@
       <c r="AX13">
         <v>0</v>
       </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3631,7 +3701,7 @@
         <v>6.75</v>
       </c>
       <c r="S14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -3666,9 +3736,6 @@
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
@@ -3678,32 +3745,422 @@
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AP14">
+      <c r="AN14">
         <v>0</v>
       </c>
       <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>0.5</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>10</v>
       </c>
-      <c r="AS14">
-        <v>2</v>
-      </c>
       <c r="AT14">
         <v>2</v>
       </c>
       <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
         <v>13</v>
       </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
       <c r="AW14">
         <v>2</v>
       </c>
       <c r="AX14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>7.75</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0.9</v>
+      </c>
+      <c r="N15">
+        <v>0.1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>7.75</v>
+      </c>
+      <c r="S15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>75</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>14</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>0.1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0.9</v>
+      </c>
+      <c r="N17">
+        <v>0.1</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>4.25</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1245,12 +1245,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理参数</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,6 +1607,52 @@
   </si>
   <si>
     <t>1004,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,165,195,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,120,130,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5,6,6.5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,3,3.5,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,12 +2040,13 @@
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2101,8 +2200,14 @@
       <c r="AY1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AZ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2232,8 +2337,14 @@
       <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2360,8 +2471,14 @@
       <c r="AY3">
         <v>0</v>
       </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2491,8 +2608,14 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2616,8 +2739,14 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2747,8 +2876,14 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2878,8 +3013,14 @@
       <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3003,8 +3144,14 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3135,8 +3282,14 @@
       <c r="AY9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3263,8 +3416,14 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3394,8 +3553,14 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3522,8 +3687,14 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3647,8 +3818,14 @@
       <c r="AY13">
         <v>0</v>
       </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3775,8 +3952,14 @@
       <c r="AY14">
         <v>1</v>
       </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3906,8 +4089,14 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4034,8 +4223,14 @@
       <c r="AY16">
         <v>0</v>
       </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4161,6 +4356,283 @@
       </c>
       <c r="AY17">
         <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0.9</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y18">
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19">
+        <v>19</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1241,11 +1241,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //加血的目标 1:表示自己 2:表示目标</t>
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1271,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,6 +1697,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1653,6 +1708,40 @@
   </si>
   <si>
     <t>2.5,3,3.5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.6,1.8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2026,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,7 +2135,7 @@
     <col min="44" max="44" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2198,16 +2287,22 @@
         <v>75</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2334,17 +2429,23 @@
       <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
+      <c r="AY2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2468,17 +2569,23 @@
       <c r="AX3">
         <v>0</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
+      <c r="AY3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2605,17 +2712,23 @@
       <c r="AX4">
         <v>0</v>
       </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
+      <c r="AY4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2736,17 +2849,23 @@
       <c r="AX5">
         <v>0</v>
       </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
+      <c r="AY5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2873,17 +2992,23 @@
       <c r="AX6">
         <v>0</v>
       </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
+      <c r="AY6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3010,17 +3135,23 @@
       <c r="AX7">
         <v>0</v>
       </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
+      <c r="AY7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3141,17 +3272,23 @@
       <c r="AX8">
         <v>0</v>
       </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
+      <c r="AY8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA8">
         <v>0</v>
       </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3279,17 +3416,23 @@
       <c r="AX9">
         <v>0</v>
       </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
+      <c r="AY9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA9">
         <v>0</v>
       </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3413,17 +3556,23 @@
       <c r="AX10">
         <v>0</v>
       </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
+      <c r="AY10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA10">
         <v>0</v>
       </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3550,17 +3699,23 @@
       <c r="AX11">
         <v>0</v>
       </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
+      <c r="AY11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA11">
         <v>0</v>
       </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3684,17 +3839,23 @@
       <c r="AX12">
         <v>0</v>
       </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
+      <c r="AY12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3815,17 +3976,23 @@
       <c r="AX13">
         <v>0</v>
       </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
+      <c r="AY13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA13">
         <v>0</v>
       </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3949,17 +4116,23 @@
       <c r="AX14">
         <v>2</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
+      <c r="AY14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4086,17 +4259,23 @@
       <c r="AX15">
         <v>0</v>
       </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
+      <c r="AY15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA15">
         <v>0</v>
       </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4220,17 +4399,23 @@
       <c r="AX16">
         <v>0</v>
       </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
+      <c r="AY16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ16" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA16">
         <v>0</v>
       </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4354,17 +4539,23 @@
       <c r="AX17">
         <v>0</v>
       </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
+      <c r="AY17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA17">
         <v>0</v>
       </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4491,17 +4682,23 @@
       <c r="AX18">
         <v>0</v>
       </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
+      <c r="AY18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="BA18">
         <v>0</v>
       </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4557,7 +4754,7 @@
         <v>96</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -4569,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y19">
         <v>19</v>
@@ -4625,14 +4822,157 @@
       <c r="AX19">
         <v>0</v>
       </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>1</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>99</v>
+      <c r="AY19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0.9</v>
+      </c>
+      <c r="N20">
+        <v>0.1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,10 +1688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.5,6,6.5,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,15,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1742,6 +1738,22 @@
   </si>
   <si>
     <t>0.25,0.4,0.55,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,200,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5,9,9.5,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC20"/>
+  <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AZ24" sqref="AZ24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2287,10 +2299,10 @@
         <v>75</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>76</v>
@@ -2430,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AY2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2570,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="AY3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2713,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2850,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -2993,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -3136,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -3273,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -3417,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -3557,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3700,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3840,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -3977,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -4117,10 +4129,10 @@
         <v>2</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -4260,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA15">
         <v>0</v>
@@ -4400,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -4540,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -4683,10 +4695,10 @@
         <v>0</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -4748,13 +4760,13 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
+        <v>112</v>
+      </c>
+      <c r="S19" t="s">
         <v>95</v>
       </c>
-      <c r="S19" t="s">
-        <v>96</v>
-      </c>
       <c r="T19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -4766,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y19">
         <v>19</v>
@@ -4823,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -4835,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="BC19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.15">
@@ -4843,7 +4855,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4918,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -4960,18 +4972,161 @@
         <v>0</v>
       </c>
       <c r="AY20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>109</v>
       </c>
-      <c r="AZ20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0.9</v>
+      </c>
+      <c r="N21">
+        <v>0.1</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>-1</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>3</v>
+      </c>
+      <c r="AN21">
+        <v>-1</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ21">
+        <v>2</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1754,6 +1754,14 @@
   </si>
   <si>
     <t>8.5,9,9.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,150,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC21"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5130,6 +5138,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0.9</v>
+      </c>
+      <c r="N22">
+        <v>0.1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U22">
+        <v>3.85</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>75</v>
+      </c>
+      <c r="Y22">
+        <v>23</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1319,7 +1319,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 //1:混沌间隙的目标和自己的瞬移</t>
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //熊战士的怒意狂击</t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1762,6 +1762,34 @@
   </si>
   <si>
     <t>50,100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14,21,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2135,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC22"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2153,6 +2181,7 @@
     <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="8.125" customWidth="1"/>
+    <col min="55" max="55" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.3">
@@ -5275,6 +5304,426 @@
         <v>0</v>
       </c>
       <c r="BC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>0.9</v>
+      </c>
+      <c r="N23">
+        <v>0.1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>116</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>-1</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>24</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0.9</v>
+      </c>
+      <c r="N24">
+        <v>0.1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>25</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0.9</v>
+      </c>
+      <c r="N25">
+        <v>0.1</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>121</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+      <c r="AA25">
+        <v>26</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>2</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -120,7 +120,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-目标单位关系 1:友方  2:敌方 3:友方敌方都行</t>
+目标单位关系 1:友方  2:敌方 3:友方敌方都行包括自己  4:友方敌方都行不包括自己</t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1790,6 +1790,26 @@
   </si>
   <si>
     <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,16,14,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2163,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2511,7 +2531,7 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5724,6 +5744,286 @@
         <v>0</v>
       </c>
       <c r="BC25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0.9</v>
+      </c>
+      <c r="N26">
+        <v>0.5</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>-1</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>27</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0.9</v>
+      </c>
+      <c r="N27">
+        <v>0.3</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>8</v>
+      </c>
+      <c r="S27" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1006</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1810,6 +1810,10 @@
   </si>
   <si>
     <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6027,6 +6031,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0.9</v>
+      </c>
+      <c r="N28">
+        <v>0.1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>-1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>29</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,6 +1814,10 @@
   </si>
   <si>
     <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2187,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC28"/>
+  <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6171,6 +6175,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0.9</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>8</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>-1</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>31</v>
+      </c>
+      <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,6 +1818,46 @@
   </si>
   <si>
     <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,175,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BC33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6315,6 +6355,572 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0.9</v>
+      </c>
+      <c r="N30">
+        <v>0.4</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>130</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>-1</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>32</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>3</v>
+      </c>
+      <c r="AN30">
+        <v>-1</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0.9</v>
+      </c>
+      <c r="N31">
+        <v>0.2</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+      <c r="S31">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>-1</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y31">
+        <v>35</v>
+      </c>
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>0.9</v>
+      </c>
+      <c r="N32">
+        <v>0.1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>-1</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>0.17</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1007</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>0.9</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>137</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>-1</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1008</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1137,7 +1137,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置</t>
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
         </r>
       </text>
     </comment>
@@ -1319,7 +1319,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //熊战士的怒意狂击</t>
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 </t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1564,300 +1564,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.6,0.7,0.8,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveSpeedSize</t>
+  </si>
+  <si>
+    <t>ForceMoveLevel</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareDodge</t>
+  </si>
+  <si>
+    <t>PhysicalAmaorCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveBuff</t>
+  </si>
+  <si>
+    <t>AddHPType</t>
+  </si>
+  <si>
+    <t>AddHPValue</t>
+  </si>
+  <si>
+    <t>AddHPTarget</t>
+  </si>
+  <si>
+    <t>虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastTargetRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,35,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetHalo</t>
+  </si>
+  <si>
+    <t>1004,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,165,195,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,120,130,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,3,3.5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.6,1.8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,200,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5,9,9.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14,21,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,16,14,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,175,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25,3.5,3.75,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,22,18,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ForceMoveTime</t>
-  </si>
-  <si>
-    <t>0.6,0.7,0.8,0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveSpeedSize</t>
-  </si>
-  <si>
-    <t>ForceMoveLevel</t>
-  </si>
-  <si>
-    <t>小黑光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCareDodge</t>
-  </si>
-  <si>
-    <t>PhysicalAmaorCV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveType</t>
-  </si>
-  <si>
-    <t>虚空的位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,18,16,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveBuff</t>
-  </si>
-  <si>
-    <t>AddHPType</t>
-  </si>
-  <si>
-    <t>AddHPValue</t>
-  </si>
-  <si>
-    <t>AddHPTarget</t>
-  </si>
-  <si>
-    <t>虚空的时间膨胀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,34,28,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastTargetRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,35,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.14,0.18,0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,130,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetHalo</t>
-  </si>
-  <si>
-    <t>1004,1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,165,195,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,120,130,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>ExceptionParam</t>
-  </si>
-  <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5,3,3.5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.6,1.8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalHurtAddHP</t>
-  </si>
-  <si>
-    <t>MagicHurtAddHP</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25,0.4,0.55,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,200,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5,9,9.5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,14,21,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,16,14,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,40,35,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,85,100,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,120,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,175,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40:1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1923,10 +1953,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2231,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC33"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BD43" sqref="BD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2266,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2347,13 +2378,13 @@
         <v>36</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>39</v>
@@ -2383,40 +2414,40 @@
         <v>50</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="BB1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.15">
@@ -2547,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2687,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -2830,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2967,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -3110,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -3253,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -3390,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -3534,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -3674,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -3799,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS11">
         <v>6</v>
@@ -3817,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -3837,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3957,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -3977,7 +4008,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4049,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -4094,10 +4125,10 @@
         <v>0</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -4114,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4162,7 +4193,7 @@
         <v>6.75</v>
       </c>
       <c r="S14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -4234,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -4254,7 +4285,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4302,7 +4333,7 @@
         <v>7.75</v>
       </c>
       <c r="S15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -4377,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA15">
         <v>0</v>
@@ -4397,7 +4428,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4448,7 +4479,7 @@
         <v>0.1</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="U16">
         <v>-1</v>
@@ -4472,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE16">
         <v>2</v>
@@ -4517,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA16">
         <v>0</v>
@@ -4537,7 +4568,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4585,7 +4616,7 @@
         <v>6</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -4600,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z17">
         <v>2</v>
@@ -4621,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -4657,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -4677,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4728,10 +4759,10 @@
         <v>7</v>
       </c>
       <c r="S18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U18">
         <v>-1</v>
@@ -4743,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y18">
         <v>18</v>
@@ -4800,10 +4831,10 @@
         <v>0</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA18">
         <v>0</v>
@@ -4820,7 +4851,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4865,13 +4896,13 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S19" t="s">
+        <v>93</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -4883,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y19">
         <v>19</v>
@@ -4940,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA19">
         <v>0</v>
@@ -4952,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="BC19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.15">
@@ -4960,7 +4991,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5035,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -5077,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AZ20" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA20">
         <v>0</v>
@@ -5097,7 +5128,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5160,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -5196,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="AO21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5220,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA21">
         <v>0</v>
@@ -5240,7 +5271,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5291,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U22">
         <v>3.85</v>
@@ -5360,10 +5391,10 @@
         <v>0</v>
       </c>
       <c r="AY22" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ22" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -5380,7 +5411,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -5428,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -5500,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AZ23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA23">
         <v>0</v>
@@ -5520,7 +5551,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5571,7 +5602,7 @@
         <v>0.1</v>
       </c>
       <c r="T24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="U24">
         <v>-1</v>
@@ -5640,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ24" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA24">
         <v>0</v>
@@ -5652,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="BC24" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.15">
@@ -5660,7 +5691,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5708,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -5780,10 +5811,10 @@
         <v>0</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ25" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -5800,7 +5831,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5848,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="S26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -5920,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="AY26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AZ26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA26">
         <v>0</v>
@@ -5940,7 +5971,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5988,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="S27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -6003,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z27">
         <v>2</v>
@@ -6060,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ27" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA27">
         <v>0</v>
@@ -6080,7 +6111,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -6200,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="AY28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ28" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA28">
         <v>0</v>
@@ -6220,7 +6251,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6340,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="AY29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AZ29" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -6360,7 +6391,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6408,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -6423,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -6459,7 +6490,7 @@
         <v>-1</v>
       </c>
       <c r="AO30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -6483,10 +6514,10 @@
         <v>0</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ30" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA30">
         <v>0</v>
@@ -6503,7 +6534,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6569,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Y31">
         <v>35</v>
@@ -6626,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="AY31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AZ31" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BA31">
         <v>0</v>
@@ -6646,7 +6677,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -6766,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AY32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AZ32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA32">
         <v>0</v>
@@ -6786,7 +6817,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6834,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -6849,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z33">
         <v>2</v>
@@ -6906,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA33">
         <v>0</v>
@@ -6919,6 +6950,286 @@
       </c>
       <c r="BC33">
         <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0.9</v>
+      </c>
+      <c r="N34">
+        <v>0.1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="s">
+        <v>138</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+      <c r="S35">
+        <v>11</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>-1</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>90100110120</v>
+      </c>
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>10</v>
+      </c>
+      <c r="AT35">
+        <v>2</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>39</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1888,6 +1888,14 @@
   </si>
   <si>
     <t>40:1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,20,15,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2262,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC35"/>
+  <dimension ref="A1:BC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BD43" sqref="BD43"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7232,6 +7240,146 @@
         <v>145</v>
       </c>
     </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0.9</v>
+      </c>
+      <c r="N36">
+        <v>0.3</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>147</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>-1</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>50</v>
+      </c>
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>41</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1319,7 +1319,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 </t>
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击</t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1896,6 +1896,26 @@
   </si>
   <si>
     <t>25,20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BC38" sqref="BC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7380,6 +7400,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>0.9</v>
+      </c>
+      <c r="N37">
+        <v>0.1</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>-1</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>42</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0.9</v>
+      </c>
+      <c r="N38">
+        <v>0.1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>8</v>
+      </c>
+      <c r="S38" t="s">
+        <v>150</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>-1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -562,7 +562,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能魔法消耗</t>
+//每对一个目标造成伤害后 伤害变化率 1表示没有变化 0.8表示递减20%</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对目标造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+技能魔法消耗</t>
         </r>
       </text>
     </comment>
@@ -614,7 +614,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否瞬间移动到目的地 1:是 2:否</t>
+对目标造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
         </r>
       </text>
     </comment>
@@ -640,7 +640,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+//是否瞬间移动到目的地 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -666,7 +666,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//拥有技能技能时的buff (技能携带的buff)</t>
+//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
         </r>
       </text>
     </comment>
@@ -692,7 +692,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
+//拥有技能技能时的buff (技能携带的buff)</t>
         </r>
       </text>
     </comment>
@@ -707,7 +707,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>//触发几率 0.5表示50%</t>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
         </r>
       </text>
     </comment>
@@ -722,18 +733,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//触发的暴击 倍数 2.5表示2.5倍攻击 1表示正常攻击</t>
+          <t>//触发几率 0.5表示50%</t>
         </r>
       </text>
     </comment>
@@ -759,7 +759,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//无视闪避几率</t>
+//触发的暴击 倍数 2.5表示2.5倍攻击 1表示正常攻击</t>
         </r>
       </text>
     </comment>
@@ -785,7 +785,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理护甲削弱 -7表示本次计算伤害减7点护甲  -10000表示本次计算伤害减光目标的基础护甲</t>
+//无视闪避几率</t>
         </r>
       </text>
     </comment>
@@ -811,7 +811,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对目标造成的halo</t>
+//物理护甲削弱 -7表示本次计算伤害减7点护甲  -10000表示本次计算伤害减光目标的基础护甲</t>
         </r>
       </text>
     </comment>
@@ -837,7 +837,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
+//释放时 对目标造成的halo</t>
         </r>
       </text>
     </comment>
@@ -863,7 +863,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//拥有技能技能时的halo (技能携带的halo)</t>
+//释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
         </r>
       </text>
     </comment>
@@ -889,7 +889,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对自己的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+//拥有技能技能时的halo (技能携带的halo)</t>
         </r>
       </text>
     </comment>
@@ -915,7 +915,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对目标的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+//释放时 对自己的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
         </r>
       </text>
     </comment>
@@ -941,7 +941,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤数量 0表示没有召唤</t>
+//释放时 对目标的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
         </r>
       </text>
     </comment>
@@ -967,7 +967,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位 类型ID 0表示当前召唤者 -1表示目标对象 其他类型id对应其他单位</t>
+//召唤数量 0表示没有召唤</t>
         </r>
       </text>
     </comment>
@@ -993,7 +993,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位携带额外buff</t>
+//召唤出来的单位 类型ID 0表示当前召唤者 -1表示目标对象 其他类型id对应其他单位</t>
         </r>
       </text>
     </comment>
@@ -1019,7 +1019,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位携带额外halo</t>
+//召唤出来的单位携带额外buff</t>
         </r>
       </text>
     </comment>
@@ -1045,7 +1045,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位在目标位置的随机偏移位置</t>
+//召唤出来的单位携带额外halo</t>
         </r>
       </text>
     </comment>
@@ -1053,13 +1053,25 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>//强制移动时间</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位在目标位置的随机偏移位置</t>
         </r>
       </text>
     </comment>
@@ -1067,25 +1079,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//强制移动速度大小</t>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>//强制移动时间</t>
         </r>
       </text>
     </comment>
@@ -1111,7 +1111,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动等级</t>
+//强制移动速度大小</t>
         </r>
       </text>
     </comment>
@@ -1137,7 +1137,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
+//强制移动等级</t>
         </r>
       </text>
     </comment>
@@ -1163,7 +1163,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动时的buff 随着移动结束消失</t>
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
         </r>
       </text>
     </comment>
@@ -1189,7 +1189,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血类型 0:不加 1:以AddHPValue为固定值 2:以AddHPValue为时间 加单位在此时间内受到的伤害值</t>
+//强制移动时的buff 随着移动结束消失</t>
         </r>
       </text>
     </comment>
@@ -1215,7 +1215,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血值</t>
+//加血类型 0:不加 1:以AddHPValue为固定值 2:以AddHPValue为时间 加单位在此时间内受到的伤害值</t>
         </r>
       </text>
     </comment>
@@ -1241,7 +1241,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//加血值</t>
         </r>
       </text>
     </comment>
@@ -1267,7 +1267,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1293,7 +1293,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血的目标 1:表示自己 2:表示目标</t>
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1319,11 +1319,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击</t>
+//加血的目标 1:表示自己 2:表示目标</t>
         </r>
       </text>
     </comment>
     <comment ref="BC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1916,6 +1942,45 @@
   </si>
   <si>
     <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,350,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDoHurtChangeHurtCR</t>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,100,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,50,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BC38" sqref="BC38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2305,13 +2370,13 @@
     <col min="18" max="18" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="12.875" customWidth="1"/>
     <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.125" customWidth="1"/>
-    <col min="55" max="55" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.125" customWidth="1"/>
+    <col min="56" max="56" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2382,103 +2447,106 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2549,30 +2617,30 @@
         <v>25</v>
       </c>
       <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
         <v>30</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
       <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AK2">
+      <c r="AH2">
         <v>0</v>
       </c>
       <c r="AL2">
@@ -2584,7 +2652,7 @@
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AO2">
         <v>0</v>
       </c>
       <c r="AR2">
@@ -2599,29 +2667,32 @@
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AW2">
+      <c r="AV2">
         <v>0</v>
       </c>
       <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2688,31 +2759,31 @@
       <c r="W3">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
         <v>28</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
       <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AK3">
+      <c r="AH3">
         <v>0</v>
       </c>
       <c r="AL3">
@@ -2724,7 +2795,7 @@
       <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AO3">
         <v>0</v>
       </c>
       <c r="AR3">
@@ -2739,29 +2810,32 @@
       <c r="AU3">
         <v>0</v>
       </c>
-      <c r="AW3">
+      <c r="AV3">
         <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
       <c r="BB3">
         <v>0</v>
       </c>
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2829,33 +2903,33 @@
         <v>0</v>
       </c>
       <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>50</v>
       </c>
-      <c r="Z4">
-        <v>2</v>
-      </c>
       <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
         <v>4</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AK4">
+      <c r="AH4">
         <v>0</v>
       </c>
       <c r="AL4">
@@ -2867,7 +2941,7 @@
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="AO4">
         <v>0</v>
       </c>
       <c r="AR4">
@@ -2882,20 +2956,20 @@
       <c r="AU4">
         <v>0</v>
       </c>
-      <c r="AW4">
+      <c r="AV4">
         <v>0</v>
       </c>
       <c r="AX4">
         <v>0</v>
       </c>
-      <c r="AY4" s="2" t="s">
-        <v>94</v>
+      <c r="AY4">
+        <v>0</v>
       </c>
       <c r="AZ4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA4">
-        <v>0</v>
+      <c r="BA4" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -2903,8 +2977,11 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2972,27 +3049,27 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
       </c>
       <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
         <v>0.15</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>38</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AK5">
+      <c r="AH5">
         <v>0</v>
       </c>
       <c r="AL5">
@@ -3004,7 +3081,7 @@
       <c r="AN5">
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="AO5">
         <v>0</v>
       </c>
       <c r="AR5">
@@ -3019,20 +3096,20 @@
       <c r="AU5">
         <v>0</v>
       </c>
-      <c r="AW5">
+      <c r="AV5">
         <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
-      <c r="AY5" s="2" t="s">
-        <v>94</v>
+      <c r="AY5">
+        <v>0</v>
       </c>
       <c r="AZ5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA5">
-        <v>0</v>
+      <c r="BA5" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -3040,8 +3117,11 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3108,38 +3188,38 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
         <v>41</v>
       </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
       <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
         <v>5</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AI6">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1000</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -3147,7 +3227,7 @@
       <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AQ6">
+      <c r="AO6">
         <v>0</v>
       </c>
       <c r="AR6">
@@ -3162,20 +3242,20 @@
       <c r="AU6">
         <v>0</v>
       </c>
-      <c r="AW6">
+      <c r="AV6">
         <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
       </c>
-      <c r="AY6" s="2" t="s">
-        <v>94</v>
+      <c r="AY6">
+        <v>0</v>
       </c>
       <c r="AZ6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA6">
-        <v>0</v>
+      <c r="BA6" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -3183,8 +3263,11 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3252,47 +3335,47 @@
         <v>0</v>
       </c>
       <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
         <v>140</v>
       </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
+      <c r="AA7">
+        <v>2</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AK7">
+      <c r="AH7">
         <v>0</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>4</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>52</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>1001</v>
       </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
       <c r="AR7">
         <v>0</v>
       </c>
@@ -3305,20 +3388,20 @@
       <c r="AU7">
         <v>0</v>
       </c>
-      <c r="AW7">
+      <c r="AV7">
         <v>0</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
-      <c r="AY7" s="2" t="s">
-        <v>94</v>
+      <c r="AY7">
+        <v>0</v>
       </c>
       <c r="AZ7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
+      <c r="BA7" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB7">
         <v>0</v>
@@ -3326,8 +3409,11 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3395,27 +3481,27 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
         <v>54</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1.8</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AK8">
+      <c r="AH8">
         <v>0</v>
       </c>
       <c r="AL8">
@@ -3427,7 +3513,7 @@
       <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AO8">
         <v>0</v>
       </c>
       <c r="AR8">
@@ -3442,20 +3528,20 @@
       <c r="AU8">
         <v>0</v>
       </c>
-      <c r="AW8">
+      <c r="AV8">
         <v>0</v>
       </c>
       <c r="AX8">
         <v>0</v>
       </c>
-      <c r="AY8" s="2" t="s">
-        <v>94</v>
+      <c r="AY8">
+        <v>0</v>
       </c>
       <c r="AZ8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA8">
-        <v>0</v>
+      <c r="BA8" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -3463,8 +3549,11 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3531,39 +3620,39 @@
       <c r="W9" s="2">
         <v>1</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9">
-        <v>1</v>
-      </c>
+      <c r="Z9" s="2"/>
       <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
         <v>9</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>1002</v>
       </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -3571,7 +3660,7 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AQ9">
+      <c r="AO9">
         <v>0</v>
       </c>
       <c r="AR9">
@@ -3586,20 +3675,20 @@
       <c r="AU9">
         <v>0</v>
       </c>
-      <c r="AW9">
+      <c r="AV9">
         <v>0</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
-      <c r="AY9" s="2" t="s">
-        <v>94</v>
+      <c r="AY9">
+        <v>0</v>
       </c>
       <c r="AZ9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA9">
-        <v>0</v>
+      <c r="BA9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -3607,8 +3696,11 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3676,30 +3768,30 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
         <v>12</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>10</v>
       </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
+      <c r="AA10">
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AK10">
+      <c r="AH10">
         <v>0</v>
       </c>
       <c r="AL10">
@@ -3711,7 +3803,7 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AQ10">
+      <c r="AO10">
         <v>0</v>
       </c>
       <c r="AR10">
@@ -3726,20 +3818,20 @@
       <c r="AU10">
         <v>0</v>
       </c>
-      <c r="AW10">
+      <c r="AV10">
         <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
       </c>
-      <c r="AY10" s="2" t="s">
-        <v>94</v>
+      <c r="AY10">
+        <v>0</v>
       </c>
       <c r="AZ10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA10">
-        <v>0</v>
+      <c r="BA10" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB10">
         <v>0</v>
@@ -3747,8 +3839,11 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3810,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -3819,30 +3914,30 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
         <v>20</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>11</v>
       </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
+      <c r="AA11">
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AK11">
+      <c r="AH11">
         <v>0</v>
       </c>
       <c r="AL11">
@@ -3854,35 +3949,35 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="s">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
         <v>61</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>6</v>
       </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
       <c r="AU11">
         <v>1</v>
       </c>
-      <c r="AW11">
-        <v>0</v>
+      <c r="AV11">
+        <v>1</v>
       </c>
       <c r="AX11">
         <v>0</v>
       </c>
-      <c r="AY11" s="2" t="s">
-        <v>94</v>
+      <c r="AY11">
+        <v>0</v>
       </c>
       <c r="AZ11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
+      <c r="BA11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB11">
         <v>0</v>
@@ -3890,8 +3985,11 @@
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3959,32 +4057,32 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
       </c>
       <c r="AD12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AJ12">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
         <v>1003</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
         <v>0</v>
       </c>
@@ -3994,7 +4092,7 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AQ12">
+      <c r="AO12">
         <v>0</v>
       </c>
       <c r="AR12">
@@ -4009,20 +4107,20 @@
       <c r="AU12">
         <v>0</v>
       </c>
-      <c r="AW12">
+      <c r="AV12">
         <v>0</v>
       </c>
       <c r="AX12">
         <v>0</v>
       </c>
-      <c r="AY12" s="2" t="s">
-        <v>94</v>
+      <c r="AY12">
+        <v>0</v>
       </c>
       <c r="AZ12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA12">
-        <v>0</v>
+      <c r="BA12" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB12">
         <v>0</v>
@@ -4030,8 +4128,11 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4099,29 +4200,29 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
         <v>68</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
       <c r="AF13">
         <v>1</v>
       </c>
       <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
         <v>-10000</v>
       </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
       <c r="AL13">
         <v>0</v>
       </c>
@@ -4131,7 +4232,7 @@
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AQ13">
+      <c r="AO13">
         <v>0</v>
       </c>
       <c r="AR13">
@@ -4146,20 +4247,20 @@
       <c r="AU13">
         <v>0</v>
       </c>
-      <c r="AW13">
+      <c r="AV13">
         <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
       </c>
-      <c r="AY13" s="2" t="s">
-        <v>94</v>
+      <c r="AY13">
+        <v>0</v>
       </c>
       <c r="AZ13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA13">
-        <v>0</v>
+      <c r="BA13" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB13">
         <v>0</v>
@@ -4167,8 +4268,11 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4236,27 +4340,27 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
         <v>40</v>
       </c>
-      <c r="Z14">
-        <v>2</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
+      <c r="AA14">
+        <v>2</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AK14">
+      <c r="AH14">
         <v>0</v>
       </c>
       <c r="AL14">
@@ -4268,47 +4372,50 @@
       <c r="AN14">
         <v>0</v>
       </c>
-      <c r="AQ14">
+      <c r="AO14">
         <v>0</v>
       </c>
       <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>0.5</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>10</v>
       </c>
-      <c r="AT14">
-        <v>2</v>
-      </c>
       <c r="AU14">
         <v>2</v>
       </c>
       <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
         <v>13</v>
       </c>
-      <c r="AW14">
-        <v>2</v>
-      </c>
       <c r="AX14">
         <v>2</v>
       </c>
-      <c r="AY14" s="2" t="s">
-        <v>94</v>
+      <c r="AY14">
+        <v>2</v>
       </c>
       <c r="AZ14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA14">
-        <v>1</v>
+      <c r="BA14" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4376,33 +4483,33 @@
         <v>0</v>
       </c>
       <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
         <v>75</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>14</v>
       </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
       <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
         <v>14</v>
       </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AK15">
+      <c r="AH15">
         <v>0</v>
       </c>
       <c r="AL15">
@@ -4414,7 +4521,7 @@
       <c r="AN15">
         <v>0</v>
       </c>
-      <c r="AQ15">
+      <c r="AO15">
         <v>0</v>
       </c>
       <c r="AR15">
@@ -4429,20 +4536,20 @@
       <c r="AU15">
         <v>0</v>
       </c>
-      <c r="AW15">
+      <c r="AV15">
         <v>0</v>
       </c>
       <c r="AX15">
         <v>0</v>
       </c>
-      <c r="AY15" s="2" t="s">
-        <v>94</v>
+      <c r="AY15">
+        <v>0</v>
       </c>
       <c r="AZ15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
+      <c r="BA15" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB15">
         <v>0</v>
@@ -4450,8 +4557,11 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4519,30 +4629,30 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>15</v>
       </c>
-      <c r="Z16">
-        <v>2</v>
-      </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
         <v>80</v>
       </c>
-      <c r="AE16">
-        <v>2</v>
-      </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AK16">
+      <c r="AH16">
         <v>0</v>
       </c>
       <c r="AL16">
@@ -4554,7 +4664,7 @@
       <c r="AN16">
         <v>0</v>
       </c>
-      <c r="AQ16">
+      <c r="AO16">
         <v>0</v>
       </c>
       <c r="AR16">
@@ -4569,20 +4679,20 @@
       <c r="AU16">
         <v>0</v>
       </c>
-      <c r="AW16">
+      <c r="AV16">
         <v>0</v>
       </c>
       <c r="AX16">
         <v>0</v>
       </c>
-      <c r="AY16" s="2" t="s">
-        <v>94</v>
+      <c r="AY16">
+        <v>0</v>
       </c>
       <c r="AZ16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
+      <c r="BA16" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB16">
         <v>0</v>
@@ -4590,8 +4700,11 @@
       <c r="BC16">
         <v>0</v>
       </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4658,33 +4771,33 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Z17">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
+      <c r="AA17">
+        <v>2</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17">
         <v>0</v>
       </c>
@@ -4694,7 +4807,7 @@
       <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AQ17">
+      <c r="AO17">
         <v>0</v>
       </c>
       <c r="AR17">
@@ -4709,20 +4822,20 @@
       <c r="AU17">
         <v>0</v>
       </c>
-      <c r="AW17">
+      <c r="AV17">
         <v>0</v>
       </c>
       <c r="AX17">
         <v>0</v>
       </c>
-      <c r="AY17" s="2" t="s">
-        <v>94</v>
+      <c r="AY17">
+        <v>0</v>
       </c>
       <c r="AZ17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA17">
-        <v>0</v>
+      <c r="BA17" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB17">
         <v>0</v>
@@ -4730,8 +4843,11 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4801,31 +4917,31 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>18</v>
       </c>
-      <c r="Z18">
-        <v>2</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
+      <c r="AA18">
+        <v>2</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
       </c>
-      <c r="AK18">
+      <c r="AH18">
         <v>0</v>
       </c>
       <c r="AL18">
@@ -4837,7 +4953,7 @@
       <c r="AN18">
         <v>0</v>
       </c>
-      <c r="AQ18">
+      <c r="AO18">
         <v>0</v>
       </c>
       <c r="AR18">
@@ -4852,20 +4968,20 @@
       <c r="AU18">
         <v>0</v>
       </c>
-      <c r="AW18">
+      <c r="AV18">
         <v>0</v>
       </c>
       <c r="AX18">
         <v>0</v>
       </c>
-      <c r="AY18" s="2" t="s">
-        <v>94</v>
+      <c r="AY18">
+        <v>0</v>
       </c>
       <c r="AZ18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA18">
-        <v>0</v>
+      <c r="BA18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB18">
         <v>0</v>
@@ -4873,8 +4989,11 @@
       <c r="BC18">
         <v>0</v>
       </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4941,31 +5060,31 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>19</v>
       </c>
-      <c r="Z19">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
+      <c r="AA19">
+        <v>2</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AK19">
+      <c r="AH19">
         <v>0</v>
       </c>
       <c r="AL19">
@@ -4977,7 +5096,7 @@
       <c r="AN19">
         <v>0</v>
       </c>
-      <c r="AQ19">
+      <c r="AO19">
         <v>0</v>
       </c>
       <c r="AR19">
@@ -4992,29 +5111,32 @@
       <c r="AU19">
         <v>0</v>
       </c>
-      <c r="AW19">
+      <c r="AV19">
         <v>0</v>
       </c>
       <c r="AX19">
         <v>0</v>
       </c>
-      <c r="AY19" s="2" t="s">
-        <v>94</v>
+      <c r="AY19">
+        <v>0</v>
       </c>
       <c r="AZ19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA19">
-        <v>0</v>
+      <c r="BA19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB19">
-        <v>1</v>
-      </c>
-      <c r="BC19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5082,27 +5204,27 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
       </c>
       <c r="AD20">
         <v>1</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="s">
         <v>99</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AK20">
+      <c r="AH20">
         <v>0</v>
       </c>
       <c r="AL20">
@@ -5114,7 +5236,7 @@
       <c r="AN20">
         <v>0</v>
       </c>
-      <c r="AQ20">
+      <c r="AO20">
         <v>0</v>
       </c>
       <c r="AR20">
@@ -5129,29 +5251,32 @@
       <c r="AU20">
         <v>0</v>
       </c>
-      <c r="AW20">
+      <c r="AV20">
         <v>0</v>
       </c>
       <c r="AX20">
         <v>0</v>
       </c>
-      <c r="AY20" s="2" t="s">
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AZ20" s="2" t="s">
+      <c r="BA20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
       <c r="BB20">
         <v>0</v>
       </c>
       <c r="BC20">
         <v>0</v>
       </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5218,50 +5343,50 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
       <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>20</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AK21">
-        <v>1</v>
+      <c r="AH21">
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
         <v>3</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-1</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>109</v>
       </c>
-      <c r="AQ21">
-        <v>2</v>
-      </c>
       <c r="AR21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -5272,20 +5397,20 @@
       <c r="AU21">
         <v>0</v>
       </c>
-      <c r="AW21">
+      <c r="AV21">
         <v>0</v>
       </c>
       <c r="AX21">
         <v>0</v>
       </c>
-      <c r="AY21" s="2" t="s">
-        <v>94</v>
+      <c r="AY21">
+        <v>0</v>
       </c>
       <c r="AZ21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA21">
-        <v>0</v>
+      <c r="BA21" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB21">
         <v>0</v>
@@ -5293,8 +5418,11 @@
       <c r="BC21">
         <v>0</v>
       </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5362,30 +5490,30 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
         <v>75</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>23</v>
       </c>
-      <c r="Z22">
-        <v>2</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
+      <c r="AA22">
+        <v>2</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
-      <c r="AK22">
+      <c r="AH22">
         <v>0</v>
       </c>
       <c r="AL22">
@@ -5397,7 +5525,7 @@
       <c r="AN22">
         <v>0</v>
       </c>
-      <c r="AQ22">
+      <c r="AO22">
         <v>0</v>
       </c>
       <c r="AR22">
@@ -5412,20 +5540,20 @@
       <c r="AU22">
         <v>0</v>
       </c>
-      <c r="AW22">
+      <c r="AV22">
         <v>0</v>
       </c>
       <c r="AX22">
         <v>0</v>
       </c>
-      <c r="AY22" s="2" t="s">
-        <v>94</v>
+      <c r="AY22">
+        <v>0</v>
       </c>
       <c r="AZ22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA22">
-        <v>0</v>
+      <c r="BA22" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB22">
         <v>0</v>
@@ -5433,8 +5561,11 @@
       <c r="BC22">
         <v>0</v>
       </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5502,30 +5633,30 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
         <v>75</v>
       </c>
-      <c r="Z23">
-        <v>2</v>
-      </c>
       <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
         <v>24</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AK23">
+      <c r="AH23">
         <v>0</v>
       </c>
       <c r="AL23">
@@ -5537,7 +5668,7 @@
       <c r="AN23">
         <v>0</v>
       </c>
-      <c r="AQ23">
+      <c r="AO23">
         <v>0</v>
       </c>
       <c r="AR23">
@@ -5552,29 +5683,32 @@
       <c r="AU23">
         <v>0</v>
       </c>
-      <c r="AW23">
+      <c r="AV23">
         <v>0</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
-      <c r="AY23" s="2" t="s">
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AZ23" s="2" t="s">
+      <c r="BA23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
       <c r="BB23">
         <v>0</v>
       </c>
       <c r="BC23">
         <v>0</v>
       </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5642,16 +5776,16 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>25</v>
       </c>
-      <c r="Z24">
-        <v>2</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
+      <c r="AA24">
+        <v>2</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5660,12 +5794,12 @@
         <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
-      <c r="AK24">
+      <c r="AH24">
         <v>0</v>
       </c>
       <c r="AL24">
@@ -5677,7 +5811,7 @@
       <c r="AN24">
         <v>0</v>
       </c>
-      <c r="AQ24">
+      <c r="AO24">
         <v>0</v>
       </c>
       <c r="AR24">
@@ -5692,29 +5826,32 @@
       <c r="AU24">
         <v>0</v>
       </c>
-      <c r="AW24">
+      <c r="AV24">
         <v>0</v>
       </c>
       <c r="AX24">
         <v>0</v>
       </c>
-      <c r="AY24" s="2" t="s">
-        <v>94</v>
+      <c r="AY24">
+        <v>0</v>
       </c>
       <c r="AZ24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
+      <c r="BA24" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB24">
-        <v>2</v>
-      </c>
-      <c r="BC24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5782,34 +5919,34 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
       </c>
       <c r="AA25">
+        <v>2</v>
+      </c>
+      <c r="AB25">
         <v>26</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
-      <c r="AK25">
-        <v>2</v>
+      <c r="AH25">
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -5817,7 +5954,7 @@
       <c r="AN25">
         <v>0</v>
       </c>
-      <c r="AQ25">
+      <c r="AO25">
         <v>0</v>
       </c>
       <c r="AR25">
@@ -5832,20 +5969,20 @@
       <c r="AU25">
         <v>0</v>
       </c>
-      <c r="AW25">
+      <c r="AV25">
         <v>0</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
-      <c r="AY25" s="2" t="s">
-        <v>94</v>
+      <c r="AY25">
+        <v>0</v>
       </c>
       <c r="AZ25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA25">
-        <v>0</v>
+      <c r="BA25" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -5853,8 +5990,11 @@
       <c r="BC25">
         <v>0</v>
       </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5922,30 +6062,30 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>27</v>
       </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
+      <c r="AA26">
+        <v>2</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
-      <c r="AK26">
+      <c r="AH26">
         <v>0</v>
       </c>
       <c r="AL26">
@@ -5957,7 +6097,7 @@
       <c r="AN26">
         <v>0</v>
       </c>
-      <c r="AQ26">
+      <c r="AO26">
         <v>0</v>
       </c>
       <c r="AR26">
@@ -5972,29 +6112,32 @@
       <c r="AU26">
         <v>0</v>
       </c>
-      <c r="AW26">
+      <c r="AV26">
         <v>0</v>
       </c>
       <c r="AX26">
         <v>0</v>
       </c>
-      <c r="AY26" s="2" t="s">
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AZ26" s="2" t="s">
+      <c r="BA26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
       <c r="BB26">
         <v>0</v>
       </c>
       <c r="BC26">
         <v>0</v>
       </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6061,33 +6204,33 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
         <v>124</v>
       </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
+      <c r="AA27">
+        <v>2</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
         <v>1006</v>
       </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
       <c r="AL27">
         <v>0</v>
       </c>
@@ -6097,7 +6240,7 @@
       <c r="AN27">
         <v>0</v>
       </c>
-      <c r="AQ27">
+      <c r="AO27">
         <v>0</v>
       </c>
       <c r="AR27">
@@ -6112,20 +6255,20 @@
       <c r="AU27">
         <v>0</v>
       </c>
-      <c r="AW27">
+      <c r="AV27">
         <v>0</v>
       </c>
       <c r="AX27">
         <v>0</v>
       </c>
-      <c r="AY27" s="2" t="s">
-        <v>94</v>
+      <c r="AY27">
+        <v>0</v>
       </c>
       <c r="AZ27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA27">
-        <v>0</v>
+      <c r="BA27" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB27">
         <v>0</v>
@@ -6133,8 +6276,11 @@
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6202,30 +6348,30 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
         <v>29</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AK28">
+      <c r="AH28">
         <v>0</v>
       </c>
       <c r="AL28">
@@ -6237,7 +6383,7 @@
       <c r="AN28">
         <v>0</v>
       </c>
-      <c r="AQ28">
+      <c r="AO28">
         <v>0</v>
       </c>
       <c r="AR28">
@@ -6252,20 +6398,20 @@
       <c r="AU28">
         <v>0</v>
       </c>
-      <c r="AW28">
+      <c r="AV28">
         <v>0</v>
       </c>
       <c r="AX28">
         <v>0</v>
       </c>
-      <c r="AY28" s="2" t="s">
-        <v>94</v>
+      <c r="AY28">
+        <v>0</v>
       </c>
       <c r="AZ28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA28">
-        <v>0</v>
+      <c r="BA28" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB28">
         <v>0</v>
@@ -6273,8 +6419,11 @@
       <c r="BC28">
         <v>0</v>
       </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6342,30 +6491,30 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>31</v>
       </c>
-      <c r="Z29">
-        <v>2</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
+      <c r="AA29">
+        <v>2</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
         <v>0</v>
       </c>
-      <c r="AK29">
+      <c r="AH29">
         <v>0</v>
       </c>
       <c r="AL29">
@@ -6377,7 +6526,7 @@
       <c r="AN29">
         <v>0</v>
       </c>
-      <c r="AQ29">
+      <c r="AO29">
         <v>0</v>
       </c>
       <c r="AR29">
@@ -6392,29 +6541,32 @@
       <c r="AU29">
         <v>0</v>
       </c>
-      <c r="AW29">
+      <c r="AV29">
         <v>0</v>
       </c>
       <c r="AX29">
         <v>0</v>
       </c>
-      <c r="AY29" s="2" t="s">
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AZ29" s="2" t="s">
+      <c r="BA29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
       <c r="BB29">
         <v>0</v>
       </c>
       <c r="BC29">
         <v>0</v>
       </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6481,50 +6633,50 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
       <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
         <v>32</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
-      <c r="AK30">
-        <v>1</v>
+      <c r="AH30">
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
         <v>3</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-1</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AP30" t="s">
         <v>130</v>
       </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -6535,20 +6687,20 @@
       <c r="AU30">
         <v>0</v>
       </c>
-      <c r="AW30">
+      <c r="AV30">
         <v>0</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
-      <c r="AY30" s="2" t="s">
-        <v>94</v>
+      <c r="AY30">
+        <v>0</v>
       </c>
       <c r="AZ30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA30">
-        <v>0</v>
+      <c r="BA30" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB30">
         <v>0</v>
@@ -6556,8 +6708,11 @@
       <c r="BC30">
         <v>0</v>
       </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6627,31 +6782,31 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" t="s">
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
         <v>132</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>35</v>
       </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
+      <c r="AA31">
+        <v>2</v>
       </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AK31">
+      <c r="AH31">
         <v>0</v>
       </c>
       <c r="AL31">
@@ -6663,7 +6818,7 @@
       <c r="AN31">
         <v>0</v>
       </c>
-      <c r="AQ31">
+      <c r="AO31">
         <v>0</v>
       </c>
       <c r="AR31">
@@ -6678,29 +6833,32 @@
       <c r="AU31">
         <v>0</v>
       </c>
-      <c r="AW31">
+      <c r="AV31">
         <v>0</v>
       </c>
       <c r="AX31">
         <v>0</v>
       </c>
-      <c r="AY31" s="2" t="s">
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ31" s="2" t="s">
+      <c r="BA31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
       <c r="BB31">
         <v>0</v>
       </c>
       <c r="BC31">
         <v>0</v>
       </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6768,32 +6926,32 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
       </c>
       <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
         <v>0.17</v>
       </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
       </c>
-      <c r="AI32">
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1007</v>
       </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
       <c r="AL32">
         <v>0</v>
       </c>
@@ -6803,7 +6961,7 @@
       <c r="AN32">
         <v>0</v>
       </c>
-      <c r="AQ32">
+      <c r="AO32">
         <v>0</v>
       </c>
       <c r="AR32">
@@ -6818,29 +6976,32 @@
       <c r="AU32">
         <v>0</v>
       </c>
-      <c r="AW32">
+      <c r="AV32">
         <v>0</v>
       </c>
       <c r="AX32">
         <v>0</v>
       </c>
-      <c r="AY32" s="2" t="s">
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ32" s="2" t="s">
+      <c r="BA32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
       <c r="BB32">
         <v>0</v>
       </c>
       <c r="BC32">
         <v>0</v>
       </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6907,35 +7068,35 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
+      <c r="AA33">
+        <v>2</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
-      <c r="AI33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1008</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -6943,7 +7104,7 @@
       <c r="AN33">
         <v>0</v>
       </c>
-      <c r="AQ33">
+      <c r="AO33">
         <v>0</v>
       </c>
       <c r="AR33">
@@ -6958,20 +7119,20 @@
       <c r="AU33">
         <v>0</v>
       </c>
-      <c r="AW33">
+      <c r="AV33">
         <v>0</v>
       </c>
       <c r="AX33">
         <v>0</v>
       </c>
-      <c r="AY33" s="2" t="s">
-        <v>94</v>
+      <c r="AY33">
+        <v>0</v>
       </c>
       <c r="AZ33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
+      <c r="BA33" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -6979,8 +7140,11 @@
       <c r="BC33">
         <v>0</v>
       </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7047,33 +7211,33 @@
       <c r="W34">
         <v>0</v>
       </c>
-      <c r="X34" s="2" t="s">
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Z34">
-        <v>2</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
+      <c r="AA34">
+        <v>2</v>
       </c>
       <c r="AD34">
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
         <v>0</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
       <c r="AL34">
         <v>0</v>
       </c>
@@ -7083,7 +7247,7 @@
       <c r="AN34">
         <v>0</v>
       </c>
-      <c r="AQ34">
+      <c r="AO34">
         <v>0</v>
       </c>
       <c r="AR34">
@@ -7098,20 +7262,20 @@
       <c r="AU34">
         <v>0</v>
       </c>
-      <c r="AW34">
+      <c r="AV34">
         <v>0</v>
       </c>
       <c r="AX34">
         <v>0</v>
       </c>
-      <c r="AY34" s="2" t="s">
-        <v>94</v>
+      <c r="AY34">
+        <v>0</v>
       </c>
       <c r="AZ34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA34">
-        <v>0</v>
+      <c r="BA34" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB34">
         <v>0</v>
@@ -7119,8 +7283,11 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7187,28 +7354,28 @@
       <c r="W35">
         <v>0</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="3">
         <v>90100110120</v>
       </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
+      <c r="AA35">
+        <v>2</v>
       </c>
       <c r="AD35">
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
         <v>0</v>
       </c>
-      <c r="AK35">
+      <c r="AH35">
         <v>0</v>
       </c>
       <c r="AL35">
@@ -7220,47 +7387,50 @@
       <c r="AN35">
         <v>0</v>
       </c>
-      <c r="AQ35">
+      <c r="AO35">
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
         <v>10</v>
       </c>
-      <c r="AT35">
-        <v>2</v>
-      </c>
       <c r="AU35">
+        <v>2</v>
+      </c>
+      <c r="AV35">
         <v>3</v>
       </c>
-      <c r="AV35">
+      <c r="AW35">
         <v>39</v>
       </c>
-      <c r="AW35">
-        <v>0</v>
-      </c>
       <c r="AX35">
         <v>0</v>
       </c>
-      <c r="AY35" s="2" t="s">
-        <v>94</v>
+      <c r="AY35">
+        <v>0</v>
       </c>
       <c r="AZ35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA35">
-        <v>1</v>
+      <c r="BA35" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB35">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7328,30 +7498,30 @@
         <v>0</v>
       </c>
       <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
         <v>50</v>
       </c>
-      <c r="Z36">
-        <v>2</v>
-      </c>
       <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
         <v>41</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
       <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AK36">
+      <c r="AH36">
         <v>0</v>
       </c>
       <c r="AL36">
@@ -7363,7 +7533,7 @@
       <c r="AN36">
         <v>0</v>
       </c>
-      <c r="AQ36">
+      <c r="AO36">
         <v>0</v>
       </c>
       <c r="AR36">
@@ -7378,29 +7548,32 @@
       <c r="AU36">
         <v>0</v>
       </c>
-      <c r="AW36">
+      <c r="AV36">
         <v>0</v>
       </c>
       <c r="AX36">
         <v>0</v>
       </c>
-      <c r="AY36" s="2" t="s">
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AZ36" s="2" t="s">
+      <c r="BA36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
       <c r="BB36">
         <v>0</v>
       </c>
       <c r="BC36">
         <v>0</v>
       </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7468,30 +7641,30 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
         <v>42</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
       <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
       </c>
-      <c r="AK37">
+      <c r="AH37">
         <v>0</v>
       </c>
       <c r="AL37">
@@ -7503,7 +7676,7 @@
       <c r="AN37">
         <v>0</v>
       </c>
-      <c r="AQ37">
+      <c r="AO37">
         <v>0</v>
       </c>
       <c r="AR37">
@@ -7518,20 +7691,20 @@
       <c r="AU37">
         <v>0</v>
       </c>
-      <c r="AW37">
+      <c r="AV37">
         <v>0</v>
       </c>
       <c r="AX37">
         <v>0</v>
       </c>
-      <c r="AY37" s="2" t="s">
-        <v>94</v>
+      <c r="AY37">
+        <v>0</v>
       </c>
       <c r="AZ37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA37">
-        <v>0</v>
+      <c r="BA37" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BB37">
         <v>0</v>
@@ -7539,8 +7712,11 @@
       <c r="BC37">
         <v>0</v>
       </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7610,28 +7786,28 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38" t="s">
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
         <v>151</v>
       </c>
-      <c r="Z38">
-        <v>2</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
+      <c r="AA38">
+        <v>2</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
       </c>
-      <c r="AK38">
+      <c r="AH38">
         <v>0</v>
       </c>
       <c r="AL38">
@@ -7643,7 +7819,7 @@
       <c r="AN38">
         <v>0</v>
       </c>
-      <c r="AQ38">
+      <c r="AO38">
         <v>0</v>
       </c>
       <c r="AR38">
@@ -7658,26 +7834,461 @@
       <c r="AU38">
         <v>0</v>
       </c>
-      <c r="AW38">
+      <c r="AV38">
         <v>0</v>
       </c>
       <c r="AX38">
         <v>0</v>
       </c>
-      <c r="AY38" s="2" t="s">
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ38" s="2" t="s">
+      <c r="BA38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
       <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
         <v>3</v>
       </c>
-      <c r="BC38" t="s">
+      <c r="BD38" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0.9</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>26</v>
+      </c>
+      <c r="S39" t="s">
+        <v>154</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="U39">
+        <v>1.5</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0.8</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0.9</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>159</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>-1</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>50</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>44</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1011</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>0.9</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41" t="s">
+        <v>162</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>-1</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>46</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -406,7 +406,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-施法距离</t>
+//技能初始等级</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能冷却时间</t>
+//技能索引 按升序排列  在屏幕右下角的显示位置</t>
         </r>
       </text>
     </comment>
@@ -458,7 +458,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能伤害</t>
+//技能是否显示 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -484,7 +484,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-伤害范围 小于等于0表示单体</t>
+//技能显示关联id 当自己不显示的时候 显示关联id的技能 0表示没有关联</t>
         </r>
       </text>
     </comment>
@@ -510,7 +510,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//总是造成伤害 1:是 2:否</t>
+施法距离</t>
         </r>
       </text>
     </comment>
@@ -536,7 +536,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
+技能冷却时间</t>
         </r>
       </text>
     </comment>
@@ -562,7 +562,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//每对一个目标造成伤害后 伤害变化率 1表示没有变化 0.8表示递减20%</t>
+技能伤害</t>
         </r>
       </text>
     </comment>
@@ -588,7 +588,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-技能魔法消耗</t>
+伤害范围 小于等于0表示单体</t>
         </r>
       </text>
     </comment>
@@ -614,7 +614,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对目标造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+//总是造成伤害 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -640,7 +640,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否瞬间移动到目的地 1:是 2:否</t>
+附带普通攻击百分比 (0.5 为 50%的普通攻击伤害) 一般为0</t>
         </r>
       </text>
     </comment>
@@ -666,7 +666,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+//每对一个目标造成伤害后 伤害变化率 1表示没有变化 0.8表示递减20%</t>
         </r>
       </text>
     </comment>
@@ -692,7 +692,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//拥有技能技能时的buff (技能携带的buff)</t>
+技能魔法消耗</t>
         </r>
       </text>
     </comment>
@@ -718,7 +718,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
+对目标造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
         </r>
       </text>
     </comment>
@@ -733,7 +733,18 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>//触发几率 0.5表示50%</t>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否瞬间移动到目的地 1:是 2:否 3:移动到技能参数子弹位置</t>
         </r>
       </text>
     </comment>
@@ -759,7 +770,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发的暴击 倍数 2.5表示2.5倍攻击 1表示正常攻击</t>
+//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
         </r>
       </text>
     </comment>
@@ -785,7 +796,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//无视闪避几率</t>
+//拥有技能技能时的buff (技能携带的buff)</t>
         </r>
       </text>
     </comment>
@@ -811,7 +822,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理护甲削弱 -7表示本次计算伤害减7点护甲  -10000表示本次计算伤害减光目标的基础护甲</t>
+//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
         </r>
       </text>
     </comment>
@@ -826,18 +837,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//释放时 对目标造成的halo</t>
+          <t>//触发几率 0.5表示50%</t>
         </r>
       </text>
     </comment>
@@ -863,7 +863,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
+//触发的暴击 倍数 2.5表示2.5倍攻击 1表示正常攻击</t>
         </r>
       </text>
     </comment>
@@ -889,7 +889,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//拥有技能技能时的halo (技能携带的halo)</t>
+//无视闪避几率</t>
         </r>
       </text>
     </comment>
@@ -915,7 +915,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对自己的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+//物理护甲削弱 -7表示本次计算伤害减7点护甲  -10000表示本次计算伤害减光目标的基础护甲</t>
         </r>
       </text>
     </comment>
@@ -941,7 +941,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//释放时 对目标的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
+//释放时 对目标造成的halo</t>
         </r>
       </text>
     </comment>
@@ -967,7 +967,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤数量 0表示没有召唤</t>
+//释放时 对自己造成的halo 比如 1,2 表示对目标造成typeid为 1和2的halo</t>
         </r>
       </text>
     </comment>
@@ -993,7 +993,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位 类型ID 0表示当前召唤者 -1表示目标对象 其他类型id对应其他单位</t>
+//拥有技能技能时的halo (技能携带的halo)</t>
         </r>
       </text>
     </comment>
@@ -1019,7 +1019,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位携带额外buff</t>
+//释放时 对自己的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
         </r>
       </text>
     </comment>
@@ -1045,7 +1045,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位携带额外halo</t>
+//释放时 对目标的驱散等级  能驱散 驱散等级 小于等于该值的buff</t>
         </r>
       </text>
     </comment>
@@ -1071,7 +1071,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//召唤出来的单位在目标位置的随机偏移位置</t>
+//召唤数量 0表示没有召唤</t>
         </r>
       </text>
     </comment>
@@ -1079,13 +1079,25 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>//强制移动时间</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//召唤出来的单位 类型ID 0表示当前召唤者 -1表示目标对象 其他类型id对应其他单位</t>
         </r>
       </text>
     </comment>
@@ -1111,7 +1123,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动速度大小</t>
+//召唤出来的单位携带额外buff</t>
         </r>
       </text>
     </comment>
@@ -1137,7 +1149,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动等级</t>
+//召唤出来的单位携带额外halo</t>
         </r>
       </text>
     </comment>
@@ -1163,7 +1175,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
+//召唤出来的单位在目标位置的随机偏移位置</t>
         </r>
       </text>
     </comment>
@@ -1171,25 +1183,13 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//强制移动时的buff 随着移动结束消失</t>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>//强制移动时间</t>
         </r>
       </text>
     </comment>
@@ -1215,7 +1215,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血类型 0:不加 1:以AddHPValue为固定值 2:以AddHPValue为时间 加单位在此时间内受到的伤害值</t>
+//强制移动速度大小</t>
         </r>
       </text>
     </comment>
@@ -1241,7 +1241,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血值</t>
+//强制移动等级</t>
         </r>
       </text>
     </comment>
@@ -1267,7 +1267,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
         </r>
       </text>
     </comment>
@@ -1293,7 +1293,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//强制移动时的buff 随着移动结束消失</t>
         </r>
       </text>
     </comment>
@@ -1319,7 +1319,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血的目标 1:表示自己 2:表示目标</t>
+//加血类型 0:不加 1:以AddHPValue为固定值 2:以AddHPValue为时间 加单位在此时间内受到的伤害值</t>
         </r>
       </text>
     </comment>
@@ -1345,11 +1345,116 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击</t>
+//加血值</t>
         </r>
       </text>
     </comment>
     <comment ref="BD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//加血的目标 1:表示自己 2:表示目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击
+4 帕克幻象发球 5帕克发球传送</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,6 +2086,58 @@
   </si>
   <si>
     <t>70,50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,140,210,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,100,120,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>VisibleRelationSkillID</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,110,120,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,160,220,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2355,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC50" sqref="BC50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,16 +2524,16 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
     <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="18" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.125" customWidth="1"/>
-    <col min="56" max="56" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.125" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,124 +2586,136 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2598,61 +2767,67 @@
       <c r="Q2">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>6</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>65</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>-1</v>
       </c>
-      <c r="V2">
-        <v>2</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
         <v>30</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
@@ -2661,38 +2836,44 @@
       <c r="AS2">
         <v>0</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
       <c r="AV2">
         <v>0</v>
       </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
       <c r="AX2">
         <v>0</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2742,60 +2923,66 @@
         <v>4</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>-1</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
         <v>28</v>
       </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
@@ -2804,38 +2991,44 @@
       <c r="AS3">
         <v>0</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
       <c r="AV3">
         <v>0</v>
       </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BE3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2887,61 +3080,67 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>33</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>-1</v>
       </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
         <v>50</v>
       </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
         <v>4</v>
       </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
@@ -2950,38 +3149,44 @@
       <c r="AS4">
         <v>0</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
       <c r="AX4">
         <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BE4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3034,54 +3239,60 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>0.1</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>-1</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
+      <c r="Z5">
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
       </c>
       <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>0.15</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>38</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
+      <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
@@ -3090,38 +3301,44 @@
       <c r="AS5">
         <v>0</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
         <v>0</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3173,61 +3390,67 @@
       <c r="R6">
         <v>0</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
         <v>42</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>-1</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
         <v>41</v>
       </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
         <v>5</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>1000</v>
       </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
@@ -3236,38 +3459,44 @@
       <c r="AS6">
         <v>0</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
       <c r="AX6">
         <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3317,103 +3546,115 @@
         <v>4</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>6</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>-1</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
         <v>140</v>
       </c>
-      <c r="AA7">
-        <v>2</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
         <v>4</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AT7" t="s">
         <v>52</v>
       </c>
-      <c r="AQ7">
+      <c r="AU7">
         <v>1001</v>
       </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
       <c r="AV7">
         <v>0</v>
       </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3466,54 +3707,60 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0.1</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>-1</v>
       </c>
-      <c r="V8">
-        <v>2</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
+      <c r="Z8">
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
         <v>54</v>
       </c>
-      <c r="AF8">
+      <c r="AJ8">
         <v>1.8</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
+      <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
@@ -3522,38 +3769,44 @@
       <c r="AS8">
         <v>0</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
       <c r="AV8">
         <v>0</v>
       </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
       <c r="AX8">
         <v>0</v>
       </c>
       <c r="AY8">
         <v>0</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3603,64 +3856,70 @@
         <v>3</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>4.25</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>-1</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
+      <c r="AD9" s="2"/>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
         <v>9</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>1002</v>
       </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
@@ -3669,38 +3928,44 @@
       <c r="AS9">
         <v>0</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
         <v>0</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BE9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3753,57 +4018,63 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0.1</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>-1</v>
       </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
         <v>12</v>
       </c>
-      <c r="Z10">
+      <c r="AD10">
         <v>10</v>
       </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
       <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>0</v>
       </c>
       <c r="AR10">
@@ -3812,38 +4083,44 @@
       <c r="AS10">
         <v>0</v>
       </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
       <c r="AX10">
         <v>0</v>
       </c>
       <c r="AY10">
         <v>0</v>
       </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA10" s="2" t="s">
+      <c r="BE10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3896,100 +4173,112 @@
         <v>4</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>8</v>
       </c>
-      <c r="S11">
+      <c r="W11">
         <v>5</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>2.5</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
         <v>20</v>
       </c>
-      <c r="Z11">
+      <c r="AD11">
         <v>11</v>
       </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
         <v>0</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
         <v>61</v>
       </c>
-      <c r="AT11">
+      <c r="AX11">
         <v>6</v>
       </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
       <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA11" s="2" t="s">
+      <c r="BE11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4042,57 +4331,63 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>0.1</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>-1</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+      <c r="Z12">
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>2</v>
-      </c>
-      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
       <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>1003</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
         <v>0</v>
       </c>
       <c r="AR12">
@@ -4101,38 +4396,44 @@
       <c r="AS12">
         <v>0</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
       <c r="AX12">
         <v>0</v>
       </c>
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA12" s="2" t="s">
+      <c r="BE12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4185,54 +4486,60 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>0.1</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>120</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>-1</v>
       </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
+      <c r="Z13">
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
         <v>68</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
-      <c r="AH13">
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
         <v>-10000</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
@@ -4241,38 +4548,44 @@
       <c r="AS13">
         <v>0</v>
       </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
       <c r="AV13">
         <v>0</v>
       </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
       <c r="AX13">
         <v>0</v>
       </c>
       <c r="AY13">
         <v>0</v>
       </c>
-      <c r="AZ13" s="2" t="s">
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA13" s="2" t="s">
+      <c r="BE13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4322,100 +4635,112 @@
         <v>4</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>6.75</v>
       </c>
-      <c r="S14" t="s">
+      <c r="W14" t="s">
         <v>70</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>-1</v>
       </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14">
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
         <v>40</v>
       </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
       <c r="AL14">
         <v>0</v>
       </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
         <v>0.5</v>
       </c>
-      <c r="AT14">
+      <c r="AX14">
         <v>10</v>
       </c>
-      <c r="AU14">
-        <v>2</v>
-      </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
+      <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
         <v>13</v>
       </c>
-      <c r="AX14">
-        <v>2</v>
-      </c>
-      <c r="AY14">
-        <v>2</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA14" s="2" t="s">
+      <c r="BE14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB14">
-        <v>1</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4465,63 +4790,69 @@
         <v>4</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>7.75</v>
       </c>
-      <c r="S15" t="s">
+      <c r="W15" t="s">
         <v>76</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <v>-1</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
         <v>75</v>
       </c>
-      <c r="Z15">
+      <c r="AD15">
         <v>14</v>
       </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
         <v>14</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
       <c r="AH15">
         <v>0</v>
       </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
       <c r="AL15">
         <v>0</v>
       </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
         <v>0</v>
       </c>
       <c r="AR15">
@@ -4530,38 +4861,44 @@
       <c r="AS15">
         <v>0</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
       <c r="AX15">
         <v>0</v>
       </c>
       <c r="AY15">
         <v>0</v>
       </c>
-      <c r="AZ15" s="2" t="s">
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA15" s="2" t="s">
+      <c r="BE15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4614,57 +4951,63 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>0.1</v>
       </c>
-      <c r="T16" t="s">
+      <c r="X16" t="s">
         <v>79</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>-1</v>
       </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>15</v>
       </c>
-      <c r="AA16">
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AE16">
+        <v>2</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="s">
         <v>80</v>
       </c>
-      <c r="AF16">
-        <v>2</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
@@ -4673,38 +5016,44 @@
       <c r="AS16">
         <v>0</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
       <c r="AV16">
         <v>0</v>
       </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
       <c r="AX16">
         <v>0</v>
       </c>
       <c r="AY16">
         <v>0</v>
       </c>
-      <c r="AZ16" s="2" t="s">
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA16" s="2" t="s">
+      <c r="BE16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4754,60 +5103,66 @@
         <v>3</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>6</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>4.25</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AA17">
-        <v>2</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
@@ -4816,38 +5171,44 @@
       <c r="AS17">
         <v>0</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
       <c r="AX17">
         <v>0</v>
       </c>
       <c r="AY17">
         <v>0</v>
       </c>
-      <c r="AZ17" s="2" t="s">
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA17" s="2" t="s">
+      <c r="BE17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4900,60 +5261,66 @@
         <v>4</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>7</v>
       </c>
-      <c r="S18" t="s">
+      <c r="W18" t="s">
         <v>87</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>-1</v>
       </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Z18">
+      <c r="AD18">
         <v>18</v>
       </c>
-      <c r="AA18">
-        <v>2</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
       <c r="AL18">
         <v>0</v>
       </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
@@ -4962,38 +5329,44 @@
       <c r="AS18">
         <v>0</v>
       </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
       <c r="AX18">
         <v>0</v>
       </c>
       <c r="AY18">
         <v>0</v>
       </c>
-      <c r="AZ18" s="2" t="s">
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA18" s="2" t="s">
+      <c r="BE18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5042,61 +5415,67 @@
       <c r="Q19">
         <v>4</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
         <v>110</v>
       </c>
-      <c r="S19" t="s">
+      <c r="W19" t="s">
         <v>93</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="U19">
+      <c r="Y19">
         <v>-1</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Z19">
+      <c r="AD19">
         <v>19</v>
       </c>
-      <c r="AA19">
-        <v>2</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
       <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
       <c r="AL19">
         <v>0</v>
       </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
         <v>0</v>
       </c>
       <c r="AR19">
@@ -5105,38 +5484,44 @@
       <c r="AS19">
         <v>0</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
       <c r="AV19">
         <v>0</v>
       </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
       <c r="AX19">
         <v>0</v>
       </c>
       <c r="AY19">
         <v>0</v>
       </c>
-      <c r="AZ19" s="2" t="s">
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA19" s="2" t="s">
+      <c r="BE19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-      <c r="BD19" t="s">
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5189,54 +5574,60 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>4</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>-1</v>
       </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
+      <c r="Z20">
+        <v>2</v>
       </c>
       <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>99</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
+      <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
         <v>0</v>
       </c>
       <c r="AR20">
@@ -5245,38 +5636,44 @@
       <c r="AS20">
         <v>0</v>
       </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
       <c r="AV20">
         <v>0</v>
       </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
       <c r="AX20">
         <v>0</v>
       </c>
       <c r="AY20">
         <v>0</v>
       </c>
-      <c r="AZ20" s="2" t="s">
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="BA20" s="2" t="s">
+      <c r="BE20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>0</v>
-      </c>
-      <c r="BD20">
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5329,75 +5726,78 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>14</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <v>-1</v>
       </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
         <v>20</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
         <v>0</v>
       </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
       <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>3</v>
-      </c>
-      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
         <v>-1</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AT21" t="s">
         <v>109</v>
       </c>
-      <c r="AR21">
-        <v>2</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
       <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
         <v>0</v>
       </c>
       <c r="AX21">
@@ -5406,23 +5806,32 @@
       <c r="AY21">
         <v>0</v>
       </c>
-      <c r="AZ21" s="2" t="s">
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA21" s="2" t="s">
+      <c r="BE21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>0</v>
-      </c>
-      <c r="BD21">
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5475,57 +5884,63 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>5</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="X22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>3.85</v>
       </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
+      <c r="Z22">
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
         <v>75</v>
       </c>
-      <c r="Z22">
+      <c r="AD22">
         <v>23</v>
       </c>
-      <c r="AA22">
-        <v>2</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
       <c r="AL22">
         <v>0</v>
       </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
         <v>0</v>
       </c>
       <c r="AR22">
@@ -5534,38 +5949,44 @@
       <c r="AS22">
         <v>0</v>
       </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
       <c r="AV22">
         <v>0</v>
       </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
       <c r="AX22">
         <v>0</v>
       </c>
       <c r="AY22">
         <v>0</v>
       </c>
-      <c r="AZ22" s="2" t="s">
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA22" s="2" t="s">
+      <c r="BE22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>0</v>
-      </c>
-      <c r="BD22">
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5617,58 +6038,64 @@
       <c r="R23">
         <v>0</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>114</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>-1</v>
       </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
         <v>75</v>
       </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23">
+      <c r="AE23">
+        <v>2</v>
+      </c>
+      <c r="AF23">
         <v>24</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
         <v>0</v>
       </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
       <c r="AL23">
         <v>0</v>
       </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
-      <c r="AO23">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
         <v>0</v>
       </c>
       <c r="AR23">
@@ -5677,38 +6104,44 @@
       <c r="AS23">
         <v>0</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
       <c r="AV23">
         <v>0</v>
       </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
         <v>0</v>
       </c>
-      <c r="AZ23" s="2" t="s">
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA23" s="2" t="s">
+      <c r="BE23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>0</v>
-      </c>
-      <c r="BD23">
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5761,57 +6194,63 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>0.1</v>
       </c>
-      <c r="T24" t="s">
+      <c r="X24" t="s">
         <v>116</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>-1</v>
       </c>
-      <c r="V24">
-        <v>2</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>25</v>
       </c>
-      <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
       <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
         <v>0</v>
       </c>
       <c r="AR24">
@@ -5820,38 +6259,44 @@
       <c r="AS24">
         <v>0</v>
       </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
       <c r="AV24">
         <v>0</v>
       </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
       <c r="AX24">
         <v>0</v>
       </c>
       <c r="AY24">
         <v>0</v>
       </c>
-      <c r="AZ24" s="2" t="s">
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA24" s="2" t="s">
+      <c r="BE24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>2</v>
-      </c>
-      <c r="BD24" s="2" t="s">
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>2</v>
+      </c>
+      <c r="BH24" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5903,58 +6348,64 @@
       <c r="R25">
         <v>0</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>119</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>-1</v>
       </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
+      <c r="Z25">
+        <v>2</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>2</v>
+      </c>
+      <c r="AF25">
         <v>26</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
       <c r="AL25">
-        <v>2</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
         <v>0</v>
       </c>
       <c r="AR25">
@@ -5963,38 +6414,44 @@
       <c r="AS25">
         <v>0</v>
       </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
       <c r="AV25">
         <v>0</v>
       </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
         <v>0</v>
       </c>
-      <c r="AZ25" s="2" t="s">
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA25" s="2" t="s">
+      <c r="BE25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>0</v>
-      </c>
-      <c r="BD25">
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6044,60 +6501,66 @@
         <v>4</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>10</v>
       </c>
-      <c r="S26" t="s">
+      <c r="W26" t="s">
         <v>121</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>-1</v>
       </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>27</v>
       </c>
-      <c r="AA26">
-        <v>2</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH26">
         <v>0</v>
       </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
       <c r="AL26">
         <v>0</v>
       </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
         <v>0</v>
       </c>
       <c r="AR26">
@@ -6106,38 +6569,44 @@
       <c r="AS26">
         <v>0</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
       <c r="AV26">
         <v>0</v>
       </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
       <c r="AX26">
         <v>0</v>
       </c>
       <c r="AY26">
         <v>0</v>
       </c>
-      <c r="AZ26" s="2" t="s">
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA26" s="2" t="s">
+      <c r="BE26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6187,60 +6656,66 @@
         <v>4</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
         <v>8</v>
       </c>
-      <c r="S27" t="s">
+      <c r="W27" t="s">
         <v>123</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>6</v>
       </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="Z27">
+        <v>2</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="s">
         <v>124</v>
       </c>
-      <c r="AA27">
-        <v>2</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
       <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
         <v>1006</v>
       </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
         <v>0</v>
       </c>
       <c r="AR27">
@@ -6249,38 +6724,44 @@
       <c r="AS27">
         <v>0</v>
       </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
       <c r="AV27">
         <v>0</v>
       </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
       <c r="AX27">
         <v>0</v>
       </c>
       <c r="AY27">
         <v>0</v>
       </c>
-      <c r="AZ27" s="2" t="s">
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA27" s="2" t="s">
+      <c r="BE27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6333,57 +6814,63 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>-1</v>
       </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
+      <c r="Z28">
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
       </c>
       <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>2</v>
+      </c>
+      <c r="AG28">
         <v>29</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
       <c r="AH28">
         <v>0</v>
       </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
       <c r="AL28">
         <v>0</v>
       </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
         <v>0</v>
       </c>
       <c r="AR28">
@@ -6392,38 +6879,44 @@
       <c r="AS28">
         <v>0</v>
       </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
       <c r="AV28">
         <v>0</v>
       </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
       <c r="AX28">
         <v>0</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
-      <c r="AZ28" s="2" t="s">
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA28" s="2" t="s">
+      <c r="BE28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB28">
-        <v>0</v>
-      </c>
-      <c r="BC28">
-        <v>0</v>
-      </c>
-      <c r="BD28">
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6473,60 +6966,66 @@
         <v>4</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>8</v>
       </c>
-      <c r="S29">
+      <c r="W29">
         <v>10</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>-1</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
+        <v>2</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>31</v>
       </c>
-      <c r="AA29">
-        <v>2</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
       <c r="AL29">
         <v>0</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
         <v>0</v>
       </c>
       <c r="AR29">
@@ -6535,38 +7034,44 @@
       <c r="AS29">
         <v>0</v>
       </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
       <c r="AV29">
         <v>0</v>
       </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
       <c r="AX29">
         <v>0</v>
       </c>
       <c r="AY29">
         <v>0</v>
       </c>
-      <c r="AZ29" s="2" t="s">
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA29" s="2" t="s">
+      <c r="BE29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB29">
-        <v>0</v>
-      </c>
-      <c r="BC29">
-        <v>0</v>
-      </c>
-      <c r="BD29">
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6618,76 +7123,79 @@
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>128</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <v>-1</v>
       </c>
-      <c r="V30">
-        <v>2</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
         <v>32</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
       <c r="AH30">
         <v>0</v>
       </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
       <c r="AL30">
-        <v>1</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>3</v>
-      </c>
-      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
+      <c r="AS30">
         <v>-1</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AT30" t="s">
         <v>130</v>
       </c>
-      <c r="AR30">
-        <v>2</v>
-      </c>
-      <c r="AS30">
-        <v>0</v>
-      </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
       <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
         <v>0</v>
       </c>
       <c r="AX30">
@@ -6696,23 +7204,32 @@
       <c r="AY30">
         <v>0</v>
       </c>
-      <c r="AZ30" s="2" t="s">
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA30" s="2" t="s">
+      <c r="BE30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB30">
-        <v>0</v>
-      </c>
-      <c r="BC30">
-        <v>0</v>
-      </c>
-      <c r="BD30">
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6765,60 +7282,66 @@
         <v>4</v>
       </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>8</v>
       </c>
-      <c r="S31">
+      <c r="W31">
         <v>14</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>-1</v>
       </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="Z31">
+        <v>2</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
         <v>132</v>
       </c>
-      <c r="Z31">
+      <c r="AD31">
         <v>35</v>
       </c>
-      <c r="AA31">
-        <v>2</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
       <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
       <c r="AL31">
         <v>0</v>
       </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
         <v>0</v>
       </c>
       <c r="AR31">
@@ -6827,38 +7350,44 @@
       <c r="AS31">
         <v>0</v>
       </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
       <c r="AV31">
         <v>0</v>
       </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
       <c r="AX31">
         <v>0</v>
       </c>
       <c r="AY31">
         <v>0</v>
       </c>
-      <c r="AZ31" s="2" t="s">
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA31" s="2" t="s">
+      <c r="BE31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6911,57 +7440,63 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>-1</v>
       </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
+      <c r="Z32">
+        <v>2</v>
       </c>
       <c r="AA32">
-        <v>2</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
       </c>
       <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
         <v>0.17</v>
       </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
       <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
         <v>1007</v>
       </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
         <v>0</v>
       </c>
       <c r="AR32">
@@ -6970,38 +7505,44 @@
       <c r="AS32">
         <v>0</v>
       </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
       <c r="AV32">
         <v>0</v>
       </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
       <c r="AX32">
         <v>0</v>
       </c>
       <c r="AY32">
         <v>0</v>
       </c>
-      <c r="AZ32" s="2" t="s">
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA32" s="2" t="s">
+      <c r="BE32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7053,58 +7594,64 @@
       <c r="R33">
         <v>0</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>135</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>-1</v>
       </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="2" t="s">
+      <c r="Z33">
+        <v>2</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AA33">
-        <v>2</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
       <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
         <v>1008</v>
       </c>
-      <c r="AL33">
-        <v>1</v>
-      </c>
-      <c r="AM33">
-        <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
         <v>0</v>
       </c>
       <c r="AR33">
@@ -7113,38 +7660,44 @@
       <c r="AS33">
         <v>0</v>
       </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
       <c r="AV33">
         <v>0</v>
       </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
       <c r="AX33">
         <v>0</v>
       </c>
       <c r="AY33">
         <v>0</v>
       </c>
-      <c r="AZ33" s="2" t="s">
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA33" s="2" t="s">
+      <c r="BE33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB33">
-        <v>0</v>
-      </c>
-      <c r="BC33">
-        <v>0</v>
-      </c>
-      <c r="BD33">
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7194,60 +7747,66 @@
         <v>4</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
         <v>4</v>
       </c>
-      <c r="S34" t="s">
+      <c r="W34" t="s">
         <v>139</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
         <v>138</v>
       </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="2" t="s">
+      <c r="Z34">
+        <v>2</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AA34">
-        <v>2</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
       <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AI34" s="2" t="s">
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
         <v>0</v>
       </c>
       <c r="AR34">
@@ -7256,38 +7815,44 @@
       <c r="AS34">
         <v>0</v>
       </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
       <c r="AV34">
         <v>0</v>
       </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
       <c r="AX34">
         <v>0</v>
       </c>
       <c r="AY34">
         <v>0</v>
       </c>
-      <c r="AZ34" s="2" t="s">
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA34" s="2" t="s">
+      <c r="BE34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>0</v>
-      </c>
-      <c r="BD34">
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7337,100 +7902,112 @@
         <v>4</v>
       </c>
       <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>12</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>11</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>-1</v>
       </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="3">
         <v>90100110120</v>
       </c>
-      <c r="AA35">
-        <v>2</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
       <c r="AL35">
         <v>0</v>
       </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
         <v>0</v>
       </c>
       <c r="AR35">
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
-      </c>
-      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
         <v>10</v>
       </c>
-      <c r="AU35">
-        <v>2</v>
-      </c>
-      <c r="AV35">
-        <v>3</v>
-      </c>
-      <c r="AW35">
+      <c r="AY35">
+        <v>2</v>
+      </c>
+      <c r="AZ35">
+        <v>3</v>
+      </c>
+      <c r="BA35">
         <v>39</v>
       </c>
-      <c r="AX35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="2" t="s">
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA35" s="2" t="s">
+      <c r="BE35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB35">
-        <v>1</v>
-      </c>
-      <c r="BC35">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="s">
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -7482,58 +8059,64 @@
       <c r="R36">
         <v>0</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
         <v>147</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <v>-1</v>
       </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
+      <c r="Z36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
         <v>50</v>
       </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
         <v>41</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
       <c r="AH36">
         <v>0</v>
       </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
       <c r="AL36">
         <v>0</v>
       </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
@@ -7542,38 +8125,44 @@
       <c r="AS36">
         <v>0</v>
       </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
       <c r="AV36">
         <v>0</v>
       </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
       <c r="AX36">
         <v>0</v>
       </c>
       <c r="AY36">
         <v>0</v>
       </c>
-      <c r="AZ36" s="2" t="s">
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA36" s="2" t="s">
+      <c r="BE36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -7626,57 +8215,63 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>-1</v>
       </c>
-      <c r="V37">
-        <v>2</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
+      <c r="Z37">
+        <v>2</v>
       </c>
       <c r="AA37">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
       </c>
       <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>2</v>
+      </c>
+      <c r="AG37">
         <v>42</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
       <c r="AH37">
         <v>0</v>
       </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
       <c r="AL37">
         <v>0</v>
       </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
@@ -7685,38 +8280,44 @@
       <c r="AS37">
         <v>0</v>
       </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
       <c r="AV37">
         <v>0</v>
       </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
       <c r="AX37">
         <v>0</v>
       </c>
       <c r="AY37">
         <v>0</v>
       </c>
-      <c r="AZ37" s="2" t="s">
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA37" s="2" t="s">
+      <c r="BE37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB37">
-        <v>0</v>
-      </c>
-      <c r="BC37">
-        <v>0</v>
-      </c>
-      <c r="BD37">
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -7769,57 +8370,63 @@
         <v>4</v>
       </c>
       <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
         <v>8</v>
       </c>
-      <c r="S38" t="s">
+      <c r="W38" t="s">
         <v>150</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <v>-1</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="s">
+      <c r="Z38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="s">
         <v>151</v>
       </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38">
         <v>0</v>
       </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
       <c r="AL38">
         <v>0</v>
       </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AO38">
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
         <v>0</v>
       </c>
       <c r="AR38">
@@ -7828,38 +8435,44 @@
       <c r="AS38">
         <v>0</v>
       </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
-        <v>0</v>
-      </c>
       <c r="AV38">
         <v>0</v>
       </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
       <c r="AX38">
         <v>0</v>
       </c>
       <c r="AY38">
         <v>0</v>
       </c>
-      <c r="AZ38" s="2" t="s">
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BA38" s="2" t="s">
+      <c r="BE38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BB38">
-        <v>0</v>
-      </c>
-      <c r="BC38">
-        <v>3</v>
-      </c>
-      <c r="BD38" t="s">
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>3</v>
+      </c>
+      <c r="BH38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -7912,57 +8525,63 @@
         <v>4</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>26</v>
       </c>
-      <c r="S39" t="s">
+      <c r="W39" t="s">
         <v>154</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="X39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="U39">
+      <c r="Y39">
         <v>1.5</v>
       </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
         <v>0.8</v>
       </c>
-      <c r="Y39" s="2" t="s">
+      <c r="AC39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA39">
-        <v>2</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39">
         <v>0</v>
       </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
       <c r="AL39">
         <v>0</v>
       </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
         <v>0</v>
       </c>
       <c r="AR39">
@@ -7971,38 +8590,44 @@
       <c r="AS39">
         <v>0</v>
       </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
       <c r="AV39">
         <v>0</v>
       </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
       <c r="AX39">
         <v>0</v>
       </c>
       <c r="AY39">
         <v>0</v>
       </c>
-      <c r="AZ39" s="2" t="s">
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BA39" s="2" t="s">
+      <c r="BE39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB39">
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <v>0</v>
-      </c>
-      <c r="BD39">
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8054,61 +8679,67 @@
       <c r="R40">
         <v>0</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
         <v>159</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <v>-1</v>
       </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
+      <c r="Z40">
+        <v>2</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
         <v>50</v>
       </c>
-      <c r="AA40">
-        <v>2</v>
-      </c>
-      <c r="AB40">
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AF40">
         <v>44</v>
       </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
       <c r="AH40">
         <v>0</v>
       </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
         <v>1011</v>
       </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AO40">
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
         <v>0</v>
       </c>
       <c r="AR40">
@@ -8117,38 +8748,44 @@
       <c r="AS40">
         <v>0</v>
       </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
       <c r="AV40">
         <v>0</v>
       </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
       <c r="AX40">
         <v>0</v>
       </c>
       <c r="AY40">
         <v>0</v>
       </c>
-      <c r="AZ40" s="2" t="s">
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA40" s="2" t="s">
+      <c r="BE40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB40">
-        <v>0</v>
-      </c>
-      <c r="BC40">
-        <v>0</v>
-      </c>
-      <c r="BD40">
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8198,60 +8835,66 @@
         <v>3</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
         <v>10</v>
       </c>
-      <c r="S41" t="s">
+      <c r="W41" t="s">
         <v>162</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <v>-1</v>
       </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="2" t="s">
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="AA41">
-        <v>2</v>
-      </c>
-      <c r="AB41">
+      <c r="AE41">
+        <v>2</v>
+      </c>
+      <c r="AF41">
         <v>46</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
       <c r="AH41">
         <v>0</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
       <c r="AL41">
         <v>0</v>
       </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
@@ -8260,40 +8903,664 @@
       <c r="AS41">
         <v>0</v>
       </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
       <c r="AV41">
         <v>0</v>
       </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
       <c r="AX41">
         <v>0</v>
       </c>
       <c r="AY41">
         <v>0</v>
       </c>
-      <c r="AZ41" s="2" t="s">
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BA41" s="2" t="s">
+      <c r="BE41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
-      <c r="BC41">
-        <v>0</v>
-      </c>
-      <c r="BD41">
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>0.9</v>
+      </c>
+      <c r="N42">
+        <v>0.1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>42</v>
+      </c>
+      <c r="V42">
+        <v>19.5</v>
+      </c>
+      <c r="W42" t="s">
+        <v>164</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y42">
+        <v>2.5</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>4</v>
+      </c>
+      <c r="BH42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>0.9</v>
+      </c>
+      <c r="N43">
+        <v>0.1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>41</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0.9</v>
+      </c>
+      <c r="N44">
+        <v>0.1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>4</v>
+      </c>
+      <c r="W44" t="s">
+        <v>173</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y44">
+        <v>4</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD44">
+        <v>47</v>
+      </c>
+      <c r="AE44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0.9</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>6</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>2</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>2</v>
+      </c>
+      <c r="AF45">
+        <v>48</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1485,7 +1485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="181">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2138,6 +2138,22 @@
   </si>
   <si>
     <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2512,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH45"/>
+  <dimension ref="A1:BH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC50" sqref="BC50"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9557,6 +9573,162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0.9</v>
+      </c>
+      <c r="N46">
+        <v>0.1</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>6</v>
+      </c>
+      <c r="W46" t="s">
+        <v>179</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>4</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE46">
+        <v>2</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="2"/>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1450,7 +1450,7 @@
           </rPr>
           <t xml:space="preserve">
 //特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击
-4 帕克幻象发球 5帕克发球传送</t>
+4 帕克幻象发球 5帕克发球传送 6 影魔影牙伤害叠加</t>
         </r>
       </text>
     </comment>
@@ -1485,7 +1485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="187">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2154,6 +2154,30 @@
   </si>
   <si>
     <t>49,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,10 +2552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH46"/>
+  <dimension ref="A1:BH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD46" sqref="AD46"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO55" sqref="AO55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2549,7 +2574,7 @@
     <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9727,6 +9752,477 @@
       </c>
       <c r="BH46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0.9</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y47">
+        <v>3</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD47">
+        <v>52</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>1012</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>6</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0.9</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>4.5</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD48">
+        <v>52</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AG48">
+        <v>53</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>6</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0.9</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>4</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>7</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y49">
+        <v>3</v>
+      </c>
+      <c r="Z49">
+        <v>2</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD49">
+        <v>52</v>
+      </c>
+      <c r="AE49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>6</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2511,6 +2511,22 @@
   </si>
   <si>
     <t>UseToHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2885,11 +2901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ55"/>
+  <dimension ref="A1:BQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA61" sqref="AA61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12656,6 +12672,185 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>0.9</v>
+      </c>
+      <c r="O56">
+        <v>0.1</v>
+      </c>
+      <c r="P56">
+        <v>10</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>2</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>12</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>4.5</v>
+      </c>
+      <c r="AD56">
+        <v>2</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI56">
+        <v>2</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX56">
+        <v>10</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1745,7 +1745,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2568,6 +2568,30 @@
   </si>
   <si>
     <t>30,60,90,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,225,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,485,650</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2942,11 +2966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR57"/>
+  <dimension ref="A1:BR59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH60" sqref="BH60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13236,6 +13260,370 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>0.9</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>4</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>-1</v>
+      </c>
+      <c r="Y58">
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>-1</v>
+      </c>
+      <c r="AE58">
+        <v>2</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>30</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>2</v>
+      </c>
+      <c r="AL58">
+        <v>65</v>
+      </c>
+      <c r="AM58">
+        <v>64</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>10</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BO58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+      <c r="L59">
+        <v>20</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0.67</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>10</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>6</v>
+      </c>
+      <c r="T59">
+        <v>3</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD59">
+        <v>-1</v>
+      </c>
+      <c r="AE59">
+        <v>2</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI59">
+        <v>66</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>2</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>10</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -926,7 +926,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
+//目标强制攻击施法者 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -952,7 +952,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//拥有技能技能时的buff (技能携带的buff)</t>
+//对自己造成的buff 比如 1,2 表示对目标造成typeid为 1和2的buff</t>
         </r>
       </text>
     </comment>
@@ -978,7 +978,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
+//拥有技能技能时的buff (技能携带的buff)</t>
         </r>
       </text>
     </comment>
@@ -993,11 +993,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//触发时间 0:表示不触发 1:攻击时 2:被攻击时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>//触发几率 0.5表示50%</t>
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1127,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1153,7 +1179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1179,7 +1205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1205,7 +1231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1283,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1335,7 +1361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1413,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1439,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1479,7 +1505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1531,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1583,7 +1609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1609,7 +1635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1635,7 +1661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1661,7 +1687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1687,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1710,11 +1736,11 @@
           </rPr>
           <t xml:space="preserve">
 //特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击
-4 帕克幻象发球 5帕克发球传送 6 影魔影牙伤害叠加</t>
+4 帕克幻象发球 5帕克发球传送 6 影魔影牙伤害叠加 7 斧王淘汰</t>
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1745,7 +1771,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="240">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2431,6 +2457,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>50,60,70,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2592,6 +2622,53 @@
   </si>
   <si>
     <t>320,485,650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestForceAttackSrc</t>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,90,10,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45,0.4,0.35,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,100,140,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,120,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71:250:9,71:325:9,71:400:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,65,55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2966,11 +3043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR59"/>
+  <dimension ref="A1:BS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2983,13 +3060,13 @@
     <col min="28" max="28" width="12.875" customWidth="1"/>
     <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.125" customWidth="1"/>
-    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.125" customWidth="1"/>
+    <col min="71" max="71" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3006,16 +3083,16 @@
         <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -3039,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -3060,10 +3137,10 @@
         <v>167</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>168</v>
@@ -3099,109 +3176,112 @@
         <v>27</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3313,30 +3393,30 @@
       <c r="AK2">
         <v>2</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
+      <c r="AL2">
+        <v>2</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
         <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
-      <c r="AY2">
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
         <v>10</v>
       </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
       <c r="BA2">
         <v>0</v>
       </c>
@@ -3346,7 +3426,7 @@
       <c r="BC2">
         <v>0</v>
       </c>
-      <c r="BF2">
+      <c r="BD2">
         <v>0</v>
       </c>
       <c r="BG2">
@@ -3361,29 +3441,32 @@
       <c r="BJ2">
         <v>0</v>
       </c>
-      <c r="BL2">
+      <c r="BK2">
         <v>0</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
       <c r="BQ2">
         <v>0</v>
       </c>
       <c r="BR2">
         <v>0</v>
       </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3492,30 +3575,30 @@
       <c r="AL3">
         <v>2</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
+      <c r="AM3">
+        <v>2</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
         <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>10</v>
       </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
       <c r="BA3">
         <v>0</v>
       </c>
@@ -3525,7 +3608,7 @@
       <c r="BC3">
         <v>0</v>
       </c>
-      <c r="BF3">
+      <c r="BD3">
         <v>0</v>
       </c>
       <c r="BG3">
@@ -3540,29 +3623,32 @@
       <c r="BJ3">
         <v>0</v>
       </c>
-      <c r="BL3">
+      <c r="BK3">
         <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
       <c r="BQ3">
         <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
       </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:71" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3669,35 +3755,35 @@
         <v>2</v>
       </c>
       <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
         <v>4</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3</v>
       </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
         <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
-      <c r="AY4">
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>10</v>
       </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
       <c r="BA4">
         <v>0</v>
       </c>
@@ -3707,7 +3793,7 @@
       <c r="BC4">
         <v>0</v>
       </c>
-      <c r="BF4">
+      <c r="BD4">
         <v>0</v>
       </c>
       <c r="BG4">
@@ -3722,20 +3808,20 @@
       <c r="BJ4">
         <v>0</v>
       </c>
-      <c r="BL4">
+      <c r="BK4">
         <v>0</v>
       </c>
       <c r="BM4">
         <v>0</v>
       </c>
-      <c r="BN4" s="2" t="s">
-        <v>92</v>
+      <c r="BN4">
+        <v>0</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP4">
-        <v>0</v>
+      <c r="BP4" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ4">
         <v>0</v>
@@ -3743,8 +3829,11 @@
       <c r="BR4">
         <v>0</v>
       </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3850,30 +3939,30 @@
       <c r="AK5">
         <v>2</v>
       </c>
-      <c r="AN5">
-        <v>1</v>
+      <c r="AL5">
+        <v>2</v>
       </c>
       <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>0.15</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>36</v>
       </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
+      <c r="AR5">
         <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
-      <c r="AY5">
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>10</v>
       </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
       <c r="BA5">
         <v>0</v>
       </c>
@@ -3883,7 +3972,7 @@
       <c r="BC5">
         <v>0</v>
       </c>
-      <c r="BF5">
+      <c r="BD5">
         <v>0</v>
       </c>
       <c r="BG5">
@@ -3898,20 +3987,20 @@
       <c r="BJ5">
         <v>0</v>
       </c>
-      <c r="BL5">
+      <c r="BK5">
         <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
       </c>
-      <c r="BN5" s="2" t="s">
-        <v>92</v>
+      <c r="BN5">
+        <v>0</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP5">
-        <v>0</v>
+      <c r="BP5" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -3919,8 +4008,11 @@
       <c r="BR5">
         <v>0</v>
       </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4027,37 +4119,37 @@
         <v>2</v>
       </c>
       <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
         <v>5</v>
       </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
         <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AV6">
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>1000</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>10</v>
       </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -4065,7 +4157,7 @@
       <c r="BC6">
         <v>0</v>
       </c>
-      <c r="BF6">
+      <c r="BD6">
         <v>0</v>
       </c>
       <c r="BG6">
@@ -4080,20 +4172,20 @@
       <c r="BJ6">
         <v>0</v>
       </c>
-      <c r="BL6">
+      <c r="BK6">
         <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
       </c>
-      <c r="BN6" s="2" t="s">
-        <v>92</v>
+      <c r="BN6">
+        <v>0</v>
       </c>
       <c r="BO6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP6">
-        <v>0</v>
+      <c r="BP6" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ6">
         <v>0</v>
@@ -4101,8 +4193,11 @@
       <c r="BR6">
         <v>0</v>
       </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4208,48 +4303,48 @@
       <c r="AK7">
         <v>2</v>
       </c>
-      <c r="AN7">
-        <v>0</v>
+      <c r="AL7">
+        <v>2</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
         <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AY7">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>10</v>
       </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
         <v>4</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>50</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>1001</v>
       </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
       <c r="BG7">
         <v>0</v>
       </c>
@@ -4262,20 +4357,20 @@
       <c r="BJ7">
         <v>0</v>
       </c>
-      <c r="BL7">
+      <c r="BK7">
         <v>0</v>
       </c>
       <c r="BM7">
         <v>0</v>
       </c>
-      <c r="BN7" s="2" t="s">
-        <v>92</v>
+      <c r="BN7">
+        <v>0</v>
       </c>
       <c r="BO7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP7">
-        <v>0</v>
+      <c r="BP7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ7">
         <v>0</v>
@@ -4283,8 +4378,11 @@
       <c r="BR7">
         <v>0</v>
       </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4390,30 +4488,30 @@
       <c r="AK8">
         <v>2</v>
       </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AL8">
+        <v>2</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="s">
         <v>52</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>1.8</v>
       </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
+      <c r="AR8">
         <v>0</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
-      <c r="AY8">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>10</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
       <c r="BA8">
         <v>0</v>
       </c>
@@ -4423,7 +4521,7 @@
       <c r="BC8">
         <v>0</v>
       </c>
-      <c r="BF8">
+      <c r="BD8">
         <v>0</v>
       </c>
       <c r="BG8">
@@ -4438,20 +4536,20 @@
       <c r="BJ8">
         <v>0</v>
       </c>
-      <c r="BL8">
+      <c r="BK8">
         <v>0</v>
       </c>
       <c r="BM8">
         <v>0</v>
       </c>
-      <c r="BN8" s="2" t="s">
-        <v>92</v>
+      <c r="BN8">
+        <v>0</v>
       </c>
       <c r="BO8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP8">
-        <v>0</v>
+      <c r="BP8" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ8">
         <v>0</v>
@@ -4459,8 +4557,11 @@
       <c r="BR8">
         <v>0</v>
       </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4568,37 +4669,37 @@
         <v>2</v>
       </c>
       <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
         <v>9</v>
       </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
         <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
       </c>
-      <c r="AV9">
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>1002</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>10</v>
       </c>
-      <c r="AZ9">
-        <v>1</v>
-      </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9">
         <v>0</v>
@@ -4606,7 +4707,7 @@
       <c r="BC9">
         <v>0</v>
       </c>
-      <c r="BF9">
+      <c r="BD9">
         <v>0</v>
       </c>
       <c r="BG9">
@@ -4621,20 +4722,20 @@
       <c r="BJ9">
         <v>0</v>
       </c>
-      <c r="BL9">
+      <c r="BK9">
         <v>0</v>
       </c>
       <c r="BM9">
         <v>0</v>
       </c>
-      <c r="BN9" s="2" t="s">
-        <v>92</v>
+      <c r="BN9">
+        <v>0</v>
       </c>
       <c r="BO9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP9">
-        <v>0</v>
+      <c r="BP9" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ9">
         <v>0</v>
@@ -4642,8 +4743,11 @@
       <c r="BR9">
         <v>0</v>
       </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4752,30 +4856,30 @@
       <c r="AK10">
         <v>2</v>
       </c>
-      <c r="AN10">
-        <v>1</v>
+      <c r="AL10">
+        <v>2</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
         <v>0</v>
       </c>
       <c r="AT10">
         <v>0</v>
       </c>
-      <c r="AY10">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>10</v>
       </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
       <c r="BA10">
         <v>0</v>
       </c>
@@ -4785,7 +4889,7 @@
       <c r="BC10">
         <v>0</v>
       </c>
-      <c r="BF10">
+      <c r="BD10">
         <v>0</v>
       </c>
       <c r="BG10">
@@ -4800,20 +4904,20 @@
       <c r="BJ10">
         <v>0</v>
       </c>
-      <c r="BL10">
+      <c r="BK10">
         <v>0</v>
       </c>
       <c r="BM10">
         <v>0</v>
       </c>
-      <c r="BN10" s="2" t="s">
-        <v>92</v>
+      <c r="BN10">
+        <v>0</v>
       </c>
       <c r="BO10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP10">
-        <v>0</v>
+      <c r="BP10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ10">
         <v>0</v>
@@ -4821,8 +4925,11 @@
       <c r="BR10">
         <v>0</v>
       </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4934,30 +5041,30 @@
       <c r="AK11">
         <v>2</v>
       </c>
-      <c r="AN11">
-        <v>0</v>
+      <c r="AL11">
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
         <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
       </c>
-      <c r="AY11">
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
         <v>10</v>
       </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
       <c r="BA11">
         <v>0</v>
       </c>
@@ -4967,35 +5074,35 @@
       <c r="BC11">
         <v>0</v>
       </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="s">
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="s">
         <v>59</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <v>6</v>
       </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
       <c r="BJ11">
         <v>1</v>
       </c>
-      <c r="BL11">
-        <v>0</v>
+      <c r="BK11">
+        <v>1</v>
       </c>
       <c r="BM11">
         <v>0</v>
       </c>
-      <c r="BN11" s="2" t="s">
-        <v>92</v>
+      <c r="BN11">
+        <v>0</v>
       </c>
       <c r="BO11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP11">
-        <v>0</v>
+      <c r="BP11" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ11">
         <v>0</v>
@@ -5003,8 +5110,11 @@
       <c r="BR11">
         <v>0</v>
       </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5110,33 +5220,33 @@
       <c r="AK12">
         <v>2</v>
       </c>
-      <c r="AN12">
-        <v>0</v>
+      <c r="AL12">
+        <v>2</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
         <v>0</v>
       </c>
       <c r="AT12">
         <v>0</v>
       </c>
-      <c r="AW12">
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>1003</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>10</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
       <c r="BA12">
         <v>0</v>
       </c>
@@ -5146,7 +5256,7 @@
       <c r="BC12">
         <v>0</v>
       </c>
-      <c r="BF12">
+      <c r="BD12">
         <v>0</v>
       </c>
       <c r="BG12">
@@ -5161,20 +5271,20 @@
       <c r="BJ12">
         <v>0</v>
       </c>
-      <c r="BL12">
+      <c r="BK12">
         <v>0</v>
       </c>
       <c r="BM12">
         <v>0</v>
       </c>
-      <c r="BN12" s="2" t="s">
-        <v>92</v>
+      <c r="BN12">
+        <v>0</v>
       </c>
       <c r="BO12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP12">
-        <v>0</v>
+      <c r="BP12" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ12">
         <v>0</v>
@@ -5182,8 +5292,11 @@
       <c r="BR12">
         <v>0</v>
       </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5289,33 +5402,33 @@
       <c r="AK13">
         <v>2</v>
       </c>
-      <c r="AN13">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="s">
+      <c r="AL13">
+        <v>2</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
         <v>66</v>
       </c>
-      <c r="AP13">
-        <v>1</v>
-      </c>
       <c r="AQ13">
         <v>1</v>
       </c>
-      <c r="AR13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AS13">
-        <v>1</v>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
         <v>-10000</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>10</v>
       </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
       <c r="BA13">
         <v>0</v>
       </c>
@@ -5325,7 +5438,7 @@
       <c r="BC13">
         <v>0</v>
       </c>
-      <c r="BF13">
+      <c r="BD13">
         <v>0</v>
       </c>
       <c r="BG13">
@@ -5340,20 +5453,20 @@
       <c r="BJ13">
         <v>0</v>
       </c>
-      <c r="BL13">
+      <c r="BK13">
         <v>0</v>
       </c>
       <c r="BM13">
         <v>0</v>
       </c>
-      <c r="BN13" s="2" t="s">
-        <v>92</v>
+      <c r="BN13">
+        <v>0</v>
       </c>
       <c r="BO13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP13">
-        <v>0</v>
+      <c r="BP13" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ13">
         <v>0</v>
@@ -5361,8 +5474,11 @@
       <c r="BR13">
         <v>0</v>
       </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5468,30 +5584,30 @@
       <c r="AK14">
         <v>2</v>
       </c>
-      <c r="AN14">
-        <v>0</v>
+      <c r="AL14">
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
         <v>0</v>
       </c>
       <c r="AT14">
         <v>0</v>
       </c>
-      <c r="AY14">
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
         <v>10</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
       <c r="BA14">
         <v>0</v>
       </c>
@@ -5501,47 +5617,50 @@
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BF14">
+      <c r="BD14">
         <v>0</v>
       </c>
       <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
         <v>0.5</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <v>10</v>
       </c>
-      <c r="BI14">
-        <v>2</v>
-      </c>
       <c r="BJ14">
         <v>2</v>
       </c>
       <c r="BK14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
         <v>13</v>
       </c>
-      <c r="BL14">
-        <v>2</v>
-      </c>
       <c r="BM14">
         <v>2</v>
       </c>
-      <c r="BN14" s="2" t="s">
-        <v>92</v>
+      <c r="BN14">
+        <v>2</v>
       </c>
       <c r="BO14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP14">
-        <v>1</v>
+      <c r="BP14" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR14">
         <v>0</v>
       </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5651,32 +5770,32 @@
         <v>2</v>
       </c>
       <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
         <v>14</v>
       </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
         <v>0</v>
       </c>
       <c r="AT15">
         <v>0</v>
       </c>
-      <c r="AY15">
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>10</v>
       </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
       <c r="BA15">
         <v>0</v>
       </c>
@@ -5686,7 +5805,7 @@
       <c r="BC15">
         <v>0</v>
       </c>
-      <c r="BF15">
+      <c r="BD15">
         <v>0</v>
       </c>
       <c r="BG15">
@@ -5701,20 +5820,20 @@
       <c r="BJ15">
         <v>0</v>
       </c>
-      <c r="BL15">
+      <c r="BK15">
         <v>0</v>
       </c>
       <c r="BM15">
         <v>0</v>
       </c>
-      <c r="BN15" s="2" t="s">
-        <v>92</v>
+      <c r="BN15">
+        <v>0</v>
       </c>
       <c r="BO15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP15">
-        <v>0</v>
+      <c r="BP15" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ15">
         <v>0</v>
@@ -5722,8 +5841,11 @@
       <c r="BR15">
         <v>0</v>
       </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5832,30 +5954,30 @@
       <c r="AK16">
         <v>2</v>
       </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="s">
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="s">
         <v>78</v>
       </c>
-      <c r="AP16">
-        <v>2</v>
-      </c>
       <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AR16">
         <v>0</v>
       </c>
       <c r="AT16">
         <v>0</v>
       </c>
-      <c r="AY16">
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
         <v>10</v>
       </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
       <c r="BA16">
         <v>0</v>
       </c>
@@ -5865,7 +5987,7 @@
       <c r="BC16">
         <v>0</v>
       </c>
-      <c r="BF16">
+      <c r="BD16">
         <v>0</v>
       </c>
       <c r="BG16">
@@ -5880,20 +6002,20 @@
       <c r="BJ16">
         <v>0</v>
       </c>
-      <c r="BL16">
+      <c r="BK16">
         <v>0</v>
       </c>
       <c r="BM16">
         <v>0</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>92</v>
+      <c r="BN16">
+        <v>0</v>
       </c>
       <c r="BO16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP16">
-        <v>0</v>
+      <c r="BP16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ16">
         <v>0</v>
@@ -5901,8 +6023,11 @@
       <c r="BR16">
         <v>0</v>
       </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6008,33 +6133,33 @@
       <c r="AK17">
         <v>2</v>
       </c>
-      <c r="AN17">
-        <v>0</v>
+      <c r="AL17">
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
         <v>0</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
-      <c r="AU17" s="2" t="s">
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>10</v>
       </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
       <c r="BA17">
         <v>0</v>
       </c>
@@ -6044,7 +6169,7 @@
       <c r="BC17">
         <v>0</v>
       </c>
-      <c r="BF17">
+      <c r="BD17">
         <v>0</v>
       </c>
       <c r="BG17">
@@ -6059,20 +6184,20 @@
       <c r="BJ17">
         <v>0</v>
       </c>
-      <c r="BL17">
+      <c r="BK17">
         <v>0</v>
       </c>
       <c r="BM17">
         <v>0</v>
       </c>
-      <c r="BN17" s="2" t="s">
-        <v>92</v>
+      <c r="BN17">
+        <v>0</v>
       </c>
       <c r="BO17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP17">
-        <v>0</v>
+      <c r="BP17" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ17">
         <v>0</v>
@@ -6080,8 +6205,11 @@
       <c r="BR17">
         <v>0</v>
       </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6193,30 +6321,30 @@
       <c r="AK18">
         <v>2</v>
       </c>
-      <c r="AN18">
-        <v>0</v>
+      <c r="AL18">
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
         <v>0</v>
       </c>
       <c r="AT18">
         <v>0</v>
       </c>
-      <c r="AY18">
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
         <v>10</v>
       </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
       <c r="BA18">
         <v>0</v>
       </c>
@@ -6226,7 +6354,7 @@
       <c r="BC18">
         <v>0</v>
       </c>
-      <c r="BF18">
+      <c r="BD18">
         <v>0</v>
       </c>
       <c r="BG18">
@@ -6241,20 +6369,20 @@
       <c r="BJ18">
         <v>0</v>
       </c>
-      <c r="BL18">
+      <c r="BK18">
         <v>0</v>
       </c>
       <c r="BM18">
         <v>0</v>
       </c>
-      <c r="BN18" s="2" t="s">
-        <v>92</v>
+      <c r="BN18">
+        <v>0</v>
       </c>
       <c r="BO18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP18">
-        <v>0</v>
+      <c r="BP18" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ18">
         <v>0</v>
@@ -6262,8 +6390,11 @@
       <c r="BR18">
         <v>0</v>
       </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6372,30 +6503,30 @@
       <c r="AK19">
         <v>2</v>
       </c>
-      <c r="AN19">
-        <v>0</v>
+      <c r="AL19">
+        <v>2</v>
       </c>
       <c r="AO19">
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
         <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AY19">
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
         <v>10</v>
       </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
       <c r="BA19">
         <v>0</v>
       </c>
@@ -6405,7 +6536,7 @@
       <c r="BC19">
         <v>0</v>
       </c>
-      <c r="BF19">
+      <c r="BD19">
         <v>0</v>
       </c>
       <c r="BG19">
@@ -6420,29 +6551,32 @@
       <c r="BJ19">
         <v>0</v>
       </c>
-      <c r="BL19">
+      <c r="BK19">
         <v>0</v>
       </c>
       <c r="BM19">
         <v>0</v>
       </c>
-      <c r="BN19" s="2" t="s">
-        <v>92</v>
+      <c r="BN19">
+        <v>0</v>
       </c>
       <c r="BO19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP19">
-        <v>0</v>
+      <c r="BP19" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ19">
-        <v>1</v>
-      </c>
-      <c r="BR19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+      <c r="BS19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6548,30 +6682,30 @@
       <c r="AK20">
         <v>2</v>
       </c>
-      <c r="AN20">
-        <v>1</v>
+      <c r="AL20">
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>1</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>97</v>
       </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AS20">
+      <c r="AR20">
         <v>0</v>
       </c>
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AY20">
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
         <v>10</v>
       </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
       <c r="BA20">
         <v>0</v>
       </c>
@@ -6581,7 +6715,7 @@
       <c r="BC20">
         <v>0</v>
       </c>
-      <c r="BF20">
+      <c r="BD20">
         <v>0</v>
       </c>
       <c r="BG20">
@@ -6596,29 +6730,32 @@
       <c r="BJ20">
         <v>0</v>
       </c>
-      <c r="BL20">
+      <c r="BK20">
         <v>0</v>
       </c>
       <c r="BM20">
         <v>0</v>
       </c>
-      <c r="BN20" s="2" t="s">
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="BO20" s="2" t="s">
+      <c r="BP20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
       <c r="BQ20">
         <v>0</v>
       </c>
       <c r="BR20">
         <v>0</v>
       </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6725,49 +6862,49 @@
         <v>2</v>
       </c>
       <c r="AL21">
+        <v>2</v>
+      </c>
+      <c r="AM21">
         <v>20</v>
       </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
       <c r="AO21">
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
         <v>0</v>
       </c>
       <c r="AT21">
         <v>0</v>
       </c>
-      <c r="AY21">
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
         <v>10</v>
       </c>
-      <c r="AZ21">
-        <v>1</v>
-      </c>
       <c r="BA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
         <v>3</v>
       </c>
-      <c r="BC21">
-        <v>-1</v>
-      </c>
-      <c r="BD21" t="s">
+      <c r="BD21">
+        <v>-1</v>
+      </c>
+      <c r="BE21" t="s">
         <v>107</v>
       </c>
-      <c r="BF21">
-        <v>2</v>
-      </c>
       <c r="BG21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH21">
         <v>0</v>
@@ -6778,20 +6915,20 @@
       <c r="BJ21">
         <v>0</v>
       </c>
-      <c r="BL21">
+      <c r="BK21">
         <v>0</v>
       </c>
       <c r="BM21">
         <v>0</v>
       </c>
-      <c r="BN21" s="2" t="s">
-        <v>92</v>
+      <c r="BN21">
+        <v>0</v>
       </c>
       <c r="BO21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP21">
-        <v>0</v>
+      <c r="BP21" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ21">
         <v>0</v>
@@ -6799,8 +6936,11 @@
       <c r="BR21">
         <v>0</v>
       </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6909,30 +7049,30 @@
       <c r="AK22">
         <v>2</v>
       </c>
-      <c r="AN22">
-        <v>0</v>
+      <c r="AL22">
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
         <v>0</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
-      <c r="AY22">
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
         <v>10</v>
       </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
       <c r="BA22">
         <v>0</v>
       </c>
@@ -6942,7 +7082,7 @@
       <c r="BC22">
         <v>0</v>
       </c>
-      <c r="BF22">
+      <c r="BD22">
         <v>0</v>
       </c>
       <c r="BG22">
@@ -6957,20 +7097,20 @@
       <c r="BJ22">
         <v>0</v>
       </c>
-      <c r="BL22">
+      <c r="BK22">
         <v>0</v>
       </c>
       <c r="BM22">
         <v>0</v>
       </c>
-      <c r="BN22" s="2" t="s">
-        <v>92</v>
+      <c r="BN22">
+        <v>0</v>
       </c>
       <c r="BO22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP22">
-        <v>0</v>
+      <c r="BP22" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ22">
         <v>0</v>
@@ -6978,8 +7118,11 @@
       <c r="BR22">
         <v>0</v>
       </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7086,32 +7229,32 @@
         <v>2</v>
       </c>
       <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23">
         <v>24</v>
       </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
         <v>0</v>
       </c>
       <c r="AT23">
         <v>0</v>
       </c>
-      <c r="AY23">
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
         <v>10</v>
       </c>
-      <c r="AZ23">
-        <v>0</v>
-      </c>
       <c r="BA23">
         <v>0</v>
       </c>
@@ -7121,7 +7264,7 @@
       <c r="BC23">
         <v>0</v>
       </c>
-      <c r="BF23">
+      <c r="BD23">
         <v>0</v>
       </c>
       <c r="BG23">
@@ -7136,29 +7279,32 @@
       <c r="BJ23">
         <v>0</v>
       </c>
-      <c r="BL23">
+      <c r="BK23">
         <v>0</v>
       </c>
       <c r="BM23">
         <v>0</v>
       </c>
-      <c r="BN23" s="2" t="s">
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO23" s="2" t="s">
+      <c r="BP23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP23">
-        <v>0</v>
-      </c>
       <c r="BQ23">
         <v>0</v>
       </c>
       <c r="BR23">
         <v>0</v>
       </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7267,8 +7413,8 @@
       <c r="AK24">
         <v>2</v>
       </c>
-      <c r="AN24">
-        <v>1</v>
+      <c r="AL24">
+        <v>2</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -7277,20 +7423,20 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
         <v>0</v>
       </c>
       <c r="AT24">
         <v>0</v>
       </c>
-      <c r="AY24">
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
         <v>10</v>
       </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
       <c r="BA24">
         <v>0</v>
       </c>
@@ -7300,7 +7446,7 @@
       <c r="BC24">
         <v>0</v>
       </c>
-      <c r="BF24">
+      <c r="BD24">
         <v>0</v>
       </c>
       <c r="BG24">
@@ -7315,29 +7461,32 @@
       <c r="BJ24">
         <v>0</v>
       </c>
-      <c r="BL24">
+      <c r="BK24">
         <v>0</v>
       </c>
       <c r="BM24">
         <v>0</v>
       </c>
-      <c r="BN24" s="2" t="s">
-        <v>92</v>
+      <c r="BN24">
+        <v>0</v>
       </c>
       <c r="BO24" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP24">
-        <v>0</v>
+      <c r="BP24" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ24">
-        <v>2</v>
-      </c>
-      <c r="BR24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR24">
+        <v>2</v>
+      </c>
+      <c r="BS24" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7444,34 +7593,34 @@
         <v>2</v>
       </c>
       <c r="AL25">
+        <v>2</v>
+      </c>
+      <c r="AM25">
         <v>26</v>
       </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
       <c r="AO25">
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
         <v>0</v>
       </c>
       <c r="AT25">
         <v>0</v>
       </c>
-      <c r="AY25">
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
         <v>10</v>
       </c>
-      <c r="AZ25">
-        <v>2</v>
-      </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB25">
         <v>0</v>
@@ -7479,7 +7628,7 @@
       <c r="BC25">
         <v>0</v>
       </c>
-      <c r="BF25">
+      <c r="BD25">
         <v>0</v>
       </c>
       <c r="BG25">
@@ -7494,20 +7643,20 @@
       <c r="BJ25">
         <v>0</v>
       </c>
-      <c r="BL25">
+      <c r="BK25">
         <v>0</v>
       </c>
       <c r="BM25">
         <v>0</v>
       </c>
-      <c r="BN25" s="2" t="s">
-        <v>92</v>
+      <c r="BN25">
+        <v>0</v>
       </c>
       <c r="BO25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP25">
-        <v>0</v>
+      <c r="BP25" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ25">
         <v>0</v>
@@ -7515,8 +7664,11 @@
       <c r="BR25">
         <v>0</v>
       </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7625,30 +7777,30 @@
       <c r="AK26">
         <v>2</v>
       </c>
-      <c r="AN26">
-        <v>0</v>
+      <c r="AL26">
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
         <v>0</v>
       </c>
       <c r="AT26">
         <v>0</v>
       </c>
-      <c r="AY26">
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
         <v>10</v>
       </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
       <c r="BA26">
         <v>0</v>
       </c>
@@ -7658,7 +7810,7 @@
       <c r="BC26">
         <v>0</v>
       </c>
-      <c r="BF26">
+      <c r="BD26">
         <v>0</v>
       </c>
       <c r="BG26">
@@ -7673,29 +7825,32 @@
       <c r="BJ26">
         <v>0</v>
       </c>
-      <c r="BL26">
+      <c r="BK26">
         <v>0</v>
       </c>
       <c r="BM26">
         <v>0</v>
       </c>
-      <c r="BN26" s="2" t="s">
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO26" s="2" t="s">
+      <c r="BP26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP26">
-        <v>0</v>
-      </c>
       <c r="BQ26">
         <v>0</v>
       </c>
       <c r="BR26">
         <v>0</v>
       </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7801,33 +7956,33 @@
       <c r="AK27">
         <v>2</v>
       </c>
-      <c r="AN27">
-        <v>0</v>
+      <c r="AL27">
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
         <v>0</v>
       </c>
       <c r="AT27">
         <v>0</v>
       </c>
       <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>1006</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>10</v>
       </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
       <c r="BA27">
         <v>0</v>
       </c>
@@ -7837,7 +7992,7 @@
       <c r="BC27">
         <v>0</v>
       </c>
-      <c r="BF27">
+      <c r="BD27">
         <v>0</v>
       </c>
       <c r="BG27">
@@ -7852,20 +8007,20 @@
       <c r="BJ27">
         <v>0</v>
       </c>
-      <c r="BL27">
+      <c r="BK27">
         <v>0</v>
       </c>
       <c r="BM27">
         <v>0</v>
       </c>
-      <c r="BN27" s="2" t="s">
-        <v>92</v>
+      <c r="BN27">
+        <v>0</v>
       </c>
       <c r="BO27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP27">
-        <v>0</v>
+      <c r="BP27" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ27">
         <v>0</v>
@@ -7873,8 +8028,11 @@
       <c r="BR27">
         <v>0</v>
       </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7980,33 +8138,33 @@
       <c r="AK28">
         <v>2</v>
       </c>
-      <c r="AM28">
+      <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AN28">
         <v>29</v>
       </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
         <v>0</v>
       </c>
       <c r="AT28">
         <v>0</v>
       </c>
-      <c r="AY28">
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
         <v>10</v>
       </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
       <c r="BA28">
         <v>0</v>
       </c>
@@ -8016,7 +8174,7 @@
       <c r="BC28">
         <v>0</v>
       </c>
-      <c r="BF28">
+      <c r="BD28">
         <v>0</v>
       </c>
       <c r="BG28">
@@ -8031,20 +8189,20 @@
       <c r="BJ28">
         <v>0</v>
       </c>
-      <c r="BL28">
+      <c r="BK28">
         <v>0</v>
       </c>
       <c r="BM28">
         <v>0</v>
       </c>
-      <c r="BN28" s="2" t="s">
-        <v>92</v>
+      <c r="BN28">
+        <v>0</v>
       </c>
       <c r="BO28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP28">
-        <v>0</v>
+      <c r="BP28" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ28">
         <v>0</v>
@@ -8052,8 +8210,11 @@
       <c r="BR28">
         <v>0</v>
       </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8162,30 +8323,30 @@
       <c r="AK29">
         <v>2</v>
       </c>
-      <c r="AN29">
-        <v>0</v>
+      <c r="AL29">
+        <v>2</v>
       </c>
       <c r="AO29">
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
         <v>0</v>
       </c>
       <c r="AT29">
         <v>0</v>
       </c>
-      <c r="AY29">
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
         <v>10</v>
       </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
       <c r="BA29">
         <v>0</v>
       </c>
@@ -8195,7 +8356,7 @@
       <c r="BC29">
         <v>0</v>
       </c>
-      <c r="BF29">
+      <c r="BD29">
         <v>0</v>
       </c>
       <c r="BG29">
@@ -8210,29 +8371,32 @@
       <c r="BJ29">
         <v>0</v>
       </c>
-      <c r="BL29">
+      <c r="BK29">
         <v>0</v>
       </c>
       <c r="BM29">
         <v>0</v>
       </c>
-      <c r="BN29" s="2" t="s">
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO29" s="2" t="s">
+      <c r="BP29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP29">
-        <v>0</v>
-      </c>
       <c r="BQ29">
         <v>0</v>
       </c>
       <c r="BR29">
         <v>0</v>
       </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8339,49 +8503,49 @@
         <v>2</v>
       </c>
       <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
         <v>32</v>
       </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
       <c r="AO30">
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
-      </c>
-      <c r="AS30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
         <v>0</v>
       </c>
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AY30">
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
         <v>10</v>
       </c>
-      <c r="AZ30">
-        <v>1</v>
-      </c>
       <c r="BA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
         <v>3</v>
       </c>
-      <c r="BC30">
-        <v>-1</v>
-      </c>
-      <c r="BD30" t="s">
+      <c r="BD30">
+        <v>-1</v>
+      </c>
+      <c r="BE30" t="s">
         <v>128</v>
       </c>
-      <c r="BF30">
-        <v>2</v>
-      </c>
       <c r="BG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH30">
         <v>0</v>
@@ -8392,20 +8556,20 @@
       <c r="BJ30">
         <v>0</v>
       </c>
-      <c r="BL30">
+      <c r="BK30">
         <v>0</v>
       </c>
       <c r="BM30">
         <v>0</v>
       </c>
-      <c r="BN30" s="2" t="s">
-        <v>92</v>
+      <c r="BN30">
+        <v>0</v>
       </c>
       <c r="BO30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP30">
-        <v>0</v>
+      <c r="BP30" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ30">
         <v>0</v>
@@ -8413,8 +8577,11 @@
       <c r="BR30">
         <v>0</v>
       </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8526,30 +8693,30 @@
       <c r="AK31">
         <v>2</v>
       </c>
-      <c r="AN31">
-        <v>0</v>
+      <c r="AL31">
+        <v>2</v>
       </c>
       <c r="AO31">
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
         <v>0</v>
       </c>
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AY31">
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
         <v>10</v>
       </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
       <c r="BA31">
         <v>0</v>
       </c>
@@ -8559,7 +8726,7 @@
       <c r="BC31">
         <v>0</v>
       </c>
-      <c r="BF31">
+      <c r="BD31">
         <v>0</v>
       </c>
       <c r="BG31">
@@ -8574,29 +8741,32 @@
       <c r="BJ31">
         <v>0</v>
       </c>
-      <c r="BL31">
+      <c r="BK31">
         <v>0</v>
       </c>
       <c r="BM31">
         <v>0</v>
       </c>
-      <c r="BN31" s="2" t="s">
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BO31" s="2" t="s">
+      <c r="BP31" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BP31">
-        <v>0</v>
-      </c>
       <c r="BQ31">
         <v>0</v>
       </c>
       <c r="BR31">
         <v>0</v>
       </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8702,33 +8872,33 @@
       <c r="AK32">
         <v>2</v>
       </c>
-      <c r="AN32">
-        <v>1</v>
+      <c r="AL32">
+        <v>2</v>
       </c>
       <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
         <v>0.17</v>
       </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
       <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AR32">
         <v>0</v>
       </c>
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AV32">
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
         <v>1007</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>10</v>
       </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
       <c r="BA32">
         <v>0</v>
       </c>
@@ -8738,7 +8908,7 @@
       <c r="BC32">
         <v>0</v>
       </c>
-      <c r="BF32">
+      <c r="BD32">
         <v>0</v>
       </c>
       <c r="BG32">
@@ -8753,29 +8923,32 @@
       <c r="BJ32">
         <v>0</v>
       </c>
-      <c r="BL32">
+      <c r="BK32">
         <v>0</v>
       </c>
       <c r="BM32">
         <v>0</v>
       </c>
-      <c r="BN32" s="2" t="s">
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BO32" s="2" t="s">
+      <c r="BP32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP32">
-        <v>0</v>
-      </c>
       <c r="BQ32">
         <v>0</v>
       </c>
       <c r="BR32">
         <v>0</v>
       </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8881,35 +9054,35 @@
       <c r="AK33">
         <v>2</v>
       </c>
-      <c r="AN33">
-        <v>0</v>
+      <c r="AL33">
+        <v>2</v>
       </c>
       <c r="AO33">
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
-      </c>
-      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
         <v>0</v>
       </c>
       <c r="AT33">
         <v>0</v>
       </c>
-      <c r="AV33">
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
         <v>1008</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>10</v>
       </c>
-      <c r="AZ33">
-        <v>1</v>
-      </c>
       <c r="BA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -8917,7 +9090,7 @@
       <c r="BC33">
         <v>0</v>
       </c>
-      <c r="BF33">
+      <c r="BD33">
         <v>0</v>
       </c>
       <c r="BG33">
@@ -8932,20 +9105,20 @@
       <c r="BJ33">
         <v>0</v>
       </c>
-      <c r="BL33">
+      <c r="BK33">
         <v>0</v>
       </c>
       <c r="BM33">
         <v>0</v>
       </c>
-      <c r="BN33" s="2" t="s">
-        <v>92</v>
+      <c r="BN33">
+        <v>0</v>
       </c>
       <c r="BO33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP33">
-        <v>0</v>
+      <c r="BP33" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ33">
         <v>0</v>
@@ -8953,8 +9126,11 @@
       <c r="BR33">
         <v>0</v>
       </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9060,33 +9236,33 @@
       <c r="AK34">
         <v>2</v>
       </c>
-      <c r="AN34">
-        <v>0</v>
+      <c r="AL34">
+        <v>2</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
-      </c>
-      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
         <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
       </c>
-      <c r="AU34" s="2" t="s">
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>10</v>
       </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
       <c r="BA34">
         <v>0</v>
       </c>
@@ -9096,7 +9272,7 @@
       <c r="BC34">
         <v>0</v>
       </c>
-      <c r="BF34">
+      <c r="BD34">
         <v>0</v>
       </c>
       <c r="BG34">
@@ -9111,20 +9287,20 @@
       <c r="BJ34">
         <v>0</v>
       </c>
-      <c r="BL34">
+      <c r="BK34">
         <v>0</v>
       </c>
       <c r="BM34">
         <v>0</v>
       </c>
-      <c r="BN34" s="2" t="s">
-        <v>92</v>
+      <c r="BN34">
+        <v>0</v>
       </c>
       <c r="BO34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP34">
-        <v>0</v>
+      <c r="BP34" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ34">
         <v>0</v>
@@ -9132,8 +9308,11 @@
       <c r="BR34">
         <v>0</v>
       </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9239,30 +9418,30 @@
       <c r="AK35">
         <v>2</v>
       </c>
-      <c r="AN35">
-        <v>0</v>
+      <c r="AL35">
+        <v>2</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
-      </c>
-      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
         <v>0</v>
       </c>
       <c r="AT35">
         <v>0</v>
       </c>
-      <c r="AY35">
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
         <v>10</v>
       </c>
-      <c r="AZ35">
-        <v>0</v>
-      </c>
       <c r="BA35">
         <v>0</v>
       </c>
@@ -9272,47 +9451,50 @@
       <c r="BC35">
         <v>0</v>
       </c>
-      <c r="BF35">
+      <c r="BD35">
         <v>0</v>
       </c>
       <c r="BG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35">
+        <v>1</v>
+      </c>
+      <c r="BI35">
         <v>10</v>
       </c>
-      <c r="BI35">
-        <v>2</v>
-      </c>
       <c r="BJ35">
+        <v>2</v>
+      </c>
+      <c r="BK35">
         <v>3</v>
       </c>
-      <c r="BK35">
+      <c r="BL35">
         <v>39</v>
       </c>
-      <c r="BL35">
-        <v>0</v>
-      </c>
       <c r="BM35">
         <v>0</v>
       </c>
-      <c r="BN35" s="2" t="s">
-        <v>92</v>
+      <c r="BN35">
+        <v>0</v>
       </c>
       <c r="BO35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP35">
-        <v>1</v>
+      <c r="BP35" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ35">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9419,32 +9601,32 @@
         <v>2</v>
       </c>
       <c r="AL36">
+        <v>2</v>
+      </c>
+      <c r="AM36">
         <v>41</v>
       </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
         <v>0</v>
       </c>
       <c r="AT36">
         <v>0</v>
       </c>
-      <c r="AY36">
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
         <v>10</v>
       </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
       <c r="BA36">
         <v>0</v>
       </c>
@@ -9454,7 +9636,7 @@
       <c r="BC36">
         <v>0</v>
       </c>
-      <c r="BF36">
+      <c r="BD36">
         <v>0</v>
       </c>
       <c r="BG36">
@@ -9469,29 +9651,32 @@
       <c r="BJ36">
         <v>0</v>
       </c>
-      <c r="BL36">
+      <c r="BK36">
         <v>0</v>
       </c>
       <c r="BM36">
         <v>0</v>
       </c>
-      <c r="BN36" s="2" t="s">
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO36" s="2" t="s">
+      <c r="BP36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP36">
-        <v>0</v>
-      </c>
       <c r="BQ36">
         <v>0</v>
       </c>
       <c r="BR36">
         <v>0</v>
       </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9597,33 +9782,33 @@
       <c r="AK37">
         <v>2</v>
       </c>
-      <c r="AM37">
+      <c r="AL37">
+        <v>2</v>
+      </c>
+      <c r="AN37">
         <v>42</v>
       </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
       <c r="AO37">
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
         <v>0</v>
       </c>
       <c r="AT37">
         <v>0</v>
       </c>
-      <c r="AY37">
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
         <v>10</v>
       </c>
-      <c r="AZ37">
-        <v>0</v>
-      </c>
       <c r="BA37">
         <v>0</v>
       </c>
@@ -9633,7 +9818,7 @@
       <c r="BC37">
         <v>0</v>
       </c>
-      <c r="BF37">
+      <c r="BD37">
         <v>0</v>
       </c>
       <c r="BG37">
@@ -9648,20 +9833,20 @@
       <c r="BJ37">
         <v>0</v>
       </c>
-      <c r="BL37">
+      <c r="BK37">
         <v>0</v>
       </c>
       <c r="BM37">
         <v>0</v>
       </c>
-      <c r="BN37" s="2" t="s">
-        <v>92</v>
+      <c r="BN37">
+        <v>0</v>
       </c>
       <c r="BO37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP37">
-        <v>0</v>
+      <c r="BP37" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ37">
         <v>0</v>
@@ -9669,8 +9854,11 @@
       <c r="BR37">
         <v>0</v>
       </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9779,30 +9967,30 @@
       <c r="AK38">
         <v>2</v>
       </c>
-      <c r="AN38">
-        <v>0</v>
+      <c r="AL38">
+        <v>2</v>
       </c>
       <c r="AO38">
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
-      </c>
-      <c r="AS38">
+        <v>1</v>
+      </c>
+      <c r="AR38">
         <v>0</v>
       </c>
       <c r="AT38">
         <v>0</v>
       </c>
-      <c r="AY38">
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
         <v>10</v>
       </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
       <c r="BA38">
         <v>0</v>
       </c>
@@ -9812,7 +10000,7 @@
       <c r="BC38">
         <v>0</v>
       </c>
-      <c r="BF38">
+      <c r="BD38">
         <v>0</v>
       </c>
       <c r="BG38">
@@ -9827,29 +10015,32 @@
       <c r="BJ38">
         <v>0</v>
       </c>
-      <c r="BL38">
+      <c r="BK38">
         <v>0</v>
       </c>
       <c r="BM38">
         <v>0</v>
       </c>
-      <c r="BN38" s="2" t="s">
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BO38" s="2" t="s">
+      <c r="BP38" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BP38">
-        <v>0</v>
-      </c>
       <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
         <v>3</v>
       </c>
-      <c r="BR38" t="s">
+      <c r="BS38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9958,30 +10149,30 @@
       <c r="AK39">
         <v>2</v>
       </c>
-      <c r="AN39">
-        <v>0</v>
+      <c r="AL39">
+        <v>2</v>
       </c>
       <c r="AO39">
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
         <v>0</v>
       </c>
       <c r="AT39">
         <v>0</v>
       </c>
-      <c r="AY39">
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
         <v>10</v>
       </c>
-      <c r="AZ39">
-        <v>0</v>
-      </c>
       <c r="BA39">
         <v>0</v>
       </c>
@@ -9991,7 +10182,7 @@
       <c r="BC39">
         <v>0</v>
       </c>
-      <c r="BF39">
+      <c r="BD39">
         <v>0</v>
       </c>
       <c r="BG39">
@@ -10006,20 +10197,20 @@
       <c r="BJ39">
         <v>0</v>
       </c>
-      <c r="BL39">
+      <c r="BK39">
         <v>0</v>
       </c>
       <c r="BM39">
         <v>0</v>
       </c>
-      <c r="BN39" s="2" t="s">
-        <v>92</v>
+      <c r="BN39">
+        <v>0</v>
       </c>
       <c r="BO39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP39">
-        <v>0</v>
+      <c r="BP39" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ39">
         <v>0</v>
@@ -10027,8 +10218,11 @@
       <c r="BR39">
         <v>0</v>
       </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10135,35 +10329,35 @@
         <v>2</v>
       </c>
       <c r="AL40">
+        <v>2</v>
+      </c>
+      <c r="AM40">
         <v>44</v>
       </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
       <c r="AO40">
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
         <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
       </c>
-      <c r="AV40">
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
         <v>1011</v>
       </c>
-      <c r="AY40">
+      <c r="AZ40">
         <v>10</v>
       </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
       <c r="BA40">
         <v>0</v>
       </c>
@@ -10173,7 +10367,7 @@
       <c r="BC40">
         <v>0</v>
       </c>
-      <c r="BF40">
+      <c r="BD40">
         <v>0</v>
       </c>
       <c r="BG40">
@@ -10188,29 +10382,32 @@
       <c r="BJ40">
         <v>0</v>
       </c>
-      <c r="BL40">
+      <c r="BK40">
         <v>0</v>
       </c>
       <c r="BM40">
         <v>0</v>
       </c>
-      <c r="BN40" s="2" t="s">
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO40" s="2" t="s">
+      <c r="BP40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP40">
-        <v>0</v>
-      </c>
       <c r="BQ40">
         <v>0</v>
       </c>
       <c r="BR40">
         <v>0</v>
       </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10317,32 +10514,32 @@
         <v>2</v>
       </c>
       <c r="AL41">
+        <v>2</v>
+      </c>
+      <c r="AM41">
         <v>46</v>
       </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
         <v>0</v>
       </c>
       <c r="AT41">
         <v>0</v>
       </c>
-      <c r="AY41">
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
         <v>10</v>
       </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
       <c r="BA41">
         <v>0</v>
       </c>
@@ -10352,7 +10549,7 @@
       <c r="BC41">
         <v>0</v>
       </c>
-      <c r="BF41">
+      <c r="BD41">
         <v>0</v>
       </c>
       <c r="BG41">
@@ -10367,29 +10564,32 @@
       <c r="BJ41">
         <v>0</v>
       </c>
-      <c r="BL41">
+      <c r="BK41">
         <v>0</v>
       </c>
       <c r="BM41">
         <v>0</v>
       </c>
-      <c r="BN41" s="2" t="s">
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO41" s="2" t="s">
+      <c r="BP41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP41">
-        <v>0</v>
-      </c>
       <c r="BQ41">
         <v>0</v>
       </c>
       <c r="BR41">
         <v>0</v>
       </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10498,30 +10698,30 @@
       <c r="AK42">
         <v>2</v>
       </c>
-      <c r="AN42">
-        <v>0</v>
+      <c r="AL42">
+        <v>2</v>
       </c>
       <c r="AO42">
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
         <v>0</v>
       </c>
       <c r="AT42">
         <v>0</v>
       </c>
-      <c r="AY42">
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
         <v>10</v>
       </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
       <c r="BA42">
         <v>0</v>
       </c>
@@ -10531,7 +10731,7 @@
       <c r="BC42">
         <v>0</v>
       </c>
-      <c r="BF42">
+      <c r="BD42">
         <v>0</v>
       </c>
       <c r="BG42">
@@ -10546,29 +10746,32 @@
       <c r="BJ42">
         <v>0</v>
       </c>
-      <c r="BL42">
+      <c r="BK42">
         <v>0</v>
       </c>
       <c r="BM42">
         <v>0</v>
       </c>
-      <c r="BN42" s="2" t="s">
-        <v>92</v>
+      <c r="BN42">
+        <v>0</v>
       </c>
       <c r="BO42" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP42">
-        <v>0</v>
+      <c r="BP42" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
         <v>4</v>
       </c>
-      <c r="BR42">
+      <c r="BS42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10674,30 +10877,30 @@
       <c r="AK43">
         <v>2</v>
       </c>
-      <c r="AN43">
-        <v>0</v>
+      <c r="AL43">
+        <v>2</v>
       </c>
       <c r="AO43">
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
         <v>0</v>
       </c>
       <c r="AT43">
         <v>0</v>
       </c>
-      <c r="AY43">
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
         <v>10</v>
       </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
       <c r="BA43">
         <v>0</v>
       </c>
@@ -10707,7 +10910,7 @@
       <c r="BC43">
         <v>0</v>
       </c>
-      <c r="BF43">
+      <c r="BD43">
         <v>0</v>
       </c>
       <c r="BG43">
@@ -10722,29 +10925,32 @@
       <c r="BJ43">
         <v>0</v>
       </c>
-      <c r="BL43">
+      <c r="BK43">
         <v>0</v>
       </c>
       <c r="BM43">
         <v>0</v>
       </c>
-      <c r="BN43" s="2" t="s">
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO43" s="2" t="s">
+      <c r="BP43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP43">
-        <v>0</v>
-      </c>
       <c r="BQ43">
         <v>0</v>
       </c>
       <c r="BR43">
         <v>0</v>
       </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10853,30 +11059,30 @@
       <c r="AK44">
         <v>2</v>
       </c>
-      <c r="AN44">
-        <v>0</v>
+      <c r="AL44">
+        <v>2</v>
       </c>
       <c r="AO44">
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
         <v>0</v>
       </c>
       <c r="AT44">
         <v>0</v>
       </c>
-      <c r="AY44">
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
         <v>10</v>
       </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
       <c r="BA44">
         <v>0</v>
       </c>
@@ -10886,7 +11092,7 @@
       <c r="BC44">
         <v>0</v>
       </c>
-      <c r="BF44">
+      <c r="BD44">
         <v>0</v>
       </c>
       <c r="BG44">
@@ -10901,20 +11107,20 @@
       <c r="BJ44">
         <v>0</v>
       </c>
-      <c r="BL44">
+      <c r="BK44">
         <v>0</v>
       </c>
       <c r="BM44">
         <v>0</v>
       </c>
-      <c r="BN44" s="2" t="s">
-        <v>92</v>
+      <c r="BN44">
+        <v>0</v>
       </c>
       <c r="BO44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP44">
-        <v>0</v>
+      <c r="BP44" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ44">
         <v>0</v>
@@ -10922,8 +11128,11 @@
       <c r="BR44">
         <v>0</v>
       </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11030,32 +11239,32 @@
         <v>2</v>
       </c>
       <c r="AL45">
+        <v>2</v>
+      </c>
+      <c r="AM45">
         <v>48</v>
       </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
       <c r="AO45">
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
         <v>0</v>
       </c>
       <c r="AT45">
         <v>0</v>
       </c>
-      <c r="AY45">
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
         <v>10</v>
       </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
       <c r="BA45">
         <v>0</v>
       </c>
@@ -11065,7 +11274,7 @@
       <c r="BC45">
         <v>0</v>
       </c>
-      <c r="BF45">
+      <c r="BD45">
         <v>0</v>
       </c>
       <c r="BG45">
@@ -11080,29 +11289,32 @@
       <c r="BJ45">
         <v>0</v>
       </c>
-      <c r="BL45">
+      <c r="BK45">
         <v>0</v>
       </c>
       <c r="BM45">
         <v>0</v>
       </c>
-      <c r="BN45" s="2" t="s">
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO45" s="2" t="s">
+      <c r="BP45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP45">
-        <v>0</v>
-      </c>
       <c r="BQ45">
         <v>0</v>
       </c>
       <c r="BR45">
         <v>0</v>
       </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11211,31 +11423,31 @@
       <c r="AK46">
         <v>2</v>
       </c>
-      <c r="AN46">
-        <v>0</v>
+      <c r="AL46">
+        <v>2</v>
       </c>
       <c r="AO46">
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
         <v>0</v>
       </c>
       <c r="AT46">
         <v>0</v>
       </c>
-      <c r="AU46" s="2"/>
-      <c r="AY46">
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="2"/>
+      <c r="AZ46">
         <v>10</v>
       </c>
-      <c r="AZ46">
-        <v>0</v>
-      </c>
       <c r="BA46">
         <v>0</v>
       </c>
@@ -11245,7 +11457,7 @@
       <c r="BC46">
         <v>0</v>
       </c>
-      <c r="BF46">
+      <c r="BD46">
         <v>0</v>
       </c>
       <c r="BG46">
@@ -11260,20 +11472,20 @@
       <c r="BJ46">
         <v>0</v>
       </c>
-      <c r="BL46">
+      <c r="BK46">
         <v>0</v>
       </c>
       <c r="BM46">
         <v>0</v>
       </c>
-      <c r="BN46" s="2" t="s">
-        <v>92</v>
+      <c r="BN46">
+        <v>0</v>
       </c>
       <c r="BO46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP46">
-        <v>0</v>
+      <c r="BP46" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ46">
         <v>0</v>
@@ -11281,8 +11493,11 @@
       <c r="BR46">
         <v>0</v>
       </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11391,33 +11606,33 @@
       <c r="AK47">
         <v>2</v>
       </c>
-      <c r="AN47">
-        <v>0</v>
+      <c r="AL47">
+        <v>2</v>
       </c>
       <c r="AO47">
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
         <v>0</v>
       </c>
       <c r="AT47">
         <v>0</v>
       </c>
-      <c r="AW47">
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
         <v>1012</v>
       </c>
-      <c r="AY47">
+      <c r="AZ47">
         <v>10</v>
       </c>
-      <c r="AZ47">
-        <v>0</v>
-      </c>
       <c r="BA47">
         <v>0</v>
       </c>
@@ -11427,7 +11642,7 @@
       <c r="BC47">
         <v>0</v>
       </c>
-      <c r="BF47">
+      <c r="BD47">
         <v>0</v>
       </c>
       <c r="BG47">
@@ -11442,29 +11657,32 @@
       <c r="BJ47">
         <v>0</v>
       </c>
-      <c r="BL47">
+      <c r="BK47">
         <v>0</v>
       </c>
       <c r="BM47">
         <v>0</v>
       </c>
-      <c r="BN47" s="2" t="s">
-        <v>92</v>
+      <c r="BN47">
+        <v>0</v>
       </c>
       <c r="BO47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP47">
-        <v>0</v>
+      <c r="BP47" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
         <v>6</v>
       </c>
-      <c r="BR47" t="s">
-        <v>184</v>
+      <c r="BS47" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11573,33 +11791,33 @@
       <c r="AK48">
         <v>2</v>
       </c>
-      <c r="AM48">
+      <c r="AL48">
+        <v>2</v>
+      </c>
+      <c r="AN48">
         <v>53</v>
       </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
       <c r="AO48">
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
         <v>0</v>
       </c>
       <c r="AT48">
         <v>0</v>
       </c>
-      <c r="AY48">
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
         <v>10</v>
       </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
       <c r="BA48">
         <v>0</v>
       </c>
@@ -11609,7 +11827,7 @@
       <c r="BC48">
         <v>0</v>
       </c>
-      <c r="BF48">
+      <c r="BD48">
         <v>0</v>
       </c>
       <c r="BG48">
@@ -11624,29 +11842,32 @@
       <c r="BJ48">
         <v>0</v>
       </c>
-      <c r="BL48">
+      <c r="BK48">
         <v>0</v>
       </c>
       <c r="BM48">
         <v>0</v>
       </c>
-      <c r="BN48" s="2" t="s">
-        <v>92</v>
+      <c r="BN48">
+        <v>0</v>
       </c>
       <c r="BO48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP48">
-        <v>0</v>
+      <c r="BP48" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ48">
+        <v>0</v>
+      </c>
+      <c r="BR48">
         <v>6</v>
       </c>
-      <c r="BR48" t="s">
-        <v>184</v>
+      <c r="BS48" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11755,30 +11976,30 @@
       <c r="AK49">
         <v>2</v>
       </c>
-      <c r="AN49">
-        <v>0</v>
+      <c r="AL49">
+        <v>2</v>
       </c>
       <c r="AO49">
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
         <v>0</v>
       </c>
       <c r="AT49">
         <v>0</v>
       </c>
-      <c r="AY49">
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
         <v>10</v>
       </c>
-      <c r="AZ49">
-        <v>0</v>
-      </c>
       <c r="BA49">
         <v>0</v>
       </c>
@@ -11788,7 +12009,7 @@
       <c r="BC49">
         <v>0</v>
       </c>
-      <c r="BF49">
+      <c r="BD49">
         <v>0</v>
       </c>
       <c r="BG49">
@@ -11803,34 +12024,37 @@
       <c r="BJ49">
         <v>0</v>
       </c>
-      <c r="BL49">
+      <c r="BK49">
         <v>0</v>
       </c>
       <c r="BM49">
         <v>0</v>
       </c>
-      <c r="BN49" s="2" t="s">
-        <v>92</v>
+      <c r="BN49">
+        <v>0</v>
       </c>
       <c r="BO49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP49">
-        <v>0</v>
+      <c r="BP49" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
         <v>6</v>
       </c>
-      <c r="BR49" t="s">
-        <v>184</v>
+      <c r="BS49" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -11908,10 +12132,10 @@
         <v>10</v>
       </c>
       <c r="AB50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC50" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="AD50">
         <v>1.5</v>
@@ -11937,30 +12161,30 @@
       <c r="AK50">
         <v>2</v>
       </c>
-      <c r="AN50">
-        <v>0</v>
+      <c r="AL50">
+        <v>2</v>
       </c>
       <c r="AO50">
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
-      </c>
-      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
         <v>0</v>
       </c>
       <c r="AT50">
         <v>0</v>
       </c>
-      <c r="AY50">
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
         <v>10</v>
       </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
       <c r="BA50">
         <v>0</v>
       </c>
@@ -11970,7 +12194,7 @@
       <c r="BC50">
         <v>0</v>
       </c>
-      <c r="BF50">
+      <c r="BD50">
         <v>0</v>
       </c>
       <c r="BG50">
@@ -11985,20 +12209,20 @@
       <c r="BJ50">
         <v>0</v>
       </c>
-      <c r="BL50">
+      <c r="BK50">
         <v>0</v>
       </c>
       <c r="BM50">
         <v>0</v>
       </c>
-      <c r="BN50" s="2" t="s">
-        <v>92</v>
+      <c r="BN50">
+        <v>0</v>
       </c>
       <c r="BO50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP50">
-        <v>0</v>
+      <c r="BP50" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ50">
         <v>0</v>
@@ -12006,13 +12230,16 @@
       <c r="BR50">
         <v>0</v>
       </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -12093,7 +12320,7 @@
         <v>16</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD51">
         <v>1.5</v>
@@ -12108,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ51">
         <v>2</v>
@@ -12116,33 +12343,33 @@
       <c r="AK51">
         <v>2</v>
       </c>
-      <c r="AN51">
-        <v>0</v>
+      <c r="AL51">
+        <v>2</v>
       </c>
       <c r="AO51">
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
-      </c>
-      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
         <v>0</v>
       </c>
       <c r="AT51">
         <v>0</v>
       </c>
-      <c r="AX51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY51">
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ51">
         <v>0.2</v>
       </c>
-      <c r="AZ51">
-        <v>0</v>
-      </c>
       <c r="BA51">
         <v>0</v>
       </c>
@@ -12152,7 +12379,7 @@
       <c r="BC51">
         <v>0</v>
       </c>
-      <c r="BF51">
+      <c r="BD51">
         <v>0</v>
       </c>
       <c r="BG51">
@@ -12167,20 +12394,20 @@
       <c r="BJ51">
         <v>0</v>
       </c>
-      <c r="BL51">
+      <c r="BK51">
         <v>0</v>
       </c>
       <c r="BM51">
         <v>0</v>
       </c>
-      <c r="BN51" s="2" t="s">
-        <v>92</v>
+      <c r="BN51">
+        <v>0</v>
       </c>
       <c r="BO51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP51">
-        <v>0</v>
+      <c r="BP51" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ51">
         <v>0</v>
@@ -12188,13 +12415,16 @@
       <c r="BR51">
         <v>0</v>
       </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -12272,7 +12502,7 @@
         <v>0.1</v>
       </c>
       <c r="AC52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD52">
         <v>-1</v>
@@ -12295,8 +12525,8 @@
       <c r="AK52">
         <v>2</v>
       </c>
-      <c r="AN52">
-        <v>1</v>
+      <c r="AL52">
+        <v>2</v>
       </c>
       <c r="AO52">
         <v>1</v>
@@ -12305,23 +12535,23 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
-      </c>
-      <c r="AR52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>2</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="AT52">
         <v>0</v>
       </c>
-      <c r="AY52">
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
         <v>10</v>
       </c>
-      <c r="AZ52">
-        <v>0</v>
-      </c>
       <c r="BA52">
         <v>0</v>
       </c>
@@ -12331,7 +12561,7 @@
       <c r="BC52">
         <v>0</v>
       </c>
-      <c r="BF52">
+      <c r="BD52">
         <v>0</v>
       </c>
       <c r="BG52">
@@ -12346,20 +12576,20 @@
       <c r="BJ52">
         <v>0</v>
       </c>
-      <c r="BL52">
+      <c r="BK52">
         <v>0</v>
       </c>
       <c r="BM52">
         <v>0</v>
       </c>
-      <c r="BN52" s="2" t="s">
-        <v>92</v>
+      <c r="BN52">
+        <v>0</v>
       </c>
       <c r="BO52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP52">
-        <v>0</v>
+      <c r="BP52" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ52">
         <v>0</v>
@@ -12367,13 +12597,16 @@
       <c r="BR52">
         <v>0</v>
       </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -12474,33 +12707,33 @@
       <c r="AK53">
         <v>2</v>
       </c>
-      <c r="AM53">
+      <c r="AL53">
+        <v>2</v>
+      </c>
+      <c r="AN53">
         <v>59</v>
       </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
       <c r="AO53">
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
         <v>0</v>
       </c>
       <c r="AT53">
         <v>0</v>
       </c>
-      <c r="AY53">
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
         <v>10</v>
       </c>
-      <c r="AZ53">
-        <v>0</v>
-      </c>
       <c r="BA53">
         <v>0</v>
       </c>
@@ -12510,7 +12743,7 @@
       <c r="BC53">
         <v>0</v>
       </c>
-      <c r="BF53">
+      <c r="BD53">
         <v>0</v>
       </c>
       <c r="BG53">
@@ -12525,34 +12758,37 @@
       <c r="BJ53">
         <v>0</v>
       </c>
-      <c r="BL53">
+      <c r="BK53">
         <v>0</v>
       </c>
       <c r="BM53">
         <v>0</v>
       </c>
-      <c r="BN53" s="2" t="s">
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO53" s="2" t="s">
+      <c r="BP53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP53">
-        <v>0</v>
-      </c>
       <c r="BQ53">
         <v>0</v>
       </c>
       <c r="BR53">
         <v>0</v>
       </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -12627,7 +12863,7 @@
         <v>15</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -12645,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="AH54" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AJ54">
         <v>2</v>
@@ -12653,47 +12889,47 @@
       <c r="AK54">
         <v>2</v>
       </c>
-      <c r="AN54">
-        <v>0</v>
+      <c r="AL54">
+        <v>2</v>
       </c>
       <c r="AO54">
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
         <v>0</v>
       </c>
       <c r="AT54">
         <v>0</v>
       </c>
-      <c r="AY54">
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
         <v>10</v>
       </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
       <c r="BA54">
         <v>0</v>
       </c>
       <c r="BB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC54">
-        <v>-1</v>
-      </c>
-      <c r="BD54" t="s">
-        <v>206</v>
-      </c>
-      <c r="BF54">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="BD54">
+        <v>-1</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>207</v>
       </c>
       <c r="BG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH54">
         <v>0</v>
@@ -12704,20 +12940,20 @@
       <c r="BJ54">
         <v>0</v>
       </c>
-      <c r="BL54">
+      <c r="BK54">
         <v>0</v>
       </c>
       <c r="BM54">
         <v>0</v>
       </c>
-      <c r="BN54" s="2" t="s">
-        <v>92</v>
+      <c r="BN54">
+        <v>0</v>
       </c>
       <c r="BO54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP54">
-        <v>0</v>
+      <c r="BP54" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ54">
         <v>0</v>
@@ -12725,13 +12961,16 @@
       <c r="BR54">
         <v>0</v>
       </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -12832,30 +13071,30 @@
       <c r="AK55">
         <v>1</v>
       </c>
-      <c r="AN55">
-        <v>0</v>
+      <c r="AL55">
+        <v>2</v>
       </c>
       <c r="AO55">
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
         <v>0</v>
       </c>
       <c r="AT55">
         <v>0</v>
       </c>
-      <c r="AY55">
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
         <v>10</v>
       </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
       <c r="BA55">
         <v>0</v>
       </c>
@@ -12865,7 +13104,7 @@
       <c r="BC55">
         <v>0</v>
       </c>
-      <c r="BF55">
+      <c r="BD55">
         <v>0</v>
       </c>
       <c r="BG55">
@@ -12880,34 +13119,37 @@
       <c r="BJ55">
         <v>0</v>
       </c>
-      <c r="BL55">
+      <c r="BK55">
         <v>0</v>
       </c>
       <c r="BM55">
         <v>0</v>
       </c>
-      <c r="BN55" s="2" t="s">
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO55" s="2" t="s">
+      <c r="BP55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP55">
-        <v>0</v>
-      </c>
       <c r="BQ55">
         <v>0</v>
       </c>
       <c r="BR55">
         <v>0</v>
       </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -12985,10 +13227,10 @@
         <v>12</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AC56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AD56">
         <v>4.5</v>
@@ -13003,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="AH56" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ56">
         <v>2</v>
@@ -13011,33 +13253,33 @@
       <c r="AK56">
         <v>2</v>
       </c>
-      <c r="AN56">
-        <v>0</v>
+      <c r="AL56">
+        <v>2</v>
       </c>
       <c r="AO56">
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
         <v>0</v>
       </c>
       <c r="AT56">
         <v>0</v>
       </c>
-      <c r="AU56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY56">
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ56">
         <v>10</v>
       </c>
-      <c r="AZ56">
-        <v>0</v>
-      </c>
       <c r="BA56">
         <v>0</v>
       </c>
@@ -13047,7 +13289,7 @@
       <c r="BC56">
         <v>0</v>
       </c>
-      <c r="BF56">
+      <c r="BD56">
         <v>0</v>
       </c>
       <c r="BG56">
@@ -13062,20 +13304,20 @@
       <c r="BJ56">
         <v>0</v>
       </c>
-      <c r="BL56">
+      <c r="BK56">
         <v>0</v>
       </c>
       <c r="BM56">
         <v>0</v>
       </c>
-      <c r="BN56" s="2" t="s">
-        <v>92</v>
+      <c r="BN56">
+        <v>0</v>
       </c>
       <c r="BO56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP56">
-        <v>0</v>
+      <c r="BP56" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ56">
         <v>0</v>
@@ -13083,13 +13325,16 @@
       <c r="BR56">
         <v>0</v>
       </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -13167,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="AC57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AD57">
         <v>-1</v>
@@ -13190,30 +13435,30 @@
       <c r="AK57">
         <v>2</v>
       </c>
-      <c r="AN57">
-        <v>1</v>
+      <c r="AL57">
+        <v>2</v>
       </c>
       <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
         <v>0.4</v>
       </c>
-      <c r="AP57">
-        <v>1</v>
-      </c>
       <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
         <v>0</v>
       </c>
       <c r="AT57">
         <v>0</v>
       </c>
-      <c r="AY57">
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AZ57">
         <v>10</v>
       </c>
-      <c r="AZ57">
-        <v>0</v>
-      </c>
       <c r="BA57">
         <v>0</v>
       </c>
@@ -13223,35 +13468,35 @@
       <c r="BC57">
         <v>0</v>
       </c>
-      <c r="BF57">
+      <c r="BD57">
         <v>0</v>
       </c>
       <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
         <v>0.1</v>
       </c>
-      <c r="BH57">
-        <v>1</v>
-      </c>
       <c r="BI57">
         <v>1</v>
       </c>
       <c r="BJ57">
         <v>1</v>
       </c>
-      <c r="BL57">
-        <v>0</v>
+      <c r="BK57">
+        <v>1</v>
       </c>
       <c r="BM57">
         <v>0</v>
       </c>
-      <c r="BN57" s="2" t="s">
-        <v>92</v>
+      <c r="BN57">
+        <v>0</v>
       </c>
       <c r="BO57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BP57">
-        <v>0</v>
+      <c r="BP57" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="BQ57">
         <v>0</v>
@@ -13259,13 +13504,16 @@
       <c r="BR57">
         <v>0</v>
       </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -13340,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="AB58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -13367,35 +13615,35 @@
         <v>2</v>
       </c>
       <c r="AL58">
+        <v>2</v>
+      </c>
+      <c r="AM58">
         <v>65</v>
       </c>
-      <c r="AM58">
+      <c r="AN58">
         <v>64</v>
       </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
       <c r="AO58">
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
         <v>0</v>
       </c>
       <c r="AT58">
         <v>0</v>
       </c>
-      <c r="AY58">
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
         <v>10</v>
       </c>
-      <c r="AZ58">
-        <v>0</v>
-      </c>
       <c r="BA58">
         <v>0</v>
       </c>
@@ -13405,7 +13653,7 @@
       <c r="BC58">
         <v>0</v>
       </c>
-      <c r="BF58">
+      <c r="BD58">
         <v>0</v>
       </c>
       <c r="BG58">
@@ -13420,34 +13668,37 @@
       <c r="BJ58">
         <v>0</v>
       </c>
-      <c r="BL58">
+      <c r="BK58">
         <v>0</v>
       </c>
       <c r="BM58">
         <v>0</v>
       </c>
-      <c r="BN58" s="2" t="s">
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BO58" s="2" t="s">
+      <c r="BP58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BP58">
-        <v>0</v>
-      </c>
       <c r="BQ58">
         <v>0</v>
       </c>
       <c r="BR58">
         <v>0</v>
       </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -13525,25 +13776,25 @@
         <v>20</v>
       </c>
       <c r="AB59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD59">
+        <v>-1</v>
+      </c>
+      <c r="AE59">
+        <v>2</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="AD59">
-        <v>-1</v>
-      </c>
-      <c r="AE59">
-        <v>2</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="AI59">
         <v>66</v>
@@ -13554,30 +13805,30 @@
       <c r="AK59">
         <v>2</v>
       </c>
-      <c r="AN59">
-        <v>0</v>
+      <c r="AL59">
+        <v>2</v>
       </c>
       <c r="AO59">
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
         <v>0</v>
       </c>
       <c r="AT59">
         <v>0</v>
       </c>
-      <c r="AY59">
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
         <v>10</v>
       </c>
-      <c r="AZ59">
-        <v>0</v>
-      </c>
       <c r="BA59">
         <v>0</v>
       </c>
@@ -13587,7 +13838,7 @@
       <c r="BC59">
         <v>0</v>
       </c>
-      <c r="BF59">
+      <c r="BD59">
         <v>0</v>
       </c>
       <c r="BG59">
@@ -13602,26 +13853,757 @@
       <c r="BJ59">
         <v>0</v>
       </c>
-      <c r="BL59">
+      <c r="BK59">
         <v>0</v>
       </c>
       <c r="BM59">
         <v>0</v>
       </c>
-      <c r="BN59" s="2" t="s">
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BO59" s="2" t="s">
+      <c r="BP59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BP59">
-        <v>0</v>
-      </c>
       <c r="BQ59">
         <v>0</v>
       </c>
       <c r="BR59">
         <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>0.9</v>
+      </c>
+      <c r="P60">
+        <v>0.4</v>
+      </c>
+      <c r="Q60">
+        <v>10</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
+        <v>2</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>-1</v>
+      </c>
+      <c r="AE60">
+        <v>2</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI60">
+        <v>67</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
+        <v>68</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BC60">
+        <v>0</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ60">
+        <v>0</v>
+      </c>
+      <c r="BR60">
+        <v>0</v>
+      </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0.9</v>
+      </c>
+      <c r="P61">
+        <v>0.4</v>
+      </c>
+      <c r="Q61">
+        <v>10</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>4</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>2</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>8</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>-1</v>
+      </c>
+      <c r="AE61">
+        <v>2</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI61">
+        <v>69</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
+      <c r="AL61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>1016</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>0</v>
+      </c>
+      <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
+        <v>0</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ61">
+        <v>0</v>
+      </c>
+      <c r="BR61">
+        <v>0</v>
+      </c>
+      <c r="BS61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2.75</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>0.9</v>
+      </c>
+      <c r="P62">
+        <v>0.4</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>4</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <v>-1</v>
+      </c>
+      <c r="Y62">
+        <v>2</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>2.75</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD62">
+        <v>-1</v>
+      </c>
+      <c r="AE62">
+        <v>2</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
+      <c r="AL62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>0.2</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AZ62">
+        <v>10</v>
+      </c>
+      <c r="BA62">
+        <v>0</v>
+      </c>
+      <c r="BB62">
+        <v>0</v>
+      </c>
+      <c r="BC62">
+        <v>0</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ62">
+        <v>0</v>
+      </c>
+      <c r="BR62">
+        <v>0</v>
+      </c>
+      <c r="BS62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>-1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0.9</v>
+      </c>
+      <c r="P63">
+        <v>1.33</v>
+      </c>
+      <c r="Q63">
+        <v>10</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>4</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>-1</v>
+      </c>
+      <c r="Y63">
+        <v>2</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>3</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD63">
+        <v>-1</v>
+      </c>
+      <c r="AE63">
+        <v>2</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>1</v>
+      </c>
+      <c r="AH63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>2</v>
+      </c>
+      <c r="AL63">
+        <v>2</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>10</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ63">
+        <v>0</v>
+      </c>
+      <c r="BR63">
+        <v>7</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1851,7 +1851,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="249">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2774,6 +2774,14 @@
   </si>
   <si>
     <t>1,2,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3148,11 +3156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV65"/>
+  <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L70" sqref="L70"/>
+      <selection pane="bottomLeft" activeCell="AF74" sqref="AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15658,6 +15666,388 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>0.9</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>4</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
+        <v>2</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>-1</v>
+      </c>
+      <c r="AH66">
+        <v>2</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>2</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>1</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>1017</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <v>0</v>
+      </c>
+      <c r="BR66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>-1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>0.9</v>
+      </c>
+      <c r="S67">
+        <v>0.5</v>
+      </c>
+      <c r="T67">
+        <v>10</v>
+      </c>
+      <c r="U67">
+        <v>6</v>
+      </c>
+      <c r="V67">
+        <v>6</v>
+      </c>
+      <c r="W67">
+        <v>3</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
+        <v>2</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>14</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>-1</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>1</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>1018</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BR67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT67">
+        <v>0</v>
+      </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1851,7 +1851,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2782,6 +2782,50 @@
   </si>
   <si>
     <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35,30,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,79,80,81,82,83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3156,11 +3200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV67"/>
+  <dimension ref="A1:BV71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF74" sqref="AF74"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL71" sqref="AL71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16048,6 +16092,779 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>-1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>0.9</v>
+      </c>
+      <c r="S68">
+        <v>0.1</v>
+      </c>
+      <c r="T68">
+        <v>10</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>4</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>-1</v>
+      </c>
+      <c r="AB68">
+        <v>2</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0.1</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>-1</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>1</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL68">
+        <v>74</v>
+      </c>
+      <c r="AM68">
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>10</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>0</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>-1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>6</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>0.9</v>
+      </c>
+      <c r="S69">
+        <v>0.3</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>2</v>
+      </c>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
+        <v>2</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>6</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>3.8</v>
+      </c>
+      <c r="AH69">
+        <v>2</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM69">
+        <v>2</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>0</v>
+      </c>
+      <c r="BR69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+      <c r="BV69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>0.9</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>10</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>2</v>
+      </c>
+      <c r="W70">
+        <v>4</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>2</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>2</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>14</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG70">
+        <v>-1</v>
+      </c>
+      <c r="AH70">
+        <v>2</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL70">
+        <v>77</v>
+      </c>
+      <c r="AM70">
+        <v>2</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>76</v>
+      </c>
+      <c r="AR70">
+        <v>2</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>1</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+      <c r="BQ70">
+        <v>0</v>
+      </c>
+      <c r="BR70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>0</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>6</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>0.9</v>
+      </c>
+      <c r="S71">
+        <v>0.4</v>
+      </c>
+      <c r="T71">
+        <v>10</v>
+      </c>
+      <c r="U71">
+        <v>6</v>
+      </c>
+      <c r="V71">
+        <v>6</v>
+      </c>
+      <c r="W71">
+        <v>3</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>3</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>8</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>-1</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM71">
+        <v>2</v>
+      </c>
+      <c r="AN71">
+        <v>2</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>10</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BR71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1151,7 +1151,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//触发需满足的额外条件 0:表示没有额外条件 1:表示范围内地方英雄不超过几个 2:表示范围内敌方单位不超过几个</t>
+//触发需满足的额外条件 0:表示没有额外条件 1:表示范围内地方英雄不超过几个 2:表示范围内敌方单位不超过几个 3:有特定buff</t>
         </r>
       </text>
     </comment>
@@ -1633,7 +1633,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷</t>
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷  4:向前拉</t>
         </r>
       </text>
     </comment>
@@ -1851,7 +1851,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="271">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2826,6 +2826,49 @@
   </si>
   <si>
     <t>78,79,80,81,82,83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,70,80,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.8,2.2,2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3200,11 +3243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV71"/>
+  <dimension ref="A1:BV75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL71" sqref="AL71"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO80" sqref="AO80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16865,6 +16908,782 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>0.9</v>
+      </c>
+      <c r="S72">
+        <v>0.3</v>
+      </c>
+      <c r="T72">
+        <v>10</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>2.6</v>
+      </c>
+      <c r="AE72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>2.6</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM72">
+        <v>2</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>85</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>1</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+      <c r="BQ72">
+        <v>0</v>
+      </c>
+      <c r="BR72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>0.9</v>
+      </c>
+      <c r="S73">
+        <v>0.1</v>
+      </c>
+      <c r="T73">
+        <v>10</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>4</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
+        <v>2</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>3.5</v>
+      </c>
+      <c r="AE73">
+        <v>16</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>-1</v>
+      </c>
+      <c r="AH73">
+        <v>2</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM73">
+        <v>2</v>
+      </c>
+      <c r="AN73">
+        <v>2</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AP73">
+        <v>85</v>
+      </c>
+      <c r="AR73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>1</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="s">
+        <v>265</v>
+      </c>
+      <c r="BL73">
+        <v>1</v>
+      </c>
+      <c r="BM73">
+        <v>2</v>
+      </c>
+      <c r="BN73">
+        <v>4</v>
+      </c>
+      <c r="BO73">
+        <v>84</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+      <c r="BQ73">
+        <v>0</v>
+      </c>
+      <c r="BR73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT73">
+        <v>0</v>
+      </c>
+      <c r="BU73">
+        <v>0</v>
+      </c>
+      <c r="BV73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>-1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>0.9</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>10</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>4</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>2</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
+        <v>2</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>2</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>2</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>1</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>85</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>1021</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+      <c r="BQ74">
+        <v>0</v>
+      </c>
+      <c r="BR74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT74">
+        <v>0</v>
+      </c>
+      <c r="BU74">
+        <v>0</v>
+      </c>
+      <c r="BV74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:74" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>-1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>269</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>0.9</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>10</v>
+      </c>
+      <c r="U75">
+        <v>6</v>
+      </c>
+      <c r="V75">
+        <v>6</v>
+      </c>
+      <c r="W75">
+        <v>3</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>3</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
+        <v>2</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>8</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>100</v>
+      </c>
+      <c r="AM75">
+        <v>2</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>85</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>1</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0.5</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM75">
+        <v>2</v>
+      </c>
+      <c r="BN75">
+        <v>2</v>
+      </c>
+      <c r="BO75">
+        <v>87</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+      <c r="BQ75">
+        <v>0</v>
+      </c>
+      <c r="BR75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT75">
+        <v>0</v>
+      </c>
+      <c r="BU75">
+        <v>0</v>
+      </c>
+      <c r="BV75">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1907,7 +1907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="283">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1938,1040 +1938,1041 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HurtType</t>
+  </si>
+  <si>
+    <t>TriggerAttackEffect</t>
+  </si>
+  <si>
+    <t>CastPoint</t>
+  </si>
+  <si>
+    <t>CastTime</t>
+  </si>
+  <si>
+    <t>RequiredLevel</t>
+  </si>
+  <si>
+    <t>LevelsBetweenUpgrades</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>CastRange</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>HurtValue</t>
+  </si>
+  <si>
+    <t>HurtRange</t>
+  </si>
+  <si>
+    <t>NormalHurt</t>
+  </si>
+  <si>
+    <t>ManaCost</t>
+  </si>
+  <si>
+    <t>TargetBuff</t>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.25,7.50,9.75,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA的b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,40,45,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlinkToTarget</t>
+  </si>
+  <si>
+    <t>MyBuff</t>
+  </si>
+  <si>
+    <t>PA的闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBuff</t>
+  </si>
+  <si>
+    <t>60,55,50,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerTime</t>
+  </si>
+  <si>
+    <t>TriggerProbability</t>
+  </si>
+  <si>
+    <t>TriggerCrit</t>
+  </si>
+  <si>
+    <t>PA的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3.25,4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyHalo</t>
+  </si>
+  <si>
+    <t>InitHalo</t>
+  </si>
+  <si>
+    <t>120,110,100,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,34,26,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyClearLevel</t>
+  </si>
+  <si>
+    <t>TargetClearLevel</t>
+  </si>
+  <si>
+    <t>CallUnitCount</t>
+  </si>
+  <si>
+    <t>CallUnitTypeID</t>
+  </si>
+  <si>
+    <t>CallUnitBuff</t>
+  </si>
+  <si>
+    <t>CallUnitHalo</t>
+  </si>
+  <si>
+    <t>CallUnitOffsetPos</t>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.25,0.3,0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,275,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,9,7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwaysHurt</t>
+  </si>
+  <si>
+    <t>小黑沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveSpeedSize</t>
+  </si>
+  <si>
+    <t>ForceMoveLevel</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareDodge</t>
+  </si>
+  <si>
+    <t>PhysicalAmaorCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveBuff</t>
+  </si>
+  <si>
+    <t>AddHPType</t>
+  </si>
+  <si>
+    <t>AddHPValue</t>
+  </si>
+  <si>
+    <t>AddHPTarget</t>
+  </si>
+  <si>
+    <t>虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastTargetRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,35,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetHalo</t>
+  </si>
+  <si>
+    <t>1004,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,165,195,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,120,130,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,3,3.5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.6,1.8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,200,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5,9,9.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14,21,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,16,14,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,175,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25,3.5,3.75,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,22,18,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40:1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,350,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDoHurtChangeHurtCR</t>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,100,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,140,210,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,100,120,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>VisibleRelationSkillID</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,110,120,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,160,220,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,60,70,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimotorState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,120,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,110,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletCount</t>
+  </si>
+  <si>
+    <t>PathHalo</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,140,190,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,120,140,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathHaloMinTime</t>
+  </si>
+  <si>
+    <t>TriggerOtherRule</t>
+  </si>
+  <si>
+    <t>TriggerOtherRuleParam</t>
+  </si>
+  <si>
+    <t>4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,150,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,200,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitTargetCamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchedPlaces</t>
+  </si>
+  <si>
+    <t>UnitTargetTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisibleTime</t>
+  </si>
+  <si>
+    <t>UseToHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCount</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,35,55,75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,90,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,225,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,485,650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestForceAttackSrc</t>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,90,10,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45,0.4,0.35,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,100,140,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,120,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71:250:9,71:325:9,71:400:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,65,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EjectionCount</t>
+  </si>
+  <si>
+    <t>EjectionRange</t>
+  </si>
+  <si>
+    <t>EjectionDecay</t>
+  </si>
+  <si>
+    <t>月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35,30,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,79,80,81,82,83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,70,80,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.8,2.2,2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherManaCostType</t>
+  </si>
+  <si>
+    <t>OtherManaCostVal</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,24,20,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,350,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92,93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BulletSpeed</t>
-  </si>
-  <si>
-    <t>HurtType</t>
-  </si>
-  <si>
-    <t>TriggerAttackEffect</t>
-  </si>
-  <si>
-    <t>CastPoint</t>
-  </si>
-  <si>
-    <t>CastTime</t>
-  </si>
-  <si>
-    <t>RequiredLevel</t>
-  </si>
-  <si>
-    <t>LevelsBetweenUpgrades</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>CastRange</t>
-  </si>
-  <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
-    <t>HurtValue</t>
-  </si>
-  <si>
-    <t>HurtRange</t>
-  </si>
-  <si>
-    <t>NormalHurt</t>
-  </si>
-  <si>
-    <t>ManaCost</t>
-  </si>
-  <si>
-    <t>TargetBuff</t>
-  </si>
-  <si>
-    <t>0.25,0.4,0.55,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.25,7.50,9.75,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA的b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,40,45,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkToTarget</t>
-  </si>
-  <si>
-    <t>MyBuff</t>
-  </si>
-  <si>
-    <t>PA的闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitBuff</t>
-  </si>
-  <si>
-    <t>60,55,50,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerTime</t>
-  </si>
-  <si>
-    <t>TriggerProbability</t>
-  </si>
-  <si>
-    <t>TriggerCrit</t>
-  </si>
-  <si>
-    <t>PA的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3.25,4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyHalo</t>
-  </si>
-  <si>
-    <t>InitHalo</t>
-  </si>
-  <si>
-    <t>120,110,100,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,34,26,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyClearLevel</t>
-  </si>
-  <si>
-    <t>TargetClearLevel</t>
-  </si>
-  <si>
-    <t>CallUnitCount</t>
-  </si>
-  <si>
-    <t>CallUnitTypeID</t>
-  </si>
-  <si>
-    <t>CallUnitBuff</t>
-  </si>
-  <si>
-    <t>CallUnitHalo</t>
-  </si>
-  <si>
-    <t>CallUnitOffsetPos</t>
-  </si>
-  <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.25,0.3,0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,275,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,9,7,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwaysHurt</t>
-  </si>
-  <si>
-    <t>小黑沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6,0.7,0.8,0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveSpeedSize</t>
-  </si>
-  <si>
-    <t>ForceMoveLevel</t>
-  </si>
-  <si>
-    <t>小黑光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCareDodge</t>
-  </si>
-  <si>
-    <t>PhysicalAmaorCV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,18,16,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveBuff</t>
-  </si>
-  <si>
-    <t>AddHPType</t>
-  </si>
-  <si>
-    <t>AddHPValue</t>
-  </si>
-  <si>
-    <t>AddHPTarget</t>
-  </si>
-  <si>
-    <t>虚空的时间膨胀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,34,28,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastTargetRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,35,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.14,0.18,0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,130,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetHalo</t>
-  </si>
-  <si>
-    <t>1004,1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,165,195,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,120,130,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>ExceptionParam</t>
-  </si>
-  <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5,3,3.5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.6,1.8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalHurtAddHP</t>
-  </si>
-  <si>
-    <t>MagicHurtAddHP</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25,0.4,0.55,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,200,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5,9,9.5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,14,21,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,16,14,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,40,35,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,85,100,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,120,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,175,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.25,3.5,3.75,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,22,18,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40:1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,20,15,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,85,100,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,100,110,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,350,450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EveryDoHurtChangeHurtCR</t>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,13,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,100,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,140,210,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,100,120,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>VisibleRelationSkillID</t>
-  </si>
-  <si>
-    <t>InitLevel</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,15,14,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,110,120,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,160,220,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,65,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,160,230,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,60,70,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimotorState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,120,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,110,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletCount</t>
-  </si>
-  <si>
-    <t>PathHalo</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,140,190,240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,120,140,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013,1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathHaloMinTime</t>
-  </si>
-  <si>
-    <t>TriggerOtherRule</t>
-  </si>
-  <si>
-    <t>TriggerOtherRuleParam</t>
-  </si>
-  <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,150,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,200,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitTargetCamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchedPlaces</t>
-  </si>
-  <si>
-    <t>UnitTargetTeam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisibleTime</t>
-  </si>
-  <si>
-    <t>UseToHide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCount</t>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,35,55,75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,60,90,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,225,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320,485,650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestForceAttackSrc</t>
-  </si>
-  <si>
-    <t>斧王吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,90,10,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45,0.4,0.35,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,100,140,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,120,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71:250:9,71:325:9,71:400:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,65,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EjectionCount</t>
-  </si>
-  <si>
-    <t>EjectionRange</t>
-  </si>
-  <si>
-    <t>EjectionDecay</t>
-  </si>
-  <si>
-    <t>月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35,30,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,175,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78,79,80,81,82,83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,70,80,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.8,2.2,2.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherManaCostType</t>
-  </si>
-  <si>
-    <t>OtherManaCostVal</t>
-  </si>
-  <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,24,20,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师歇心光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,350,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92,93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3348,16 +3349,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC85" sqref="BC85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="29.25" customWidth="1"/>
     <col min="15" max="15" width="10.25" customWidth="1"/>
     <col min="30" max="30" width="16.125" customWidth="1"/>
     <col min="31" max="31" width="12.875" customWidth="1"/>
@@ -3385,28 +3386,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -3415,190 +3416,190 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AW1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="AY1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="BD1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="BP1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="BW1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.15">
@@ -3690,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2">
         <v>6</v>
@@ -3705,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="AI2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -3786,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="BT2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU2" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -3806,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3890,7 +3891,7 @@
         <v>20</v>
       </c>
       <c r="AE3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3908,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -3983,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="BT3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU3" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -4003,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4087,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -4183,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV4">
         <v>0</v>
@@ -4203,7 +4204,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4329,7 +4330,7 @@
         <v>0.15</v>
       </c>
       <c r="AV5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -4377,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="BT5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -4397,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4481,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -4499,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -4577,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="BT6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV6">
         <v>0</v>
@@ -4597,7 +4598,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4750,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="BJ7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BK7">
         <v>1001</v>
@@ -4777,10 +4778,10 @@
         <v>0</v>
       </c>
       <c r="BT7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -4797,7 +4798,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4920,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="AU8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AV8">
         <v>1.8</v>
@@ -4971,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="BT8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV8">
         <v>0</v>
@@ -4991,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5093,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -5172,10 +5173,10 @@
         <v>0</v>
       </c>
       <c r="BT9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV9">
         <v>0</v>
@@ -5192,7 +5193,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5227,6 +5228,9 @@
       <c r="M10">
         <v>2</v>
       </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -5369,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="BT10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV10">
         <v>0</v>
@@ -5389,7 +5393,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5424,8 +5428,8 @@
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
-        <v>6</v>
+      <c r="N11">
+        <v>2</v>
       </c>
       <c r="O11">
         <v>7</v>
@@ -5551,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="BM11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -5569,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="BT11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV11">
         <v>0</v>
@@ -5589,7 +5593,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5766,10 +5770,10 @@
         <v>0</v>
       </c>
       <c r="BT12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV12">
         <v>0</v>
@@ -5786,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -5821,6 +5825,9 @@
       <c r="M13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -5918,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AY13">
         <v>1</v>
@@ -5963,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="BT13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV13">
         <v>0</v>
@@ -5983,7 +5990,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6067,7 +6074,7 @@
         <v>6.75</v>
       </c>
       <c r="AE14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -6160,10 +6167,10 @@
         <v>2</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV14">
         <v>1</v>
@@ -6180,7 +6187,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6264,7 +6271,7 @@
         <v>7.75</v>
       </c>
       <c r="AE15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -6360,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="BT15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV15">
         <v>0</v>
@@ -6380,7 +6387,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6467,7 +6474,7 @@
         <v>0.1</v>
       </c>
       <c r="AF16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG16">
         <v>-1</v>
@@ -6506,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="AU16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV16">
         <v>2</v>
@@ -6557,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="BT16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV16">
         <v>0</v>
@@ -6577,7 +6584,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6661,7 +6668,7 @@
         <v>6</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -6679,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -6715,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BE17">
         <v>10</v>
@@ -6754,10 +6761,10 @@
         <v>0</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV17">
         <v>0</v>
@@ -6774,7 +6781,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6861,25 +6868,25 @@
         <v>7</v>
       </c>
       <c r="AE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18">
+        <v>-1</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="AG18">
-        <v>-1</v>
-      </c>
-      <c r="AH18">
-        <v>2</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -6954,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="BT18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV18">
         <v>0</v>
@@ -6974,7 +6981,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7055,28 +7062,28 @@
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG19">
+        <v>-1</v>
+      </c>
+      <c r="AH19">
+        <v>2</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="AG19">
-        <v>-1</v>
-      </c>
-      <c r="AH19">
-        <v>2</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -7151,10 +7158,10 @@
         <v>0</v>
       </c>
       <c r="BT19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV19">
         <v>0</v>
@@ -7163,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="BX19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:76" x14ac:dyDescent="0.15">
@@ -7171,7 +7178,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -7297,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="AV20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -7345,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="BT20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV20">
         <v>0</v>
@@ -7365,7 +7372,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7467,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -7521,7 +7528,7 @@
         <v>-1</v>
       </c>
       <c r="BJ21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BL21">
         <v>2</v>
@@ -7545,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="BT21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV21">
         <v>0</v>
@@ -7565,7 +7572,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7652,7 +7659,7 @@
         <v>5</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG22">
         <v>3.85</v>
@@ -7742,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="BT22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV22">
         <v>0</v>
@@ -7762,7 +7769,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -7846,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -7939,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="BT23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU23" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV23">
         <v>0</v>
@@ -7959,7 +7966,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -8046,7 +8053,7 @@
         <v>0.1</v>
       </c>
       <c r="AF24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG24">
         <v>-1</v>
@@ -8136,10 +8143,10 @@
         <v>0</v>
       </c>
       <c r="BT24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV24">
         <v>0</v>
@@ -8148,7 +8155,7 @@
         <v>2</v>
       </c>
       <c r="BX24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:76" x14ac:dyDescent="0.15">
@@ -8156,7 +8163,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -8240,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -8333,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="BT25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV25">
         <v>0</v>
@@ -8353,7 +8360,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8437,7 +8444,7 @@
         <v>10</v>
       </c>
       <c r="AE26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -8530,10 +8537,10 @@
         <v>0</v>
       </c>
       <c r="BT26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU26" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU26" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV26">
         <v>0</v>
@@ -8550,7 +8557,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8634,7 +8641,7 @@
         <v>8</v>
       </c>
       <c r="AE27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -8652,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="AK27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -8727,10 +8734,10 @@
         <v>0</v>
       </c>
       <c r="BT27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV27">
         <v>0</v>
@@ -8747,7 +8754,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -8924,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="BT28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV28">
         <v>0</v>
@@ -8944,7 +8951,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9121,10 +9128,10 @@
         <v>0</v>
       </c>
       <c r="BT29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU29" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU29" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV29">
         <v>0</v>
@@ -9141,7 +9148,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9225,25 +9232,25 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>-1</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>-1</v>
-      </c>
-      <c r="AH30">
-        <v>2</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -9297,7 +9304,7 @@
         <v>-1</v>
       </c>
       <c r="BJ30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BL30">
         <v>2</v>
@@ -9321,10 +9328,10 @@
         <v>0</v>
       </c>
       <c r="BT30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV30">
         <v>0</v>
@@ -9341,7 +9348,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9446,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="AK31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -9521,10 +9528,10 @@
         <v>0</v>
       </c>
       <c r="BT31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU31" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV31">
         <v>0</v>
@@ -9541,7 +9548,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -9718,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="BT32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BU32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV32">
         <v>0</v>
@@ -9738,7 +9745,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -9822,25 +9829,25 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>-1</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>-1</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -9915,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="BT33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV33">
         <v>0</v>
@@ -9935,7 +9942,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -10019,61 +10026,61 @@
         <v>4</v>
       </c>
       <c r="AE34" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH34">
+        <v>2</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH34">
-        <v>2</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="2" t="s">
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>2</v>
-      </c>
-      <c r="AP34">
-        <v>2</v>
-      </c>
-      <c r="AQ34">
-        <v>2</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="BE34">
         <v>10</v>
@@ -10112,10 +10119,10 @@
         <v>0</v>
       </c>
       <c r="BT34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV34">
         <v>0</v>
@@ -10132,7 +10139,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -10309,10 +10316,10 @@
         <v>0</v>
       </c>
       <c r="BT35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV35">
         <v>1</v>
@@ -10321,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="BX35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:76" x14ac:dyDescent="0.15">
@@ -10329,7 +10336,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -10413,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -10506,10 +10513,10 @@
         <v>0</v>
       </c>
       <c r="BT36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU36" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU36" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV36">
         <v>0</v>
@@ -10526,7 +10533,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -10703,10 +10710,10 @@
         <v>0</v>
       </c>
       <c r="BT37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV37">
         <v>0</v>
@@ -10723,7 +10730,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -10810,25 +10817,25 @@
         <v>8</v>
       </c>
       <c r="AE38" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>-1</v>
+      </c>
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38" t="s">
         <v>148</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>-1</v>
-      </c>
-      <c r="AH38">
-        <v>2</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>149</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -10900,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="BT38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU38" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU38" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV38">
         <v>0</v>
@@ -10912,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="BX38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:76" x14ac:dyDescent="0.15">
@@ -10920,7 +10927,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -10955,7 +10962,7 @@
       <c r="M39">
         <v>2</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39">
         <v>6</v>
       </c>
       <c r="O39">
@@ -11007,10 +11014,10 @@
         <v>26</v>
       </c>
       <c r="AE39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG39">
         <v>1.5</v>
@@ -11025,7 +11032,7 @@
         <v>0.8</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -11097,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="BT39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV39">
         <v>0</v>
@@ -11117,7 +11124,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -11201,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -11297,10 +11304,10 @@
         <v>0</v>
       </c>
       <c r="BT40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU40" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU40" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV40">
         <v>0</v>
@@ -11317,7 +11324,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -11401,7 +11408,7 @@
         <v>10</v>
       </c>
       <c r="AE41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -11419,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="AK41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -11494,10 +11501,10 @@
         <v>0</v>
       </c>
       <c r="BT41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU41" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU41" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV41">
         <v>0</v>
@@ -11514,7 +11521,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -11601,10 +11608,10 @@
         <v>19.5</v>
       </c>
       <c r="AE42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF42" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="AF42" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="AG42">
         <v>2.5</v>
@@ -11619,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="AK42" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -11691,10 +11698,10 @@
         <v>0</v>
       </c>
       <c r="BT42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV42">
         <v>0</v>
@@ -11711,7 +11718,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -11885,10 +11892,10 @@
         <v>0</v>
       </c>
       <c r="BT43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU43" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU43" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV43">
         <v>0</v>
@@ -11905,7 +11912,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -11989,10 +11996,10 @@
         <v>4</v>
       </c>
       <c r="AE44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG44">
         <v>4</v>
@@ -12007,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -12082,10 +12089,10 @@
         <v>0</v>
       </c>
       <c r="BT44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU44" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV44">
         <v>0</v>
@@ -12102,7 +12109,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -12279,10 +12286,10 @@
         <v>0</v>
       </c>
       <c r="BT45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU45" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU45" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV45">
         <v>0</v>
@@ -12299,7 +12306,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -12383,7 +12390,7 @@
         <v>6</v>
       </c>
       <c r="AE46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -12401,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="AK46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -12410,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AN46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO46">
         <v>2</v>
@@ -12477,10 +12484,10 @@
         <v>0</v>
       </c>
       <c r="BT46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU46" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV46">
         <v>0</v>
@@ -12497,7 +12504,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -12584,7 +12591,7 @@
         <v>3</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG47">
         <v>3</v>
@@ -12599,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="AK47" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL47">
         <v>0</v>
@@ -12677,10 +12684,10 @@
         <v>0</v>
       </c>
       <c r="BT47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU47" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV47">
         <v>0</v>
@@ -12689,7 +12696,7 @@
         <v>6</v>
       </c>
       <c r="BX47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:76" x14ac:dyDescent="0.15">
@@ -12697,7 +12704,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -12784,7 +12791,7 @@
         <v>3</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG48">
         <v>3</v>
@@ -12799,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="AK48" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -12877,10 +12884,10 @@
         <v>0</v>
       </c>
       <c r="BT48" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU48" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV48">
         <v>0</v>
@@ -12889,7 +12896,7 @@
         <v>6</v>
       </c>
       <c r="BX48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:76" x14ac:dyDescent="0.15">
@@ -12897,7 +12904,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -12984,7 +12991,7 @@
         <v>3</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG49">
         <v>3</v>
@@ -12999,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="AK49" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -13074,10 +13081,10 @@
         <v>0</v>
       </c>
       <c r="BT49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU49" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV49">
         <v>0</v>
@@ -13086,7 +13093,7 @@
         <v>6</v>
       </c>
       <c r="BX49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:76" x14ac:dyDescent="0.15">
@@ -13094,7 +13101,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -13181,10 +13188,10 @@
         <v>10</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG50">
         <v>1.5</v>
@@ -13199,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -13274,10 +13281,10 @@
         <v>0</v>
       </c>
       <c r="BT50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV50">
         <v>0</v>
@@ -13294,7 +13301,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -13384,7 +13391,7 @@
         <v>16</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG51">
         <v>1.5</v>
@@ -13399,43 +13406,43 @@
         <v>1</v>
       </c>
       <c r="AK51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>2</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="AL51">
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>2</v>
-      </c>
-      <c r="AP51">
-        <v>2</v>
-      </c>
-      <c r="AQ51">
-        <v>2</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>1</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51">
-        <v>0</v>
-      </c>
-      <c r="BD51" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="BE51">
         <v>0.2</v>
@@ -13474,10 +13481,10 @@
         <v>0</v>
       </c>
       <c r="BT51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV51">
         <v>0</v>
@@ -13494,7 +13501,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -13581,52 +13588,52 @@
         <v>0.1</v>
       </c>
       <c r="AF52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG52">
+        <v>-1</v>
+      </c>
+      <c r="AH52">
+        <v>2</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AT52">
+        <v>1</v>
+      </c>
+      <c r="AU52">
+        <v>1</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="AG52">
-        <v>-1</v>
-      </c>
-      <c r="AH52">
-        <v>2</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>2</v>
-      </c>
-      <c r="AP52">
-        <v>2</v>
-      </c>
-      <c r="AQ52">
-        <v>2</v>
-      </c>
-      <c r="AT52">
-        <v>1</v>
-      </c>
-      <c r="AU52">
-        <v>1</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>2</v>
-      </c>
-      <c r="AX52" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="AY52">
         <v>0</v>
@@ -13671,10 +13678,10 @@
         <v>0</v>
       </c>
       <c r="BT52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU52" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV52">
         <v>0</v>
@@ -13691,7 +13698,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -13868,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="BT53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU53" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU53" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV53">
         <v>0</v>
@@ -13888,7 +13895,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -13972,25 +13979,25 @@
         <v>15</v>
       </c>
       <c r="AE54" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>-1</v>
+      </c>
+      <c r="AH54">
+        <v>2</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>-1</v>
-      </c>
-      <c r="AH54">
-        <v>2</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -14041,7 +14048,7 @@
         <v>-1</v>
       </c>
       <c r="BJ54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL54">
         <v>1</v>
@@ -14065,10 +14072,10 @@
         <v>0</v>
       </c>
       <c r="BT54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV54">
         <v>0</v>
@@ -14085,7 +14092,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -14259,10 +14266,10 @@
         <v>0</v>
       </c>
       <c r="BT55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU55" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU55" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV55">
         <v>0</v>
@@ -14279,7 +14286,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -14366,10 +14373,10 @@
         <v>12</v>
       </c>
       <c r="AE56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF56" t="s">
         <v>218</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>219</v>
       </c>
       <c r="AG56">
         <v>4.5</v>
@@ -14384,43 +14391,43 @@
         <v>1</v>
       </c>
       <c r="AK56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>2</v>
+      </c>
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>1</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="AL56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>2</v>
-      </c>
-      <c r="AP56">
-        <v>2</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>1</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56">
-        <v>0</v>
-      </c>
-      <c r="BA56" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="BE56">
         <v>10</v>
@@ -14459,10 +14466,10 @@
         <v>0</v>
       </c>
       <c r="BT56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV56">
         <v>0</v>
@@ -14479,7 +14486,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -14566,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="AF57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG57">
         <v>-1</v>
@@ -14653,10 +14660,10 @@
         <v>0</v>
       </c>
       <c r="BT57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV57">
         <v>0</v>
@@ -14673,7 +14680,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -14757,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="AE58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -14853,10 +14860,10 @@
         <v>0</v>
       </c>
       <c r="BT58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU58" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU58" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV58">
         <v>0</v>
@@ -14873,7 +14880,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -14960,25 +14967,25 @@
         <v>20</v>
       </c>
       <c r="AE59" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG59">
+        <v>-1</v>
+      </c>
+      <c r="AH59">
+        <v>2</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="AF59" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG59">
-        <v>-1</v>
-      </c>
-      <c r="AH59">
-        <v>2</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
-      <c r="AK59" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="AL59">
         <v>0</v>
@@ -15053,10 +15060,10 @@
         <v>0</v>
       </c>
       <c r="BT59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU59" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU59" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV59">
         <v>0</v>
@@ -15073,7 +15080,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -15157,7 +15164,7 @@
         <v>3</v>
       </c>
       <c r="AE60" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -15175,7 +15182,7 @@
         <v>1</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -15253,10 +15260,10 @@
         <v>0</v>
       </c>
       <c r="BT60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV60">
         <v>0</v>
@@ -15273,7 +15280,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -15357,7 +15364,7 @@
         <v>8</v>
       </c>
       <c r="AE61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -15375,7 +15382,7 @@
         <v>1</v>
       </c>
       <c r="AK61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL61">
         <v>0</v>
@@ -15453,10 +15460,10 @@
         <v>0</v>
       </c>
       <c r="BT61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU61" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU61" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV61">
         <v>0</v>
@@ -15473,7 +15480,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -15557,11 +15564,11 @@
         <v>2.75</v>
       </c>
       <c r="AE62" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF62" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF62" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="AG62">
         <v>-1</v>
       </c>
@@ -15575,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL62">
         <v>0</v>
@@ -15647,10 +15654,10 @@
         <v>0</v>
       </c>
       <c r="BT62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU62" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV62">
         <v>0</v>
@@ -15667,7 +15674,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -15751,25 +15758,25 @@
         <v>3</v>
       </c>
       <c r="AE63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF63" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG63">
+        <v>-1</v>
+      </c>
+      <c r="AH63">
+        <v>2</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="AG63">
-        <v>-1</v>
-      </c>
-      <c r="AH63">
-        <v>2</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="AL63">
         <v>0</v>
@@ -15841,10 +15848,10 @@
         <v>0</v>
       </c>
       <c r="BT63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU63" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU63" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV63">
         <v>0</v>
@@ -15853,7 +15860,7 @@
         <v>7</v>
       </c>
       <c r="BX63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:76" x14ac:dyDescent="0.15">
@@ -15861,7 +15868,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -15948,7 +15955,7 @@
         <v>6</v>
       </c>
       <c r="AF64" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG64">
         <v>-1</v>
@@ -16038,10 +16045,10 @@
         <v>0</v>
       </c>
       <c r="BT64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU64" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU64" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV64">
         <v>0</v>
@@ -16058,25 +16065,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>245</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>-1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>246</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -16233,10 +16240,10 @@
         <v>0</v>
       </c>
       <c r="BT65" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU65" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV65">
         <v>0</v>
@@ -16253,7 +16260,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -16430,10 +16437,10 @@
         <v>0</v>
       </c>
       <c r="BT66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU66" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU66" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV66">
         <v>0</v>
@@ -16450,7 +16457,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -16552,7 +16559,7 @@
         <v>1</v>
       </c>
       <c r="AK67" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL67">
         <v>0</v>
@@ -16627,10 +16634,10 @@
         <v>0</v>
       </c>
       <c r="BT67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU67" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU67" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV67">
         <v>0</v>
@@ -16647,7 +16654,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -16749,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="AK68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL68">
         <v>0</v>
@@ -16824,10 +16831,10 @@
         <v>0</v>
       </c>
       <c r="BT68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV68">
         <v>0</v>
@@ -16844,7 +16851,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -16931,7 +16938,7 @@
         <v>6</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -16949,7 +16956,7 @@
         <v>1</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -16985,7 +16992,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BE69">
         <v>10</v>
@@ -17024,10 +17031,10 @@
         <v>0</v>
       </c>
       <c r="BT69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV69">
         <v>0</v>
@@ -17044,7 +17051,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -17128,10 +17135,10 @@
         <v>14</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG70">
         <v>-1</v>
@@ -17146,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="AK70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AL70">
         <v>0</v>
@@ -17224,10 +17231,10 @@
         <v>0</v>
       </c>
       <c r="BT70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV70">
         <v>0</v>
@@ -17244,7 +17251,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -17331,34 +17338,34 @@
         <v>8</v>
       </c>
       <c r="AE71" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>-1</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>-1</v>
-      </c>
-      <c r="AH71">
-        <v>2</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <v>1</v>
-      </c>
-      <c r="AK71" s="2" t="s">
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71" t="s">
         <v>258</v>
-      </c>
-      <c r="AL71">
-        <v>0</v>
-      </c>
-      <c r="AM71">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>259</v>
       </c>
       <c r="AO71">
         <v>2</v>
@@ -17424,10 +17431,10 @@
         <v>0</v>
       </c>
       <c r="BT71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU71" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="BU71" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="BV71">
         <v>0</v>
@@ -17444,7 +17451,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -17528,7 +17535,7 @@
         <v>2.6</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -17546,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -17585,7 +17592,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BE72">
         <v>10</v>
@@ -17624,10 +17631,10 @@
         <v>0</v>
       </c>
       <c r="BT72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV72">
         <v>0</v>
@@ -17644,7 +17651,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -17746,7 +17753,7 @@
         <v>1</v>
       </c>
       <c r="AK73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL73">
         <v>0</v>
@@ -17803,7 +17810,7 @@
         <v>0</v>
       </c>
       <c r="BM73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BN73">
         <v>1</v>
@@ -17824,10 +17831,10 @@
         <v>0</v>
       </c>
       <c r="BT73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU73" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV73">
         <v>0</v>
@@ -17844,7 +17851,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -18024,10 +18031,10 @@
         <v>0</v>
       </c>
       <c r="BT74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU74" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="BU74" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BV74">
         <v>0</v>
@@ -18044,7 +18051,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -18080,7 +18087,7 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -18131,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="AF75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG75">
         <v>2</v>
@@ -18206,7 +18213,7 @@
         <v>0.5</v>
       </c>
       <c r="BN75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BO75">
         <v>2</v>
@@ -18224,10 +18231,10 @@
         <v>0</v>
       </c>
       <c r="BT75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU75" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV75">
         <v>0</v>
@@ -18244,7 +18251,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -18331,25 +18338,25 @@
         <v>4.75</v>
       </c>
       <c r="AE76" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>-1</v>
+      </c>
+      <c r="AH76">
+        <v>2</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>1</v>
+      </c>
+      <c r="AK76" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>-1</v>
-      </c>
-      <c r="AH76">
-        <v>2</v>
-      </c>
-      <c r="AI76">
-        <v>0</v>
-      </c>
-      <c r="AJ76">
-        <v>1</v>
-      </c>
-      <c r="AK76" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="AL76">
         <v>0</v>
@@ -18421,13 +18428,13 @@
         <v>1</v>
       </c>
       <c r="BS76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BT76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BU76" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BV76">
         <v>2</v>
@@ -18444,7 +18451,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -18528,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="AE77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -18624,10 +18631,10 @@
         <v>0</v>
       </c>
       <c r="BT77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU77" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV77">
         <v>0</v>
@@ -18644,7 +18651,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -18824,10 +18831,10 @@
         <v>0</v>
       </c>
       <c r="BT78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV78">
         <v>0</v>
@@ -18836,7 +18843,7 @@
         <v>8</v>
       </c>
       <c r="BX78" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:76" x14ac:dyDescent="0.15">
@@ -18844,7 +18851,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -18946,16 +18953,16 @@
         <v>1</v>
       </c>
       <c r="AK79" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79" t="s">
         <v>281</v>
-      </c>
-      <c r="AL79">
-        <v>0</v>
-      </c>
-      <c r="AM79">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="s">
-        <v>282</v>
       </c>
       <c r="AO79">
         <v>2</v>
@@ -19021,10 +19028,10 @@
         <v>0</v>
       </c>
       <c r="BT79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV79">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1933,7 +1933,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="284">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3378,9 +3378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BO73" sqref="BO73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15127,8 +15127,8 @@
       <c r="M59">
         <v>2</v>
       </c>
-      <c r="N59" t="s">
-        <v>6</v>
+      <c r="N59">
+        <v>13</v>
       </c>
       <c r="O59">
         <v>20</v>
@@ -16928,6 +16928,9 @@
       <c r="M68">
         <v>2</v>
       </c>
+      <c r="N68">
+        <v>16</v>
+      </c>
       <c r="O68">
         <v>0</v>
       </c>
@@ -17534,14 +17537,14 @@
       <c r="M71">
         <v>1</v>
       </c>
-      <c r="N71" t="s">
-        <v>6</v>
+      <c r="N71">
+        <v>17</v>
       </c>
       <c r="O71">
         <v>10</v>
       </c>
       <c r="P71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -18070,7 +18073,7 @@
         <v>264</v>
       </c>
       <c r="BO73">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BP73">
         <v>2</v>
@@ -18143,6 +18146,9 @@
       <c r="M74">
         <v>1</v>
       </c>
+      <c r="N74">
+        <v>20</v>
+      </c>
       <c r="O74">
         <v>0</v>
       </c>
@@ -18346,6 +18352,9 @@
       <c r="M75">
         <v>2</v>
       </c>
+      <c r="N75">
+        <v>19</v>
+      </c>
       <c r="O75" t="s">
         <v>270</v>
       </c>
@@ -18362,7 +18371,7 @@
         <v>0.9</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U75">
         <v>10</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3409,7 +3409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6577,7 +6577,7 @@
         <v>2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3409,7 +3409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5133,6 +5133,9 @@
       <c r="M9">
         <v>1</v>
       </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
       <c r="O9">
         <v>0</v>
       </c>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3407,9 +3407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ67" sqref="AJ67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7794,6 +7794,9 @@
       <c r="M22">
         <v>2</v>
       </c>
+      <c r="N22">
+        <v>23</v>
+      </c>
       <c r="O22">
         <v>0</v>
       </c>
@@ -9830,6 +9833,9 @@
       <c r="M32">
         <v>1</v>
       </c>
+      <c r="N32">
+        <v>22</v>
+      </c>
       <c r="O32">
         <v>0</v>
       </c>
@@ -16351,6 +16357,9 @@
       <c r="M64">
         <v>2</v>
       </c>
+      <c r="N64">
+        <v>25</v>
+      </c>
       <c r="O64">
         <v>0</v>
       </c>
@@ -17367,8 +17376,8 @@
       <c r="M69">
         <v>2</v>
       </c>
-      <c r="N69" t="s">
-        <v>6</v>
+      <c r="N69">
+        <v>16</v>
       </c>
       <c r="O69">
         <v>10</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="285">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3407,9 +3407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ67" sqref="AJ67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11054,11 +11054,11 @@
       <c r="M38">
         <v>2</v>
       </c>
-      <c r="N38" t="s">
-        <v>6</v>
+      <c r="N38">
+        <v>26</v>
       </c>
       <c r="O38">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P38">
         <v>2</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="284">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2771,10 +2771,6 @@
   </si>
   <si>
     <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,35,55,75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3408,8 +3404,8 @@
   <dimension ref="A1:BZ79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3453,13 +3449,13 @@
         <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>209</v>
@@ -3474,13 +3470,13 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
@@ -3549,10 +3545,10 @@
         <v>20</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>21</v>
@@ -3564,7 +3560,7 @@
         <v>208</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>27</v>
@@ -6979,11 +6975,11 @@
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18" t="s">
-        <v>6</v>
+      <c r="N18">
+        <v>28</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -9627,8 +9623,8 @@
       <c r="M31">
         <v>1</v>
       </c>
-      <c r="N31" t="s">
-        <v>6</v>
+      <c r="N31">
+        <v>29</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -13918,6 +13914,9 @@
       <c r="M52">
         <v>1</v>
       </c>
+      <c r="N52">
+        <v>27</v>
+      </c>
       <c r="O52">
         <v>0</v>
       </c>
@@ -14727,11 +14726,8 @@
       <c r="M56">
         <v>1</v>
       </c>
-      <c r="N56" t="s">
-        <v>6</v>
-      </c>
       <c r="O56">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -14787,8 +14783,8 @@
       <c r="AG56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AH56" t="s">
-        <v>218</v>
+      <c r="AH56">
+        <v>0</v>
       </c>
       <c r="AI56">
         <v>4.5</v>
@@ -14898,7 +14894,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -14991,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="AH57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI57">
         <v>-1</v>
@@ -15098,7 +15094,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15188,7 +15184,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -15304,7 +15300,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -15397,25 +15393,25 @@
         <v>20</v>
       </c>
       <c r="AG59" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI59">
+        <v>-1</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI59">
-        <v>-1</v>
-      </c>
-      <c r="AJ59">
-        <v>2</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>1</v>
-      </c>
-      <c r="AM59" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -15510,7 +15506,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -15618,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="AM60" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -15716,7 +15712,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -15922,7 +15918,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -15931,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -15957,6 +15953,9 @@
       <c r="M62">
         <v>1</v>
       </c>
+      <c r="N62">
+        <v>31</v>
+      </c>
       <c r="O62">
         <v>0</v>
       </c>
@@ -16012,13 +16011,13 @@
         <v>2.75</v>
       </c>
       <c r="AG62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH62" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AH62" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="AI62">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="AJ62">
         <v>2</v>
@@ -16122,7 +16121,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -16157,6 +16156,9 @@
       <c r="M63">
         <v>1</v>
       </c>
+      <c r="N63">
+        <v>30</v>
+      </c>
       <c r="O63">
         <v>0</v>
       </c>
@@ -16212,25 +16214,25 @@
         <v>3</v>
       </c>
       <c r="AG63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH63" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI63">
+        <v>-1</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="AI63">
-        <v>-1</v>
-      </c>
-      <c r="AJ63">
-        <v>2</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -16314,7 +16316,7 @@
         <v>7</v>
       </c>
       <c r="BZ63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:78" x14ac:dyDescent="0.15">
@@ -16322,7 +16324,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -16418,7 +16420,7 @@
         <v>6</v>
       </c>
       <c r="AH64" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI64">
         <v>-1</v>
@@ -16528,25 +16530,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>244</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>-1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>245</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -16729,7 +16731,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -16932,7 +16934,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -17135,7 +17137,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -17246,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="AM68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -17341,7 +17343,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -17434,7 +17436,7 @@
         <v>6</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -17488,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="BC69" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BG69">
         <v>10</v>
@@ -17547,7 +17549,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -17637,7 +17639,7 @@
         <v>14</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AH70" s="2" t="s">
         <v>99</v>
@@ -17753,7 +17755,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -17846,34 +17848,34 @@
         <v>8</v>
       </c>
       <c r="AG71" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>-1</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>-1</v>
-      </c>
-      <c r="AJ71">
-        <v>2</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="s">
         <v>257</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>258</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -17959,7 +17961,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -18049,7 +18051,7 @@
         <v>2.6</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH72">
         <v>0</v>
@@ -18106,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="BC72" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BG72">
         <v>10</v>
@@ -18165,7 +18167,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -18273,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN73">
         <v>0</v>
@@ -18330,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="BO73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BP73">
         <v>0.5</v>
@@ -18371,7 +18373,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -18580,7 +18582,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -18619,7 +18621,7 @@
         <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -18676,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AH75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI75">
         <v>2</v>
@@ -18751,7 +18753,7 @@
         <v>0.5</v>
       </c>
       <c r="BP75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BQ75">
         <v>2</v>
@@ -18789,7 +18791,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -18882,25 +18884,25 @@
         <v>4.75</v>
       </c>
       <c r="AG76" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>-1</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>-1</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -18972,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="BU76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BV76" s="2" t="s">
         <v>91</v>
@@ -18995,7 +18997,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -19085,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="AG77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AH77">
         <v>0</v>
@@ -19201,7 +19203,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -19399,7 +19401,7 @@
         <v>8</v>
       </c>
       <c r="BZ78" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:78" x14ac:dyDescent="0.15">
@@ -19407,7 +19409,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -19515,16 +19517,16 @@
         <v>1</v>
       </c>
       <c r="AM79" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="s">
         <v>280</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>281</v>
       </c>
       <c r="AQ79">
         <v>2</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="284">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3405,7 +3405,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N63" sqref="N63"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13708,8 +13708,8 @@
       <c r="M51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
-        <v>6</v>
+      <c r="N51">
+        <v>32</v>
       </c>
       <c r="O51">
         <v>5</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1922,13 +1922,39 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//受伤时打断技能CD时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击
 4 帕克幻象发球 5帕克发球传送 6 影魔影牙伤害叠加 7 斧王淘汰
 8 瘟疫法师歇心光环对英雄加5倍</t>
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1959,7 +1985,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="293">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2068,966 +2094,1002 @@
     <t>TriggerTime</t>
   </si>
   <si>
+    <t>TriggerCrit</t>
+  </si>
+  <si>
+    <t>PA的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3.25,4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyHalo</t>
+  </si>
+  <si>
+    <t>InitHalo</t>
+  </si>
+  <si>
+    <t>120,110,100,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,34,26,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyClearLevel</t>
+  </si>
+  <si>
+    <t>TargetClearLevel</t>
+  </si>
+  <si>
+    <t>CallUnitCount</t>
+  </si>
+  <si>
+    <t>CallUnitTypeID</t>
+  </si>
+  <si>
+    <t>CallUnitBuff</t>
+  </si>
+  <si>
+    <t>CallUnitHalo</t>
+  </si>
+  <si>
+    <t>CallUnitOffsetPos</t>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.25,0.3,0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,275,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,9,7,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwaysHurt</t>
+  </si>
+  <si>
+    <t>小黑沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6,0.7,0.8,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveSpeedSize</t>
+  </si>
+  <si>
+    <t>ForceMoveLevel</t>
+  </si>
+  <si>
+    <t>小黑光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareDodge</t>
+  </si>
+  <si>
+    <t>PhysicalAmaorCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveBuff</t>
+  </si>
+  <si>
+    <t>AddHPType</t>
+  </si>
+  <si>
+    <t>AddHPValue</t>
+  </si>
+  <si>
+    <t>AddHPTarget</t>
+  </si>
+  <si>
+    <t>虚空的时间膨胀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastTargetRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,35,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetHalo</t>
+  </si>
+  <si>
+    <t>1004,1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,165,195,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,120,130,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5,3,3.5,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.6,1.8,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25,0.4,0.55,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,200,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5,9,9.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14,21,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,16,14,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,175,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25,3.5,3.75,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,22,18,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40:1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,350,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDoHurtChangeHurtCR</t>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,100,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,140,210,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,100,120,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>VisibleRelationSkillID</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,110,120,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,160,220,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,60,70,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimotorState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,120,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,110,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletCount</t>
+  </si>
+  <si>
+    <t>PathHalo</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,140,190,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,120,140,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathHaloMinTime</t>
+  </si>
+  <si>
+    <t>TriggerOtherRule</t>
+  </si>
+  <si>
+    <t>TriggerOtherRuleParam</t>
+  </si>
+  <si>
+    <t>4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,150,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,200,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitTargetCamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchedPlaces</t>
+  </si>
+  <si>
+    <t>UnitTargetTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisibleTime</t>
+  </si>
+  <si>
+    <t>UseToHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCount</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,90,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,225,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,485,650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestForceAttackSrc</t>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,90,10,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45,0.4,0.35,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,100,140,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,120,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71:250:9,71:325:9,71:400:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,65,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EjectionCount</t>
+  </si>
+  <si>
+    <t>EjectionRange</t>
+  </si>
+  <si>
+    <t>EjectionDecay</t>
+  </si>
+  <si>
+    <t>月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35,30,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,79,80,81,82,83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,70,80,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.8,2.2,2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherManaCostType</t>
+  </si>
+  <si>
+    <t>OtherManaCostVal</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,24,20,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,350,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92,93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseUnitProjectilePos</t>
+  </si>
+  <si>
+    <t>AttackAnim</t>
+  </si>
+  <si>
     <t>TriggerProbability</t>
-  </si>
-  <si>
-    <t>TriggerCrit</t>
-  </si>
-  <si>
-    <t>PA的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3.25,4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyHalo</t>
-  </si>
-  <si>
-    <t>InitHalo</t>
-  </si>
-  <si>
-    <t>120,110,100,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,34,26,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyClearLevel</t>
-  </si>
-  <si>
-    <t>TargetClearLevel</t>
-  </si>
-  <si>
-    <t>CallUnitCount</t>
-  </si>
-  <si>
-    <t>CallUnitTypeID</t>
-  </si>
-  <si>
-    <t>CallUnitBuff</t>
-  </si>
-  <si>
-    <t>CallUnitHalo</t>
-  </si>
-  <si>
-    <t>CallUnitOffsetPos</t>
-  </si>
-  <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.25,0.3,0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,275,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,9,7,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwaysHurt</t>
-  </si>
-  <si>
-    <t>小黑沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6,0.7,0.8,0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveSpeedSize</t>
-  </si>
-  <si>
-    <t>ForceMoveLevel</t>
-  </si>
-  <si>
-    <t>小黑光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCareDodge</t>
-  </si>
-  <si>
-    <t>PhysicalAmaorCV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的位移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,18,16,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveBuff</t>
-  </si>
-  <si>
-    <t>AddHPType</t>
-  </si>
-  <si>
-    <t>AddHPValue</t>
-  </si>
-  <si>
-    <t>AddHPTarget</t>
-  </si>
-  <si>
-    <t>虚空的时间膨胀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,34,28,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastTargetRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,35,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,0.14,0.18,0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,130,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetHalo</t>
-  </si>
-  <si>
-    <t>1004,1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,165,195,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,120,130,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>ExceptionParam</t>
-  </si>
-  <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5,3,3.5,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.6,1.8,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalHurtAddHP</t>
-  </si>
-  <si>
-    <t>MagicHurtAddHP</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25,0.4,0.55,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,200,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5,9,9.5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,14,21,28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,16,14,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,40,35,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,85,100,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,80,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,120,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,175,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.25,3.5,3.75,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,22,18,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceMoveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40:1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,20,15,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,85,100,115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,11,10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,100,110,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,350,450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EveryDoHurtChangeHurtCR</t>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,13,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,100,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,140,210,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,100,120,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>VisibleRelationSkillID</t>
-  </si>
-  <si>
-    <t>InitLevel</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,15,14,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,110,120,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,160,220,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,65,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,160,230,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,60,70,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimotorState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,120,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,110,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletCount</t>
-  </si>
-  <si>
-    <t>PathHalo</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,140,190,240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,120,140,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013,1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathHaloMinTime</t>
-  </si>
-  <si>
-    <t>TriggerOtherRule</t>
-  </si>
-  <si>
-    <t>TriggerOtherRuleParam</t>
-  </si>
-  <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,150,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,200,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitTargetCamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchedPlaces</t>
-  </si>
-  <si>
-    <t>UnitTargetTeam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisibleTime</t>
-  </si>
-  <si>
-    <t>UseToHide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCount</t>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,60,90,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,225,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320,485,650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestForceAttackSrc</t>
-  </si>
-  <si>
-    <t>斧王吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,90,10,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45,0.4,0.35,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,100,140,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,120,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71:250:9,71:325:9,71:400:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,65,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EjectionCount</t>
-  </si>
-  <si>
-    <t>EjectionRange</t>
-  </si>
-  <si>
-    <t>EjectionDecay</t>
-  </si>
-  <si>
-    <t>月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35,30,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,175,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78,79,80,81,82,83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,70,80,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.8,2.2,2.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherManaCostType</t>
-  </si>
-  <si>
-    <t>OtherManaCostVal</t>
-  </si>
-  <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,24,20,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师歇心光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,350,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92,93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseUnitProjectilePos</t>
-  </si>
-  <si>
-    <t>AttackAnim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标枪穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血面具吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHurtStopTime</t>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3401,16 +3463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ79"/>
+  <dimension ref="A1:CA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55:N56"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT85" sqref="AT85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
     <col min="14" max="14" width="29.25" customWidth="1"/>
     <col min="15" max="17" width="10.25" customWidth="1"/>
@@ -3423,10 +3487,10 @@
     <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11.625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="8.125" customWidth="1"/>
-    <col min="78" max="78" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3440,28 +3504,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -3470,13 +3534,13 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
@@ -3491,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>12</v>
@@ -3503,22 +3567,22 @@
         <v>14</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>15</v>
@@ -3533,22 +3597,22 @@
         <v>18</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>21</v>
@@ -3557,10 +3621,10 @@
         <v>26</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>27</v>
@@ -3572,97 +3636,100 @@
         <v>31</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="AY1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="BC1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="BF1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="BO1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="BR1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="BY1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3853,11 +3920,11 @@
         <v>0</v>
       </c>
       <c r="BV2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW2" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX2">
         <v>0</v>
       </c>
@@ -3867,8 +3934,11 @@
       <c r="BZ2">
         <v>0</v>
       </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3963,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="AG3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -4056,11 +4126,11 @@
         <v>0</v>
       </c>
       <c r="BV3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW3" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX3">
         <v>0</v>
       </c>
@@ -4070,8 +4140,11 @@
       <c r="BZ3">
         <v>0</v>
       </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4262,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX4">
         <v>0</v>
@@ -4276,13 +4349,16 @@
       <c r="BZ4">
         <v>0</v>
       </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4414,7 +4490,7 @@
         <v>0.15</v>
       </c>
       <c r="AX5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -4462,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX5">
         <v>0</v>
@@ -4476,13 +4552,16 @@
       <c r="BZ5">
         <v>0</v>
       </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4572,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -4590,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="AM6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -4668,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX6">
         <v>0</v>
@@ -4682,13 +4761,16 @@
       <c r="BZ6">
         <v>0</v>
       </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4847,7 +4929,7 @@
         <v>4</v>
       </c>
       <c r="BL7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BM7">
         <v>1001</v>
@@ -4874,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX7">
         <v>0</v>
@@ -4888,13 +4970,16 @@
       <c r="BZ7">
         <v>0</v>
       </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5023,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="AW8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AX8">
         <v>1.8</v>
@@ -5074,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="BV8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -5088,13 +5173,16 @@
       <c r="BZ8">
         <v>0</v>
       </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5205,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -5284,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX9">
         <v>0</v>
@@ -5298,13 +5386,16 @@
       <c r="BZ9">
         <v>0</v>
       </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5490,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="BV10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX10">
         <v>0</v>
@@ -5504,13 +5595,16 @@
       <c r="BZ10">
         <v>0</v>
       </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5678,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BP11">
         <v>6</v>
@@ -5696,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="BV11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX11">
         <v>0</v>
@@ -5710,13 +5804,16 @@
       <c r="BZ11">
         <v>0</v>
       </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5899,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="BV12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX12">
         <v>0</v>
@@ -5913,13 +6010,16 @@
       <c r="BZ12">
         <v>0</v>
       </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6051,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AW13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -6060,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -6105,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="BV13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX13">
         <v>0</v>
@@ -6119,13 +6219,16 @@
       <c r="BZ13">
         <v>0</v>
       </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6215,7 +6318,7 @@
         <v>6.75</v>
       </c>
       <c r="AG14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -6308,10 +6411,10 @@
         <v>2</v>
       </c>
       <c r="BV14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX14">
         <v>1</v>
@@ -6322,13 +6425,16 @@
       <c r="BZ14">
         <v>0</v>
       </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6418,7 +6524,7 @@
         <v>7.75</v>
       </c>
       <c r="AG15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -6514,10 +6620,10 @@
         <v>0</v>
       </c>
       <c r="BV15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX15">
         <v>0</v>
@@ -6528,13 +6634,16 @@
       <c r="BZ15">
         <v>0</v>
       </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -6627,7 +6736,7 @@
         <v>0.1</v>
       </c>
       <c r="AH16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI16">
         <v>-1</v>
@@ -6666,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="AW16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX16">
         <v>2</v>
@@ -6717,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="BV16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX16">
         <v>0</v>
@@ -6731,13 +6840,16 @@
       <c r="BZ16">
         <v>0</v>
       </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6827,7 +6939,7 @@
         <v>6</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -6845,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -6881,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BG17">
         <v>10</v>
@@ -6920,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="BV17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX17">
         <v>0</v>
@@ -6934,13 +7046,16 @@
       <c r="BZ17">
         <v>0</v>
       </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -7033,25 +7148,25 @@
         <v>7</v>
       </c>
       <c r="AG18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18">
+        <v>-1</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="AI18">
-        <v>-1</v>
-      </c>
-      <c r="AJ18">
-        <v>2</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -7126,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="BV18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX18">
         <v>0</v>
@@ -7140,13 +7255,16 @@
       <c r="BZ18">
         <v>0</v>
       </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7233,28 +7351,28 @@
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI19">
+        <v>-1</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="AI19">
-        <v>-1</v>
-      </c>
-      <c r="AJ19">
-        <v>2</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -7329,27 +7447,30 @@
         <v>0</v>
       </c>
       <c r="BV19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX19">
         <v>0</v>
       </c>
       <c r="BY19">
-        <v>1</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>1</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -7481,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AX20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AY20">
         <v>0</v>
@@ -7529,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="BV20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BW20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX20">
         <v>0</v>
@@ -7543,13 +7664,16 @@
       <c r="BZ20">
         <v>0</v>
       </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7657,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -7711,7 +7835,7 @@
         <v>-1</v>
       </c>
       <c r="BL21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BN21">
         <v>2</v>
@@ -7735,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="BV21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX21">
         <v>0</v>
@@ -7749,13 +7873,16 @@
       <c r="BZ21">
         <v>0</v>
       </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -7851,7 +7978,7 @@
         <v>5</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI22">
         <v>3.85</v>
@@ -7941,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="BV22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX22">
         <v>0</v>
@@ -7955,13 +8082,16 @@
       <c r="BZ22">
         <v>0</v>
       </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -8051,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -8144,11 +8274,11 @@
         <v>0</v>
       </c>
       <c r="BV23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW23" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX23">
         <v>0</v>
       </c>
@@ -8158,13 +8288,16 @@
       <c r="BZ23">
         <v>0</v>
       </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -8257,7 +8390,7 @@
         <v>0.1</v>
       </c>
       <c r="AH24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI24">
         <v>-1</v>
@@ -8347,27 +8480,30 @@
         <v>0</v>
       </c>
       <c r="BV24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX24">
         <v>0</v>
       </c>
       <c r="BY24">
-        <v>2</v>
-      </c>
-      <c r="BZ24" s="2" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>2</v>
+      </c>
+      <c r="CA24" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -8457,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -8550,10 +8686,10 @@
         <v>0</v>
       </c>
       <c r="BV25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX25">
         <v>0</v>
@@ -8564,13 +8700,16 @@
       <c r="BZ25">
         <v>0</v>
       </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -8660,7 +8799,7 @@
         <v>10</v>
       </c>
       <c r="AG26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -8753,11 +8892,11 @@
         <v>0</v>
       </c>
       <c r="BV26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW26" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX26">
         <v>0</v>
       </c>
@@ -8767,13 +8906,16 @@
       <c r="BZ26">
         <v>0</v>
       </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8863,7 +9005,7 @@
         <v>8</v>
       </c>
       <c r="AG27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -8881,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AM27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -8956,10 +9098,10 @@
         <v>0</v>
       </c>
       <c r="BV27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX27">
         <v>0</v>
@@ -8970,13 +9112,16 @@
       <c r="BZ27">
         <v>0</v>
       </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -9159,10 +9304,10 @@
         <v>0</v>
       </c>
       <c r="BV28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX28">
         <v>0</v>
@@ -9173,13 +9318,16 @@
       <c r="BZ28">
         <v>0</v>
       </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9362,11 +9510,11 @@
         <v>0</v>
       </c>
       <c r="BV29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW29" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX29">
         <v>0</v>
       </c>
@@ -9376,13 +9524,16 @@
       <c r="BZ29">
         <v>0</v>
       </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9472,25 +9623,25 @@
         <v>0</v>
       </c>
       <c r="AG30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>-1</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>-1</v>
-      </c>
-      <c r="AJ30">
-        <v>2</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -9544,7 +9695,7 @@
         <v>-1</v>
       </c>
       <c r="BL30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN30">
         <v>2</v>
@@ -9568,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="BV30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX30">
         <v>0</v>
@@ -9582,13 +9733,16 @@
       <c r="BZ30">
         <v>0</v>
       </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9699,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="AM31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -9774,11 +9928,11 @@
         <v>0</v>
       </c>
       <c r="BV31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW31" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX31">
         <v>0</v>
       </c>
@@ -9788,13 +9942,16 @@
       <c r="BZ31">
         <v>0</v>
       </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -9980,10 +10137,10 @@
         <v>0</v>
       </c>
       <c r="BV32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BW32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX32">
         <v>0</v>
@@ -9994,13 +10151,16 @@
       <c r="BZ32">
         <v>0</v>
       </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -10090,25 +10250,25 @@
         <v>0</v>
       </c>
       <c r="AG33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>-1</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>-1</v>
-      </c>
-      <c r="AJ33">
-        <v>2</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -10183,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="BV33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX33">
         <v>0</v>
@@ -10197,13 +10357,16 @@
       <c r="BZ33">
         <v>0</v>
       </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -10293,61 +10456,61 @@
         <v>4</v>
       </c>
       <c r="AG34" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ34">
-        <v>2</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="2" t="s">
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>2</v>
+      </c>
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>2</v>
-      </c>
-      <c r="AR34">
-        <v>2</v>
-      </c>
-      <c r="AS34">
-        <v>2</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
-      </c>
-      <c r="AW34">
-        <v>0</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="BG34">
         <v>10</v>
@@ -10386,10 +10549,10 @@
         <v>0</v>
       </c>
       <c r="BV34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX34">
         <v>0</v>
@@ -10400,13 +10563,16 @@
       <c r="BZ34">
         <v>0</v>
       </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -10589,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="BV35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW35" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX35">
         <v>1</v>
@@ -10600,16 +10766,19 @@
       <c r="BY35">
         <v>0</v>
       </c>
-      <c r="BZ35" t="s">
-        <v>142</v>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -10699,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -10792,11 +10961,11 @@
         <v>0</v>
       </c>
       <c r="BV36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW36" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX36">
         <v>0</v>
       </c>
@@ -10806,13 +10975,16 @@
       <c r="BZ36">
         <v>0</v>
       </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -10995,10 +11167,10 @@
         <v>0</v>
       </c>
       <c r="BV37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX37">
         <v>0</v>
@@ -11009,13 +11181,16 @@
       <c r="BZ37">
         <v>0</v>
       </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -11108,25 +11283,25 @@
         <v>8</v>
       </c>
       <c r="AG38" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>-1</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
         <v>147</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>-1</v>
-      </c>
-      <c r="AJ38">
-        <v>2</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>148</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -11198,27 +11373,30 @@
         <v>0</v>
       </c>
       <c r="BV38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW38" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX38">
         <v>0</v>
       </c>
       <c r="BY38">
+        <v>0</v>
+      </c>
+      <c r="BZ38">
         <v>3</v>
       </c>
-      <c r="BZ38" t="s">
-        <v>149</v>
+      <c r="CA38" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -11311,10 +11489,10 @@
         <v>26</v>
       </c>
       <c r="AG39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI39">
         <v>1.5</v>
@@ -11329,7 +11507,7 @@
         <v>0.8</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -11401,10 +11579,10 @@
         <v>0</v>
       </c>
       <c r="BV39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX39">
         <v>0</v>
@@ -11415,13 +11593,16 @@
       <c r="BZ39">
         <v>0</v>
       </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -11511,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="AG40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -11607,11 +11788,11 @@
         <v>0</v>
       </c>
       <c r="BV40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW40" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX40">
         <v>0</v>
       </c>
@@ -11621,13 +11802,16 @@
       <c r="BZ40">
         <v>0</v>
       </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -11717,7 +11901,7 @@
         <v>10</v>
       </c>
       <c r="AG41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -11735,7 +11919,7 @@
         <v>1</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -11810,11 +11994,11 @@
         <v>0</v>
       </c>
       <c r="BV41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW41" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX41">
         <v>0</v>
       </c>
@@ -11824,13 +12008,16 @@
       <c r="BZ41">
         <v>0</v>
       </c>
+      <c r="CA41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -11923,10 +12110,10 @@
         <v>19.5</v>
       </c>
       <c r="AG42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH42" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="AI42">
         <v>2.5</v>
@@ -11941,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -12013,27 +12200,30 @@
         <v>0</v>
       </c>
       <c r="BV42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX42">
         <v>0</v>
       </c>
       <c r="BY42">
+        <v>0</v>
+      </c>
+      <c r="BZ42">
         <v>4</v>
       </c>
-      <c r="BZ42">
+      <c r="CA42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -12213,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="BV43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW43" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX43">
         <v>0</v>
       </c>
@@ -12227,13 +12417,16 @@
       <c r="BZ43">
         <v>0</v>
       </c>
+      <c r="CA43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -12323,10 +12516,10 @@
         <v>4</v>
       </c>
       <c r="AG44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI44">
         <v>4</v>
@@ -12341,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -12416,10 +12609,10 @@
         <v>0</v>
       </c>
       <c r="BV44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX44">
         <v>0</v>
@@ -12430,13 +12623,16 @@
       <c r="BZ44">
         <v>0</v>
       </c>
+      <c r="CA44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -12619,11 +12815,11 @@
         <v>0</v>
       </c>
       <c r="BV45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW45" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX45">
         <v>0</v>
       </c>
@@ -12633,13 +12829,16 @@
       <c r="BZ45">
         <v>0</v>
       </c>
+      <c r="CA45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -12729,7 +12928,7 @@
         <v>6</v>
       </c>
       <c r="AG46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -12747,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="AM46" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -12756,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -12823,10 +13022,10 @@
         <v>0</v>
       </c>
       <c r="BV46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX46">
         <v>0</v>
@@ -12837,13 +13036,16 @@
       <c r="BZ46">
         <v>0</v>
       </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -12939,7 +13141,7 @@
         <v>3</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI47">
         <v>3</v>
@@ -12954,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -13032,27 +13234,30 @@
         <v>0</v>
       </c>
       <c r="BV47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX47">
         <v>0</v>
       </c>
       <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
         <v>6</v>
       </c>
-      <c r="BZ47" t="s">
-        <v>184</v>
+      <c r="CA47" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -13148,7 +13353,7 @@
         <v>3</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI48">
         <v>3</v>
@@ -13163,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -13241,27 +13446,30 @@
         <v>0</v>
       </c>
       <c r="BV48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW48" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX48">
         <v>0</v>
       </c>
       <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
         <v>6</v>
       </c>
-      <c r="BZ48" t="s">
-        <v>184</v>
+      <c r="CA48" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -13357,7 +13565,7 @@
         <v>3</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI49">
         <v>3</v>
@@ -13372,7 +13580,7 @@
         <v>1</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -13447,27 +13655,30 @@
         <v>0</v>
       </c>
       <c r="BV49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX49">
         <v>0</v>
       </c>
       <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
         <v>6</v>
       </c>
-      <c r="BZ49" t="s">
-        <v>184</v>
+      <c r="CA49" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -13560,10 +13771,10 @@
         <v>10</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI50">
         <v>1.5</v>
@@ -13578,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -13653,10 +13864,10 @@
         <v>0</v>
       </c>
       <c r="BV50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX50">
         <v>0</v>
@@ -13667,13 +13878,16 @@
       <c r="BZ50">
         <v>0</v>
       </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -13769,7 +13983,7 @@
         <v>16</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI51">
         <v>1.5</v>
@@ -13784,43 +13998,43 @@
         <v>1</v>
       </c>
       <c r="AM51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>2</v>
+      </c>
+      <c r="AS51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>2</v>
-      </c>
-      <c r="AR51">
-        <v>2</v>
-      </c>
-      <c r="AS51">
-        <v>2</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BF51" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="BG51">
         <v>0.2</v>
@@ -13859,10 +14073,10 @@
         <v>0</v>
       </c>
       <c r="BV51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX51">
         <v>0</v>
@@ -13873,13 +14087,16 @@
       <c r="BZ51">
         <v>0</v>
       </c>
+      <c r="CA51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -13975,52 +14192,52 @@
         <v>0.1</v>
       </c>
       <c r="AH52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI52">
+        <v>-1</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>2</v>
+      </c>
+      <c r="AS52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="AI52">
-        <v>-1</v>
-      </c>
-      <c r="AJ52">
-        <v>2</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>1</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>2</v>
-      </c>
-      <c r="AR52">
-        <v>2</v>
-      </c>
-      <c r="AS52">
-        <v>2</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>2</v>
-      </c>
-      <c r="AZ52" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -14065,10 +14282,10 @@
         <v>0</v>
       </c>
       <c r="BV52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW52" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX52">
         <v>0</v>
@@ -14079,13 +14296,16 @@
       <c r="BZ52">
         <v>0</v>
       </c>
+      <c r="CA52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -14268,11 +14488,11 @@
         <v>0</v>
       </c>
       <c r="BV53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW53" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX53">
         <v>0</v>
       </c>
@@ -14282,13 +14502,16 @@
       <c r="BZ53">
         <v>0</v>
       </c>
+      <c r="CA53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -14378,25 +14601,25 @@
         <v>15</v>
       </c>
       <c r="AG54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>-1</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>-1</v>
-      </c>
-      <c r="AJ54">
-        <v>2</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -14447,7 +14670,7 @@
         <v>-1</v>
       </c>
       <c r="BL54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -14471,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="BV54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX54">
         <v>0</v>
@@ -14485,13 +14708,16 @@
       <c r="BZ54">
         <v>0</v>
       </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -14671,11 +14897,11 @@
         <v>0</v>
       </c>
       <c r="BV55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW55" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX55">
         <v>0</v>
       </c>
@@ -14685,13 +14911,16 @@
       <c r="BZ55">
         <v>0</v>
       </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -14781,7 +15010,7 @@
         <v>12</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -14799,43 +15028,43 @@
         <v>1</v>
       </c>
       <c r="AM56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AR56">
-        <v>2</v>
-      </c>
-      <c r="AS56">
-        <v>2</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="BG56">
         <v>10</v>
@@ -14874,10 +15103,10 @@
         <v>0</v>
       </c>
       <c r="BV56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX56">
         <v>0</v>
@@ -14888,13 +15117,16 @@
       <c r="BZ56">
         <v>0</v>
       </c>
+      <c r="CA56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -14987,7 +15219,7 @@
         <v>0</v>
       </c>
       <c r="AH57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI57">
         <v>-1</v>
@@ -15074,10 +15306,10 @@
         <v>0</v>
       </c>
       <c r="BV57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX57">
         <v>0</v>
@@ -15088,13 +15320,16 @@
       <c r="BZ57">
         <v>0</v>
       </c>
+      <c r="CA57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15184,7 +15419,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -15280,11 +15515,11 @@
         <v>0</v>
       </c>
       <c r="BV58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW58" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX58">
         <v>0</v>
       </c>
@@ -15294,13 +15529,16 @@
       <c r="BZ58">
         <v>0</v>
       </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -15393,25 +15631,25 @@
         <v>20</v>
       </c>
       <c r="AG59" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI59">
+        <v>-1</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI59">
-        <v>-1</v>
-      </c>
-      <c r="AJ59">
-        <v>2</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>1</v>
-      </c>
-      <c r="AM59" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -15486,11 +15724,11 @@
         <v>0</v>
       </c>
       <c r="BV59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW59" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX59">
         <v>0</v>
       </c>
@@ -15500,13 +15738,16 @@
       <c r="BZ59">
         <v>0</v>
       </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -15596,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -15614,7 +15855,7 @@
         <v>1</v>
       </c>
       <c r="AM60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -15692,10 +15933,10 @@
         <v>0</v>
       </c>
       <c r="BV60" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW60" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX60">
         <v>0</v>
@@ -15706,13 +15947,16 @@
       <c r="BZ60">
         <v>0</v>
       </c>
+      <c r="CA60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -15802,7 +16046,7 @@
         <v>8</v>
       </c>
       <c r="AG61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -15820,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="AM61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -15898,11 +16142,11 @@
         <v>0</v>
       </c>
       <c r="BV61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW61" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX61">
         <v>0</v>
       </c>
@@ -15912,13 +16156,16 @@
       <c r="BZ61">
         <v>0</v>
       </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -16011,10 +16258,10 @@
         <v>2.75</v>
       </c>
       <c r="AG62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH62" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="AH62" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="AI62">
         <v>2.75</v>
@@ -16029,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="AM62" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -16101,10 +16348,10 @@
         <v>0</v>
       </c>
       <c r="BV62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW62" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX62">
         <v>0</v>
@@ -16115,13 +16362,16 @@
       <c r="BZ62">
         <v>0</v>
       </c>
+      <c r="CA62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -16214,25 +16464,25 @@
         <v>3</v>
       </c>
       <c r="AG63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AH63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI63">
+        <v>-1</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="AI63">
-        <v>-1</v>
-      </c>
-      <c r="AJ63">
-        <v>2</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -16304,27 +16554,30 @@
         <v>0</v>
       </c>
       <c r="BV63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW63" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX63">
         <v>0</v>
       </c>
       <c r="BY63">
+        <v>0</v>
+      </c>
+      <c r="BZ63">
         <v>7</v>
       </c>
-      <c r="BZ63" t="s">
-        <v>236</v>
+      <c r="CA63" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -16420,7 +16673,7 @@
         <v>6</v>
       </c>
       <c r="AH64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI64">
         <v>-1</v>
@@ -16510,11 +16763,11 @@
         <v>0</v>
       </c>
       <c r="BV64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW64" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX64">
         <v>0</v>
       </c>
@@ -16524,31 +16777,34 @@
       <c r="BZ64">
         <v>0</v>
       </c>
+      <c r="CA64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>243</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>-1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>244</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -16711,10 +16967,10 @@
         <v>0</v>
       </c>
       <c r="BV65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW65" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX65">
         <v>0</v>
@@ -16725,13 +16981,16 @@
       <c r="BZ65">
         <v>0</v>
       </c>
+      <c r="CA65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -16914,11 +17173,11 @@
         <v>0</v>
       </c>
       <c r="BV66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW66" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX66">
         <v>0</v>
       </c>
@@ -16928,13 +17187,16 @@
       <c r="BZ66">
         <v>0</v>
       </c>
+      <c r="CA66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -17042,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="AM67" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -17117,11 +17379,11 @@
         <v>0</v>
       </c>
       <c r="BV67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW67" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX67">
         <v>0</v>
       </c>
@@ -17131,13 +17393,16 @@
       <c r="BZ67">
         <v>0</v>
       </c>
+      <c r="CA67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -17248,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="AM68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -17323,10 +17588,10 @@
         <v>0</v>
       </c>
       <c r="BV68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX68">
         <v>0</v>
@@ -17337,13 +17602,16 @@
       <c r="BZ68">
         <v>0</v>
       </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -17436,7 +17704,7 @@
         <v>6</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -17454,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="AM69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -17490,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="BC69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG69">
         <v>10</v>
@@ -17529,10 +17797,10 @@
         <v>0</v>
       </c>
       <c r="BV69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX69">
         <v>0</v>
@@ -17543,13 +17811,16 @@
       <c r="BZ69">
         <v>0</v>
       </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -17639,10 +17910,10 @@
         <v>14</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AH70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI70">
         <v>-1</v>
@@ -17657,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -17735,10 +18006,10 @@
         <v>0</v>
       </c>
       <c r="BV70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX70">
         <v>0</v>
@@ -17749,13 +18020,16 @@
       <c r="BZ70">
         <v>0</v>
       </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -17848,34 +18122,34 @@
         <v>8</v>
       </c>
       <c r="AG71" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>-1</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>-1</v>
-      </c>
-      <c r="AJ71">
-        <v>2</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="s">
         <v>256</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>257</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -17941,11 +18215,11 @@
         <v>0</v>
       </c>
       <c r="BV71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BW71" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="BX71">
         <v>0</v>
       </c>
@@ -17955,13 +18229,16 @@
       <c r="BZ71">
         <v>0</v>
       </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -18051,7 +18328,7 @@
         <v>2.6</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH72">
         <v>0</v>
@@ -18069,7 +18346,7 @@
         <v>1</v>
       </c>
       <c r="AM72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -18108,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="BC72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG72">
         <v>10</v>
@@ -18147,10 +18424,10 @@
         <v>0</v>
       </c>
       <c r="BV72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW72" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX72">
         <v>0</v>
@@ -18161,13 +18438,16 @@
       <c r="BZ72">
         <v>0</v>
       </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -18275,7 +18555,7 @@
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN73">
         <v>0</v>
@@ -18332,7 +18612,7 @@
         <v>0</v>
       </c>
       <c r="BO73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BP73">
         <v>0.5</v>
@@ -18353,10 +18633,10 @@
         <v>0</v>
       </c>
       <c r="BV73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW73" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX73">
         <v>0</v>
@@ -18367,13 +18647,16 @@
       <c r="BZ73">
         <v>0</v>
       </c>
+      <c r="CA73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -18562,11 +18845,11 @@
         <v>0</v>
       </c>
       <c r="BV74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BW74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="BX74">
         <v>0</v>
       </c>
@@ -18576,13 +18859,16 @@
       <c r="BZ74">
         <v>0</v>
       </c>
+      <c r="CA74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -18621,7 +18907,7 @@
         <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -18678,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="AH75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI75">
         <v>2</v>
@@ -18753,7 +19039,7 @@
         <v>0.5</v>
       </c>
       <c r="BP75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BQ75">
         <v>2</v>
@@ -18771,10 +19057,10 @@
         <v>0</v>
       </c>
       <c r="BV75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX75">
         <v>0</v>
@@ -18785,13 +19071,16 @@
       <c r="BZ75">
         <v>0</v>
       </c>
+      <c r="CA75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -18884,25 +19173,25 @@
         <v>4.75</v>
       </c>
       <c r="AG76" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>-1</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>-1</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -18974,13 +19263,13 @@
         <v>1</v>
       </c>
       <c r="BU76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BV76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BW76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BX76">
         <v>2</v>
@@ -18991,13 +19280,16 @@
       <c r="BZ76">
         <v>0</v>
       </c>
+      <c r="CA76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -19087,7 +19379,7 @@
         <v>0</v>
       </c>
       <c r="AG77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH77">
         <v>0</v>
@@ -19183,10 +19475,10 @@
         <v>0</v>
       </c>
       <c r="BV77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BX77">
         <v>0</v>
@@ -19197,13 +19489,16 @@
       <c r="BZ77">
         <v>0</v>
       </c>
+      <c r="CA77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -19389,27 +19684,30 @@
         <v>0</v>
       </c>
       <c r="BV78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW78" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BX78">
         <v>0</v>
       </c>
       <c r="BY78">
+        <v>0</v>
+      </c>
+      <c r="BZ78">
         <v>8</v>
       </c>
-      <c r="BZ78" s="2" t="s">
-        <v>277</v>
+      <c r="CA78" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -19517,16 +19815,16 @@
         <v>1</v>
       </c>
       <c r="AM79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="s">
         <v>279</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>280</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -19592,10 +19890,10 @@
         <v>0</v>
       </c>
       <c r="BV79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BW79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BX79">
         <v>0</v>
@@ -19604,6 +19902,1236 @@
         <v>0</v>
       </c>
       <c r="BZ79">
+        <v>0</v>
+      </c>
+      <c r="CA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>10</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>2</v>
+      </c>
+      <c r="Y80">
+        <v>4</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>2</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>-1</v>
+      </c>
+      <c r="AD80">
+        <v>2</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>-1</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>107</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>2</v>
+      </c>
+      <c r="AS80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>1</v>
+      </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>1</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>10</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+      <c r="BQ80">
+        <v>0</v>
+      </c>
+      <c r="BR80">
+        <v>0</v>
+      </c>
+      <c r="BT80">
+        <v>0</v>
+      </c>
+      <c r="BU80">
+        <v>0</v>
+      </c>
+      <c r="BV80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX80">
+        <v>0</v>
+      </c>
+      <c r="BY80">
+        <v>0</v>
+      </c>
+      <c r="BZ80">
+        <v>0</v>
+      </c>
+      <c r="CA80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>10</v>
+      </c>
+      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>2</v>
+      </c>
+      <c r="Y81">
+        <v>4</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>2</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>-1</v>
+      </c>
+      <c r="AD81">
+        <v>2</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>100</v>
+      </c>
+      <c r="AI81">
+        <v>-1</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AS81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>1</v>
+      </c>
+      <c r="AW81">
+        <v>0.25</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>10</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+      <c r="BQ81">
+        <v>0</v>
+      </c>
+      <c r="BR81">
+        <v>0</v>
+      </c>
+      <c r="BT81">
+        <v>0</v>
+      </c>
+      <c r="BU81">
+        <v>0</v>
+      </c>
+      <c r="BV81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX81">
+        <v>0</v>
+      </c>
+      <c r="BY81">
+        <v>0</v>
+      </c>
+      <c r="BZ81">
+        <v>0</v>
+      </c>
+      <c r="CA81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>-1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>2</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>10</v>
+      </c>
+      <c r="W82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>2</v>
+      </c>
+      <c r="Y82">
+        <v>4</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>2</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AC82">
+        <v>-1</v>
+      </c>
+      <c r="AD82">
+        <v>2</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>-1</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>2</v>
+      </c>
+      <c r="AS82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>1</v>
+      </c>
+      <c r="AW82">
+        <v>1</v>
+      </c>
+      <c r="AX82">
+        <v>1</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>10</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+      <c r="BQ82">
+        <v>0</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>0</v>
+      </c>
+      <c r="BU82">
+        <v>0</v>
+      </c>
+      <c r="BV82" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BW82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX82">
+        <v>0</v>
+      </c>
+      <c r="BY82">
+        <v>0</v>
+      </c>
+      <c r="BZ82">
+        <v>0</v>
+      </c>
+      <c r="CA82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>-1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>10</v>
+      </c>
+      <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>2</v>
+      </c>
+      <c r="Y83">
+        <v>4</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>-1</v>
+      </c>
+      <c r="AD83">
+        <v>2</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>20</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>-1</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>2</v>
+      </c>
+      <c r="AS83">
+        <v>2</v>
+      </c>
+      <c r="AT83">
+        <v>123</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>1</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>10</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+      <c r="BQ83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>0</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+      <c r="BV83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX83">
+        <v>0</v>
+      </c>
+      <c r="BY83">
+        <v>0</v>
+      </c>
+      <c r="BZ83">
+        <v>0</v>
+      </c>
+      <c r="CA83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>2</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>10</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>2</v>
+      </c>
+      <c r="Y84">
+        <v>4</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AC84">
+        <v>-1</v>
+      </c>
+      <c r="AD84">
+        <v>2</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>12</v>
+      </c>
+      <c r="AG84">
+        <v>15</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>-1</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>1</v>
+      </c>
+      <c r="AR84">
+        <v>2</v>
+      </c>
+      <c r="AS84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>1</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>10</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+      <c r="BQ84">
+        <v>0</v>
+      </c>
+      <c r="BR84">
+        <v>0</v>
+      </c>
+      <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BY84">
+        <v>3</v>
+      </c>
+      <c r="BZ84">
+        <v>0</v>
+      </c>
+      <c r="CA84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:79" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>-1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>10</v>
+      </c>
+      <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>2</v>
+      </c>
+      <c r="Y85">
+        <v>4</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AC85">
+        <v>-1</v>
+      </c>
+      <c r="AD85">
+        <v>2</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>8</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>-1</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>2</v>
+      </c>
+      <c r="AS85">
+        <v>2</v>
+      </c>
+      <c r="AT85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>1</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>10</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+      <c r="BQ85">
+        <v>0</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BT85">
+        <v>0</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
+        <v>0</v>
+      </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1844,7 +1843,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//加魔值</t>
         </r>
       </text>
     </comment>
@@ -1870,7 +1869,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1896,7 +1895,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//加血的目标 1:表示自己 2:表示目标</t>
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1922,11 +1921,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//加血的目标 1:表示自己 2:表示目标</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //受伤时打断技能CD时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1954,7 +1979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1985,7 +2010,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="302">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3089,6 +3114,41 @@
   </si>
   <si>
     <t>129,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMPValue</t>
+  </si>
+  <si>
+    <t>奥数鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3154,11 +3214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3463,11 +3525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA85"/>
+  <dimension ref="A1:CB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT85" sqref="AT85"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP95" sqref="AP95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3487,10 +3549,10 @@
     <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11.625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="8.125" customWidth="1"/>
-    <col min="79" max="79" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3711,25 +3773,28 @@
         <v>69</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3919,15 +3984,15 @@
       <c r="BU2">
         <v>0</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
       <c r="BY2">
         <v>0</v>
       </c>
@@ -3937,8 +4002,11 @@
       <c r="CA2">
         <v>0</v>
       </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4125,15 +4193,15 @@
       <c r="BU3">
         <v>0</v>
       </c>
-      <c r="BV3" s="2" t="s">
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW3" s="2" t="s">
+      <c r="BX3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
       <c r="BY3">
         <v>0</v>
       </c>
@@ -4143,8 +4211,11 @@
       <c r="CA3">
         <v>0</v>
       </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4334,14 +4405,14 @@
       <c r="BU4">
         <v>0</v>
       </c>
-      <c r="BV4" s="2" t="s">
-        <v>90</v>
+      <c r="BV4">
+        <v>0</v>
       </c>
       <c r="BW4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX4">
-        <v>0</v>
+      <c r="BX4" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -4352,8 +4423,11 @@
       <c r="CA4">
         <v>0</v>
       </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4537,14 +4611,14 @@
       <c r="BU5">
         <v>0</v>
       </c>
-      <c r="BV5" s="2" t="s">
-        <v>90</v>
+      <c r="BV5">
+        <v>0</v>
       </c>
       <c r="BW5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX5">
-        <v>0</v>
+      <c r="BX5" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY5">
         <v>0</v>
@@ -4555,8 +4629,11 @@
       <c r="CA5">
         <v>0</v>
       </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4746,14 +4823,14 @@
       <c r="BU6">
         <v>0</v>
       </c>
-      <c r="BV6" s="2" t="s">
-        <v>90</v>
+      <c r="BV6">
+        <v>0</v>
       </c>
       <c r="BW6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX6">
-        <v>0</v>
+      <c r="BX6" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -4764,8 +4841,11 @@
       <c r="CA6">
         <v>0</v>
       </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4955,14 +5035,14 @@
       <c r="BU7">
         <v>0</v>
       </c>
-      <c r="BV7" s="2" t="s">
-        <v>90</v>
+      <c r="BV7">
+        <v>0</v>
       </c>
       <c r="BW7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX7">
-        <v>0</v>
+      <c r="BX7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -4973,8 +5053,11 @@
       <c r="CA7">
         <v>0</v>
       </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5158,14 +5241,14 @@
       <c r="BU8">
         <v>0</v>
       </c>
-      <c r="BV8" s="2" t="s">
-        <v>90</v>
+      <c r="BV8">
+        <v>0</v>
       </c>
       <c r="BW8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX8">
-        <v>0</v>
+      <c r="BX8" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY8">
         <v>0</v>
@@ -5176,8 +5259,11 @@
       <c r="CA8">
         <v>0</v>
       </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5371,14 +5457,14 @@
       <c r="BU9">
         <v>0</v>
       </c>
-      <c r="BV9" s="2" t="s">
-        <v>90</v>
+      <c r="BV9">
+        <v>0</v>
       </c>
       <c r="BW9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX9">
-        <v>0</v>
+      <c r="BX9" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY9">
         <v>0</v>
@@ -5389,8 +5475,11 @@
       <c r="CA9">
         <v>0</v>
       </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5580,14 +5669,14 @@
       <c r="BU10">
         <v>0</v>
       </c>
-      <c r="BV10" s="2" t="s">
-        <v>90</v>
+      <c r="BV10">
+        <v>0</v>
       </c>
       <c r="BW10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX10">
-        <v>0</v>
+      <c r="BX10" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -5598,8 +5687,11 @@
       <c r="CA10">
         <v>0</v>
       </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5789,14 +5881,14 @@
       <c r="BU11">
         <v>0</v>
       </c>
-      <c r="BV11" s="2" t="s">
-        <v>90</v>
+      <c r="BV11">
+        <v>0</v>
       </c>
       <c r="BW11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX11">
-        <v>0</v>
+      <c r="BX11" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -5807,8 +5899,11 @@
       <c r="CA11">
         <v>0</v>
       </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5995,14 +6090,14 @@
       <c r="BU12">
         <v>0</v>
       </c>
-      <c r="BV12" s="2" t="s">
-        <v>90</v>
+      <c r="BV12">
+        <v>0</v>
       </c>
       <c r="BW12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX12">
-        <v>0</v>
+      <c r="BX12" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -6013,8 +6108,11 @@
       <c r="CA12">
         <v>0</v>
       </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6204,14 +6302,14 @@
       <c r="BU13">
         <v>0</v>
       </c>
-      <c r="BV13" s="2" t="s">
-        <v>90</v>
+      <c r="BV13">
+        <v>0</v>
       </c>
       <c r="BW13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX13">
-        <v>0</v>
+      <c r="BX13" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY13">
         <v>0</v>
@@ -6222,8 +6320,11 @@
       <c r="CA13">
         <v>0</v>
       </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6410,17 +6511,17 @@
       <c r="BU14">
         <v>2</v>
       </c>
-      <c r="BV14" s="2" t="s">
-        <v>90</v>
+      <c r="BV14">
+        <v>0</v>
       </c>
       <c r="BW14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX14">
-        <v>1</v>
+      <c r="BX14" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ14">
         <v>0</v>
@@ -6428,8 +6529,11 @@
       <c r="CA14">
         <v>0</v>
       </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6619,14 +6723,14 @@
       <c r="BU15">
         <v>0</v>
       </c>
-      <c r="BV15" s="2" t="s">
-        <v>90</v>
+      <c r="BV15">
+        <v>0</v>
       </c>
       <c r="BW15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX15">
-        <v>0</v>
+      <c r="BX15" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY15">
         <v>0</v>
@@ -6637,8 +6741,11 @@
       <c r="CA15">
         <v>0</v>
       </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6825,14 +6932,14 @@
       <c r="BU16">
         <v>0</v>
       </c>
-      <c r="BV16" s="2" t="s">
-        <v>90</v>
+      <c r="BV16">
+        <v>0</v>
       </c>
       <c r="BW16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX16">
-        <v>0</v>
+      <c r="BX16" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY16">
         <v>0</v>
@@ -6843,8 +6950,11 @@
       <c r="CA16">
         <v>0</v>
       </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7031,14 +7141,14 @@
       <c r="BU17">
         <v>0</v>
       </c>
-      <c r="BV17" s="2" t="s">
-        <v>90</v>
+      <c r="BV17">
+        <v>0</v>
       </c>
       <c r="BW17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX17">
-        <v>0</v>
+      <c r="BX17" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY17">
         <v>0</v>
@@ -7049,8 +7159,11 @@
       <c r="CA17">
         <v>0</v>
       </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7240,14 +7353,14 @@
       <c r="BU18">
         <v>0</v>
       </c>
-      <c r="BV18" s="2" t="s">
-        <v>90</v>
+      <c r="BV18">
+        <v>0</v>
       </c>
       <c r="BW18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX18">
-        <v>0</v>
+      <c r="BX18" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY18">
         <v>0</v>
@@ -7258,8 +7371,11 @@
       <c r="CA18">
         <v>0</v>
       </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7446,26 +7562,29 @@
       <c r="BU19">
         <v>0</v>
       </c>
-      <c r="BV19" s="2" t="s">
-        <v>90</v>
+      <c r="BV19">
+        <v>0</v>
       </c>
       <c r="BW19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX19">
-        <v>0</v>
+      <c r="BX19" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY19">
         <v>0</v>
       </c>
       <c r="BZ19">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>1</v>
+      </c>
+      <c r="CB19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7649,15 +7768,15 @@
       <c r="BU20">
         <v>0</v>
       </c>
-      <c r="BV20" s="2" t="s">
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="BW20" s="2" t="s">
+      <c r="BX20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
       <c r="BY20">
         <v>0</v>
       </c>
@@ -7667,8 +7786,11 @@
       <c r="CA20">
         <v>0</v>
       </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7858,14 +7980,14 @@
       <c r="BU21">
         <v>0</v>
       </c>
-      <c r="BV21" s="2" t="s">
-        <v>90</v>
+      <c r="BV21">
+        <v>0</v>
       </c>
       <c r="BW21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX21">
-        <v>0</v>
+      <c r="BX21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY21">
         <v>0</v>
@@ -7876,8 +7998,11 @@
       <c r="CA21">
         <v>0</v>
       </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8067,14 +8192,14 @@
       <c r="BU22">
         <v>0</v>
       </c>
-      <c r="BV22" s="2" t="s">
-        <v>90</v>
+      <c r="BV22">
+        <v>0</v>
       </c>
       <c r="BW22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX22">
-        <v>0</v>
+      <c r="BX22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY22">
         <v>0</v>
@@ -8085,8 +8210,11 @@
       <c r="CA22">
         <v>0</v>
       </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8273,15 +8401,15 @@
       <c r="BU23">
         <v>0</v>
       </c>
-      <c r="BV23" s="2" t="s">
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW23" s="2" t="s">
+      <c r="BX23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX23">
-        <v>0</v>
-      </c>
       <c r="BY23">
         <v>0</v>
       </c>
@@ -8291,8 +8419,11 @@
       <c r="CA23">
         <v>0</v>
       </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8479,26 +8610,29 @@
       <c r="BU24">
         <v>0</v>
       </c>
-      <c r="BV24" s="2" t="s">
-        <v>90</v>
+      <c r="BV24">
+        <v>0</v>
       </c>
       <c r="BW24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX24">
-        <v>0</v>
+      <c r="BX24" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY24">
         <v>0</v>
       </c>
       <c r="BZ24">
-        <v>2</v>
-      </c>
-      <c r="CA24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA24">
+        <v>2</v>
+      </c>
+      <c r="CB24" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8685,14 +8819,14 @@
       <c r="BU25">
         <v>0</v>
       </c>
-      <c r="BV25" s="2" t="s">
-        <v>90</v>
+      <c r="BV25">
+        <v>0</v>
       </c>
       <c r="BW25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX25">
-        <v>0</v>
+      <c r="BX25" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY25">
         <v>0</v>
@@ -8703,8 +8837,11 @@
       <c r="CA25">
         <v>0</v>
       </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8891,15 +9028,15 @@
       <c r="BU26">
         <v>0</v>
       </c>
-      <c r="BV26" s="2" t="s">
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW26" s="2" t="s">
+      <c r="BX26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX26">
-        <v>0</v>
-      </c>
       <c r="BY26">
         <v>0</v>
       </c>
@@ -8909,8 +9046,11 @@
       <c r="CA26">
         <v>0</v>
       </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9097,14 +9237,14 @@
       <c r="BU27">
         <v>0</v>
       </c>
-      <c r="BV27" s="2" t="s">
-        <v>90</v>
+      <c r="BV27">
+        <v>0</v>
       </c>
       <c r="BW27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX27">
-        <v>0</v>
+      <c r="BX27" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY27">
         <v>0</v>
@@ -9115,8 +9255,11 @@
       <c r="CA27">
         <v>0</v>
       </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9303,14 +9446,14 @@
       <c r="BU28">
         <v>0</v>
       </c>
-      <c r="BV28" s="2" t="s">
-        <v>90</v>
+      <c r="BV28">
+        <v>0</v>
       </c>
       <c r="BW28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX28">
-        <v>0</v>
+      <c r="BX28" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY28">
         <v>0</v>
@@ -9321,8 +9464,11 @@
       <c r="CA28">
         <v>0</v>
       </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9509,15 +9655,15 @@
       <c r="BU29">
         <v>0</v>
       </c>
-      <c r="BV29" s="2" t="s">
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW29" s="2" t="s">
+      <c r="BX29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX29">
-        <v>0</v>
-      </c>
       <c r="BY29">
         <v>0</v>
       </c>
@@ -9527,8 +9673,11 @@
       <c r="CA29">
         <v>0</v>
       </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9718,14 +9867,14 @@
       <c r="BU30">
         <v>0</v>
       </c>
-      <c r="BV30" s="2" t="s">
-        <v>90</v>
+      <c r="BV30">
+        <v>0</v>
       </c>
       <c r="BW30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX30">
-        <v>0</v>
+      <c r="BX30" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY30">
         <v>0</v>
@@ -9736,8 +9885,11 @@
       <c r="CA30">
         <v>0</v>
       </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9927,15 +10079,15 @@
       <c r="BU31">
         <v>0</v>
       </c>
-      <c r="BV31" s="2" t="s">
+      <c r="BV31">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW31" s="2" t="s">
+      <c r="BX31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX31">
-        <v>0</v>
-      </c>
       <c r="BY31">
         <v>0</v>
       </c>
@@ -9945,8 +10097,11 @@
       <c r="CA31">
         <v>0</v>
       </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10136,15 +10291,15 @@
       <c r="BU32">
         <v>0</v>
       </c>
-      <c r="BV32" s="2" t="s">
+      <c r="BV32">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW32" s="2" t="s">
+      <c r="BX32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX32">
-        <v>0</v>
-      </c>
       <c r="BY32">
         <v>0</v>
       </c>
@@ -10154,8 +10309,11 @@
       <c r="CA32">
         <v>0</v>
       </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10342,14 +10500,14 @@
       <c r="BU33">
         <v>0</v>
       </c>
-      <c r="BV33" s="2" t="s">
-        <v>90</v>
+      <c r="BV33">
+        <v>0</v>
       </c>
       <c r="BW33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX33">
-        <v>0</v>
+      <c r="BX33" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY33">
         <v>0</v>
@@ -10360,8 +10518,11 @@
       <c r="CA33">
         <v>0</v>
       </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10548,14 +10709,14 @@
       <c r="BU34">
         <v>0</v>
       </c>
-      <c r="BV34" s="2" t="s">
-        <v>90</v>
+      <c r="BV34">
+        <v>0</v>
       </c>
       <c r="BW34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX34">
-        <v>0</v>
+      <c r="BX34" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY34">
         <v>0</v>
@@ -10566,8 +10727,11 @@
       <c r="CA34">
         <v>0</v>
       </c>
+      <c r="CB34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10754,26 +10918,29 @@
       <c r="BU35">
         <v>0</v>
       </c>
-      <c r="BV35" s="2" t="s">
-        <v>90</v>
+      <c r="BV35">
+        <v>0</v>
       </c>
       <c r="BW35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX35">
-        <v>1</v>
+      <c r="BX35" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ35">
         <v>0</v>
       </c>
-      <c r="CA35" t="s">
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10960,15 +11127,15 @@
       <c r="BU36">
         <v>0</v>
       </c>
-      <c r="BV36" s="2" t="s">
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW36" s="2" t="s">
+      <c r="BX36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX36">
-        <v>0</v>
-      </c>
       <c r="BY36">
         <v>0</v>
       </c>
@@ -10978,8 +11145,11 @@
       <c r="CA36">
         <v>0</v>
       </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11166,14 +11336,14 @@
       <c r="BU37">
         <v>0</v>
       </c>
-      <c r="BV37" s="2" t="s">
-        <v>90</v>
+      <c r="BV37">
+        <v>0</v>
       </c>
       <c r="BW37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX37">
-        <v>0</v>
+      <c r="BX37" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY37">
         <v>0</v>
@@ -11184,8 +11354,11 @@
       <c r="CA37">
         <v>0</v>
       </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11372,26 +11545,29 @@
       <c r="BU38">
         <v>0</v>
       </c>
-      <c r="BV38" s="2" t="s">
+      <c r="BV38">
+        <v>0</v>
+      </c>
+      <c r="BW38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW38" s="2" t="s">
+      <c r="BX38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX38">
-        <v>0</v>
-      </c>
       <c r="BY38">
         <v>0</v>
       </c>
       <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
         <v>3</v>
       </c>
-      <c r="CA38" t="s">
+      <c r="CB38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11578,14 +11754,14 @@
       <c r="BU39">
         <v>0</v>
       </c>
-      <c r="BV39" s="2" t="s">
-        <v>90</v>
+      <c r="BV39">
+        <v>0</v>
       </c>
       <c r="BW39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX39">
-        <v>0</v>
+      <c r="BX39" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY39">
         <v>0</v>
@@ -11596,8 +11772,11 @@
       <c r="CA39">
         <v>0</v>
       </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11787,15 +11966,15 @@
       <c r="BU40">
         <v>0</v>
       </c>
-      <c r="BV40" s="2" t="s">
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW40" s="2" t="s">
+      <c r="BX40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX40">
-        <v>0</v>
-      </c>
       <c r="BY40">
         <v>0</v>
       </c>
@@ -11805,8 +11984,11 @@
       <c r="CA40">
         <v>0</v>
       </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11993,15 +12175,15 @@
       <c r="BU41">
         <v>0</v>
       </c>
-      <c r="BV41" s="2" t="s">
+      <c r="BV41">
+        <v>0</v>
+      </c>
+      <c r="BW41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW41" s="2" t="s">
+      <c r="BX41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX41">
-        <v>0</v>
-      </c>
       <c r="BY41">
         <v>0</v>
       </c>
@@ -12011,8 +12193,11 @@
       <c r="CA41">
         <v>0</v>
       </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12199,26 +12384,29 @@
       <c r="BU42">
         <v>0</v>
       </c>
-      <c r="BV42" s="2" t="s">
-        <v>90</v>
+      <c r="BV42">
+        <v>0</v>
       </c>
       <c r="BW42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX42">
-        <v>0</v>
+      <c r="BX42" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY42">
         <v>0</v>
       </c>
       <c r="BZ42">
+        <v>0</v>
+      </c>
+      <c r="CA42">
         <v>4</v>
       </c>
-      <c r="CA42">
+      <c r="CB42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12402,15 +12590,15 @@
       <c r="BU43">
         <v>0</v>
       </c>
-      <c r="BV43" s="2" t="s">
+      <c r="BV43">
+        <v>0</v>
+      </c>
+      <c r="BW43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW43" s="2" t="s">
+      <c r="BX43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX43">
-        <v>0</v>
-      </c>
       <c r="BY43">
         <v>0</v>
       </c>
@@ -12420,8 +12608,11 @@
       <c r="CA43">
         <v>0</v>
       </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12608,14 +12799,14 @@
       <c r="BU44">
         <v>0</v>
       </c>
-      <c r="BV44" s="2" t="s">
-        <v>90</v>
+      <c r="BV44">
+        <v>0</v>
       </c>
       <c r="BW44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX44">
-        <v>0</v>
+      <c r="BX44" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY44">
         <v>0</v>
@@ -12626,8 +12817,11 @@
       <c r="CA44">
         <v>0</v>
       </c>
+      <c r="CB44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12814,15 +13008,15 @@
       <c r="BU45">
         <v>0</v>
       </c>
-      <c r="BV45" s="2" t="s">
+      <c r="BV45">
+        <v>0</v>
+      </c>
+      <c r="BW45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW45" s="2" t="s">
+      <c r="BX45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX45">
-        <v>0</v>
-      </c>
       <c r="BY45">
         <v>0</v>
       </c>
@@ -12832,8 +13026,11 @@
       <c r="CA45">
         <v>0</v>
       </c>
+      <c r="CB45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13021,14 +13218,14 @@
       <c r="BU46">
         <v>0</v>
       </c>
-      <c r="BV46" s="2" t="s">
-        <v>90</v>
+      <c r="BV46">
+        <v>0</v>
       </c>
       <c r="BW46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX46">
-        <v>0</v>
+      <c r="BX46" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY46">
         <v>0</v>
@@ -13039,8 +13236,11 @@
       <c r="CA46">
         <v>0</v>
       </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13233,26 +13433,29 @@
       <c r="BU47">
         <v>0</v>
       </c>
-      <c r="BV47" s="2" t="s">
-        <v>90</v>
+      <c r="BV47">
+        <v>0</v>
       </c>
       <c r="BW47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX47">
-        <v>0</v>
+      <c r="BX47" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY47">
         <v>0</v>
       </c>
       <c r="BZ47">
+        <v>0</v>
+      </c>
+      <c r="CA47">
         <v>6</v>
       </c>
-      <c r="CA47" t="s">
+      <c r="CB47" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13445,26 +13648,29 @@
       <c r="BU48">
         <v>0</v>
       </c>
-      <c r="BV48" s="2" t="s">
-        <v>90</v>
+      <c r="BV48">
+        <v>0</v>
       </c>
       <c r="BW48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX48">
-        <v>0</v>
+      <c r="BX48" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY48">
         <v>0</v>
       </c>
       <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
         <v>6</v>
       </c>
-      <c r="CA48" t="s">
+      <c r="CB48" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13654,26 +13860,29 @@
       <c r="BU49">
         <v>0</v>
       </c>
-      <c r="BV49" s="2" t="s">
-        <v>90</v>
+      <c r="BV49">
+        <v>0</v>
       </c>
       <c r="BW49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX49">
-        <v>0</v>
+      <c r="BX49" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY49">
         <v>0</v>
       </c>
       <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
         <v>6</v>
       </c>
-      <c r="CA49" t="s">
+      <c r="CB49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13863,14 +14072,14 @@
       <c r="BU50">
         <v>0</v>
       </c>
-      <c r="BV50" s="2" t="s">
-        <v>90</v>
+      <c r="BV50">
+        <v>0</v>
       </c>
       <c r="BW50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX50">
-        <v>0</v>
+      <c r="BX50" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY50">
         <v>0</v>
@@ -13881,8 +14090,11 @@
       <c r="CA50">
         <v>0</v>
       </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14072,14 +14284,14 @@
       <c r="BU51">
         <v>0</v>
       </c>
-      <c r="BV51" s="2" t="s">
-        <v>90</v>
+      <c r="BV51">
+        <v>0</v>
       </c>
       <c r="BW51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX51">
-        <v>0</v>
+      <c r="BX51" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY51">
         <v>0</v>
@@ -14090,8 +14302,11 @@
       <c r="CA51">
         <v>0</v>
       </c>
+      <c r="CB51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14281,14 +14496,14 @@
       <c r="BU52">
         <v>0</v>
       </c>
-      <c r="BV52" s="2" t="s">
-        <v>90</v>
+      <c r="BV52">
+        <v>0</v>
       </c>
       <c r="BW52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX52">
-        <v>0</v>
+      <c r="BX52" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY52">
         <v>0</v>
@@ -14299,8 +14514,11 @@
       <c r="CA52">
         <v>0</v>
       </c>
+      <c r="CB52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -14487,15 +14705,15 @@
       <c r="BU53">
         <v>0</v>
       </c>
-      <c r="BV53" s="2" t="s">
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW53" s="2" t="s">
+      <c r="BX53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX53">
-        <v>0</v>
-      </c>
       <c r="BY53">
         <v>0</v>
       </c>
@@ -14505,8 +14723,11 @@
       <c r="CA53">
         <v>0</v>
       </c>
+      <c r="CB53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -14693,14 +14914,14 @@
       <c r="BU54">
         <v>0</v>
       </c>
-      <c r="BV54" s="2" t="s">
-        <v>90</v>
+      <c r="BV54">
+        <v>0</v>
       </c>
       <c r="BW54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX54">
-        <v>0</v>
+      <c r="BX54" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY54">
         <v>0</v>
@@ -14711,8 +14932,11 @@
       <c r="CA54">
         <v>0</v>
       </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14896,15 +15120,15 @@
       <c r="BU55">
         <v>0</v>
       </c>
-      <c r="BV55" s="2" t="s">
+      <c r="BV55">
+        <v>0</v>
+      </c>
+      <c r="BW55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW55" s="2" t="s">
+      <c r="BX55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX55">
-        <v>0</v>
-      </c>
       <c r="BY55">
         <v>0</v>
       </c>
@@ -14914,8 +15138,11 @@
       <c r="CA55">
         <v>0</v>
       </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15102,14 +15329,14 @@
       <c r="BU56">
         <v>0</v>
       </c>
-      <c r="BV56" s="2" t="s">
-        <v>90</v>
+      <c r="BV56">
+        <v>0</v>
       </c>
       <c r="BW56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX56">
-        <v>0</v>
+      <c r="BX56" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY56">
         <v>0</v>
@@ -15120,8 +15347,11 @@
       <c r="CA56">
         <v>0</v>
       </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15305,14 +15535,14 @@
       <c r="BU57">
         <v>0</v>
       </c>
-      <c r="BV57" s="2" t="s">
-        <v>90</v>
+      <c r="BV57">
+        <v>0</v>
       </c>
       <c r="BW57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX57">
-        <v>0</v>
+      <c r="BX57" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY57">
         <v>0</v>
@@ -15323,8 +15553,11 @@
       <c r="CA57">
         <v>0</v>
       </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15514,15 +15747,15 @@
       <c r="BU58">
         <v>0</v>
       </c>
-      <c r="BV58" s="2" t="s">
+      <c r="BV58">
+        <v>0</v>
+      </c>
+      <c r="BW58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW58" s="2" t="s">
+      <c r="BX58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX58">
-        <v>0</v>
-      </c>
       <c r="BY58">
         <v>0</v>
       </c>
@@ -15532,8 +15765,11 @@
       <c r="CA58">
         <v>0</v>
       </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15723,15 +15959,15 @@
       <c r="BU59">
         <v>0</v>
       </c>
-      <c r="BV59" s="2" t="s">
+      <c r="BV59">
+        <v>0</v>
+      </c>
+      <c r="BW59" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW59" s="2" t="s">
+      <c r="BX59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX59">
-        <v>0</v>
-      </c>
       <c r="BY59">
         <v>0</v>
       </c>
@@ -15741,8 +15977,11 @@
       <c r="CA59">
         <v>0</v>
       </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15932,14 +16171,14 @@
       <c r="BU60">
         <v>0</v>
       </c>
-      <c r="BV60" s="2" t="s">
-        <v>90</v>
+      <c r="BV60">
+        <v>0</v>
       </c>
       <c r="BW60" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX60">
-        <v>0</v>
+      <c r="BX60" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY60">
         <v>0</v>
@@ -15950,8 +16189,11 @@
       <c r="CA60">
         <v>0</v>
       </c>
+      <c r="CB60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -16141,15 +16383,15 @@
       <c r="BU61">
         <v>0</v>
       </c>
-      <c r="BV61" s="2" t="s">
+      <c r="BV61">
+        <v>0</v>
+      </c>
+      <c r="BW61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW61" s="2" t="s">
+      <c r="BX61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX61">
-        <v>0</v>
-      </c>
       <c r="BY61">
         <v>0</v>
       </c>
@@ -16159,8 +16401,11 @@
       <c r="CA61">
         <v>0</v>
       </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -16347,14 +16592,14 @@
       <c r="BU62">
         <v>0</v>
       </c>
-      <c r="BV62" s="2" t="s">
-        <v>90</v>
+      <c r="BV62">
+        <v>0</v>
       </c>
       <c r="BW62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX62">
-        <v>0</v>
+      <c r="BX62" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY62">
         <v>0</v>
@@ -16365,8 +16610,11 @@
       <c r="CA62">
         <v>0</v>
       </c>
+      <c r="CB62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -16553,26 +16801,29 @@
       <c r="BU63">
         <v>0</v>
       </c>
-      <c r="BV63" s="2" t="s">
+      <c r="BV63">
+        <v>0</v>
+      </c>
+      <c r="BW63" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW63" s="2" t="s">
+      <c r="BX63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX63">
-        <v>0</v>
-      </c>
       <c r="BY63">
         <v>0</v>
       </c>
       <c r="BZ63">
+        <v>0</v>
+      </c>
+      <c r="CA63">
         <v>7</v>
       </c>
-      <c r="CA63" t="s">
+      <c r="CB63" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -16762,15 +17013,15 @@
       <c r="BU64">
         <v>0</v>
       </c>
-      <c r="BV64" s="2" t="s">
+      <c r="BV64">
+        <v>0</v>
+      </c>
+      <c r="BW64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW64" s="2" t="s">
+      <c r="BX64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX64">
-        <v>0</v>
-      </c>
       <c r="BY64">
         <v>0</v>
       </c>
@@ -16780,8 +17031,11 @@
       <c r="CA64">
         <v>0</v>
       </c>
+      <c r="CB64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -16966,14 +17220,14 @@
       <c r="BU65">
         <v>0</v>
       </c>
-      <c r="BV65" s="2" t="s">
-        <v>90</v>
+      <c r="BV65">
+        <v>0</v>
       </c>
       <c r="BW65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX65">
-        <v>0</v>
+      <c r="BX65" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY65">
         <v>0</v>
@@ -16984,8 +17238,11 @@
       <c r="CA65">
         <v>0</v>
       </c>
+      <c r="CB65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17172,15 +17429,15 @@
       <c r="BU66">
         <v>0</v>
       </c>
-      <c r="BV66" s="2" t="s">
+      <c r="BV66">
+        <v>0</v>
+      </c>
+      <c r="BW66" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW66" s="2" t="s">
+      <c r="BX66" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX66">
-        <v>0</v>
-      </c>
       <c r="BY66">
         <v>0</v>
       </c>
@@ -17190,8 +17447,11 @@
       <c r="CA66">
         <v>0</v>
       </c>
+      <c r="CB66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -17378,15 +17638,15 @@
       <c r="BU67">
         <v>0</v>
       </c>
-      <c r="BV67" s="2" t="s">
+      <c r="BV67">
+        <v>0</v>
+      </c>
+      <c r="BW67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW67" s="2" t="s">
+      <c r="BX67" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX67">
-        <v>0</v>
-      </c>
       <c r="BY67">
         <v>0</v>
       </c>
@@ -17396,8 +17656,11 @@
       <c r="CA67">
         <v>0</v>
       </c>
+      <c r="CB67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -17587,14 +17850,14 @@
       <c r="BU68">
         <v>0</v>
       </c>
-      <c r="BV68" s="2" t="s">
-        <v>90</v>
+      <c r="BV68">
+        <v>0</v>
       </c>
       <c r="BW68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX68">
-        <v>0</v>
+      <c r="BX68" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY68">
         <v>0</v>
@@ -17605,8 +17868,11 @@
       <c r="CA68">
         <v>0</v>
       </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -17796,14 +18062,14 @@
       <c r="BU69">
         <v>0</v>
       </c>
-      <c r="BV69" s="2" t="s">
-        <v>90</v>
+      <c r="BV69">
+        <v>0</v>
       </c>
       <c r="BW69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX69">
-        <v>0</v>
+      <c r="BX69" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY69">
         <v>0</v>
@@ -17814,8 +18080,11 @@
       <c r="CA69">
         <v>0</v>
       </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18005,14 +18274,14 @@
       <c r="BU70">
         <v>0</v>
       </c>
-      <c r="BV70" s="2" t="s">
-        <v>90</v>
+      <c r="BV70">
+        <v>0</v>
       </c>
       <c r="BW70" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX70">
-        <v>0</v>
+      <c r="BX70" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY70">
         <v>0</v>
@@ -18023,8 +18292,11 @@
       <c r="CA70">
         <v>0</v>
       </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18214,15 +18486,15 @@
       <c r="BU71">
         <v>0</v>
       </c>
-      <c r="BV71" s="2" t="s">
+      <c r="BV71">
+        <v>0</v>
+      </c>
+      <c r="BW71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BW71" s="2" t="s">
+      <c r="BX71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BX71">
-        <v>0</v>
-      </c>
       <c r="BY71">
         <v>0</v>
       </c>
@@ -18232,8 +18504,11 @@
       <c r="CA71">
         <v>0</v>
       </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18423,14 +18698,14 @@
       <c r="BU72">
         <v>0</v>
       </c>
-      <c r="BV72" s="2" t="s">
-        <v>90</v>
+      <c r="BV72">
+        <v>0</v>
       </c>
       <c r="BW72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX72">
-        <v>0</v>
+      <c r="BX72" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY72">
         <v>0</v>
@@ -18441,8 +18716,11 @@
       <c r="CA72">
         <v>0</v>
       </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18632,14 +18910,14 @@
       <c r="BU73">
         <v>0</v>
       </c>
-      <c r="BV73" s="2" t="s">
-        <v>90</v>
+      <c r="BV73">
+        <v>0</v>
       </c>
       <c r="BW73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX73">
-        <v>0</v>
+      <c r="BX73" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY73">
         <v>0</v>
@@ -18650,8 +18928,11 @@
       <c r="CA73">
         <v>0</v>
       </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18844,15 +19125,15 @@
       <c r="BU74">
         <v>0</v>
       </c>
-      <c r="BV74" s="2" t="s">
+      <c r="BV74">
+        <v>0</v>
+      </c>
+      <c r="BW74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BW74" s="2" t="s">
+      <c r="BX74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="BX74">
-        <v>0</v>
-      </c>
       <c r="BY74">
         <v>0</v>
       </c>
@@ -18862,8 +19143,11 @@
       <c r="CA74">
         <v>0</v>
       </c>
+      <c r="CB74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19056,14 +19340,14 @@
       <c r="BU75">
         <v>0</v>
       </c>
-      <c r="BV75" s="2" t="s">
-        <v>90</v>
+      <c r="BV75">
+        <v>0</v>
       </c>
       <c r="BW75" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX75">
-        <v>0</v>
+      <c r="BX75" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY75">
         <v>0</v>
@@ -19074,8 +19358,11 @@
       <c r="CA75">
         <v>0</v>
       </c>
+      <c r="CB75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19265,17 +19552,17 @@
       <c r="BU76" t="s">
         <v>272</v>
       </c>
-      <c r="BV76" s="2" t="s">
-        <v>90</v>
+      <c r="BV76">
+        <v>0</v>
       </c>
       <c r="BW76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX76">
-        <v>2</v>
+      <c r="BX76" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ76">
         <v>0</v>
@@ -19283,8 +19570,11 @@
       <c r="CA76">
         <v>0</v>
       </c>
+      <c r="CB76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19474,14 +19764,14 @@
       <c r="BU77">
         <v>0</v>
       </c>
-      <c r="BV77" s="2" t="s">
-        <v>91</v>
+      <c r="BV77">
+        <v>0</v>
       </c>
       <c r="BW77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BX77">
-        <v>0</v>
+      <c r="BX77" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="BY77">
         <v>0</v>
@@ -19492,8 +19782,11 @@
       <c r="CA77">
         <v>0</v>
       </c>
+      <c r="CB77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19683,26 +19976,29 @@
       <c r="BU78">
         <v>0</v>
       </c>
-      <c r="BV78" s="2" t="s">
-        <v>91</v>
+      <c r="BV78">
+        <v>0</v>
       </c>
       <c r="BW78" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BX78">
-        <v>0</v>
+      <c r="BX78" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="BY78">
         <v>0</v>
       </c>
       <c r="BZ78">
+        <v>0</v>
+      </c>
+      <c r="CA78">
         <v>8</v>
       </c>
-      <c r="CA78" s="2" t="s">
+      <c r="CB78" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19889,14 +20185,14 @@
       <c r="BU79">
         <v>0</v>
       </c>
-      <c r="BV79" s="2" t="s">
-        <v>91</v>
+      <c r="BV79">
+        <v>0</v>
       </c>
       <c r="BW79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BX79">
-        <v>0</v>
+      <c r="BX79" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="BY79">
         <v>0</v>
@@ -19907,8 +20203,11 @@
       <c r="CA79">
         <v>0</v>
       </c>
+      <c r="CB79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20095,14 +20394,14 @@
       <c r="BU80">
         <v>0</v>
       </c>
-      <c r="BV80" s="2" t="s">
-        <v>90</v>
+      <c r="BV80">
+        <v>0</v>
       </c>
       <c r="BW80" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX80">
-        <v>0</v>
+      <c r="BX80" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY80">
         <v>0</v>
@@ -20113,8 +20412,11 @@
       <c r="CA80">
         <v>0</v>
       </c>
+      <c r="CB80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20248,7 +20550,7 @@
         <v>1</v>
       </c>
       <c r="AW81">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AX81">
         <v>1</v>
@@ -20298,14 +20600,14 @@
       <c r="BU81">
         <v>0</v>
       </c>
-      <c r="BV81" s="2" t="s">
-        <v>90</v>
+      <c r="BV81">
+        <v>0</v>
       </c>
       <c r="BW81" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX81">
-        <v>0</v>
+      <c r="BX81" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="BY81">
         <v>0</v>
@@ -20316,8 +20618,11 @@
       <c r="CA81">
         <v>0</v>
       </c>
+      <c r="CB81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20501,15 +20806,15 @@
       <c r="BU82">
         <v>0</v>
       </c>
-      <c r="BV82" s="2" t="s">
+      <c r="BV82">
+        <v>0</v>
+      </c>
+      <c r="BW82" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BW82" s="2" t="s">
+      <c r="BX82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BX82">
-        <v>0</v>
-      </c>
       <c r="BY82">
         <v>0</v>
       </c>
@@ -20519,8 +20824,11 @@
       <c r="CA82">
         <v>0</v>
       </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20707,14 +21015,14 @@
       <c r="BU83">
         <v>0</v>
       </c>
-      <c r="BV83" s="2" t="s">
-        <v>91</v>
+      <c r="BV83">
+        <v>0</v>
       </c>
       <c r="BW83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BX83">
-        <v>0</v>
+      <c r="BX83" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="BY83">
         <v>0</v>
@@ -20725,8 +21033,11 @@
       <c r="CA83">
         <v>0</v>
       </c>
+      <c r="CB83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20910,228 +21221,1563 @@
       <c r="BU84">
         <v>0</v>
       </c>
-      <c r="BV84" s="2" t="s">
-        <v>91</v>
+      <c r="BV84">
+        <v>0</v>
       </c>
       <c r="BW84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="BX84">
-        <v>0</v>
+      <c r="BX84" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="BY84">
+        <v>0</v>
+      </c>
+      <c r="BZ84">
         <v>3</v>
       </c>
-      <c r="BZ84">
-        <v>0</v>
-      </c>
       <c r="CA84">
         <v>0</v>
       </c>
+      <c r="CB84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.15">
-      <c r="A85">
+    <row r="85" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>-1</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
         <v>3</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="4">
         <v>5</v>
       </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>2</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>1</v>
-      </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <v>0</v>
-      </c>
-      <c r="V85">
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4">
+        <v>0</v>
+      </c>
+      <c r="P85" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>0</v>
+      </c>
+      <c r="R85" s="4">
+        <v>1</v>
+      </c>
+      <c r="S85" s="4">
+        <v>2</v>
+      </c>
+      <c r="T85" s="4">
+        <v>0</v>
+      </c>
+      <c r="U85" s="4">
+        <v>0</v>
+      </c>
+      <c r="V85" s="4">
         <v>10</v>
       </c>
-      <c r="W85">
-        <v>1</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
-      <c r="Y85">
+      <c r="W85" s="4">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y85" s="4">
         <v>4</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
-      </c>
-      <c r="AD85">
-        <v>2</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
-      </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
-      <c r="AG85">
+      <c r="Z85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="4">
         <v>8</v>
       </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-      <c r="AI85">
-        <v>-1</v>
-      </c>
-      <c r="AJ85">
-        <v>2</v>
-      </c>
-      <c r="AK85">
-        <v>0</v>
-      </c>
-      <c r="AL85">
-        <v>1</v>
-      </c>
-      <c r="AM85">
-        <v>0</v>
-      </c>
-      <c r="AN85">
-        <v>0</v>
-      </c>
-      <c r="AO85">
-        <v>0</v>
-      </c>
-      <c r="AQ85">
-        <v>2</v>
-      </c>
-      <c r="AR85">
-        <v>2</v>
-      </c>
-      <c r="AS85">
-        <v>2</v>
-      </c>
-      <c r="AT85" s="2" t="s">
+      <c r="AH85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="4"/>
+      <c r="AQ85" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR85" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS85" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT85" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AV85">
-        <v>0</v>
-      </c>
-      <c r="AW85">
-        <v>0</v>
-      </c>
-      <c r="AX85">
-        <v>1</v>
-      </c>
-      <c r="AY85">
-        <v>0</v>
-      </c>
-      <c r="BA85">
-        <v>0</v>
-      </c>
-      <c r="BB85">
-        <v>0</v>
-      </c>
-      <c r="BG85">
+      <c r="AU85" s="4"/>
+      <c r="AV85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ85" s="4"/>
+      <c r="BA85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="4"/>
+      <c r="BD85" s="4"/>
+      <c r="BE85" s="4"/>
+      <c r="BF85" s="4"/>
+      <c r="BG85" s="4">
         <v>10</v>
       </c>
-      <c r="BH85">
-        <v>0</v>
-      </c>
-      <c r="BI85">
-        <v>0</v>
-      </c>
-      <c r="BJ85">
-        <v>0</v>
-      </c>
-      <c r="BK85">
-        <v>0</v>
-      </c>
-      <c r="BN85">
-        <v>0</v>
-      </c>
-      <c r="BO85">
-        <v>0</v>
-      </c>
-      <c r="BP85">
-        <v>0</v>
-      </c>
-      <c r="BQ85">
-        <v>0</v>
-      </c>
-      <c r="BR85">
-        <v>0</v>
-      </c>
-      <c r="BT85">
-        <v>0</v>
-      </c>
-      <c r="BU85">
-        <v>0</v>
-      </c>
-      <c r="BV85" s="2" t="s">
+      <c r="BH85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL85" s="4"/>
+      <c r="BM85" s="4"/>
+      <c r="BN85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS85" s="4"/>
+      <c r="BT85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BW85" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BX85">
-        <v>0</v>
-      </c>
-      <c r="BY85">
-        <v>0</v>
-      </c>
-      <c r="BZ85">
-        <v>0</v>
-      </c>
-      <c r="CA85">
+      <c r="BX85" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="BY85" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ85" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA85" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4">
+        <v>5</v>
+      </c>
+      <c r="M86" s="4">
+        <v>2</v>
+      </c>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4">
+        <v>0</v>
+      </c>
+      <c r="P86" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>0</v>
+      </c>
+      <c r="R86" s="4">
+        <v>2</v>
+      </c>
+      <c r="S86" s="4">
+        <v>2</v>
+      </c>
+      <c r="T86" s="4">
+        <v>0</v>
+      </c>
+      <c r="U86" s="4">
+        <v>0</v>
+      </c>
+      <c r="V86" s="4">
+        <v>10</v>
+      </c>
+      <c r="W86" s="4">
+        <v>1</v>
+      </c>
+      <c r="X86" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH86" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ86" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM86" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="4">
+        <v>138</v>
+      </c>
+      <c r="AQ86" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR86" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS86" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT86" s="4"/>
+      <c r="AU86" s="4"/>
+      <c r="AV86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ86" s="4"/>
+      <c r="BA86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC86" s="4"/>
+      <c r="BD86" s="4"/>
+      <c r="BE86" s="4"/>
+      <c r="BF86" s="4"/>
+      <c r="BG86" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL86" s="4"/>
+      <c r="BM86" s="4"/>
+      <c r="BN86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS86" s="4"/>
+      <c r="BT86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV86">
+        <v>0</v>
+      </c>
+      <c r="BW86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX86" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY86" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ86" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA86" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>4</v>
+      </c>
+      <c r="L87" s="4">
+        <v>5</v>
+      </c>
+      <c r="M87" s="4">
+        <v>2</v>
+      </c>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4">
+        <v>0</v>
+      </c>
+      <c r="P87" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0</v>
+      </c>
+      <c r="R87" s="4">
+        <v>1</v>
+      </c>
+      <c r="S87" s="4">
+        <v>1</v>
+      </c>
+      <c r="T87" s="4">
+        <v>0</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0</v>
+      </c>
+      <c r="V87" s="4">
+        <v>10</v>
+      </c>
+      <c r="W87" s="4">
+        <v>1</v>
+      </c>
+      <c r="X87" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG87" s="4">
+        <v>7</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AQ87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS87" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT87" s="4">
+        <v>142</v>
+      </c>
+      <c r="AU87" s="4"/>
+      <c r="AV87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ87" s="4"/>
+      <c r="BA87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC87" s="4"/>
+      <c r="BD87" s="4"/>
+      <c r="BE87" s="4"/>
+      <c r="BF87" s="4"/>
+      <c r="BG87" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL87" s="4"/>
+      <c r="BM87" s="4"/>
+      <c r="BN87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS87" s="4"/>
+      <c r="BT87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV87">
+        <v>0</v>
+      </c>
+      <c r="BW87" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="BX87" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="BY87" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ87" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA87" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F88" s="4">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4">
+        <v>5</v>
+      </c>
+      <c r="M88" s="4">
+        <v>2</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4">
+        <v>0</v>
+      </c>
+      <c r="P88" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0</v>
+      </c>
+      <c r="R88" s="4">
+        <v>2</v>
+      </c>
+      <c r="S88" s="4">
+        <v>2</v>
+      </c>
+      <c r="T88" s="4">
+        <v>0</v>
+      </c>
+      <c r="U88" s="4">
+        <v>0</v>
+      </c>
+      <c r="V88" s="4">
+        <v>10</v>
+      </c>
+      <c r="W88" s="4">
+        <v>1</v>
+      </c>
+      <c r="X88" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y88" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD88" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="4">
+        <v>55</v>
+      </c>
+      <c r="AH88" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI88" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ88" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP88" s="4"/>
+      <c r="AQ88" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR88" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS88" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT88" s="4"/>
+      <c r="AU88" s="4"/>
+      <c r="AV88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ88" s="4"/>
+      <c r="BA88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC88" s="4"/>
+      <c r="BD88" s="4"/>
+      <c r="BE88" s="4"/>
+      <c r="BF88" s="4"/>
+      <c r="BG88" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL88" s="4"/>
+      <c r="BM88" s="4"/>
+      <c r="BN88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS88" s="4"/>
+      <c r="BT88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV88">
+        <v>160</v>
+      </c>
+      <c r="BW88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY88" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ88" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA88" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="4">
+        <v>5</v>
+      </c>
+      <c r="M89" s="4">
+        <v>2</v>
+      </c>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4">
+        <v>0</v>
+      </c>
+      <c r="P89" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0</v>
+      </c>
+      <c r="R89" s="4">
+        <v>2</v>
+      </c>
+      <c r="S89" s="4">
+        <v>2</v>
+      </c>
+      <c r="T89" s="4">
+        <v>0</v>
+      </c>
+      <c r="U89" s="4">
+        <v>0</v>
+      </c>
+      <c r="V89" s="4">
+        <v>10</v>
+      </c>
+      <c r="W89" s="4">
+        <v>1</v>
+      </c>
+      <c r="X89" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD89" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH89" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI89" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ89" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="4">
+        <v>145</v>
+      </c>
+      <c r="AQ89" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR89" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS89" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT89" s="4"/>
+      <c r="AU89" s="4"/>
+      <c r="AV89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="4"/>
+      <c r="BA89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC89" s="4"/>
+      <c r="BD89" s="4"/>
+      <c r="BE89" s="4"/>
+      <c r="BF89" s="4"/>
+      <c r="BG89" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL89" s="4"/>
+      <c r="BM89" s="4"/>
+      <c r="BN89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS89" s="4"/>
+      <c r="BT89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV89">
+        <v>0</v>
+      </c>
+      <c r="BW89" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX89" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY89" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ89" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA89" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+      <c r="L90" s="4">
+        <v>5</v>
+      </c>
+      <c r="M90" s="4">
+        <v>2</v>
+      </c>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>0</v>
+      </c>
+      <c r="R90" s="4">
+        <v>2</v>
+      </c>
+      <c r="S90" s="4">
+        <v>2</v>
+      </c>
+      <c r="T90" s="4">
+        <v>0</v>
+      </c>
+      <c r="U90" s="4">
+        <v>0</v>
+      </c>
+      <c r="V90" s="4">
+        <v>10</v>
+      </c>
+      <c r="W90" s="4">
+        <v>1</v>
+      </c>
+      <c r="X90" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="4">
+        <v>65</v>
+      </c>
+      <c r="AH90" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM90" s="4">
+        <v>225</v>
+      </c>
+      <c r="AN90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="4"/>
+      <c r="AQ90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT90" s="4"/>
+      <c r="AU90" s="4"/>
+      <c r="AV90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ90" s="4"/>
+      <c r="BA90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="4"/>
+      <c r="BD90" s="4"/>
+      <c r="BE90" s="4"/>
+      <c r="BF90" s="4"/>
+      <c r="BG90" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL90" s="4"/>
+      <c r="BM90" s="4"/>
+      <c r="BN90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR90" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS90" s="4"/>
+      <c r="BT90" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU90" s="4">
+        <v>275</v>
+      </c>
+      <c r="BV90">
+        <v>0</v>
+      </c>
+      <c r="BW90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY90" s="4">
+        <v>2</v>
+      </c>
+      <c r="BZ90" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA90" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+      <c r="L91" s="4">
+        <v>5</v>
+      </c>
+      <c r="M91" s="4">
+        <v>2</v>
+      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4">
+        <v>0</v>
+      </c>
+      <c r="P91" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>0</v>
+      </c>
+      <c r="R91" s="4">
+        <v>2</v>
+      </c>
+      <c r="S91" s="4">
+        <v>2</v>
+      </c>
+      <c r="T91" s="4">
+        <v>0</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0</v>
+      </c>
+      <c r="V91" s="4">
+        <v>10</v>
+      </c>
+      <c r="W91" s="4">
+        <v>1</v>
+      </c>
+      <c r="X91" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="4">
+        <v>60</v>
+      </c>
+      <c r="AH91" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>12</v>
+      </c>
+      <c r="AJ91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM91" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="4">
+        <v>152</v>
+      </c>
+      <c r="AQ91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS91" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT91" s="4"/>
+      <c r="AU91" s="4"/>
+      <c r="AV91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="4"/>
+      <c r="BA91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="4"/>
+      <c r="BD91" s="4"/>
+      <c r="BE91" s="4"/>
+      <c r="BF91" s="4"/>
+      <c r="BG91" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL91" s="4"/>
+      <c r="BM91" s="4"/>
+      <c r="BN91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS91" s="4"/>
+      <c r="BT91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV91">
+        <v>0</v>
+      </c>
+      <c r="BW91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY91" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ91" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA91" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB91" s="4">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -1739,7 +1739,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷  4:向前拉</t>
+//强制移动类型 0:表示不强制移动 1:表示用子弹向后推开目标(小黑) 2:强制移动自己到指定位置 3:小小投掷  4:向前拉 5向前推</t>
         </r>
       </text>
     </comment>
@@ -1973,13 +1973,39 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//刷新技能CD  1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //特殊情况处理 //1:混沌间隙的目标和自己的瞬移 //2熊战士的怒意狂击 3风行束缚击
 4 帕克幻象发球 5帕克发球传送 6 影魔影牙伤害叠加 7 斧王淘汰
 8 瘟疫法师歇心光环对英雄加5倍</t>
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2010,7 +2036,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="316">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2519,636 +2545,691 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceMoveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40:1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,85,100,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,11,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,350,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryDoHurtChangeHurtCR</t>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,14,13,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,100,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,50,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,12,11,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,140,210,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,100,120,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>VisibleRelationSkillID</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,110,120,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,160,220,280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,150,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49,51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,160,230,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,60,70,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimotorState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,120,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,110,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletCount</t>
+  </si>
+  <si>
+    <t>PathHalo</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,140,190,240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,120,140,160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathHaloMinTime</t>
+  </si>
+  <si>
+    <t>TriggerOtherRule</t>
+  </si>
+  <si>
+    <t>TriggerOtherRuleParam</t>
+  </si>
+  <si>
+    <t>4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼折射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,150,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,200,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitTargetCamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchedPlaces</t>
+  </si>
+  <si>
+    <t>UnitTargetTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽鬼大招传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisibleTime</t>
+  </si>
+  <si>
+    <t>UseToHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCount</t>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪爆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,90,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪的暗杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,225,275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,485,650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestForceAttackSrc</t>
+  </si>
+  <si>
+    <t>斧王吼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,90,10,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王反击螺旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45,0.4,0.35,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,100,140,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150,250,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,120,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71:250:9,71:325:9,71:400:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,65,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,150,225,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EjectionCount</t>
+  </si>
+  <si>
+    <t>EjectionRange</t>
+  </si>
+  <si>
+    <t>EjectionDecay</t>
+  </si>
+  <si>
+    <t>月骑月刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,35,30,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,40,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,175,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78,79,80,81,82,83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫残影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,70,80,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4,1.8,2.2,2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherManaCostType</t>
+  </si>
+  <si>
+    <t>OtherManaCostVal</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师脉冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,7,6,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,130,160,190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,80,100,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,24,20,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师歇心光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫法师大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,350,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92,93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseUnitProjectilePos</t>
+  </si>
+  <si>
+    <t>AttackAnim</t>
+  </si>
+  <si>
+    <t>TriggerProbability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标枪穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血面具吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHurtStopTime</t>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129,130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMPValue</t>
+  </si>
+  <si>
+    <t>奥数鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ForceMoveType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小投掷</t>
+    <t>纷争面纱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ForceMoveTime</t>
+    <t>大根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40:1010</t>
+    <t>400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小拔树</t>
+    <t>风杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25,20,15,10</t>
+    <t>158,159</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小长大</t>
+    <t>阿托斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行的束缚击</t>
+    <t>161</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,14,12,10</t>
+    <t>紫苑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>70,85,100,115</t>
+    <t>164</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.75:2:5.25:43:0.785,0.75:2.6:5.25:43:0.785,0.75:3.2:5.25:43:0.785,0.75:3.8:5.25:43:0.785</t>
+    <t>FreshSkillTime</t>
+  </si>
+  <si>
+    <t>刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行强力击</t>
+    <t>羊刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,11,10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,100,110,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,350,450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EveryDoHurtChangeHurtCR</t>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,14,13,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,100,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,50,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,12,11,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,140,210,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,100,120,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>VisibleRelationSkillID</t>
-  </si>
-  <si>
-    <t>InitLevel</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,15,14,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,110,120,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,160,220,280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,150,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,65,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49,51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,160,230,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,60,70,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52:50:2,52:60:2,52:70:2,52:80:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimotorState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,120,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,110,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletCount</t>
-  </si>
-  <si>
-    <t>PathHalo</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,140,190,240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,120,140,160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013,1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathHaloMinTime</t>
-  </si>
-  <si>
-    <t>TriggerOtherRule</t>
-  </si>
-  <si>
-    <t>TriggerOtherRuleParam</t>
-  </si>
-  <si>
-    <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼折射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,150,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,200,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitTargetCamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwitchedPlaces</t>
-  </si>
-  <si>
-    <t>UnitTargetTeam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽鬼大招传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisibleTime</t>
-  </si>
-  <si>
-    <t>UseToHide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCount</t>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪爆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,60,90,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪瞄准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,8,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪的暗杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,15,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,225,275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320,485,650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestForceAttackSrc</t>
-  </si>
-  <si>
-    <t>斧王吼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,90,10,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王反击螺旋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45,0.4,0.35,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,100,140,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王淘汰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,250,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,120,180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71:250:9,71:325:9,71:400:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,65,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,150,225,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EjectionCount</t>
-  </si>
-  <si>
-    <t>EjectionRange</t>
-  </si>
-  <si>
-    <t>EjectionDecay</t>
-  </si>
-  <si>
-    <t>月骑月刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,35,30,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙剧毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,40,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,175,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78,79,80,81,82,83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫残影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,70,80,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4,1.8,2.2,2.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫超负荷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherManaCostType</t>
-  </si>
-  <si>
-    <t>OtherManaCostVal</t>
-  </si>
-  <si>
-    <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师脉冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,7,6,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,130,160,190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,80,100,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师护罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,24,20,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师歇心光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘟疫法师大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,350,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92,93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseUnitProjectilePos</t>
-  </si>
-  <si>
-    <t>AttackAnim</t>
-  </si>
-  <si>
-    <t>TriggerProbability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标枪穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血面具吸血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeHurtStopTime</t>
-  </si>
-  <si>
-    <t>相位鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>129,130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄冥盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddMPValue</t>
-  </si>
-  <si>
-    <t>奥数鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅肯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笛子</t>
+    <t>167</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3525,11 +3606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB91"/>
+  <dimension ref="A1:CC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP95" sqref="AP95"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP108" sqref="AP108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3549,10 +3630,10 @@
     <col min="55" max="55" width="11.625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="11.625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="8.125" customWidth="1"/>
-    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3569,25 +3650,25 @@
         <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -3596,13 +3677,13 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>8</v>
@@ -3617,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>12</v>
@@ -3629,22 +3710,22 @@
         <v>14</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>15</v>
@@ -3665,16 +3746,16 @@
         <v>19</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>21</v>
@@ -3683,10 +3764,10 @@
         <v>26</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>27</v>
@@ -3698,16 +3779,16 @@
         <v>31</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>61</v>
@@ -3725,10 +3806,10 @@
         <v>36</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>40</v>
@@ -3752,7 +3833,7 @@
         <v>46</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>58</v>
@@ -3761,7 +3842,7 @@
         <v>59</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>67</v>
@@ -3773,7 +3854,7 @@
         <v>69</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>96</v>
@@ -3785,16 +3866,19 @@
         <v>70</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="CA1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4000,13 +4084,16 @@
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB2">
         <v>0</v>
       </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4209,13 +4296,16 @@
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:81" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4421,13 +4511,16 @@
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB4">
         <v>0</v>
       </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4627,13 +4720,16 @@
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4839,13 +4935,16 @@
         <v>0</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB6">
         <v>0</v>
       </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5051,13 +5150,16 @@
         <v>0</v>
       </c>
       <c r="CA7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB7">
         <v>0</v>
       </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5257,13 +5359,16 @@
         <v>0</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB8">
         <v>0</v>
       </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5473,13 +5578,16 @@
         <v>0</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB9">
         <v>0</v>
       </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5685,13 +5793,16 @@
         <v>0</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB10">
         <v>0</v>
       </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5897,13 +6008,16 @@
         <v>0</v>
       </c>
       <c r="CA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB11">
         <v>0</v>
       </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6106,13 +6220,16 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB12">
         <v>0</v>
       </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6258,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -6318,13 +6435,16 @@
         <v>0</v>
       </c>
       <c r="CA13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB13">
         <v>0</v>
       </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6527,13 +6647,16 @@
         <v>0</v>
       </c>
       <c r="CA14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB14">
         <v>0</v>
       </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6739,13 +6862,16 @@
         <v>0</v>
       </c>
       <c r="CA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB15">
         <v>0</v>
       </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6948,13 +7074,16 @@
         <v>0</v>
       </c>
       <c r="CA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB16">
         <v>0</v>
       </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7157,13 +7286,16 @@
         <v>0</v>
       </c>
       <c r="CA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB17">
         <v>0</v>
       </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7369,13 +7501,16 @@
         <v>0</v>
       </c>
       <c r="CA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB18">
         <v>0</v>
       </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7578,13 +7713,16 @@
         <v>0</v>
       </c>
       <c r="CA19">
-        <v>1</v>
-      </c>
-      <c r="CB19" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB19">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7784,13 +7922,16 @@
         <v>0</v>
       </c>
       <c r="CA20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB20">
         <v>0</v>
       </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7996,13 +8137,16 @@
         <v>0</v>
       </c>
       <c r="CA21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB21">
         <v>0</v>
       </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8208,13 +8352,16 @@
         <v>0</v>
       </c>
       <c r="CA22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB22">
         <v>0</v>
       </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8417,13 +8564,16 @@
         <v>0</v>
       </c>
       <c r="CA23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB23">
         <v>0</v>
       </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8628,11 +8778,14 @@
       <c r="CA24">
         <v>2</v>
       </c>
-      <c r="CB24" s="2" t="s">
+      <c r="CB24">
+        <v>2</v>
+      </c>
+      <c r="CC24" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8835,13 +8988,16 @@
         <v>0</v>
       </c>
       <c r="CA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB25">
         <v>0</v>
       </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9044,13 +9200,16 @@
         <v>0</v>
       </c>
       <c r="CA26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB26">
         <v>0</v>
       </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9253,13 +9412,16 @@
         <v>0</v>
       </c>
       <c r="CA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB27">
         <v>0</v>
       </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9462,13 +9624,16 @@
         <v>0</v>
       </c>
       <c r="CA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB28">
         <v>0</v>
       </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9671,13 +9836,16 @@
         <v>0</v>
       </c>
       <c r="CA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB29">
         <v>0</v>
       </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9883,13 +10051,16 @@
         <v>0</v>
       </c>
       <c r="CA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB30">
         <v>0</v>
       </c>
+      <c r="CC30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10095,13 +10266,16 @@
         <v>0</v>
       </c>
       <c r="CA31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB31">
         <v>0</v>
       </c>
+      <c r="CC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10307,13 +10481,16 @@
         <v>0</v>
       </c>
       <c r="CA32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB32">
         <v>0</v>
       </c>
+      <c r="CC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10516,13 +10693,16 @@
         <v>0</v>
       </c>
       <c r="CA33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB33">
         <v>0</v>
       </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10725,18 +10905,21 @@
         <v>0</v>
       </c>
       <c r="CA34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB34">
         <v>0</v>
       </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -10934,18 +11117,21 @@
         <v>0</v>
       </c>
       <c r="CA35">
-        <v>0</v>
-      </c>
-      <c r="CB35" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -11035,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="AG36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -11143,18 +11329,21 @@
         <v>0</v>
       </c>
       <c r="CA36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB36">
         <v>0</v>
       </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -11352,18 +11541,21 @@
         <v>0</v>
       </c>
       <c r="CA37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB37">
         <v>0</v>
       </c>
+      <c r="CC37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -11456,25 +11648,25 @@
         <v>8</v>
       </c>
       <c r="AG38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>-1</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="s">
         <v>146</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>-1</v>
-      </c>
-      <c r="AJ38">
-        <v>2</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>147</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -11561,18 +11753,21 @@
         <v>0</v>
       </c>
       <c r="CA38">
+        <v>2</v>
+      </c>
+      <c r="CB38">
         <v>3</v>
       </c>
-      <c r="CB38" t="s">
-        <v>148</v>
+      <c r="CC38" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -11665,10 +11860,10 @@
         <v>26</v>
       </c>
       <c r="AG39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI39">
         <v>1.5</v>
@@ -11683,7 +11878,7 @@
         <v>0.8</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -11770,18 +11965,21 @@
         <v>0</v>
       </c>
       <c r="CA39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB39">
         <v>0</v>
       </c>
+      <c r="CC39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -11871,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="AG40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AH40">
         <v>0</v>
@@ -11982,18 +12180,21 @@
         <v>0</v>
       </c>
       <c r="CA40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB40">
         <v>0</v>
       </c>
+      <c r="CC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -12083,7 +12284,7 @@
         <v>10</v>
       </c>
       <c r="AG41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AH41">
         <v>0</v>
@@ -12101,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -12191,18 +12392,21 @@
         <v>0</v>
       </c>
       <c r="CA41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB41">
         <v>0</v>
       </c>
+      <c r="CC41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -12295,10 +12499,10 @@
         <v>19.5</v>
       </c>
       <c r="AG42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH42" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="AI42">
         <v>2.5</v>
@@ -12313,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -12400,18 +12604,21 @@
         <v>0</v>
       </c>
       <c r="CA42">
+        <v>2</v>
+      </c>
+      <c r="CB42">
         <v>4</v>
       </c>
-      <c r="CB42">
+      <c r="CC42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -12606,18 +12813,21 @@
         <v>0</v>
       </c>
       <c r="CA43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB43">
         <v>0</v>
       </c>
+      <c r="CC43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -12707,10 +12917,10 @@
         <v>4</v>
       </c>
       <c r="AG44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI44">
         <v>4</v>
@@ -12725,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -12815,18 +13025,21 @@
         <v>0</v>
       </c>
       <c r="CA44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB44">
         <v>0</v>
       </c>
+      <c r="CC44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -13024,18 +13237,21 @@
         <v>0</v>
       </c>
       <c r="CA45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB45">
         <v>0</v>
       </c>
+      <c r="CC45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -13125,7 +13341,7 @@
         <v>6</v>
       </c>
       <c r="AG46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH46">
         <v>0</v>
@@ -13143,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="AM46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -13152,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="AP46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -13234,18 +13450,21 @@
         <v>0</v>
       </c>
       <c r="CA46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB46">
         <v>0</v>
       </c>
+      <c r="CC46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -13341,7 +13560,7 @@
         <v>3</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI47">
         <v>3</v>
@@ -13356,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -13449,18 +13668,21 @@
         <v>0</v>
       </c>
       <c r="CA47">
+        <v>2</v>
+      </c>
+      <c r="CB47">
         <v>6</v>
       </c>
-      <c r="CB47" t="s">
-        <v>183</v>
+      <c r="CC47" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -13556,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI48">
         <v>3</v>
@@ -13571,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -13664,18 +13886,21 @@
         <v>0</v>
       </c>
       <c r="CA48">
+        <v>2</v>
+      </c>
+      <c r="CB48">
         <v>6</v>
       </c>
-      <c r="CB48" t="s">
-        <v>183</v>
+      <c r="CC48" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -13771,7 +13996,7 @@
         <v>3</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI49">
         <v>3</v>
@@ -13786,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -13876,18 +14101,21 @@
         <v>0</v>
       </c>
       <c r="CA49">
+        <v>2</v>
+      </c>
+      <c r="CB49">
         <v>6</v>
       </c>
-      <c r="CB49" t="s">
-        <v>183</v>
+      <c r="CC49" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -13980,10 +14208,10 @@
         <v>10</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI50">
         <v>1.5</v>
@@ -14088,18 +14316,21 @@
         <v>0</v>
       </c>
       <c r="CA50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB50">
         <v>0</v>
       </c>
+      <c r="CC50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -14195,7 +14426,7 @@
         <v>16</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI51">
         <v>1.5</v>
@@ -14210,43 +14441,43 @@
         <v>1</v>
       </c>
       <c r="AM51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>2</v>
+      </c>
+      <c r="AS51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BF51" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AQ51">
-        <v>2</v>
-      </c>
-      <c r="AR51">
-        <v>2</v>
-      </c>
-      <c r="AS51">
-        <v>2</v>
-      </c>
-      <c r="AV51">
-        <v>0</v>
-      </c>
-      <c r="AW51">
-        <v>0</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BF51" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="BG51">
         <v>0.2</v>
@@ -14300,18 +14531,21 @@
         <v>0</v>
       </c>
       <c r="CA51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB51">
         <v>0</v>
       </c>
+      <c r="CC51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -14407,52 +14641,52 @@
         <v>0.1</v>
       </c>
       <c r="AH52" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI52">
+        <v>-1</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>2</v>
+      </c>
+      <c r="AR52">
+        <v>2</v>
+      </c>
+      <c r="AS52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>1</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>2</v>
+      </c>
+      <c r="AZ52" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="AI52">
-        <v>-1</v>
-      </c>
-      <c r="AJ52">
-        <v>2</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>1</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
-      <c r="AN52">
-        <v>0</v>
-      </c>
-      <c r="AO52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>2</v>
-      </c>
-      <c r="AR52">
-        <v>2</v>
-      </c>
-      <c r="AS52">
-        <v>2</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>2</v>
-      </c>
-      <c r="AZ52" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -14512,18 +14746,21 @@
         <v>0</v>
       </c>
       <c r="CA52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB52">
         <v>0</v>
       </c>
+      <c r="CC52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -14721,18 +14958,21 @@
         <v>0</v>
       </c>
       <c r="CA53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB53">
         <v>0</v>
       </c>
+      <c r="CC53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -14822,25 +15062,25 @@
         <v>15</v>
       </c>
       <c r="AG54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>-1</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>-1</v>
-      </c>
-      <c r="AJ54">
-        <v>2</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -14891,7 +15131,7 @@
         <v>-1</v>
       </c>
       <c r="BL54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -14930,18 +15170,21 @@
         <v>0</v>
       </c>
       <c r="CA54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB54">
         <v>0</v>
       </c>
+      <c r="CC54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -15136,18 +15379,21 @@
         <v>0</v>
       </c>
       <c r="CA55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB55">
         <v>0</v>
       </c>
+      <c r="CC55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -15237,7 +15483,7 @@
         <v>12</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -15255,43 +15501,43 @@
         <v>1</v>
       </c>
       <c r="AM56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>2</v>
+      </c>
+      <c r="AS56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>2</v>
-      </c>
-      <c r="AR56">
-        <v>2</v>
-      </c>
-      <c r="AS56">
-        <v>2</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="BG56">
         <v>10</v>
@@ -15345,18 +15591,21 @@
         <v>0</v>
       </c>
       <c r="CA56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB56">
         <v>0</v>
       </c>
+      <c r="CC56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -15449,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="AH57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI57">
         <v>-1</v>
@@ -15551,18 +15800,21 @@
         <v>0</v>
       </c>
       <c r="CA57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB57">
         <v>0</v>
       </c>
+      <c r="CC57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15652,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="AG58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -15763,18 +16015,21 @@
         <v>0</v>
       </c>
       <c r="CA58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB58">
         <v>0</v>
       </c>
+      <c r="CC58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -15867,25 +16122,25 @@
         <v>20</v>
       </c>
       <c r="AG59" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI59">
+        <v>-1</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI59">
-        <v>-1</v>
-      </c>
-      <c r="AJ59">
-        <v>2</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>1</v>
-      </c>
-      <c r="AM59" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -15975,18 +16230,21 @@
         <v>0</v>
       </c>
       <c r="CA59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB59">
         <v>0</v>
       </c>
+      <c r="CC59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -16076,7 +16334,7 @@
         <v>3</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -16094,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="AM60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -16187,18 +16445,21 @@
         <v>0</v>
       </c>
       <c r="CA60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB60">
         <v>0</v>
       </c>
+      <c r="CC60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -16306,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="AM61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -16399,18 +16660,21 @@
         <v>0</v>
       </c>
       <c r="CA61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB61">
         <v>0</v>
       </c>
+      <c r="CC61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -16503,10 +16767,10 @@
         <v>2.75</v>
       </c>
       <c r="AG62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH62" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="AH62" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="AI62">
         <v>2.75</v>
@@ -16608,18 +16872,21 @@
         <v>0</v>
       </c>
       <c r="CA62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB62">
         <v>0</v>
       </c>
+      <c r="CC62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -16712,25 +16979,25 @@
         <v>3</v>
       </c>
       <c r="AG63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI63">
+        <v>-1</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AI63">
-        <v>-1</v>
-      </c>
-      <c r="AJ63">
-        <v>2</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>1</v>
-      </c>
-      <c r="AM63" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -16817,18 +17084,21 @@
         <v>0</v>
       </c>
       <c r="CA63">
+        <v>2</v>
+      </c>
+      <c r="CB63">
         <v>7</v>
       </c>
-      <c r="CB63" t="s">
-        <v>235</v>
+      <c r="CC63" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -16924,7 +17194,7 @@
         <v>6</v>
       </c>
       <c r="AH64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AI64">
         <v>-1</v>
@@ -17029,36 +17299,39 @@
         <v>0</v>
       </c>
       <c r="CA64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB64">
         <v>0</v>
       </c>
+      <c r="CC64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>242</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>-1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>243</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -17236,18 +17509,21 @@
         <v>0</v>
       </c>
       <c r="CA65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB65">
         <v>0</v>
       </c>
+      <c r="CC65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -17445,18 +17721,21 @@
         <v>0</v>
       </c>
       <c r="CA66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB66">
         <v>0</v>
       </c>
+      <c r="CC66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -17564,7 +17843,7 @@
         <v>1</v>
       </c>
       <c r="AM67" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -17654,18 +17933,21 @@
         <v>0</v>
       </c>
       <c r="CA67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB67">
         <v>0</v>
       </c>
+      <c r="CC67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -17776,7 +18058,7 @@
         <v>1</v>
       </c>
       <c r="AM68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -17866,18 +18148,21 @@
         <v>0</v>
       </c>
       <c r="CA68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB68">
         <v>0</v>
       </c>
+      <c r="CC68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -17970,7 +18255,7 @@
         <v>6</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -18024,7 +18309,7 @@
         <v>0</v>
       </c>
       <c r="BC69" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BG69">
         <v>10</v>
@@ -18078,18 +18363,21 @@
         <v>0</v>
       </c>
       <c r="CA69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB69">
         <v>0</v>
       </c>
+      <c r="CC69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -18179,7 +18467,7 @@
         <v>14</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AH70" s="2" t="s">
         <v>98</v>
@@ -18290,18 +18578,21 @@
         <v>0</v>
       </c>
       <c r="CA70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB70">
         <v>0</v>
       </c>
+      <c r="CC70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -18394,34 +18685,34 @@
         <v>8</v>
       </c>
       <c r="AG71" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>-1</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>-1</v>
-      </c>
-      <c r="AJ71">
-        <v>2</v>
-      </c>
-      <c r="AK71">
-        <v>0</v>
-      </c>
-      <c r="AL71">
-        <v>1</v>
-      </c>
-      <c r="AM71" s="2" t="s">
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71" t="s">
         <v>255</v>
-      </c>
-      <c r="AN71">
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>256</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -18502,18 +18793,21 @@
         <v>0</v>
       </c>
       <c r="CA71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB71">
         <v>0</v>
       </c>
+      <c r="CC71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -18603,7 +18897,7 @@
         <v>2.6</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH72">
         <v>0</v>
@@ -18660,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="BC72" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BG72">
         <v>10</v>
@@ -18714,18 +19008,21 @@
         <v>0</v>
       </c>
       <c r="CA72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB72">
         <v>0</v>
       </c>
+      <c r="CC72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -18833,7 +19130,7 @@
         <v>1</v>
       </c>
       <c r="AM73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN73">
         <v>0</v>
@@ -18890,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="BO73" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BP73">
         <v>0.5</v>
@@ -18926,18 +19223,21 @@
         <v>0</v>
       </c>
       <c r="CA73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB73">
         <v>0</v>
       </c>
+      <c r="CC73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -19141,18 +19441,21 @@
         <v>0</v>
       </c>
       <c r="CA74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB74">
         <v>0</v>
       </c>
+      <c r="CC74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -19191,7 +19494,7 @@
         <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -19248,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="AH75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI75">
         <v>2</v>
@@ -19323,7 +19626,7 @@
         <v>0.5</v>
       </c>
       <c r="BP75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BQ75">
         <v>2</v>
@@ -19356,18 +19659,21 @@
         <v>0</v>
       </c>
       <c r="CA75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB75">
         <v>0</v>
       </c>
+      <c r="CC75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -19460,25 +19766,25 @@
         <v>4.75</v>
       </c>
       <c r="AG76" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>-1</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>-1</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>1</v>
-      </c>
-      <c r="AM76" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -19550,7 +19856,7 @@
         <v>1</v>
       </c>
       <c r="BU76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BV76">
         <v>0</v>
@@ -19568,18 +19874,21 @@
         <v>0</v>
       </c>
       <c r="CA76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB76">
         <v>0</v>
       </c>
+      <c r="CC76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -19669,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="AG77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH77">
         <v>0</v>
@@ -19780,18 +20089,21 @@
         <v>0</v>
       </c>
       <c r="CA77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB77">
         <v>0</v>
       </c>
+      <c r="CC77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -19992,18 +20304,21 @@
         <v>0</v>
       </c>
       <c r="CA78">
+        <v>2</v>
+      </c>
+      <c r="CB78">
         <v>8</v>
       </c>
-      <c r="CB78" s="2" t="s">
-        <v>276</v>
+      <c r="CC78" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -20111,16 +20426,16 @@
         <v>1</v>
       </c>
       <c r="AM79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79" t="s">
         <v>278</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>279</v>
       </c>
       <c r="AQ79">
         <v>2</v>
@@ -20201,18 +20516,21 @@
         <v>0</v>
       </c>
       <c r="CA79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB79">
         <v>0</v>
       </c>
+      <c r="CC79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -20410,18 +20728,21 @@
         <v>0</v>
       </c>
       <c r="CA80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB80">
         <v>0</v>
       </c>
+      <c r="CC80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -20616,18 +20937,21 @@
         <v>0</v>
       </c>
       <c r="CA81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB81">
         <v>0</v>
       </c>
+      <c r="CC81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -20810,7 +21134,7 @@
         <v>0</v>
       </c>
       <c r="BW82" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BX82" s="2" t="s">
         <v>90</v>
@@ -20822,18 +21146,21 @@
         <v>0</v>
       </c>
       <c r="CA82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB82">
         <v>0</v>
       </c>
+      <c r="CC82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -21031,18 +21358,21 @@
         <v>0</v>
       </c>
       <c r="CA83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB83">
         <v>0</v>
       </c>
+      <c r="CC83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -21237,18 +21567,21 @@
         <v>3</v>
       </c>
       <c r="CA84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB84">
         <v>0</v>
       </c>
+      <c r="CC84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -21376,7 +21709,7 @@
         <v>2</v>
       </c>
       <c r="AT85" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AU85" s="4"/>
       <c r="AV85" s="4">
@@ -21448,7 +21781,7 @@
         <v>91</v>
       </c>
       <c r="BX85" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BY85" s="4">
         <v>0</v>
@@ -21456,19 +21789,22 @@
       <c r="BZ85" s="4">
         <v>0</v>
       </c>
-      <c r="CA85" s="4">
-        <v>0</v>
+      <c r="CA85">
+        <v>2</v>
       </c>
       <c r="CB85" s="4">
         <v>0</v>
       </c>
+      <c r="CC85" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -21562,7 +21898,7 @@
         <v>30</v>
       </c>
       <c r="AH86" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI86" s="4">
         <v>12</v>
@@ -21676,19 +22012,22 @@
       <c r="BZ86" s="4">
         <v>0</v>
       </c>
-      <c r="CA86" s="4">
-        <v>0</v>
+      <c r="CA86">
+        <v>2</v>
       </c>
       <c r="CB86" s="4">
         <v>0</v>
       </c>
+      <c r="CC86" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -21737,7 +22076,7 @@
         <v>1</v>
       </c>
       <c r="S87" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T87" s="4">
         <v>0</v>
@@ -21806,7 +22145,7 @@
         <v>0</v>
       </c>
       <c r="AP87" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ87" s="4">
         <v>2</v>
@@ -21887,10 +22226,10 @@
         <v>0</v>
       </c>
       <c r="BW87" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BX87" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BY87" s="4">
         <v>0</v>
@@ -21898,19 +22237,22 @@
       <c r="BZ87" s="4">
         <v>0</v>
       </c>
-      <c r="CA87" s="4">
-        <v>0</v>
+      <c r="CA87">
+        <v>2</v>
       </c>
       <c r="CB87" s="4">
         <v>0</v>
       </c>
+      <c r="CC87" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -22004,7 +22346,7 @@
         <v>55</v>
       </c>
       <c r="AH88" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AI88" s="4">
         <v>12</v>
@@ -22116,19 +22458,22 @@
       <c r="BZ88" s="4">
         <v>0</v>
       </c>
-      <c r="CA88" s="4">
-        <v>0</v>
+      <c r="CA88">
+        <v>2</v>
       </c>
       <c r="CB88" s="4">
         <v>0</v>
       </c>
+      <c r="CC88" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -22222,7 +22567,7 @@
         <v>30</v>
       </c>
       <c r="AH89" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AI89" s="4">
         <v>12</v>
@@ -22336,19 +22681,22 @@
       <c r="BZ89" s="4">
         <v>0</v>
       </c>
-      <c r="CA89" s="4">
-        <v>0</v>
+      <c r="CA89">
+        <v>2</v>
       </c>
       <c r="CB89" s="4">
         <v>0</v>
       </c>
+      <c r="CC89" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -22442,7 +22790,7 @@
         <v>65</v>
       </c>
       <c r="AH90" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AI90" s="4">
         <v>12</v>
@@ -22554,19 +22902,22 @@
       <c r="BZ90" s="4">
         <v>0</v>
       </c>
-      <c r="CA90" s="4">
-        <v>0</v>
+      <c r="CA90">
+        <v>2</v>
       </c>
       <c r="CB90" s="4">
         <v>0</v>
       </c>
+      <c r="CC90" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:80" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:81" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -22660,7 +23011,7 @@
         <v>60</v>
       </c>
       <c r="AH91" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AI91" s="4">
         <v>12</v>
@@ -22774,10 +23125,1767 @@
       <c r="BZ91" s="4">
         <v>0</v>
       </c>
-      <c r="CA91" s="4">
-        <v>0</v>
+      <c r="CA91">
+        <v>2</v>
       </c>
       <c r="CB91" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>10</v>
+      </c>
+      <c r="W92">
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <v>2</v>
+      </c>
+      <c r="Y92">
+        <v>4</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>-1</v>
+      </c>
+      <c r="AD92">
+        <v>2</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>10</v>
+      </c>
+      <c r="AG92">
+        <v>23</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>-1</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
+        <v>100</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>2</v>
+      </c>
+      <c r="AS92">
+        <v>2</v>
+      </c>
+      <c r="AV92">
+        <v>0</v>
+      </c>
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>10</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0.5</v>
+      </c>
+      <c r="BP92">
+        <v>12</v>
+      </c>
+      <c r="BQ92">
+        <v>2</v>
+      </c>
+      <c r="BR92">
+        <v>5</v>
+      </c>
+      <c r="BT92">
+        <v>0</v>
+      </c>
+      <c r="BU92">
+        <v>0</v>
+      </c>
+      <c r="BV92">
+        <v>0</v>
+      </c>
+      <c r="BW92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY92">
+        <v>0</v>
+      </c>
+      <c r="BZ92">
+        <v>0</v>
+      </c>
+      <c r="CA92">
+        <v>2</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
+      <c r="CC92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
+        <v>2</v>
+      </c>
+      <c r="L93" s="4">
+        <v>5</v>
+      </c>
+      <c r="M93" s="4">
+        <v>2</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0</v>
+      </c>
+      <c r="R93" s="4">
+        <v>2</v>
+      </c>
+      <c r="S93" s="4">
+        <v>2</v>
+      </c>
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0</v>
+      </c>
+      <c r="V93" s="4">
+        <v>10</v>
+      </c>
+      <c r="W93" s="4">
+        <v>1</v>
+      </c>
+      <c r="X93" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG93" s="4">
+        <v>20</v>
+      </c>
+      <c r="AH93" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>6</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM93" s="4">
+        <v>50</v>
+      </c>
+      <c r="AN93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="4">
+        <v>155</v>
+      </c>
+      <c r="AQ93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS93" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT93" s="4"/>
+      <c r="AU93" s="4"/>
+      <c r="AV93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ93" s="4"/>
+      <c r="BA93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC93" s="4"/>
+      <c r="BD93" s="4"/>
+      <c r="BE93" s="4"/>
+      <c r="BF93" s="4"/>
+      <c r="BG93" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL93" s="4"/>
+      <c r="BM93" s="4"/>
+      <c r="BN93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS93" s="4"/>
+      <c r="BT93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV93">
+        <v>0</v>
+      </c>
+      <c r="BW93" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX93" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY93" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ93" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA93">
+        <v>2</v>
+      </c>
+      <c r="CB93" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
+        <v>2</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>10</v>
+      </c>
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>2</v>
+      </c>
+      <c r="Y94">
+        <v>4</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AC94">
+        <v>-1</v>
+      </c>
+      <c r="AD94">
+        <v>2</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>6</v>
+      </c>
+      <c r="AG94">
+        <v>35</v>
+      </c>
+      <c r="AH94" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI94">
+        <v>-1</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94" s="3">
+        <v>120</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>2</v>
+      </c>
+      <c r="AR94">
+        <v>2</v>
+      </c>
+      <c r="AS94">
+        <v>2</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>1</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>0</v>
+      </c>
+      <c r="BB94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>10</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+      <c r="BQ94">
+        <v>0</v>
+      </c>
+      <c r="BR94">
+        <v>0</v>
+      </c>
+      <c r="BT94">
+        <v>0</v>
+      </c>
+      <c r="BU94">
+        <v>0</v>
+      </c>
+      <c r="BV94">
+        <v>0</v>
+      </c>
+      <c r="BW94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BX94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY94">
+        <v>0</v>
+      </c>
+      <c r="BZ94">
+        <v>0</v>
+      </c>
+      <c r="CA94">
+        <v>2</v>
+      </c>
+      <c r="CB94">
+        <v>0</v>
+      </c>
+      <c r="CC94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1</v>
+      </c>
+      <c r="K95" s="4">
+        <v>3</v>
+      </c>
+      <c r="L95" s="4">
+        <v>5</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2</v>
+      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0</v>
+      </c>
+      <c r="R95" s="4">
+        <v>1</v>
+      </c>
+      <c r="S95" s="4">
+        <v>2</v>
+      </c>
+      <c r="T95" s="4">
+        <v>0</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0</v>
+      </c>
+      <c r="V95" s="4">
+        <v>10</v>
+      </c>
+      <c r="W95" s="4">
+        <v>1</v>
+      </c>
+      <c r="X95" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>23</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM95" s="4">
+        <v>175</v>
+      </c>
+      <c r="AN95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AQ95" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR95" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS95" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT95" s="4"/>
+      <c r="AU95" s="4"/>
+      <c r="AV95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ95" s="4"/>
+      <c r="BA95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="4"/>
+      <c r="BD95" s="4"/>
+      <c r="BE95" s="4"/>
+      <c r="BF95" s="4"/>
+      <c r="BG95" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI95" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL95" s="4"/>
+      <c r="BM95" s="4"/>
+      <c r="BN95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS95" s="4"/>
+      <c r="BT95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV95">
+        <v>0</v>
+      </c>
+      <c r="BW95" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX95" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY95" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ95" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA95">
+        <v>2</v>
+      </c>
+      <c r="CB95" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F96" s="4">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="4">
+        <v>2</v>
+      </c>
+      <c r="L96" s="4">
+        <v>5</v>
+      </c>
+      <c r="M96" s="4">
+        <v>2</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>0</v>
+      </c>
+      <c r="R96" s="4">
+        <v>1</v>
+      </c>
+      <c r="S96" s="4">
+        <v>2</v>
+      </c>
+      <c r="T96" s="4">
+        <v>0</v>
+      </c>
+      <c r="U96" s="4">
+        <v>0</v>
+      </c>
+      <c r="V96" s="4">
+        <v>10</v>
+      </c>
+      <c r="W96" s="4">
+        <v>1</v>
+      </c>
+      <c r="X96" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD96" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="AG96" s="4">
+        <v>18</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ96" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM96" s="4">
+        <v>50</v>
+      </c>
+      <c r="AN96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ96" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR96" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS96" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT96" s="4"/>
+      <c r="AU96" s="4"/>
+      <c r="AV96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ96" s="4"/>
+      <c r="BA96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="4"/>
+      <c r="BD96" s="4"/>
+      <c r="BE96" s="4"/>
+      <c r="BF96" s="4"/>
+      <c r="BG96" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI96" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL96" s="4"/>
+      <c r="BM96" s="4"/>
+      <c r="BN96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS96" s="4"/>
+      <c r="BT96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV96">
+        <v>0</v>
+      </c>
+      <c r="BW96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY96" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ96" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA96">
+        <v>2</v>
+      </c>
+      <c r="CB96" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2</v>
+      </c>
+      <c r="L97" s="4">
+        <v>5</v>
+      </c>
+      <c r="M97" s="4">
+        <v>2</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4">
+        <v>0</v>
+      </c>
+      <c r="P97" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>0</v>
+      </c>
+      <c r="R97" s="4">
+        <v>1</v>
+      </c>
+      <c r="S97" s="4">
+        <v>2</v>
+      </c>
+      <c r="T97" s="4">
+        <v>0</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0</v>
+      </c>
+      <c r="V97" s="4">
+        <v>10</v>
+      </c>
+      <c r="W97" s="4">
+        <v>1</v>
+      </c>
+      <c r="X97" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="4">
+        <v>9</v>
+      </c>
+      <c r="AG97" s="4">
+        <v>18</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM97" s="4">
+        <v>100</v>
+      </c>
+      <c r="AN97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS97" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT97" s="4"/>
+      <c r="AU97" s="4"/>
+      <c r="AV97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ97" s="4"/>
+      <c r="BA97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="4"/>
+      <c r="BD97" s="4"/>
+      <c r="BE97" s="4"/>
+      <c r="BF97" s="4"/>
+      <c r="BG97" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI97" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL97" s="4"/>
+      <c r="BM97" s="4"/>
+      <c r="BN97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS97" s="4"/>
+      <c r="BT97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV97">
+        <v>0</v>
+      </c>
+      <c r="BW97" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX97" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY97" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ97" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA97">
+        <v>2</v>
+      </c>
+      <c r="CB97" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F98" s="4">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1</v>
+      </c>
+      <c r="L98" s="4">
+        <v>5</v>
+      </c>
+      <c r="M98" s="4">
+        <v>2</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4">
+        <v>0</v>
+      </c>
+      <c r="P98" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>0</v>
+      </c>
+      <c r="R98" s="4">
+        <v>1</v>
+      </c>
+      <c r="S98" s="4">
+        <v>2</v>
+      </c>
+      <c r="T98" s="4">
+        <v>0</v>
+      </c>
+      <c r="U98" s="4">
+        <v>0</v>
+      </c>
+      <c r="V98" s="4">
+        <v>10</v>
+      </c>
+      <c r="W98" s="4">
+        <v>1</v>
+      </c>
+      <c r="X98" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="4">
+        <v>20</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM98" s="4">
+        <v>375</v>
+      </c>
+      <c r="AN98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS98" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT98" s="4"/>
+      <c r="AU98" s="4"/>
+      <c r="AV98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ98" s="4"/>
+      <c r="BA98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="4"/>
+      <c r="BD98" s="4"/>
+      <c r="BE98" s="4"/>
+      <c r="BF98" s="4"/>
+      <c r="BG98" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI98" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL98" s="4"/>
+      <c r="BM98" s="4"/>
+      <c r="BN98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS98" s="4"/>
+      <c r="BT98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV98">
+        <v>0</v>
+      </c>
+      <c r="BW98" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX98" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY98" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ98" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA98">
+        <v>1</v>
+      </c>
+      <c r="CB98" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:81" x14ac:dyDescent="0.15">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2</v>
+      </c>
+      <c r="E99" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>2</v>
+      </c>
+      <c r="L99" s="4">
+        <v>5</v>
+      </c>
+      <c r="M99" s="4">
+        <v>2</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4">
+        <v>0</v>
+      </c>
+      <c r="P99" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="4">
+        <v>0</v>
+      </c>
+      <c r="R99" s="4">
+        <v>1</v>
+      </c>
+      <c r="S99" s="4">
+        <v>2</v>
+      </c>
+      <c r="T99" s="4">
+        <v>0</v>
+      </c>
+      <c r="U99" s="4">
+        <v>0</v>
+      </c>
+      <c r="V99" s="4">
+        <v>10</v>
+      </c>
+      <c r="W99" s="4">
+        <v>1</v>
+      </c>
+      <c r="X99" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="4">
+        <v>8</v>
+      </c>
+      <c r="AG99" s="4">
+        <v>22</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ99" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM99" s="4">
+        <v>250</v>
+      </c>
+      <c r="AN99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ99" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR99" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS99" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT99" s="4"/>
+      <c r="AU99" s="4"/>
+      <c r="AV99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="4"/>
+      <c r="BA99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="4"/>
+      <c r="BD99" s="4"/>
+      <c r="BE99" s="4"/>
+      <c r="BF99" s="4"/>
+      <c r="BG99" s="4">
+        <v>10</v>
+      </c>
+      <c r="BH99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI99" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL99" s="4"/>
+      <c r="BM99" s="4"/>
+      <c r="BN99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS99" s="4"/>
+      <c r="BT99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BU99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV99">
+        <v>0</v>
+      </c>
+      <c r="BW99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BX99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BY99" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ99" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA99">
+        <v>2</v>
+      </c>
+      <c r="CB99" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC99" s="4">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3930,8 +3930,8 @@
   <dimension ref="A1:CI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24154,7 +24154,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H88" s="4">
         <v>1</v>
@@ -24183,7 +24183,9 @@
       <c r="P88" s="4">
         <v>2</v>
       </c>
-      <c r="Q88" s="4"/>
+      <c r="Q88" s="4">
+        <v>37</v>
+      </c>
       <c r="R88" s="4">
         <v>0</v>
       </c>
@@ -24248,7 +24250,7 @@
         <v>251</v>
       </c>
       <c r="AM88" s="4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AN88" s="4">
         <v>2</v>
@@ -24634,7 +24636,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="H90" s="4">
         <v>1</v>
@@ -24663,7 +24665,9 @@
       <c r="P90" s="4">
         <v>2</v>
       </c>
-      <c r="Q90" s="4"/>
+      <c r="Q90" s="4">
+        <v>35</v>
+      </c>
       <c r="R90" s="4">
         <v>0</v>
       </c>
@@ -24728,7 +24732,7 @@
         <v>251</v>
       </c>
       <c r="AM90" s="4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AN90" s="4">
         <v>2</v>
@@ -25611,8 +25615,11 @@
       <c r="P94">
         <v>2</v>
       </c>
+      <c r="Q94">
+        <v>36</v>
+      </c>
       <c r="R94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S94">
         <v>2</v>
@@ -25666,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="AJ94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK94">
         <v>35</v>
@@ -26079,9 +26086,11 @@
       <c r="P96" s="4">
         <v>2</v>
       </c>
-      <c r="Q96" s="4"/>
+      <c r="Q96" s="4">
+        <v>29</v>
+      </c>
       <c r="R96" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S96" s="4">
         <v>2</v>
@@ -26561,7 +26570,9 @@
       <c r="P98" s="4">
         <v>2</v>
       </c>
-      <c r="Q98" s="4"/>
+      <c r="Q98" s="4">
+        <v>38</v>
+      </c>
       <c r="R98" s="4">
         <v>0</v>
       </c>
@@ -27728,9 +27739,11 @@
       <c r="P103" s="4">
         <v>2</v>
       </c>
-      <c r="Q103" s="4"/>
+      <c r="Q103" s="4">
+        <v>39</v>
+      </c>
       <c r="R103" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S103" s="4">
         <v>2</v>
@@ -29354,6 +29367,9 @@
       <c r="P110">
         <v>1</v>
       </c>
+      <c r="Q110">
+        <v>40</v>
+      </c>
       <c r="R110">
         <v>0</v>
       </c>
@@ -30528,10 +30544,10 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R115">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="S115">
         <v>2</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2237,15 +2237,6 @@
     <t>CastTime</t>
   </si>
   <si>
-    <t>RequiredLevel</t>
-  </si>
-  <si>
-    <t>LevelsBetweenUpgrades</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
     <t>CastRange</t>
   </si>
   <si>
@@ -2353,26 +2344,14 @@
     <t>CallUnitOffsetPos</t>
   </si>
   <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2,0.25,0.3,0.35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200,275,350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2413,10 +2392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2,0.3,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2453,10 +2428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,30,35,40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2465,10 +2436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>150,225,300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2484,10 +2451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13,12,11,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2506,10 +2469,6 @@
     <t>ExceptionParam</t>
   </si>
   <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,15,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2529,10 +2488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.4,1.6,1.8,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2563,10 +2518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>125,200,275</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2579,26 +2530,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50,100,150,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,14,12,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7,14,21,28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2607,26 +2546,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50,40,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,8,7,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18,16,14,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2635,18 +2562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,40,35,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2659,22 +2574,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>70,80,90,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16,120,80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2683,10 +2586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.25,3.5,3.75,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2703,10 +2602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ForceMoveTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2715,22 +2610,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25,20,15,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16,14,12,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2743,10 +2626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12,11,10,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2762,18 +2641,10 @@
     <t>EveryDoHurtChangeHurtCR</t>
   </si>
   <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15,14,13,12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75,100,125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2782,10 +2653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13,12,11,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2801,10 +2668,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Visible</t>
   </si>
   <si>
@@ -2812,10 +2675,6 @@
   </si>
   <si>
     <t>InitLevel</t>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16,15,14,13</t>
@@ -2830,14 +2689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,150,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2850,10 +2701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90,160,230,300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2882,10 +2729,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>80,120,160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2983,10 +2826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3045,10 +2884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斧王反击螺旋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3110,14 +2945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40,35,30,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3167,10 +2994,6 @@
   </si>
   <si>
     <t>1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3544,6 +3367,186 @@
   </si>
   <si>
     <t>223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequiredLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelsBetweenUpgrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3930,8 +3933,8 @@
   <dimension ref="A1:CI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q124" sqref="Q124"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3968,37 +3971,37 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>5</v>
@@ -4007,19 +4010,19 @@
         <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>9</v>
@@ -4031,190 +4034,190 @@
         <v>11</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="CB1" s="1" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:87" x14ac:dyDescent="0.15">
@@ -4324,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK2">
         <v>6</v>
@@ -4339,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -4429,10 +4432,10 @@
         <v>0</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -4455,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4557,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="AK3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -4575,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -4659,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -4685,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4787,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -4892,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -4918,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5062,7 +5065,7 @@
         <v>0.15</v>
       </c>
       <c r="BB5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -5119,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -5145,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5247,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -5265,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5352,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="CC6" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -5378,7 +5381,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5552,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="BQ7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BR7">
         <v>1001</v>
@@ -5585,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="CC7" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -5611,7 +5614,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>310</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5752,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="BA8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB8">
         <v>1.8</v>
@@ -5812,10 +5815,10 @@
         <v>0</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -5838,7 +5841,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -6049,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="CC9" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -6075,7 +6078,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6282,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="CC10" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -6308,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6494,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BU11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="BV11">
         <v>6</v>
@@ -6515,10 +6518,10 @@
         <v>0</v>
       </c>
       <c r="CC11" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -6541,7 +6544,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6745,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="CC12" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE12">
         <v>0</v>
@@ -6771,7 +6774,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6915,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="BB13">
         <v>1</v>
@@ -6924,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="BE13">
         <v>0</v>
@@ -6978,10 +6981,10 @@
         <v>0</v>
       </c>
       <c r="CC13" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE13">
         <v>0</v>
@@ -7004,7 +7007,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7106,7 +7109,7 @@
         <v>6.75</v>
       </c>
       <c r="AK14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -7208,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="CC14" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE14">
         <v>1</v>
@@ -7234,7 +7237,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7336,7 +7339,7 @@
         <v>7.75</v>
       </c>
       <c r="AK15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -7441,10 +7444,10 @@
         <v>0</v>
       </c>
       <c r="CC15" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE15">
         <v>0</v>
@@ -7467,7 +7470,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7572,7 +7575,7 @@
         <v>0.1</v>
       </c>
       <c r="AL16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AM16">
         <v>-1</v>
@@ -7611,7 +7614,7 @@
         <v>1</v>
       </c>
       <c r="BA16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="BB16">
         <v>2</v>
@@ -7671,10 +7674,10 @@
         <v>0</v>
       </c>
       <c r="CC16" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -7697,7 +7700,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7799,7 +7802,7 @@
         <v>6</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -7817,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -7856,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="BL17">
         <v>10</v>
@@ -7901,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="CC17" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE17">
         <v>0</v>
@@ -7927,7 +7930,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8032,10 +8035,10 @@
         <v>7</v>
       </c>
       <c r="AK18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AM18">
         <v>-1</v>
@@ -8050,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -8134,10 +8137,10 @@
         <v>0</v>
       </c>
       <c r="CC18" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE18">
         <v>0</v>
@@ -8160,7 +8163,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8259,13 +8262,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AM19">
         <v>-1</v>
@@ -8280,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -8364,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="CC19" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD19" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE19">
         <v>0</v>
@@ -8382,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="CI19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:87" x14ac:dyDescent="0.15">
@@ -8390,7 +8393,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8534,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="BB20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -8591,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="CC20" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="CD20" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE20">
         <v>0</v>
@@ -8617,7 +8620,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8737,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -8794,7 +8797,7 @@
         <v>-1</v>
       </c>
       <c r="BQ21" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="BS21">
         <v>2</v>
@@ -8824,10 +8827,10 @@
         <v>0</v>
       </c>
       <c r="CC21" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD21" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE21">
         <v>0</v>
@@ -8850,7 +8853,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -8958,7 +8961,7 @@
         <v>5</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AM22">
         <v>3.85</v>
@@ -9057,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="CC22" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD22" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE22">
         <v>0</v>
@@ -9083,7 +9086,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9185,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -9287,10 +9290,10 @@
         <v>0</v>
       </c>
       <c r="CC23" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD23" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE23">
         <v>0</v>
@@ -9313,7 +9316,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9418,7 +9421,7 @@
         <v>0.1</v>
       </c>
       <c r="AL24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AM24">
         <v>-1</v>
@@ -9517,10 +9520,10 @@
         <v>0</v>
       </c>
       <c r="CC24" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD24" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE24">
         <v>0</v>
@@ -9535,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="CI24" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:87" x14ac:dyDescent="0.15">
@@ -9543,7 +9546,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>322</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9645,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="AK25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -9747,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="CC25" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD25" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE25">
         <v>0</v>
@@ -9773,7 +9776,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>323</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9875,7 +9878,7 @@
         <v>10</v>
       </c>
       <c r="AK26" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -9977,10 +9980,10 @@
         <v>0</v>
       </c>
       <c r="CC26" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD26" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE26">
         <v>0</v>
@@ -10003,7 +10006,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>324</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10105,7 +10108,7 @@
         <v>8</v>
       </c>
       <c r="AK27" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -10123,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -10207,10 +10210,10 @@
         <v>0</v>
       </c>
       <c r="CC27" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD27" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE27">
         <v>0</v>
@@ -10233,7 +10236,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>325</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10437,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="CC28" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD28" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE28">
         <v>0</v>
@@ -10463,7 +10466,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10535,13 +10538,13 @@
         <v>10</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -10667,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="CC29" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD29" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE29">
         <v>0</v>
@@ -10693,7 +10696,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10795,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -10813,7 +10816,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -10870,7 +10873,7 @@
         <v>-1</v>
       </c>
       <c r="BQ30" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="BS30">
         <v>2</v>
@@ -10900,10 +10903,10 @@
         <v>0</v>
       </c>
       <c r="CC30" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD30" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE30">
         <v>0</v>
@@ -10926,7 +10929,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11049,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -11133,10 +11136,10 @@
         <v>0</v>
       </c>
       <c r="CC31" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD31" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE31">
         <v>0</v>
@@ -11159,7 +11162,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11366,10 +11369,10 @@
         <v>0</v>
       </c>
       <c r="CC32" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD32" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE32">
         <v>0</v>
@@ -11392,7 +11395,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11464,13 +11467,13 @@
         <v>10</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -11494,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -11512,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -11596,10 +11599,10 @@
         <v>0</v>
       </c>
       <c r="CC33" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD33" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE33">
         <v>0</v>
@@ -11622,7 +11625,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -11724,13 +11727,13 @@
         <v>4</v>
       </c>
       <c r="AK34" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="AN34">
         <v>2</v>
@@ -11742,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="AR34">
         <v>0</v>
@@ -11781,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="BL34">
         <v>10</v>
@@ -11826,10 +11829,10 @@
         <v>0</v>
       </c>
       <c r="CC34" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD34" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE34">
         <v>0</v>
@@ -11852,7 +11855,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12056,10 +12059,10 @@
         <v>0</v>
       </c>
       <c r="CC35" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD35" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE35">
         <v>1</v>
@@ -12074,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="CI35" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.15">
@@ -12082,7 +12085,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12184,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="AK36" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="AL36">
         <v>0</v>
@@ -12286,10 +12289,10 @@
         <v>0</v>
       </c>
       <c r="CC36" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD36" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE36">
         <v>0</v>
@@ -12312,7 +12315,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12516,10 +12519,10 @@
         <v>0</v>
       </c>
       <c r="CC37" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD37" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE37">
         <v>0</v>
@@ -12542,7 +12545,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12647,7 +12650,7 @@
         <v>8</v>
       </c>
       <c r="AK38" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -12665,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -12746,10 +12749,10 @@
         <v>0</v>
       </c>
       <c r="CC38" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD38" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE38">
         <v>0</v>
@@ -12764,7 +12767,7 @@
         <v>3</v>
       </c>
       <c r="CI38" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:87" x14ac:dyDescent="0.15">
@@ -12772,7 +12775,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -12877,10 +12880,10 @@
         <v>26</v>
       </c>
       <c r="AK39" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="AL39" s="2" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AM39">
         <v>1.5</v>
@@ -12895,7 +12898,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ39" s="2" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -12976,10 +12979,10 @@
         <v>0</v>
       </c>
       <c r="CC39" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD39" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE39">
         <v>0</v>
@@ -13002,7 +13005,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13104,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="AK40" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -13209,10 +13212,10 @@
         <v>0</v>
       </c>
       <c r="CC40" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD40" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE40">
         <v>0</v>
@@ -13235,7 +13238,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13337,7 +13340,7 @@
         <v>10</v>
       </c>
       <c r="AK41" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -13355,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -13439,10 +13442,10 @@
         <v>0</v>
       </c>
       <c r="CC41" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD41" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE41">
         <v>0</v>
@@ -13465,7 +13468,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>339</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -13570,10 +13573,10 @@
         <v>19.5</v>
       </c>
       <c r="AK42" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="AL42" s="2" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="AM42">
         <v>2.5</v>
@@ -13588,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" s="2" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -13669,10 +13672,10 @@
         <v>0</v>
       </c>
       <c r="CC42" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD42" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE42">
         <v>0</v>
@@ -13695,7 +13698,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>340</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -13896,10 +13899,10 @@
         <v>0</v>
       </c>
       <c r="CC43" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD43" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE43">
         <v>0</v>
@@ -13922,7 +13925,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14024,10 +14027,10 @@
         <v>4</v>
       </c>
       <c r="AK44" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="AL44" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AM44">
         <v>4</v>
@@ -14042,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="AQ44" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="AR44">
         <v>0</v>
@@ -14126,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="CC44" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD44" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE44">
         <v>0</v>
@@ -14152,7 +14155,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14356,10 +14359,10 @@
         <v>0</v>
       </c>
       <c r="CC45" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD45" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE45">
         <v>0</v>
@@ -14382,7 +14385,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14484,7 +14487,7 @@
         <v>6</v>
       </c>
       <c r="AK46" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -14502,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" s="2" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="AR46">
         <v>0</v>
@@ -14511,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="AU46">
         <v>2</v>
@@ -14587,10 +14590,10 @@
         <v>0</v>
       </c>
       <c r="CC46" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD46" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE46">
         <v>0</v>
@@ -14613,7 +14616,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14721,7 +14724,7 @@
         <v>3</v>
       </c>
       <c r="AL47" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AM47">
         <v>3</v>
@@ -14736,7 +14739,7 @@
         <v>1</v>
       </c>
       <c r="AQ47" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AR47">
         <v>0</v>
@@ -14823,10 +14826,10 @@
         <v>0</v>
       </c>
       <c r="CC47" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD47" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE47">
         <v>0</v>
@@ -14841,7 +14844,7 @@
         <v>6</v>
       </c>
       <c r="CI47" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:87" x14ac:dyDescent="0.15">
@@ -14849,7 +14852,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -14957,7 +14960,7 @@
         <v>3</v>
       </c>
       <c r="AL48" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AM48">
         <v>3</v>
@@ -14972,7 +14975,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AR48">
         <v>0</v>
@@ -15059,10 +15062,10 @@
         <v>0</v>
       </c>
       <c r="CC48" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD48" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE48">
         <v>0</v>
@@ -15077,7 +15080,7 @@
         <v>6</v>
       </c>
       <c r="CI48" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:87" x14ac:dyDescent="0.15">
@@ -15085,7 +15088,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15193,7 +15196,7 @@
         <v>3</v>
       </c>
       <c r="AL49" s="2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="AM49">
         <v>3</v>
@@ -15208,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="AQ49" s="2" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AR49">
         <v>0</v>
@@ -15292,10 +15295,10 @@
         <v>0</v>
       </c>
       <c r="CC49" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD49" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE49">
         <v>0</v>
@@ -15310,7 +15313,7 @@
         <v>6</v>
       </c>
       <c r="CI49" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:87" x14ac:dyDescent="0.15">
@@ -15318,7 +15321,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15423,10 +15426,10 @@
         <v>10</v>
       </c>
       <c r="AK50" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AM50">
         <v>1.5</v>
@@ -15441,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="AQ50" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="AR50">
         <v>0</v>
@@ -15525,10 +15528,10 @@
         <v>0</v>
       </c>
       <c r="CC50" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD50" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE50">
         <v>0</v>
@@ -15551,7 +15554,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -15659,7 +15662,7 @@
         <v>16</v>
       </c>
       <c r="AL51" s="2" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AM51">
         <v>1.5</v>
@@ -15674,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="AR51">
         <v>0</v>
@@ -15713,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="BK51" s="2" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="BL51">
         <v>0.2</v>
@@ -15758,10 +15761,10 @@
         <v>0</v>
       </c>
       <c r="CC51" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD51" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE51">
         <v>0</v>
@@ -15784,7 +15787,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -15892,7 +15895,7 @@
         <v>0.1</v>
       </c>
       <c r="AL52" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="AM52">
         <v>-1</v>
@@ -15937,7 +15940,7 @@
         <v>2</v>
       </c>
       <c r="BD52" s="2" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="BE52">
         <v>0</v>
@@ -15991,10 +15994,10 @@
         <v>0</v>
       </c>
       <c r="CC52" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD52" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE52">
         <v>0</v>
@@ -16017,7 +16020,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16221,10 +16224,10 @@
         <v>0</v>
       </c>
       <c r="CC53" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD53" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE53">
         <v>0</v>
@@ -16247,7 +16250,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16349,7 +16352,7 @@
         <v>15</v>
       </c>
       <c r="AK54" s="2" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -16367,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AR54">
         <v>0</v>
@@ -16421,7 +16424,7 @@
         <v>-1</v>
       </c>
       <c r="BQ54" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="BS54">
         <v>1</v>
@@ -16451,10 +16454,10 @@
         <v>0</v>
       </c>
       <c r="CC54" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD54" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE54">
         <v>0</v>
@@ -16477,7 +16480,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -16678,10 +16681,10 @@
         <v>0</v>
       </c>
       <c r="CC55" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD55" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE55">
         <v>0</v>
@@ -16704,7 +16707,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -16806,7 +16809,7 @@
         <v>12</v>
       </c>
       <c r="AK56" s="2" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -16824,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" s="2" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="AR56">
         <v>0</v>
@@ -16863,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="2" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="BL56">
         <v>10</v>
@@ -16908,10 +16911,10 @@
         <v>0</v>
       </c>
       <c r="CC56" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD56" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE56">
         <v>0</v>
@@ -16934,7 +16937,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17039,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="AL57" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="AM57">
         <v>-1</v>
@@ -17135,10 +17138,10 @@
         <v>0</v>
       </c>
       <c r="CC57" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD57" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE57">
         <v>0</v>
@@ -17161,7 +17164,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17263,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="AK58" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="AL58">
         <v>0</v>
@@ -17368,10 +17371,10 @@
         <v>0</v>
       </c>
       <c r="CC58" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD58" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE58">
         <v>0</v>
@@ -17394,7 +17397,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -17499,10 +17502,10 @@
         <v>20</v>
       </c>
       <c r="AK59" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="AL59" s="2" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="AM59">
         <v>-1</v>
@@ -17517,7 +17520,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" s="2" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="AR59">
         <v>0</v>
@@ -17601,10 +17604,10 @@
         <v>0</v>
       </c>
       <c r="CC59" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD59" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE59">
         <v>0</v>
@@ -17627,7 +17630,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -17729,7 +17732,7 @@
         <v>3</v>
       </c>
       <c r="AK60" s="2" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="AL60">
         <v>0</v>
@@ -17747,7 +17750,7 @@
         <v>1</v>
       </c>
       <c r="AQ60" s="2" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="AR60">
         <v>0</v>
@@ -17834,10 +17837,10 @@
         <v>0</v>
       </c>
       <c r="CC60" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD60" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE60">
         <v>0</v>
@@ -17860,7 +17863,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -17962,7 +17965,7 @@
         <v>8</v>
       </c>
       <c r="AK61" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AL61">
         <v>0</v>
@@ -17980,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="AR61">
         <v>0</v>
@@ -18067,10 +18070,10 @@
         <v>0</v>
       </c>
       <c r="CC61" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD61" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE61">
         <v>0</v>
@@ -18093,7 +18096,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18198,10 +18201,10 @@
         <v>2.75</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="AL62" s="2" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="AM62">
         <v>2.75</v>
@@ -18216,7 +18219,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AR62">
         <v>0</v>
@@ -18297,10 +18300,10 @@
         <v>0</v>
       </c>
       <c r="CC62" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD62" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE62">
         <v>0</v>
@@ -18323,7 +18326,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -18398,13 +18401,13 @@
         <v>10</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -18428,10 +18431,10 @@
         <v>3</v>
       </c>
       <c r="AK63" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="AL63" s="2" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="AM63">
         <v>-1</v>
@@ -18446,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="AQ63" s="2" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="AR63">
         <v>0</v>
@@ -18527,10 +18530,10 @@
         <v>0</v>
       </c>
       <c r="CC63" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD63" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE63">
         <v>0</v>
@@ -18545,7 +18548,7 @@
         <v>7</v>
       </c>
       <c r="CI63" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:87" x14ac:dyDescent="0.15">
@@ -18553,7 +18556,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -18661,7 +18664,7 @@
         <v>6</v>
       </c>
       <c r="AL64" s="2" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="AM64">
         <v>-1</v>
@@ -18760,10 +18763,10 @@
         <v>0</v>
       </c>
       <c r="CC64" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD64" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE64">
         <v>0</v>
@@ -18786,7 +18789,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -18810,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -18988,10 +18991,10 @@
         <v>0</v>
       </c>
       <c r="CC65" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD65" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE65">
         <v>0</v>
@@ -19014,7 +19017,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19218,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="CC66" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD66" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE66">
         <v>0</v>
@@ -19244,7 +19247,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -19364,7 +19367,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" s="2" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AR67">
         <v>0</v>
@@ -19448,10 +19451,10 @@
         <v>0</v>
       </c>
       <c r="CC67" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD67" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE67">
         <v>0</v>
@@ -19474,7 +19477,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -19597,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="AQ68" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="AR68">
         <v>0</v>
@@ -19681,10 +19684,10 @@
         <v>0</v>
       </c>
       <c r="CC68" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD68" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE68">
         <v>0</v>
@@ -19707,7 +19710,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -19812,7 +19815,7 @@
         <v>6</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="AL69">
         <v>0</v>
@@ -19830,7 +19833,7 @@
         <v>1</v>
       </c>
       <c r="AQ69" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AR69">
         <v>0</v>
@@ -19869,7 +19872,7 @@
         <v>0</v>
       </c>
       <c r="BH69" s="2" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="BL69">
         <v>10</v>
@@ -19914,10 +19917,10 @@
         <v>0</v>
       </c>
       <c r="CC69" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD69" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE69">
         <v>0</v>
@@ -19940,7 +19943,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20042,10 +20045,10 @@
         <v>14</v>
       </c>
       <c r="AK70" s="2" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AM70">
         <v>-1</v>
@@ -20060,7 +20063,7 @@
         <v>1</v>
       </c>
       <c r="AQ70" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AR70">
         <v>0</v>
@@ -20147,10 +20150,10 @@
         <v>0</v>
       </c>
       <c r="CC70" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD70" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE70">
         <v>0</v>
@@ -20173,7 +20176,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20278,7 +20281,7 @@
         <v>8</v>
       </c>
       <c r="AK71" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="AL71">
         <v>0</v>
@@ -20296,7 +20299,7 @@
         <v>1</v>
       </c>
       <c r="AQ71" s="2" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="AR71">
         <v>0</v>
@@ -20305,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="AT71" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="AU71">
         <v>2</v>
@@ -20380,10 +20383,10 @@
         <v>0</v>
       </c>
       <c r="CC71" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD71" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE71">
         <v>0</v>
@@ -20406,7 +20409,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -20508,7 +20511,7 @@
         <v>2.6</v>
       </c>
       <c r="AK72" s="2" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="AL72">
         <v>0</v>
@@ -20526,7 +20529,7 @@
         <v>1</v>
       </c>
       <c r="AQ72" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AR72">
         <v>0</v>
@@ -20568,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="BH72" s="2" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="BL72">
         <v>10</v>
@@ -20613,10 +20616,10 @@
         <v>0</v>
       </c>
       <c r="CC72" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD72" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE72">
         <v>0</v>
@@ -20639,7 +20642,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -20759,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="AR73">
         <v>0</v>
@@ -20822,7 +20825,7 @@
         <v>0</v>
       </c>
       <c r="BU73" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="BV73">
         <v>0.5</v>
@@ -20846,10 +20849,10 @@
         <v>0</v>
       </c>
       <c r="CC73" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD73" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE73">
         <v>0</v>
@@ -20872,7 +20875,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21082,10 +21085,10 @@
         <v>0</v>
       </c>
       <c r="CC74" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="CD74" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="CE74">
         <v>0</v>
@@ -21108,7 +21111,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21156,7 +21159,7 @@
         <v>19</v>
       </c>
       <c r="R75" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="S75">
         <v>2</v>
@@ -21216,7 +21219,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="AM75">
         <v>2</v>
@@ -21297,7 +21300,7 @@
         <v>0.5</v>
       </c>
       <c r="BV75" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="BW75">
         <v>2</v>
@@ -21318,10 +21321,10 @@
         <v>0</v>
       </c>
       <c r="CC75" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD75" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE75">
         <v>0</v>
@@ -21344,7 +21347,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -21449,7 +21452,7 @@
         <v>4.75</v>
       </c>
       <c r="AK76" s="2" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="AL76">
         <v>0</v>
@@ -21467,7 +21470,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" s="2" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="AR76">
         <v>0</v>
@@ -21545,16 +21548,16 @@
         <v>1</v>
       </c>
       <c r="CA76" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="CB76">
         <v>0</v>
       </c>
       <c r="CC76" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD76" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE76">
         <v>2</v>
@@ -21577,7 +21580,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -21679,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="AK77" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="AL77">
         <v>0</v>
@@ -21784,10 +21787,10 @@
         <v>0</v>
       </c>
       <c r="CC77" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD77" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE77">
         <v>0</v>
@@ -21810,7 +21813,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22017,10 +22020,10 @@
         <v>0</v>
       </c>
       <c r="CC78" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD78" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE78">
         <v>0</v>
@@ -22035,7 +22038,7 @@
         <v>8</v>
       </c>
       <c r="CI78" s="2" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:87" x14ac:dyDescent="0.15">
@@ -22043,7 +22046,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22163,7 +22166,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" s="2" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="AR79">
         <v>0</v>
@@ -22172,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="AT79" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -22247,10 +22250,10 @@
         <v>0</v>
       </c>
       <c r="CC79" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD79" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE79">
         <v>0</v>
@@ -22273,7 +22276,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -22477,10 +22480,10 @@
         <v>0</v>
       </c>
       <c r="CC80" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD80" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE80">
         <v>0</v>
@@ -22503,7 +22506,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -22704,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="CC81" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD81" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE81">
         <v>0</v>
@@ -22730,7 +22733,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -22931,10 +22934,10 @@
         <v>0</v>
       </c>
       <c r="CC82" s="2" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="CD82" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE82">
         <v>0</v>
@@ -22957,7 +22960,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23161,10 +23164,10 @@
         <v>0</v>
       </c>
       <c r="CC83" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD83" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE83">
         <v>0</v>
@@ -23187,7 +23190,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -23388,10 +23391,10 @@
         <v>0</v>
       </c>
       <c r="CC84" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD84" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE84">
         <v>0</v>
@@ -23414,7 +23417,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -23554,7 +23557,7 @@
         <v>2</v>
       </c>
       <c r="AX85" s="5" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="AY85" s="4"/>
       <c r="AZ85" s="4">
@@ -23629,10 +23632,10 @@
         <v>0</v>
       </c>
       <c r="CC85" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD85" s="5" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="CE85" s="4">
         <v>0</v>
@@ -23655,7 +23658,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -23761,7 +23764,7 @@
         <v>30</v>
       </c>
       <c r="AL86" s="5" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="AM86" s="4">
         <v>12</v>
@@ -23870,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="CC86" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD86" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE86" s="4">
         <v>0</v>
@@ -23896,7 +23899,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24026,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="AT87" s="5" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="AU87" s="4">
         <v>2</v>
@@ -24113,10 +24116,10 @@
         <v>0</v>
       </c>
       <c r="CC87" s="5" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="CD87" s="5" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="CE87" s="4">
         <v>0</v>
@@ -24139,7 +24142,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -24247,7 +24250,7 @@
         <v>55</v>
       </c>
       <c r="AL88" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AM88" s="4">
         <v>-1</v>
@@ -24354,10 +24357,10 @@
         <v>160</v>
       </c>
       <c r="CC88" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD88" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE88" s="4">
         <v>0</v>
@@ -24380,7 +24383,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -24486,7 +24489,7 @@
         <v>30</v>
       </c>
       <c r="AL89" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AM89" s="4">
         <v>12</v>
@@ -24595,10 +24598,10 @@
         <v>0</v>
       </c>
       <c r="CC89" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD89" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE89" s="4">
         <v>0</v>
@@ -24621,7 +24624,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -24729,7 +24732,7 @@
         <v>65</v>
       </c>
       <c r="AL90" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AM90" s="4">
         <v>-1</v>
@@ -24836,10 +24839,10 @@
         <v>0</v>
       </c>
       <c r="CC90" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE90" s="4">
         <v>2</v>
@@ -24862,7 +24865,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -24968,7 +24971,7 @@
         <v>60</v>
       </c>
       <c r="AL91" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AM91" s="4">
         <v>12</v>
@@ -25077,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="CC91" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD91" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE91" s="4">
         <v>0</v>
@@ -25103,7 +25106,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -25304,10 +25307,10 @@
         <v>0</v>
       </c>
       <c r="CC92" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD92" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE92">
         <v>0</v>
@@ -25330,7 +25333,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -25436,7 +25439,7 @@
         <v>20</v>
       </c>
       <c r="AL93" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="AM93" s="4">
         <v>6</v>
@@ -25545,10 +25548,10 @@
         <v>0</v>
       </c>
       <c r="CC93" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD93" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE93" s="4">
         <v>0</v>
@@ -25571,7 +25574,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -25679,7 +25682,7 @@
         <v>35</v>
       </c>
       <c r="AL94" s="2" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="AM94">
         <v>-1</v>
@@ -25775,10 +25778,10 @@
         <v>0</v>
       </c>
       <c r="CC94" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD94" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="CE94">
         <v>0</v>
@@ -25801,7 +25804,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -25931,7 +25934,7 @@
         <v>0</v>
       </c>
       <c r="AT95" s="5" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="AU95" s="4">
         <v>2</v>
@@ -26016,10 +26019,10 @@
         <v>0</v>
       </c>
       <c r="CC95" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD95" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE95" s="4">
         <v>0</v>
@@ -26042,7 +26045,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -26174,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="AT96" s="5" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="AU96" s="4">
         <v>2</v>
@@ -26259,10 +26262,10 @@
         <v>0</v>
       </c>
       <c r="CC96" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD96" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE96" s="4">
         <v>0</v>
@@ -26285,7 +26288,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -26415,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="AT97" s="5" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AU97" s="4">
         <v>2</v>
@@ -26500,10 +26503,10 @@
         <v>0</v>
       </c>
       <c r="CC97" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD97" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE97" s="4">
         <v>0</v>
@@ -26526,7 +26529,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -26741,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="CC98" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD98" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE98" s="4">
         <v>0</v>
@@ -26767,7 +26770,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -26897,7 +26900,7 @@
         <v>0</v>
       </c>
       <c r="AT99" s="5" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="AU99" s="4">
         <v>2</v>
@@ -26982,10 +26985,10 @@
         <v>0</v>
       </c>
       <c r="CC99" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD99" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE99" s="4">
         <v>0</v>
@@ -27008,7 +27011,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -27209,10 +27212,10 @@
         <v>0</v>
       </c>
       <c r="CC100" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD100" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE100">
         <v>0</v>
@@ -27235,7 +27238,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -27439,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="CC101" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD101" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE101">
         <v>0</v>
@@ -27465,7 +27468,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -27669,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="CC102" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD102" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE102">
         <v>0</v>
@@ -27695,7 +27698,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -27827,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="AT103" s="5" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="AU103" s="4">
         <v>2</v>
@@ -27912,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="CC103" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD103" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE103" s="4">
         <v>0</v>
@@ -27938,7 +27941,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -28139,10 +28142,10 @@
         <v>0</v>
       </c>
       <c r="CC104" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD104" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE104">
         <v>0</v>
@@ -28165,7 +28168,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -28366,10 +28369,10 @@
         <v>0</v>
       </c>
       <c r="CC105" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD105" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE105">
         <v>0</v>
@@ -28392,7 +28395,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -28522,7 +28525,7 @@
         <v>0</v>
       </c>
       <c r="AT106" s="5" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="AU106" s="4">
         <v>2</v>
@@ -28607,10 +28610,10 @@
         <v>0</v>
       </c>
       <c r="CC106" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD106" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE106" s="4">
         <v>0</v>
@@ -28633,7 +28636,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -28837,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="CC107" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD107" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE107">
         <v>0</v>
@@ -28863,7 +28866,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -29067,10 +29070,10 @@
         <v>0</v>
       </c>
       <c r="CC108" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD108" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE108">
         <v>0</v>
@@ -29093,7 +29096,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -29297,10 +29300,10 @@
         <v>0</v>
       </c>
       <c r="CC109" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD109" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE109">
         <v>0</v>
@@ -29323,7 +29326,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -29530,10 +29533,10 @@
         <v>0</v>
       </c>
       <c r="CC110" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="CD110" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE110">
         <v>0</v>
@@ -29556,7 +29559,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -29676,7 +29679,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" s="2" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="AR111">
         <v>0</v>
@@ -29733,7 +29736,7 @@
         <v>-1</v>
       </c>
       <c r="BQ111" s="2" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="BS111">
         <v>2</v>
@@ -29763,10 +29766,10 @@
         <v>0</v>
       </c>
       <c r="CC111" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD111" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE111">
         <v>0</v>
@@ -29789,7 +29792,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30002,10 +30005,10 @@
         <v>0</v>
       </c>
       <c r="CC112" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD112" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE112" s="4">
         <v>2</v>
@@ -30028,7 +30031,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -30232,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="CC113" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD113" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CE113">
         <v>0</v>
@@ -30258,7 +30261,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -30398,7 +30401,7 @@
         <v>2</v>
       </c>
       <c r="AX114" s="5" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="AY114" s="4"/>
       <c r="AZ114" s="4">
@@ -30473,10 +30476,10 @@
         <v>0</v>
       </c>
       <c r="CC114" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD114" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE114" s="4">
         <v>0</v>
@@ -30499,7 +30502,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -30704,10 +30707,10 @@
         <v>0</v>
       </c>
       <c r="CC115" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD115" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE115">
         <v>0</v>
@@ -30730,7 +30733,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -30931,10 +30934,10 @@
         <v>0</v>
       </c>
       <c r="CC116" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD116" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE116">
         <v>0</v>
@@ -30957,7 +30960,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -31087,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="AT117" s="5" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="AU117" s="4">
         <v>2</v>
@@ -31172,10 +31175,10 @@
         <v>0</v>
       </c>
       <c r="CC117" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD117" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE117" s="4">
         <v>0</v>
@@ -31198,7 +31201,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -31402,10 +31405,10 @@
         <v>0</v>
       </c>
       <c r="CC118" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD118" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE118">
         <v>0</v>
@@ -31428,7 +31431,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -31558,7 +31561,7 @@
         <v>0</v>
       </c>
       <c r="AT119" s="5" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="AU119" s="4">
         <v>2</v>
@@ -31643,10 +31646,10 @@
         <v>0</v>
       </c>
       <c r="CC119" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CD119" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE119" s="4">
         <v>0</v>
@@ -31669,7 +31672,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -31798,7 +31801,7 @@
         <v>0</v>
       </c>
       <c r="AT120" s="2" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="AU120">
         <v>2</v>
@@ -31873,10 +31876,10 @@
         <v>0</v>
       </c>
       <c r="CC120" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CD120" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="CE120">
         <v>0</v>
@@ -31899,7 +31902,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -32039,7 +32042,7 @@
         <v>2</v>
       </c>
       <c r="AX121" s="5" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="AY121" s="4"/>
       <c r="AZ121" s="4">
@@ -32114,10 +32117,10 @@
         <v>0</v>
       </c>
       <c r="CC121" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CD121" s="5" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="CE121" s="4">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2692,9 +2692,6 @@
     <t>VisibleRelationSkillID</t>
   </si>
   <si>
-    <t>InitLevel</t>
-  </si>
-  <si>
     <t>16,15,14,13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3577,6 +3574,10 @@
   </si>
   <si>
     <t>MirrorUsed</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3961,9 +3962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4000,40 +4001,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -4042,19 +4043,19 @@
         <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>9</v>
@@ -4066,19 +4067,19 @@
         <v>11</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>126</v>
@@ -4087,10 +4088,10 @@
         <v>127</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>128</v>
@@ -4120,10 +4121,10 @@
         <v>17</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>18</v>
@@ -4132,10 +4133,10 @@
         <v>23</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>24</v>
@@ -4147,19 +4148,19 @@
         <v>28</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="BF1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>55</v>
@@ -4177,10 +4178,10 @@
         <v>33</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>37</v>
@@ -4204,7 +4205,7 @@
         <v>43</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>110</v>
@@ -4216,7 +4217,7 @@
         <v>53</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>60</v>
@@ -4228,7 +4229,7 @@
         <v>62</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="CD1" s="1" t="s">
         <v>82</v>
@@ -4240,10 +4241,10 @@
         <v>63</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>74</v>
@@ -5428,7 +5429,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5664,7 +5665,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5894,7 +5895,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6839,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6995,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -7544,7 +7545,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7691,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="BB16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -7777,7 +7778,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -8010,7 +8011,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8121,7 +8122,7 @@
         <v>72</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AN18">
         <v>-1</v>
@@ -8246,7 +8247,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8479,7 +8480,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8709,7 +8710,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8945,7 +8946,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9181,7 +9182,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9414,7 +9415,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9647,7 +9648,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9880,7 +9881,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10113,7 +10114,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10346,7 +10347,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10579,7 +10580,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10812,7 +10813,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -11048,7 +11049,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11284,7 +11285,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11520,7 +11521,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11753,7 +11754,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -11986,7 +11987,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12219,7 +12220,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12452,7 +12453,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12685,7 +12686,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12918,7 +12919,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13151,7 +13152,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13387,7 +13388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13620,7 +13621,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -13853,7 +13854,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -13934,7 +13935,7 @@
         <v>2</v>
       </c>
       <c r="AD43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE43">
         <v>1</v>
@@ -14083,7 +14084,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14188,10 +14189,10 @@
         <v>4</v>
       </c>
       <c r="AL44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN44">
         <v>4</v>
@@ -14206,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS44">
         <v>0</v>
@@ -14316,7 +14317,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14549,7 +14550,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14654,7 +14655,7 @@
         <v>6</v>
       </c>
       <c r="AL46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -14672,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -14681,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AV46">
         <v>2</v>
@@ -14783,7 +14784,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14894,7 +14895,7 @@
         <v>3</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN47">
         <v>3</v>
@@ -14909,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS47">
         <v>0</v>
@@ -15014,7 +15015,7 @@
         <v>6</v>
       </c>
       <c r="CJ47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.15">
@@ -15022,7 +15023,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -15133,7 +15134,7 @@
         <v>3</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN48">
         <v>3</v>
@@ -15148,7 +15149,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -15253,7 +15254,7 @@
         <v>6</v>
       </c>
       <c r="CJ48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.15">
@@ -15261,7 +15262,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15372,7 +15373,7 @@
         <v>3</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AN49">
         <v>3</v>
@@ -15387,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -15489,7 +15490,7 @@
         <v>6</v>
       </c>
       <c r="CJ49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.15">
@@ -15497,7 +15498,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15605,10 +15606,10 @@
         <v>10</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN50">
         <v>1.5</v>
@@ -15733,7 +15734,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -15844,7 +15845,7 @@
         <v>16</v>
       </c>
       <c r="AM51" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN51">
         <v>1.5</v>
@@ -15859,46 +15860,46 @@
         <v>1</v>
       </c>
       <c r="AR51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>1</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="AS51">
-        <v>0</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>2</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BC51">
-        <v>1</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>0</v>
-      </c>
-      <c r="BL51" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="BM51">
         <v>0.2</v>
@@ -15969,7 +15970,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16080,52 +16081,52 @@
         <v>0.1</v>
       </c>
       <c r="AM52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN52">
+        <v>-1</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+      <c r="BC52">
+        <v>1</v>
+      </c>
+      <c r="BD52">
+        <v>2</v>
+      </c>
+      <c r="BE52" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="AN52">
-        <v>-1</v>
-      </c>
-      <c r="AO52">
-        <v>2</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>1</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>2</v>
-      </c>
-      <c r="AW52">
-        <v>2</v>
-      </c>
-      <c r="AX52">
-        <v>2</v>
-      </c>
-      <c r="BA52">
-        <v>1</v>
-      </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-      <c r="BC52">
-        <v>1</v>
-      </c>
-      <c r="BD52">
-        <v>2</v>
-      </c>
-      <c r="BE52" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -16205,7 +16206,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16438,7 +16439,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16543,25 +16544,25 @@
         <v>15</v>
       </c>
       <c r="AL54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>-1</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>-1</v>
-      </c>
-      <c r="AO54">
-        <v>2</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>1</v>
-      </c>
-      <c r="AR54" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -16615,7 +16616,7 @@
         <v>-1</v>
       </c>
       <c r="BR54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BT54">
         <v>1</v>
@@ -16671,7 +16672,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -16752,7 +16753,7 @@
         <v>2</v>
       </c>
       <c r="AD55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE55">
         <v>1</v>
@@ -16901,7 +16902,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17006,7 +17007,7 @@
         <v>12</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -17024,46 +17025,46 @@
         <v>1</v>
       </c>
       <c r="AR56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>2</v>
-      </c>
-      <c r="AW56">
-        <v>2</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>1</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="BM56">
         <v>10</v>
@@ -17134,7 +17135,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17242,7 +17243,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN57">
         <v>-1</v>
@@ -17364,7 +17365,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17469,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -17600,7 +17601,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -17708,25 +17709,25 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN59">
+        <v>-1</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="AM59" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN59">
-        <v>-1</v>
-      </c>
-      <c r="AO59">
-        <v>2</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="AS59">
         <v>0</v>
@@ -17836,7 +17837,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -17959,7 +17960,7 @@
         <v>1</v>
       </c>
       <c r="AR60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -18072,7 +18073,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18195,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="AR61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -18308,7 +18309,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18416,10 +18417,10 @@
         <v>2.75</v>
       </c>
       <c r="AL62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM62" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="AM62" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="AN62">
         <v>2.75</v>
@@ -18541,7 +18542,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -18649,25 +18650,25 @@
         <v>3</v>
       </c>
       <c r="AL63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN63">
+        <v>-1</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="AN63">
-        <v>-1</v>
-      </c>
-      <c r="AO63">
-        <v>2</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="AS63">
         <v>0</v>
@@ -18766,7 +18767,7 @@
         <v>7</v>
       </c>
       <c r="CJ63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.15">
@@ -18774,7 +18775,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -18885,7 +18886,7 @@
         <v>6</v>
       </c>
       <c r="AM64" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN64">
         <v>-1</v>
@@ -19010,7 +19011,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19037,7 +19038,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L65">
         <v>5</v>
@@ -19241,7 +19242,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19474,7 +19475,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -19597,7 +19598,7 @@
         <v>1</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -19707,7 +19708,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -19833,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="AR68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -19943,7 +19944,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20051,7 +20052,7 @@
         <v>6</v>
       </c>
       <c r="AL69" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM69">
         <v>0</v>
@@ -20108,7 +20109,7 @@
         <v>0</v>
       </c>
       <c r="BI69" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BM69">
         <v>10</v>
@@ -20179,7 +20180,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20284,7 +20285,7 @@
         <v>14</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM70" s="2" t="s">
         <v>84</v>
@@ -20415,7 +20416,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20523,34 +20524,34 @@
         <v>8</v>
       </c>
       <c r="AL71" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>-1</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AM71">
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <v>-1</v>
-      </c>
-      <c r="AO71">
-        <v>2</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
-      </c>
-      <c r="AR71" s="2" t="s">
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="s">
         <v>208</v>
-      </c>
-      <c r="AS71">
-        <v>0</v>
-      </c>
-      <c r="AT71">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>209</v>
       </c>
       <c r="AV71">
         <v>2</v>
@@ -20651,7 +20652,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -20756,7 +20757,7 @@
         <v>2.6</v>
       </c>
       <c r="AL72" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM72">
         <v>0</v>
@@ -20816,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="BI72" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BM72">
         <v>10</v>
@@ -20887,7 +20888,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21010,7 +21011,7 @@
         <v>1</v>
       </c>
       <c r="AR73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AS73">
         <v>0</v>
@@ -21073,7 +21074,7 @@
         <v>0</v>
       </c>
       <c r="BV73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BW73">
         <v>0.5</v>
@@ -21123,7 +21124,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21362,7 +21363,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21413,7 +21414,7 @@
         <v>19</v>
       </c>
       <c r="S75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -21473,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN75">
         <v>2</v>
@@ -21554,7 +21555,7 @@
         <v>0.5</v>
       </c>
       <c r="BW75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BX75">
         <v>2</v>
@@ -21601,7 +21602,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -21709,25 +21710,25 @@
         <v>4.75</v>
       </c>
       <c r="AL76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>-1</v>
+      </c>
+      <c r="AO76">
+        <v>2</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="AM76">
-        <v>0</v>
-      </c>
-      <c r="AN76">
-        <v>-1</v>
-      </c>
-      <c r="AO76">
-        <v>2</v>
-      </c>
-      <c r="AP76">
-        <v>0</v>
-      </c>
-      <c r="AQ76">
-        <v>1</v>
-      </c>
-      <c r="AR76" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -21805,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="CB76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CC76">
         <v>0</v>
@@ -21837,7 +21838,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -21942,7 +21943,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM77">
         <v>0</v>
@@ -22073,7 +22074,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22301,7 +22302,7 @@
         <v>8</v>
       </c>
       <c r="CJ78" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.15">
@@ -22309,7 +22310,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22432,16 +22433,16 @@
         <v>1</v>
       </c>
       <c r="AR79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="s">
         <v>230</v>
-      </c>
-      <c r="AS79">
-        <v>0</v>
-      </c>
-      <c r="AT79">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>231</v>
       </c>
       <c r="AV79">
         <v>2</v>
@@ -22542,7 +22543,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -22775,7 +22776,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -23005,7 +23006,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23209,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="CD82" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CE82" s="2" t="s">
         <v>77</v>
@@ -23235,7 +23236,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23468,7 +23469,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -23698,7 +23699,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -23841,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AY85" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AZ85" s="4"/>
       <c r="BA85" s="4">
@@ -23919,7 +23920,7 @@
         <v>78</v>
       </c>
       <c r="CE85" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CF85" s="4">
         <v>0</v>
@@ -23942,7 +23943,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24051,7 +24052,7 @@
         <v>30</v>
       </c>
       <c r="AM86" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN86" s="4">
         <v>12</v>
@@ -24186,7 +24187,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24319,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="AU87" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AV87" s="4">
         <v>2</v>
@@ -24406,10 +24407,10 @@
         <v>0</v>
       </c>
       <c r="CD87" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CE87" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CF87" s="4">
         <v>0</v>
@@ -24432,7 +24433,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -24543,7 +24544,7 @@
         <v>55</v>
       </c>
       <c r="AM88" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN88" s="4">
         <v>-1</v>
@@ -24676,7 +24677,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -24785,7 +24786,7 @@
         <v>30</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN89" s="4">
         <v>12</v>
@@ -24920,7 +24921,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25031,7 +25032,7 @@
         <v>65</v>
       </c>
       <c r="AM90" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN90" s="4">
         <v>-1</v>
@@ -25164,7 +25165,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25273,7 +25274,7 @@
         <v>60</v>
       </c>
       <c r="AM91" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN91" s="4">
         <v>12</v>
@@ -25408,7 +25409,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -25638,7 +25639,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -25747,7 +25748,7 @@
         <v>20</v>
       </c>
       <c r="AM93" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN93" s="4">
         <v>6</v>
@@ -25882,7 +25883,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -25993,7 +25994,7 @@
         <v>35</v>
       </c>
       <c r="AM94" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN94">
         <v>-1</v>
@@ -26115,7 +26116,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26248,7 +26249,7 @@
         <v>0</v>
       </c>
       <c r="AU95" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AV95" s="4">
         <v>2</v>
@@ -26333,10 +26334,10 @@
         <v>0</v>
       </c>
       <c r="CD95" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE95" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF95" s="4">
         <v>0</v>
@@ -26359,7 +26360,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -26494,7 +26495,7 @@
         <v>0</v>
       </c>
       <c r="AU96" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AV96" s="4">
         <v>2</v>
@@ -26579,10 +26580,10 @@
         <v>0</v>
       </c>
       <c r="CD96" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE96" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF96" s="4">
         <v>0</v>
@@ -26605,7 +26606,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -26738,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="AU97" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AV97" s="4">
         <v>2</v>
@@ -26823,10 +26824,10 @@
         <v>0</v>
       </c>
       <c r="CD97" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE97" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF97" s="4">
         <v>0</v>
@@ -26849,7 +26850,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27067,10 +27068,10 @@
         <v>0</v>
       </c>
       <c r="CD98" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE98" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF98" s="4">
         <v>0</v>
@@ -27093,7 +27094,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27226,7 +27227,7 @@
         <v>0</v>
       </c>
       <c r="AU99" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AV99" s="4">
         <v>2</v>
@@ -27311,10 +27312,10 @@
         <v>0</v>
       </c>
       <c r="CD99" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE99" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF99" s="4">
         <v>0</v>
@@ -27337,7 +27338,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -27567,7 +27568,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -27800,7 +27801,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28033,7 +28034,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28168,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="AU103" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AV103" s="4">
         <v>2</v>
@@ -28253,10 +28254,10 @@
         <v>0</v>
       </c>
       <c r="CD103" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE103" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF103" s="4">
         <v>0</v>
@@ -28279,7 +28280,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -28509,7 +28510,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -28739,7 +28740,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -28872,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="AU106" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AV106" s="4">
         <v>2</v>
@@ -28957,10 +28958,10 @@
         <v>0</v>
       </c>
       <c r="CD106" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE106" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF106" s="4">
         <v>0</v>
@@ -28983,7 +28984,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29216,7 +29217,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -29449,7 +29450,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -29682,7 +29683,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -29918,7 +29919,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30041,7 +30042,7 @@
         <v>1</v>
       </c>
       <c r="AR111" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AS111">
         <v>0</v>
@@ -30098,7 +30099,7 @@
         <v>-1</v>
       </c>
       <c r="BR111" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BT111">
         <v>2</v>
@@ -30154,7 +30155,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30373,7 +30374,7 @@
         <v>78</v>
       </c>
       <c r="CE112" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF112" s="4">
         <v>2</v>
@@ -30396,7 +30397,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -30629,7 +30630,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -30772,7 +30773,7 @@
         <v>2</v>
       </c>
       <c r="AY114" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AZ114" s="4"/>
       <c r="BA114" s="4">
@@ -30850,7 +30851,7 @@
         <v>78</v>
       </c>
       <c r="CE114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF114" s="4">
         <v>0</v>
@@ -30873,7 +30874,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31107,7 +31108,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31337,7 +31338,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -31470,7 +31471,7 @@
         <v>0</v>
       </c>
       <c r="AU117" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AV117" s="4">
         <v>2</v>
@@ -31555,10 +31556,10 @@
         <v>0</v>
       </c>
       <c r="CD117" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE117" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF117" s="4">
         <v>0</v>
@@ -31581,7 +31582,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -31814,7 +31815,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -31947,7 +31948,7 @@
         <v>0</v>
       </c>
       <c r="AU119" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AV119" s="4">
         <v>2</v>
@@ -32032,10 +32033,10 @@
         <v>0</v>
       </c>
       <c r="CD119" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CE119" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF119" s="4">
         <v>0</v>
@@ -32058,7 +32059,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32190,7 +32191,7 @@
         <v>0</v>
       </c>
       <c r="AU120" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AV120">
         <v>2</v>
@@ -32291,7 +32292,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -32434,7 +32435,7 @@
         <v>2</v>
       </c>
       <c r="AY121" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AZ121" s="4"/>
       <c r="BA121" s="4">
@@ -32512,7 +32513,7 @@
         <v>78</v>
       </c>
       <c r="CE121" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CF121" s="4">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2220,7 +2220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="358">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2426,10 +2426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,18,16,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ForceMoveBuff</t>
   </si>
   <si>
@@ -2446,10 +2442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,34,28,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CastTargetRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2462,10 +2454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14,130,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TargetHalo</t>
   </si>
   <si>
@@ -2552,10 +2540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7,14,21,28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2580,10 +2564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15,40,35,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>70,85,100,115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2596,10 +2576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,120,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>150,175,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2708,10 +2684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,65,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>49,51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2748,10 +2720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,110,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletCount</t>
   </si>
   <si>
@@ -2807,10 +2775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,150,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>150,200,250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2852,10 +2816,6 @@
     <t>SkillCount</t>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火枪爆头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2924,10 +2884,6 @@
   </si>
   <si>
     <t>71:250:9,71:325:9,71:400:9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,65,55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3577,6 +3533,66 @@
   </si>
   <si>
     <t>InitLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,110,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,150,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,65,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3962,9 +3978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL104" sqref="AL104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4001,40 +4017,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -4043,19 +4059,19 @@
         <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>9</v>
@@ -4067,34 +4083,34 @@
         <v>11</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>12</v>
@@ -4115,16 +4131,16 @@
         <v>16</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>18</v>
@@ -4133,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>24</v>
@@ -4148,19 +4164,19 @@
         <v>28</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>55</v>
@@ -4169,7 +4185,7 @@
         <v>56</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>32</v>
@@ -4178,10 +4194,10 @@
         <v>33</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>37</v>
@@ -4205,10 +4221,10 @@
         <v>43</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>52</v>
@@ -4217,40 +4233,40 @@
         <v>53</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="CI1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.15">
@@ -4468,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -4701,10 +4717,10 @@
         <v>0</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -4937,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -5167,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF5">
         <v>0</v>
@@ -5403,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -5429,7 +5445,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5534,7 +5550,7 @@
         <v>6</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -5639,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -5665,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5869,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -5895,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6003,7 +6019,7 @@
         <v>4.25</v>
       </c>
       <c r="AL9">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -6109,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF9">
         <v>0</v>
@@ -6345,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF10">
         <v>0</v>
@@ -6478,8 +6494,8 @@
       <c r="AK11">
         <v>8</v>
       </c>
-      <c r="AL11">
-        <v>5</v>
+      <c r="AL11" t="s">
+        <v>345</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -6581,10 +6597,10 @@
         <v>0</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE11" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -6814,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF12">
         <v>0</v>
@@ -6840,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -6996,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -7050,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF13">
         <v>0</v>
@@ -7181,7 +7197,7 @@
         <v>6.75</v>
       </c>
       <c r="AL14" t="s">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -7283,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE14" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF14">
         <v>1</v>
@@ -7309,7 +7325,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7414,7 +7430,7 @@
         <v>7.75</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -7519,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF15">
         <v>0</v>
@@ -7545,7 +7561,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7653,7 +7669,7 @@
         <v>0.1</v>
       </c>
       <c r="AM16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN16">
         <v>-1</v>
@@ -7692,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="BB16" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -7752,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF16">
         <v>0</v>
@@ -7778,7 +7794,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7883,7 +7899,7 @@
         <v>6</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -7901,46 +7917,46 @@
         <v>1</v>
       </c>
       <c r="AR17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="BM17">
         <v>10</v>
@@ -7985,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF17">
         <v>0</v>
@@ -8011,7 +8027,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8119,10 +8135,10 @@
         <v>7</v>
       </c>
       <c r="AL18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AN18">
         <v>-1</v>
@@ -8137,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -8221,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF18">
         <v>0</v>
@@ -8247,7 +8263,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8349,28 +8365,28 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AL19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN19">
+        <v>-1</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN19">
-        <v>-1</v>
-      </c>
-      <c r="AO19">
-        <v>2</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -8454,25 +8470,25 @@
         <v>0</v>
       </c>
       <c r="CD19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>2</v>
+      </c>
+      <c r="CI19">
+        <v>1</v>
+      </c>
+      <c r="CJ19" t="s">
         <v>77</v>
-      </c>
-      <c r="CE19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>2</v>
-      </c>
-      <c r="CI19">
-        <v>1</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.15">
@@ -8480,7 +8496,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8627,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="BC20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -8684,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="CD20" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="CE20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF20">
         <v>0</v>
@@ -8710,7 +8726,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8815,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -8833,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -8890,7 +8906,7 @@
         <v>-1</v>
       </c>
       <c r="BR21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BT21">
         <v>2</v>
@@ -8920,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="CD21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF21">
         <v>0</v>
@@ -8946,7 +8962,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9057,7 +9073,7 @@
         <v>5</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AN22">
         <v>3.85</v>
@@ -9156,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="CD22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF22">
         <v>0</v>
@@ -9182,7 +9198,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9287,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -9389,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="CD23" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE23" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF23">
         <v>0</v>
@@ -9415,7 +9431,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9523,7 +9539,7 @@
         <v>0.1</v>
       </c>
       <c r="AM24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AN24">
         <v>-1</v>
@@ -9622,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="CD24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF24">
         <v>0</v>
@@ -9640,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="CJ24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.15">
@@ -9648,7 +9664,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9753,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -9855,10 +9871,10 @@
         <v>0</v>
       </c>
       <c r="CD25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF25">
         <v>0</v>
@@ -9881,7 +9897,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9986,7 +10002,7 @@
         <v>10</v>
       </c>
       <c r="AL26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -10088,10 +10104,10 @@
         <v>0</v>
       </c>
       <c r="CD26" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE26" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF26">
         <v>0</v>
@@ -10114,7 +10130,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10219,7 +10235,7 @@
         <v>8</v>
       </c>
       <c r="AL27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -10237,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -10321,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="CD27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF27">
         <v>0</v>
@@ -10347,7 +10363,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10554,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="CD28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF28">
         <v>0</v>
@@ -10580,7 +10596,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10685,7 +10701,7 @@
         <v>8</v>
       </c>
       <c r="AL29">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -10787,10 +10803,10 @@
         <v>0</v>
       </c>
       <c r="CD29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE29" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF29">
         <v>0</v>
@@ -10813,7 +10829,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10918,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -10936,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -10993,7 +11009,7 @@
         <v>-1</v>
       </c>
       <c r="BR30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BT30">
         <v>2</v>
@@ -11023,10 +11039,10 @@
         <v>0</v>
       </c>
       <c r="CD30" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE30" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF30">
         <v>0</v>
@@ -11049,7 +11065,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11175,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -11259,10 +11275,10 @@
         <v>0</v>
       </c>
       <c r="CD31" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE31" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF31">
         <v>0</v>
@@ -11285,7 +11301,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11495,10 +11511,10 @@
         <v>0</v>
       </c>
       <c r="CD32" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF32">
         <v>0</v>
@@ -11521,7 +11537,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11626,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -11644,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AS33">
         <v>0</v>
@@ -11728,10 +11744,10 @@
         <v>0</v>
       </c>
       <c r="CD33" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE33" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF33">
         <v>0</v>
@@ -11754,7 +11770,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -11859,13 +11875,13 @@
         <v>4</v>
       </c>
       <c r="AL34" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AM34">
         <v>0</v>
       </c>
       <c r="AN34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AO34">
         <v>2</v>
@@ -11877,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AS34">
         <v>0</v>
@@ -11916,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="BM34">
         <v>10</v>
@@ -11961,10 +11977,10 @@
         <v>0</v>
       </c>
       <c r="CD34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE34" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF34">
         <v>0</v>
@@ -11987,7 +12003,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12109,8 +12125,8 @@
       <c r="AQ35">
         <v>1</v>
       </c>
-      <c r="AR35" s="3">
-        <v>90100110120</v>
+      <c r="AR35" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="AS35">
         <v>0</v>
@@ -12194,10 +12210,10 @@
         <v>0</v>
       </c>
       <c r="CD35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF35">
         <v>1</v>
@@ -12212,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="CJ35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.15">
@@ -12220,7 +12236,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12325,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -12427,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="CD36" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE36" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF36">
         <v>0</v>
@@ -12453,7 +12469,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12660,10 +12676,10 @@
         <v>0</v>
       </c>
       <c r="CD37" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE37" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF37">
         <v>0</v>
@@ -12686,7 +12702,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12794,7 +12810,7 @@
         <v>8</v>
       </c>
       <c r="AL38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AM38">
         <v>0</v>
@@ -12812,7 +12828,7 @@
         <v>1</v>
       </c>
       <c r="AR38" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AS38">
         <v>0</v>
@@ -12893,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="CD38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF38">
         <v>0</v>
@@ -12911,7 +12927,7 @@
         <v>3</v>
       </c>
       <c r="CJ38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:88" x14ac:dyDescent="0.15">
@@ -12919,7 +12935,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13027,10 +13043,10 @@
         <v>26</v>
       </c>
       <c r="AL39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AN39">
         <v>1.5</v>
@@ -13045,7 +13061,7 @@
         <v>0.8</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AS39">
         <v>0</v>
@@ -13126,10 +13142,10 @@
         <v>0</v>
       </c>
       <c r="CD39" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE39" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF39">
         <v>0</v>
@@ -13152,7 +13168,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13257,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -13362,10 +13378,10 @@
         <v>0</v>
       </c>
       <c r="CD40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE40" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF40">
         <v>0</v>
@@ -13388,7 +13404,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13493,7 +13509,7 @@
         <v>10</v>
       </c>
       <c r="AL41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -13511,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -13595,10 +13611,10 @@
         <v>0</v>
       </c>
       <c r="CD41" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE41" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF41">
         <v>0</v>
@@ -13621,7 +13637,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -13729,10 +13745,10 @@
         <v>19.5</v>
       </c>
       <c r="AL42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AN42">
         <v>2.5</v>
@@ -13747,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -13828,10 +13844,10 @@
         <v>0</v>
       </c>
       <c r="CD42" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE42" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF42">
         <v>0</v>
@@ -13854,7 +13870,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14058,10 +14074,10 @@
         <v>0</v>
       </c>
       <c r="CD43" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE43" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF43">
         <v>0</v>
@@ -14084,7 +14100,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14189,10 +14205,10 @@
         <v>4</v>
       </c>
       <c r="AL44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AN44">
         <v>4</v>
@@ -14207,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AS44">
         <v>0</v>
@@ -14291,10 +14307,10 @@
         <v>0</v>
       </c>
       <c r="CD44" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE44" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF44">
         <v>0</v>
@@ -14317,7 +14333,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14524,10 +14540,10 @@
         <v>0</v>
       </c>
       <c r="CD45" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE45" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF45">
         <v>0</v>
@@ -14550,7 +14566,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14655,7 +14671,7 @@
         <v>6</v>
       </c>
       <c r="AL46" t="s">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -14673,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -14682,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="AU46" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AV46">
         <v>2</v>
@@ -14758,10 +14774,10 @@
         <v>0</v>
       </c>
       <c r="CD46" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE46" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF46">
         <v>0</v>
@@ -14784,7 +14800,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14892,10 +14908,10 @@
         <v>2</v>
       </c>
       <c r="AL47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AN47">
         <v>3</v>
@@ -14910,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AS47">
         <v>0</v>
@@ -14997,10 +15013,10 @@
         <v>0</v>
       </c>
       <c r="CD47" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE47" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF47">
         <v>0</v>
@@ -15015,7 +15031,7 @@
         <v>6</v>
       </c>
       <c r="CJ47" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.15">
@@ -15023,7 +15039,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -15131,10 +15147,10 @@
         <v>4.5</v>
       </c>
       <c r="AL48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AN48">
         <v>3</v>
@@ -15149,7 +15165,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -15236,10 +15252,10 @@
         <v>0</v>
       </c>
       <c r="CD48" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE48" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF48">
         <v>0</v>
@@ -15254,7 +15270,7 @@
         <v>6</v>
       </c>
       <c r="CJ48" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.15">
@@ -15262,7 +15278,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15370,10 +15386,10 @@
         <v>7</v>
       </c>
       <c r="AL49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AN49">
         <v>3</v>
@@ -15388,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -15472,10 +15488,10 @@
         <v>0</v>
       </c>
       <c r="CD49" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE49" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF49">
         <v>0</v>
@@ -15490,7 +15506,7 @@
         <v>6</v>
       </c>
       <c r="CJ49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.15">
@@ -15498,7 +15514,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15606,10 +15622,10 @@
         <v>10</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>143</v>
+        <v>351</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AN50">
         <v>1.5</v>
@@ -15624,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AS50">
         <v>0</v>
@@ -15708,10 +15724,10 @@
         <v>0</v>
       </c>
       <c r="CD50" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE50" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF50">
         <v>0</v>
@@ -15734,7 +15750,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -15845,7 +15861,7 @@
         <v>16</v>
       </c>
       <c r="AM51" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AN51">
         <v>1.5</v>
@@ -15860,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="AR51" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AS51">
         <v>0</v>
@@ -15899,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="BM51">
         <v>0.2</v>
@@ -15944,10 +15960,10 @@
         <v>0</v>
       </c>
       <c r="CD51" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE51" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF51">
         <v>0</v>
@@ -15970,7 +15986,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16081,7 +16097,7 @@
         <v>0.1</v>
       </c>
       <c r="AM52" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AN52">
         <v>-1</v>
@@ -16126,7 +16142,7 @@
         <v>2</v>
       </c>
       <c r="BE52" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -16180,10 +16196,10 @@
         <v>0</v>
       </c>
       <c r="CD52" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE52" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF52">
         <v>0</v>
@@ -16206,7 +16222,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16413,10 +16429,10 @@
         <v>0</v>
       </c>
       <c r="CD53" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE53" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF53">
         <v>0</v>
@@ -16439,7 +16455,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16544,7 +16560,7 @@
         <v>15</v>
       </c>
       <c r="AL54" s="2" t="s">
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -16562,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="AR54" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -16616,7 +16632,7 @@
         <v>-1</v>
       </c>
       <c r="BR54" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="BT54">
         <v>1</v>
@@ -16646,10 +16662,10 @@
         <v>0</v>
       </c>
       <c r="CD54" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE54" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF54">
         <v>0</v>
@@ -16672,7 +16688,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -16876,10 +16892,10 @@
         <v>0</v>
       </c>
       <c r="CD55" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE55" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF55">
         <v>0</v>
@@ -16902,7 +16918,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17007,7 +17023,7 @@
         <v>12</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -17025,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="AR56" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AS56">
         <v>0</v>
@@ -17064,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="BM56">
         <v>10</v>
@@ -17109,10 +17125,10 @@
         <v>0</v>
       </c>
       <c r="CD56" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE56" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF56">
         <v>0</v>
@@ -17135,7 +17151,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17243,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AN57">
         <v>-1</v>
@@ -17339,10 +17355,10 @@
         <v>0</v>
       </c>
       <c r="CD57" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE57" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF57">
         <v>0</v>
@@ -17365,7 +17381,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17470,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -17575,10 +17591,10 @@
         <v>0</v>
       </c>
       <c r="CD58" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE58" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF58">
         <v>0</v>
@@ -17601,7 +17617,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -17709,10 +17725,10 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AM59" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AN59">
         <v>-1</v>
@@ -17727,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="AR59" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AS59">
         <v>0</v>
@@ -17811,10 +17827,10 @@
         <v>0</v>
       </c>
       <c r="CD59" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE59" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF59">
         <v>0</v>
@@ -17837,7 +17853,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -17942,7 +17958,7 @@
         <v>3</v>
       </c>
       <c r="AL60" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AM60">
         <v>0</v>
@@ -17960,7 +17976,7 @@
         <v>1</v>
       </c>
       <c r="AR60" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -18047,10 +18063,10 @@
         <v>0</v>
       </c>
       <c r="CD60" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE60" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF60">
         <v>0</v>
@@ -18073,7 +18089,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18178,7 +18194,7 @@
         <v>8</v>
       </c>
       <c r="AL61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AM61">
         <v>0</v>
@@ -18196,7 +18212,7 @@
         <v>1</v>
       </c>
       <c r="AR61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -18283,10 +18299,10 @@
         <v>0</v>
       </c>
       <c r="CD61" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE61" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF61">
         <v>0</v>
@@ -18309,7 +18325,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18417,10 +18433,10 @@
         <v>2.75</v>
       </c>
       <c r="AL62" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AM62" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AN62">
         <v>2.75</v>
@@ -18435,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="AR62" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AS62">
         <v>0</v>
@@ -18516,10 +18532,10 @@
         <v>0</v>
       </c>
       <c r="CD62" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE62" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF62">
         <v>0</v>
@@ -18542,7 +18558,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -18650,10 +18666,10 @@
         <v>3</v>
       </c>
       <c r="AL63" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="AM63" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AN63">
         <v>-1</v>
@@ -18668,7 +18684,7 @@
         <v>1</v>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AS63">
         <v>0</v>
@@ -18749,10 +18765,10 @@
         <v>0</v>
       </c>
       <c r="CD63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE63" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF63">
         <v>0</v>
@@ -18767,7 +18783,7 @@
         <v>7</v>
       </c>
       <c r="CJ63" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.15">
@@ -18775,7 +18791,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -18886,7 +18902,7 @@
         <v>6</v>
       </c>
       <c r="AM64" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AN64">
         <v>-1</v>
@@ -18900,8 +18916,8 @@
       <c r="AQ64">
         <v>1</v>
       </c>
-      <c r="AR64" s="3">
-        <v>90100110120</v>
+      <c r="AR64" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -18985,10 +19001,10 @@
         <v>0</v>
       </c>
       <c r="CD64" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE64" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF64">
         <v>0</v>
@@ -19011,7 +19027,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19038,7 +19054,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L65">
         <v>5</v>
@@ -19216,10 +19232,10 @@
         <v>0</v>
       </c>
       <c r="CD65" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE65" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF65">
         <v>0</v>
@@ -19242,7 +19258,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19449,10 +19465,10 @@
         <v>0</v>
       </c>
       <c r="CD66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE66" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF66">
         <v>0</v>
@@ -19475,7 +19491,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -19580,7 +19596,7 @@
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="AM67">
         <v>0</v>
@@ -19598,7 +19614,7 @@
         <v>1</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -19682,10 +19698,10 @@
         <v>0</v>
       </c>
       <c r="CD67" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE67" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF67">
         <v>0</v>
@@ -19708,7 +19724,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -19815,8 +19831,8 @@
       <c r="AK68">
         <v>0</v>
       </c>
-      <c r="AL68">
-        <v>0.1</v>
+      <c r="AL68" t="s">
+        <v>355</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -19834,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="AR68" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -19918,10 +19934,10 @@
         <v>0</v>
       </c>
       <c r="CD68" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE68" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF68">
         <v>0</v>
@@ -19944,7 +19960,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20052,7 +20068,7 @@
         <v>6</v>
       </c>
       <c r="AL69" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AM69">
         <v>0</v>
@@ -20070,7 +20086,7 @@
         <v>1</v>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -20109,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="BI69" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="BM69">
         <v>10</v>
@@ -20154,10 +20170,10 @@
         <v>0</v>
       </c>
       <c r="CD69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE69" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF69">
         <v>0</v>
@@ -20180,7 +20196,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20285,10 +20301,10 @@
         <v>14</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AN70">
         <v>-1</v>
@@ -20303,7 +20319,7 @@
         <v>1</v>
       </c>
       <c r="AR70" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -20390,10 +20406,10 @@
         <v>0</v>
       </c>
       <c r="CD70" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE70" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF70">
         <v>0</v>
@@ -20416,7 +20432,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20524,7 +20540,7 @@
         <v>8</v>
       </c>
       <c r="AL71" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AM71">
         <v>0</v>
@@ -20542,7 +20558,7 @@
         <v>1</v>
       </c>
       <c r="AR71" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AS71">
         <v>0</v>
@@ -20551,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="AU71" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AV71">
         <v>2</v>
@@ -20626,10 +20642,10 @@
         <v>0</v>
       </c>
       <c r="CD71" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE71" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF71">
         <v>0</v>
@@ -20652,7 +20668,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -20757,7 +20773,7 @@
         <v>2.6</v>
       </c>
       <c r="AL72" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AM72">
         <v>0</v>
@@ -20775,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -20817,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="BI72" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="BM72">
         <v>10</v>
@@ -20862,10 +20878,10 @@
         <v>0</v>
       </c>
       <c r="CD72" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE72" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF72">
         <v>0</v>
@@ -20888,7 +20904,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21011,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="AR73" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AS73">
         <v>0</v>
@@ -21074,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="BV73" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="BW73">
         <v>0.5</v>
@@ -21098,10 +21114,10 @@
         <v>0</v>
       </c>
       <c r="CD73" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE73" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF73">
         <v>0</v>
@@ -21124,7 +21140,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21337,10 +21353,10 @@
         <v>0</v>
       </c>
       <c r="CD74" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="CE74" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="CF74">
         <v>0</v>
@@ -21363,7 +21379,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21414,7 +21430,7 @@
         <v>19</v>
       </c>
       <c r="S75" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -21474,7 +21490,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="AN75">
         <v>2</v>
@@ -21555,7 +21571,7 @@
         <v>0.5</v>
       </c>
       <c r="BW75" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="BX75">
         <v>2</v>
@@ -21576,10 +21592,10 @@
         <v>0</v>
       </c>
       <c r="CD75" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE75" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF75">
         <v>0</v>
@@ -21602,7 +21618,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -21710,7 +21726,7 @@
         <v>4.75</v>
       </c>
       <c r="AL76" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AM76">
         <v>0</v>
@@ -21728,7 +21744,7 @@
         <v>1</v>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -21806,16 +21822,16 @@
         <v>1</v>
       </c>
       <c r="CB76" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="CC76">
         <v>0</v>
       </c>
       <c r="CD76" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE76" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF76">
         <v>2</v>
@@ -21838,7 +21854,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -21943,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="AM77">
         <v>0</v>
@@ -22048,10 +22064,10 @@
         <v>0</v>
       </c>
       <c r="CD77" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE77" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF77">
         <v>0</v>
@@ -22074,7 +22090,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22284,10 +22300,10 @@
         <v>0</v>
       </c>
       <c r="CD78" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE78" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF78">
         <v>0</v>
@@ -22302,7 +22318,7 @@
         <v>8</v>
       </c>
       <c r="CJ78" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.15">
@@ -22310,7 +22326,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22433,7 +22449,7 @@
         <v>1</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AS79">
         <v>0</v>
@@ -22442,7 +22458,7 @@
         <v>0</v>
       </c>
       <c r="AU79" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AV79">
         <v>2</v>
@@ -22517,10 +22533,10 @@
         <v>0</v>
       </c>
       <c r="CD79" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE79" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF79">
         <v>0</v>
@@ -22543,7 +22559,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -22750,10 +22766,10 @@
         <v>0</v>
       </c>
       <c r="CD80" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE80" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF80">
         <v>0</v>
@@ -22776,7 +22792,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -22980,10 +22996,10 @@
         <v>0</v>
       </c>
       <c r="CD81" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE81" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF81">
         <v>0</v>
@@ -23006,7 +23022,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23210,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="CD82" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="CE82" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF82">
         <v>0</v>
@@ -23236,7 +23252,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23443,10 +23459,10 @@
         <v>0</v>
       </c>
       <c r="CD83" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE83" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF83">
         <v>0</v>
@@ -23469,7 +23485,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -23673,10 +23689,10 @@
         <v>0</v>
       </c>
       <c r="CD84" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE84" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF84">
         <v>0</v>
@@ -23699,7 +23715,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -23842,7 +23858,7 @@
         <v>2</v>
       </c>
       <c r="AY85" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AZ85" s="4"/>
       <c r="BA85" s="4">
@@ -23917,10 +23933,10 @@
         <v>0</v>
       </c>
       <c r="CD85" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE85" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CF85" s="4">
         <v>0</v>
@@ -23943,7 +23959,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24052,7 +24068,7 @@
         <v>30</v>
       </c>
       <c r="AM86" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AN86" s="4">
         <v>12</v>
@@ -24161,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="CD86" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE86" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF86" s="4">
         <v>0</v>
@@ -24187,7 +24203,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24320,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="AU87" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AV87" s="4">
         <v>2</v>
@@ -24407,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="CD87" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CE87" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="CF87" s="4">
         <v>0</v>
@@ -24433,7 +24449,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -24544,7 +24560,7 @@
         <v>55</v>
       </c>
       <c r="AM88" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN88" s="4">
         <v>-1</v>
@@ -24651,10 +24667,10 @@
         <v>160</v>
       </c>
       <c r="CD88" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE88" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF88" s="4">
         <v>0</v>
@@ -24677,7 +24693,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -24786,7 +24802,7 @@
         <v>30</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN89" s="4">
         <v>12</v>
@@ -24895,10 +24911,10 @@
         <v>0</v>
       </c>
       <c r="CD89" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE89" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF89" s="4">
         <v>0</v>
@@ -24921,7 +24937,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25032,7 +25048,7 @@
         <v>65</v>
       </c>
       <c r="AM90" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN90" s="4">
         <v>-1</v>
@@ -25139,10 +25155,10 @@
         <v>0</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE90" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF90" s="4">
         <v>2</v>
@@ -25165,7 +25181,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25274,7 +25290,7 @@
         <v>60</v>
       </c>
       <c r="AM91" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN91" s="4">
         <v>12</v>
@@ -25383,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="CD91" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE91" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF91" s="4">
         <v>0</v>
@@ -25409,7 +25425,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -25613,10 +25629,10 @@
         <v>0</v>
       </c>
       <c r="CD92" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE92" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF92">
         <v>0</v>
@@ -25639,7 +25655,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -25748,7 +25764,7 @@
         <v>20</v>
       </c>
       <c r="AM93" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN93" s="4">
         <v>6</v>
@@ -25857,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="CD93" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE93" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF93" s="4">
         <v>0</v>
@@ -25883,7 +25899,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -25994,7 +26010,7 @@
         <v>35</v>
       </c>
       <c r="AM94" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AN94">
         <v>-1</v>
@@ -26090,10 +26106,10 @@
         <v>0</v>
       </c>
       <c r="CD94" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="CF94">
         <v>0</v>
@@ -26116,7 +26132,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26249,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="AU95" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AV95" s="4">
         <v>2</v>
@@ -26334,10 +26350,10 @@
         <v>0</v>
       </c>
       <c r="CD95" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE95" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF95" s="4">
         <v>0</v>
@@ -26360,7 +26376,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -26495,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="AU96" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AV96" s="4">
         <v>2</v>
@@ -26580,10 +26596,10 @@
         <v>0</v>
       </c>
       <c r="CD96" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE96" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF96" s="4">
         <v>0</v>
@@ -26606,7 +26622,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -26739,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="AU97" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AV97" s="4">
         <v>2</v>
@@ -26824,10 +26840,10 @@
         <v>0</v>
       </c>
       <c r="CD97" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE97" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF97" s="4">
         <v>0</v>
@@ -26850,7 +26866,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -26958,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="AL98" s="4">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="AM98" s="4">
         <v>0</v>
@@ -27068,10 +27084,10 @@
         <v>0</v>
       </c>
       <c r="CD98" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE98" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF98" s="4">
         <v>0</v>
@@ -27094,7 +27110,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27227,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="AU99" s="5" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AV99" s="4">
         <v>2</v>
@@ -27312,10 +27328,10 @@
         <v>0</v>
       </c>
       <c r="CD99" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE99" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF99" s="4">
         <v>0</v>
@@ -27338,7 +27354,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -27542,10 +27558,10 @@
         <v>0</v>
       </c>
       <c r="CD100" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE100" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF100">
         <v>0</v>
@@ -27568,7 +27584,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -27775,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="CD101" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE101" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF101">
         <v>0</v>
@@ -27801,7 +27817,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28008,10 +28024,10 @@
         <v>0</v>
       </c>
       <c r="CD102" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE102" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF102">
         <v>0</v>
@@ -28034,7 +28050,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28169,7 +28185,7 @@
         <v>0</v>
       </c>
       <c r="AU103" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AV103" s="4">
         <v>2</v>
@@ -28254,10 +28270,10 @@
         <v>0</v>
       </c>
       <c r="CD103" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE103" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF103" s="4">
         <v>0</v>
@@ -28280,7 +28296,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -28484,10 +28500,10 @@
         <v>0</v>
       </c>
       <c r="CD104" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE104" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF104">
         <v>0</v>
@@ -28510,7 +28526,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -28714,10 +28730,10 @@
         <v>0</v>
       </c>
       <c r="CD105" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE105" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF105">
         <v>0</v>
@@ -28740,7 +28756,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -28873,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="AU106" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AV106" s="4">
         <v>2</v>
@@ -28958,10 +28974,10 @@
         <v>0</v>
       </c>
       <c r="CD106" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE106" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF106" s="4">
         <v>0</v>
@@ -28984,7 +29000,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29191,10 +29207,10 @@
         <v>0</v>
       </c>
       <c r="CD107" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE107" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF107">
         <v>0</v>
@@ -29217,7 +29233,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -29424,10 +29440,10 @@
         <v>0</v>
       </c>
       <c r="CD108" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE108" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF108">
         <v>0</v>
@@ -29450,7 +29466,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -29657,10 +29673,10 @@
         <v>0</v>
       </c>
       <c r="CD109" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE109" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF109">
         <v>0</v>
@@ -29683,7 +29699,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -29893,10 +29909,10 @@
         <v>0</v>
       </c>
       <c r="CD110" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="CE110" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF110">
         <v>0</v>
@@ -29919,7 +29935,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30042,7 +30058,7 @@
         <v>1</v>
       </c>
       <c r="AR111" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AS111">
         <v>0</v>
@@ -30099,7 +30115,7 @@
         <v>-1</v>
       </c>
       <c r="BR111" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="BT111">
         <v>2</v>
@@ -30129,10 +30145,10 @@
         <v>0</v>
       </c>
       <c r="CD111" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE111" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF111">
         <v>0</v>
@@ -30155,7 +30171,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30371,10 +30387,10 @@
         <v>0</v>
       </c>
       <c r="CD112" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE112" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF112" s="4">
         <v>2</v>
@@ -30397,7 +30413,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -30604,10 +30620,10 @@
         <v>0</v>
       </c>
       <c r="CD113" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE113" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CF113">
         <v>0</v>
@@ -30630,7 +30646,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -30773,7 +30789,7 @@
         <v>2</v>
       </c>
       <c r="AY114" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AZ114" s="4"/>
       <c r="BA114" s="4">
@@ -30848,10 +30864,10 @@
         <v>0</v>
       </c>
       <c r="CD114" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE114" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF114" s="4">
         <v>0</v>
@@ -30874,7 +30890,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31082,10 +31098,10 @@
         <v>0</v>
       </c>
       <c r="CD115" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE115" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF115">
         <v>0</v>
@@ -31108,7 +31124,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31312,10 +31328,10 @@
         <v>0</v>
       </c>
       <c r="CD116" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE116" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF116">
         <v>0</v>
@@ -31338,7 +31354,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -31471,7 +31487,7 @@
         <v>0</v>
       </c>
       <c r="AU117" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AV117" s="4">
         <v>2</v>
@@ -31556,10 +31572,10 @@
         <v>0</v>
       </c>
       <c r="CD117" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE117" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF117" s="4">
         <v>0</v>
@@ -31582,7 +31598,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -31789,10 +31805,10 @@
         <v>0</v>
       </c>
       <c r="CD118" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE118" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF118">
         <v>0</v>
@@ -31815,7 +31831,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -31948,7 +31964,7 @@
         <v>0</v>
       </c>
       <c r="AU119" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AV119" s="4">
         <v>2</v>
@@ -32033,10 +32049,10 @@
         <v>0</v>
       </c>
       <c r="CD119" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CE119" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF119" s="4">
         <v>0</v>
@@ -32059,7 +32075,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32191,7 +32207,7 @@
         <v>0</v>
       </c>
       <c r="AU120" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AV120">
         <v>2</v>
@@ -32266,10 +32282,10 @@
         <v>0</v>
       </c>
       <c r="CD120" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CE120" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="CF120">
         <v>0</v>
@@ -32292,7 +32308,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -32435,7 +32451,7 @@
         <v>2</v>
       </c>
       <c r="AY121" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="AZ121" s="4"/>
       <c r="BA121" s="4">
@@ -32510,10 +32526,10 @@
         <v>0</v>
       </c>
       <c r="CD121" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="CE121" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="CF121" s="4">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3978,9 +3978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL104" sqref="AL104"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5484,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="AR11">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>5</v>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17">
         <v>5</v>
@@ -10169,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>5</v>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>5</v>
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -23524,7 +23524,7 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>5</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3978,9 +3978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5256,6 +5256,9 @@
       <c r="Q6">
         <v>1</v>
       </c>
+      <c r="R6">
+        <v>43</v>
+      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -5492,6 +5495,9 @@
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="R7">
+        <v>44</v>
+      </c>
       <c r="S7">
         <v>0</v>
       </c>
@@ -5728,6 +5734,9 @@
       <c r="Q8">
         <v>1</v>
       </c>
+      <c r="R8">
+        <v>42</v>
+      </c>
       <c r="S8">
         <v>0</v>
       </c>
@@ -7139,6 +7148,9 @@
       <c r="Q14">
         <v>2</v>
       </c>
+      <c r="R14">
+        <v>46</v>
+      </c>
       <c r="S14">
         <v>0</v>
       </c>
@@ -7372,6 +7384,9 @@
       <c r="Q15">
         <v>2</v>
       </c>
+      <c r="R15">
+        <v>47</v>
+      </c>
       <c r="S15">
         <v>0</v>
       </c>
@@ -7608,6 +7623,9 @@
       <c r="Q16">
         <v>1</v>
       </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -7841,6 +7859,9 @@
       <c r="Q17">
         <v>1</v>
       </c>
+      <c r="R17">
+        <v>49</v>
+      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -8310,6 +8331,9 @@
       <c r="Q19">
         <v>2</v>
       </c>
+      <c r="R19">
+        <v>51</v>
+      </c>
       <c r="S19">
         <v>0</v>
       </c>
@@ -8543,6 +8567,9 @@
       <c r="Q20">
         <v>1</v>
       </c>
+      <c r="R20">
+        <v>52</v>
+      </c>
       <c r="S20">
         <v>0</v>
       </c>
@@ -8773,6 +8800,9 @@
       <c r="Q21">
         <v>1</v>
       </c>
+      <c r="R21">
+        <v>53</v>
+      </c>
       <c r="S21">
         <v>0</v>
       </c>
@@ -9245,6 +9275,9 @@
       <c r="Q23">
         <v>1</v>
       </c>
+      <c r="R23">
+        <v>55</v>
+      </c>
       <c r="S23">
         <v>0</v>
       </c>
@@ -9711,6 +9744,9 @@
       <c r="Q25">
         <v>1</v>
       </c>
+      <c r="R25">
+        <v>56</v>
+      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -9944,6 +9980,9 @@
       <c r="Q26">
         <v>1</v>
       </c>
+      <c r="R26">
+        <v>58</v>
+      </c>
       <c r="S26">
         <v>0</v>
       </c>
@@ -10177,6 +10216,9 @@
       <c r="Q27">
         <v>1</v>
       </c>
+      <c r="R27">
+        <v>59</v>
+      </c>
       <c r="S27">
         <v>0</v>
       </c>
@@ -10643,6 +10685,9 @@
       <c r="Q29">
         <v>1</v>
       </c>
+      <c r="R29">
+        <v>60</v>
+      </c>
       <c r="S29">
         <v>0</v>
       </c>
@@ -10876,6 +10921,9 @@
       <c r="Q30">
         <v>1</v>
       </c>
+      <c r="R30">
+        <v>62</v>
+      </c>
       <c r="S30">
         <v>0</v>
       </c>
@@ -11584,6 +11632,9 @@
       <c r="Q33">
         <v>1</v>
       </c>
+      <c r="R33">
+        <v>63</v>
+      </c>
       <c r="S33">
         <v>0</v>
       </c>
@@ -11817,6 +11868,9 @@
       <c r="Q34">
         <v>1</v>
       </c>
+      <c r="R34">
+        <v>65</v>
+      </c>
       <c r="S34">
         <v>0</v>
       </c>
@@ -12050,6 +12104,9 @@
       <c r="Q35">
         <v>1</v>
       </c>
+      <c r="R35">
+        <v>66</v>
+      </c>
       <c r="S35">
         <v>0</v>
       </c>
@@ -13215,6 +13272,9 @@
       <c r="Q40">
         <v>1</v>
       </c>
+      <c r="R40">
+        <v>68</v>
+      </c>
       <c r="S40">
         <v>0</v>
       </c>
@@ -13451,6 +13511,9 @@
       <c r="Q41">
         <v>1</v>
       </c>
+      <c r="R41">
+        <v>69</v>
+      </c>
       <c r="S41">
         <v>0</v>
       </c>
@@ -14147,6 +14210,9 @@
       <c r="Q44">
         <v>2</v>
       </c>
+      <c r="R44">
+        <v>70</v>
+      </c>
       <c r="S44">
         <v>0</v>
       </c>
@@ -14380,6 +14446,9 @@
       <c r="Q45">
         <v>1</v>
       </c>
+      <c r="R45">
+        <v>71</v>
+      </c>
       <c r="S45">
         <v>0</v>
       </c>
@@ -14613,6 +14682,9 @@
       <c r="Q46">
         <v>1</v>
       </c>
+      <c r="R46">
+        <v>72</v>
+      </c>
       <c r="S46">
         <v>0</v>
       </c>
@@ -16502,6 +16574,9 @@
       <c r="Q54">
         <v>1</v>
       </c>
+      <c r="R54">
+        <v>74</v>
+      </c>
       <c r="S54">
         <v>0</v>
       </c>
@@ -16735,6 +16810,9 @@
       <c r="Q55">
         <v>1</v>
       </c>
+      <c r="R55">
+        <v>75</v>
+      </c>
       <c r="S55">
         <v>0</v>
       </c>
@@ -16965,6 +17043,9 @@
       <c r="Q56">
         <v>1</v>
       </c>
+      <c r="R56">
+        <v>76</v>
+      </c>
       <c r="S56">
         <v>0</v>
       </c>
@@ -17900,6 +17981,9 @@
       <c r="Q60">
         <v>1</v>
       </c>
+      <c r="R60">
+        <v>78</v>
+      </c>
       <c r="S60">
         <v>0</v>
       </c>
@@ -18136,6 +18220,9 @@
       <c r="Q61">
         <v>2</v>
       </c>
+      <c r="R61">
+        <v>79</v>
+      </c>
       <c r="S61">
         <v>0</v>
       </c>
@@ -19538,6 +19625,9 @@
       <c r="Q67">
         <v>1</v>
       </c>
+      <c r="R67">
+        <v>80</v>
+      </c>
       <c r="S67">
         <v>0</v>
       </c>
@@ -20008,7 +20098,7 @@
         <v>2</v>
       </c>
       <c r="R69">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="S69">
         <v>10</v>
@@ -20715,6 +20805,9 @@
       <c r="Q72">
         <v>2</v>
       </c>
+      <c r="R72">
+        <v>82</v>
+      </c>
       <c r="S72">
         <v>0</v>
       </c>
@@ -20950,6 +21043,9 @@
       </c>
       <c r="Q73">
         <v>2</v>
+      </c>
+      <c r="R73">
+        <v>83</v>
       </c>
       <c r="S73">
         <v>0</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3979,8 +3979,8 @@
   <dimension ref="A1:CJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R72" sqref="R72"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13067,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB39">
         <v>1</v>
@@ -23395,6 +23395,9 @@
       <c r="Q83">
         <v>1</v>
       </c>
+      <c r="R83">
+        <v>85</v>
+      </c>
       <c r="S83">
         <v>0</v>
       </c>
@@ -23858,7 +23861,9 @@
       <c r="Q85" s="4">
         <v>1</v>
       </c>
-      <c r="R85" s="4"/>
+      <c r="R85" s="4">
+        <v>86</v>
+      </c>
       <c r="S85" s="4">
         <v>0</v>
       </c>
@@ -24102,7 +24107,9 @@
       <c r="Q86" s="4">
         <v>2</v>
       </c>
-      <c r="R86" s="4"/>
+      <c r="R86" s="4">
+        <v>87</v>
+      </c>
       <c r="S86" s="4">
         <v>0</v>
       </c>
@@ -24346,7 +24353,9 @@
       <c r="Q87" s="4">
         <v>2</v>
       </c>
-      <c r="R87" s="4"/>
+      <c r="R87" s="4">
+        <v>88</v>
+      </c>
       <c r="S87" s="4">
         <v>0</v>
       </c>
@@ -24836,7 +24845,9 @@
       <c r="Q89" s="4">
         <v>2</v>
       </c>
-      <c r="R89" s="4"/>
+      <c r="R89" s="4">
+        <v>89</v>
+      </c>
       <c r="S89" s="4">
         <v>0</v>
       </c>
@@ -25324,7 +25335,9 @@
       <c r="Q91" s="4">
         <v>2</v>
       </c>
-      <c r="R91" s="4"/>
+      <c r="R91" s="4">
+        <v>90</v>
+      </c>
       <c r="S91" s="4">
         <v>0</v>
       </c>
@@ -25568,6 +25581,9 @@
       <c r="Q92">
         <v>2</v>
       </c>
+      <c r="R92" s="4">
+        <v>91</v>
+      </c>
       <c r="S92">
         <v>0</v>
       </c>
@@ -25798,7 +25814,9 @@
       <c r="Q93" s="4">
         <v>2</v>
       </c>
-      <c r="R93" s="4"/>
+      <c r="R93" s="4">
+        <v>92</v>
+      </c>
       <c r="S93" s="4">
         <v>0</v>
       </c>
@@ -26046,7 +26064,7 @@
         <v>36</v>
       </c>
       <c r="S94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T94">
         <v>2</v>
@@ -26275,7 +26293,9 @@
       <c r="Q95" s="4">
         <v>2</v>
       </c>
-      <c r="R95" s="4"/>
+      <c r="R95" s="4">
+        <v>93</v>
+      </c>
       <c r="S95" s="4">
         <v>0</v>
       </c>
@@ -26520,7 +26540,7 @@
         <v>2</v>
       </c>
       <c r="R96" s="4">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="S96" s="4">
         <v>10</v>
@@ -26765,7 +26785,9 @@
       <c r="Q97" s="4">
         <v>2</v>
       </c>
-      <c r="R97" s="4"/>
+      <c r="R97" s="4">
+        <v>95</v>
+      </c>
       <c r="S97" s="4">
         <v>0</v>
       </c>
@@ -27253,7 +27275,9 @@
       <c r="Q99" s="4">
         <v>2</v>
       </c>
-      <c r="R99" s="4"/>
+      <c r="R99" s="4">
+        <v>96</v>
+      </c>
       <c r="S99" s="4">
         <v>0</v>
       </c>
@@ -28439,6 +28463,7 @@
       <c r="Q104">
         <v>1</v>
       </c>
+      <c r="R104" s="4"/>
       <c r="S104">
         <v>0</v>
       </c>
@@ -28899,7 +28924,9 @@
       <c r="Q106" s="4">
         <v>1</v>
       </c>
-      <c r="R106" s="4"/>
+      <c r="R106" s="4">
+        <v>99</v>
+      </c>
       <c r="S106" s="4">
         <v>0</v>
       </c>
@@ -29143,6 +29170,9 @@
       <c r="Q107">
         <v>1</v>
       </c>
+      <c r="R107" s="4">
+        <v>100</v>
+      </c>
       <c r="S107">
         <v>0</v>
       </c>
@@ -29376,6 +29406,9 @@
       <c r="Q108">
         <v>1</v>
       </c>
+      <c r="R108" s="4">
+        <v>101</v>
+      </c>
       <c r="S108">
         <v>0</v>
       </c>
@@ -29609,6 +29642,9 @@
       <c r="Q109">
         <v>1</v>
       </c>
+      <c r="R109" s="4">
+        <v>102</v>
+      </c>
       <c r="S109">
         <v>0</v>
       </c>
@@ -30078,6 +30114,9 @@
       <c r="Q111">
         <v>1</v>
       </c>
+      <c r="R111">
+        <v>103</v>
+      </c>
       <c r="S111">
         <v>0</v>
       </c>
@@ -30314,7 +30353,9 @@
       <c r="Q112" s="4">
         <v>1</v>
       </c>
-      <c r="R112" s="4"/>
+      <c r="R112" s="4">
+        <v>104</v>
+      </c>
       <c r="S112" s="4">
         <v>0</v>
       </c>
@@ -30789,7 +30830,9 @@
       <c r="Q114" s="4">
         <v>1</v>
       </c>
-      <c r="R114" s="4"/>
+      <c r="R114" s="4">
+        <v>105</v>
+      </c>
       <c r="S114" s="4">
         <v>0</v>
       </c>
@@ -31033,8 +31076,8 @@
       <c r="Q115">
         <v>1</v>
       </c>
-      <c r="R115">
-        <v>36</v>
+      <c r="R115" s="4">
+        <v>106</v>
       </c>
       <c r="S115">
         <v>16</v>
@@ -31497,7 +31540,9 @@
       <c r="Q117" s="4">
         <v>2</v>
       </c>
-      <c r="R117" s="4"/>
+      <c r="R117" s="4">
+        <v>107</v>
+      </c>
       <c r="S117" s="4">
         <v>0</v>
       </c>
@@ -31974,7 +32019,9 @@
       <c r="Q119" s="4">
         <v>2</v>
       </c>
-      <c r="R119" s="4"/>
+      <c r="R119" s="4">
+        <v>108</v>
+      </c>
       <c r="S119" s="4">
         <v>0</v>
       </c>
@@ -32451,7 +32498,9 @@
       <c r="Q121" s="4">
         <v>1</v>
       </c>
-      <c r="R121" s="4"/>
+      <c r="R121" s="4">
+        <v>109</v>
+      </c>
       <c r="S121" s="4">
         <v>0</v>
       </c>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3267,6 +3267,319 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EjectionRepeat</t>
+  </si>
+  <si>
+    <t>MagicValueHurt2PhisicHurtCR</t>
+  </si>
+  <si>
+    <t>净魂之刃被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃主动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>216,217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220,221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣治疗棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣的暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空时间锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌裂隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士的怒意狂击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士激怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔割裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的激流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小山崩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行的束缚击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行强力击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克幻象发球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔影牙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧王战斗饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒龙毒性攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequiredLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelsBetweenUpgrades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,165,195,225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorUsed</t>
+  </si>
+  <si>
+    <t>InitLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,65,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160,120,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,15,14,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,18,16,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,34,28,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,130,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,14,12,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,40,35,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,110,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,150,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75,65,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100,110,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>IsItemSkill</t>
     </r>
@@ -3280,319 +3593,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小电锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EjectionRepeat</t>
-  </si>
-  <si>
-    <t>MagicValueHurt2PhisicHurtCR</t>
-  </si>
-  <si>
-    <t>净魂之刃被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃主动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗灭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂缴械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>216,217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220,221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火枪榴弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣治疗棒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣的暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空时间锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌裂隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌一击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士的怒意狂击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士激怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔割裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的激流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小山崩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小投掷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小拔树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行的束缚击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行强力击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风行大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克幻象发球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克相位转移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕克大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔影牙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影魔大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斧王战斗饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月骑大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒龙毒性攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝猫的拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequiredLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelsBetweenUpgrades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,0.14,0.18,0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,165,195,225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MirrorUsed</t>
-  </si>
-  <si>
-    <t>InitLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,65,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160,120,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,15,14,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,18,16,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,34,28,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,130,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,14,12,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,40,35,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,110,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,150,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75,65,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4,2,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,100,110,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,100,110,120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3980,7 +3980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB41" sqref="AB41"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4017,10 +4017,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>259</v>
@@ -4044,7 +4044,7 @@
         <v>184</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>155</v>
@@ -4071,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>9</v>
@@ -4086,16 +4086,16 @@
         <v>134</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>120</v>
@@ -5448,7 +5448,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5920,7 +5920,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>8</v>
       </c>
       <c r="AL11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7209,7 +7209,7 @@
         <v>6.75</v>
       </c>
       <c r="AL14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -7445,7 +7445,7 @@
         <v>7.75</v>
       </c>
       <c r="AL15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="BB16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -7812,7 +7812,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7920,7 +7920,7 @@
         <v>6</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8159,7 +8159,7 @@
         <v>69</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN18">
         <v>-1</v>
@@ -8284,7 +8284,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8520,7 +8520,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8753,7 +8753,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9697,7 +9697,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9933,7 +9933,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10405,7 +10405,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10638,7 +10638,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11585,7 +11585,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12057,7 +12057,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AS35">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12526,7 +12526,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12759,7 +12759,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12992,7 +12992,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13225,7 +13225,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13464,7 +13464,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14163,7 +14163,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14399,7 +14399,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14635,7 +14635,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14743,7 +14743,7 @@
         <v>6</v>
       </c>
       <c r="AL46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -14872,7 +14872,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15586,7 +15586,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15694,7 +15694,7 @@
         <v>10</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM50" s="2" t="s">
         <v>135</v>
@@ -16635,7 +16635,7 @@
         <v>15</v>
       </c>
       <c r="AL54" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -16996,7 +16996,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17104,7 +17104,7 @@
         <v>12</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -18173,7 +18173,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18753,7 +18753,7 @@
         <v>3</v>
       </c>
       <c r="AL63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM63" s="2" t="s">
         <v>177</v>
@@ -19004,7 +19004,7 @@
         <v>1</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -19578,7 +19578,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -19814,7 +19814,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -20997,7 +20997,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -30783,7 +30783,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -30928,7 +30928,7 @@
         <v>2</v>
       </c>
       <c r="AY114" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AZ114" s="4"/>
       <c r="BA114" s="4">
@@ -31029,7 +31029,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31263,7 +31263,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31493,7 +31493,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -31628,7 +31628,7 @@
         <v>0</v>
       </c>
       <c r="AU117" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV117" s="4">
         <v>2</v>
@@ -31739,7 +31739,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -31972,7 +31972,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32107,7 +32107,7 @@
         <v>0</v>
       </c>
       <c r="AU119" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AV119" s="4">
         <v>2</v>
@@ -32218,7 +32218,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32350,7 +32350,7 @@
         <v>0</v>
       </c>
       <c r="AU120" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AV120">
         <v>2</v>
@@ -32451,7 +32451,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -32596,7 +32596,7 @@
         <v>2</v>
       </c>
       <c r="AY121" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AZ121" s="4"/>
       <c r="BA121" s="4">

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -3978,9 +3978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13064,10 +13064,10 @@
         <v>0.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AA39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB39">
         <v>1</v>

--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -2220,7 +2220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="362">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2266,9 +2266,6 @@
     <t>CastRange</t>
   </si>
   <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
     <t>HurtValue</t>
   </si>
   <si>
@@ -3068,10 +3065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绿杖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3143,10 +3136,6 @@
   </si>
   <si>
     <t>125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3593,6 +3582,34 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,500,600,700,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,0.21,0.24,0.27,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>275,385,440,495,550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195,180,170,160,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,280,320,360,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,0.28,0.32,0.36,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3978,9 +3995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z39" sqref="Z39"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CB112" sqref="CB112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4000,6 +4017,7 @@
     <col min="61" max="61" width="11.625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="8.125" customWidth="1"/>
+    <col min="80" max="80" width="21.625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4017,40 +4035,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -4059,19 +4077,19 @@
         <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>9</v>
@@ -4083,190 +4101,190 @@
         <v>11</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AZ1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="BD1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="BF1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="BI1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="BL1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="BU1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BX1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="BY1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CC1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="CG1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="CI1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.15">
@@ -4379,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL2">
         <v>6</v>
@@ -4394,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="AP2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -4484,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="CD2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -4510,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4615,7 +4633,7 @@
         <v>20</v>
       </c>
       <c r="AL3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -4633,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="AR3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -4717,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="CD3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE3" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -4743,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4848,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -4953,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF4">
         <v>0</v>
@@ -4979,7 +4997,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5126,7 +5144,7 @@
         <v>0.15</v>
       </c>
       <c r="BC5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -5183,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF5">
         <v>0</v>
@@ -5209,7 +5227,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5317,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -5335,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5422,10 +5440,10 @@
         <v>0</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -5448,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5628,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="BR7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BS7">
         <v>1001</v>
@@ -5661,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -5687,7 +5705,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -5834,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC8">
         <v>1.8</v>
@@ -5894,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -5920,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6046,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -6134,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF9">
         <v>0</v>
@@ -6160,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6370,10 +6388,10 @@
         <v>0</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF10">
         <v>0</v>
@@ -6396,7 +6414,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6504,7 +6522,7 @@
         <v>8</v>
       </c>
       <c r="AL11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -6585,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="BV11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BW11">
         <v>6</v>
@@ -6606,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF11">
         <v>0</v>
@@ -6632,7 +6650,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -6839,10 +6857,10 @@
         <v>0</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF12">
         <v>0</v>
@@ -6865,7 +6883,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -7012,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="BB13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BC13">
         <v>1</v>
@@ -7021,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -7075,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF13">
         <v>0</v>
@@ -7101,7 +7119,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7209,7 +7227,7 @@
         <v>6.75</v>
       </c>
       <c r="AL14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -7311,10 +7329,10 @@
         <v>0</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF14">
         <v>1</v>
@@ -7337,7 +7355,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7445,7 +7463,7 @@
         <v>7.75</v>
       </c>
       <c r="AL15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -7550,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF15">
         <v>0</v>
@@ -7576,7 +7594,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -7687,7 +7705,7 @@
         <v>0.1</v>
       </c>
       <c r="AM16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN16">
         <v>-1</v>
@@ -7726,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="BB16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="BC16">
         <v>2</v>
@@ -7786,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF16">
         <v>0</v>
@@ -7812,7 +7830,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -7920,7 +7938,7 @@
         <v>6</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -7938,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -7977,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM17">
         <v>10</v>
@@ -8022,10 +8040,10 @@
         <v>0</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF17">
         <v>0</v>
@@ -8048,7 +8066,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8156,25 +8174,25 @@
         <v>7</v>
       </c>
       <c r="AL18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN18">
+        <v>-1</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AN18">
-        <v>-1</v>
-      </c>
-      <c r="AO18">
-        <v>2</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -8258,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF18">
         <v>0</v>
@@ -8284,7 +8302,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -8389,28 +8407,28 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19">
+        <v>-1</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AN19">
-        <v>-1</v>
-      </c>
-      <c r="AO19">
-        <v>2</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -8494,10 +8512,10 @@
         <v>0</v>
       </c>
       <c r="CD19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF19">
         <v>0</v>
@@ -8512,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="CJ19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:88" x14ac:dyDescent="0.15">
@@ -8520,7 +8538,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -8670,7 +8688,7 @@
         <v>1</v>
       </c>
       <c r="BC20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -8727,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="CD20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CE20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF20">
         <v>0</v>
@@ -8753,7 +8771,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -8879,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -8936,7 +8954,7 @@
         <v>-1</v>
       </c>
       <c r="BR21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BT21">
         <v>2</v>
@@ -8966,10 +8984,10 @@
         <v>0</v>
       </c>
       <c r="CD21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF21">
         <v>0</v>
@@ -8992,7 +9010,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -9103,7 +9121,7 @@
         <v>5</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AN22">
         <v>3.85</v>
@@ -9202,10 +9220,10 @@
         <v>0</v>
       </c>
       <c r="CD22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF22">
         <v>0</v>
@@ -9228,7 +9246,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -9336,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -9438,10 +9456,10 @@
         <v>0</v>
       </c>
       <c r="CD23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE23" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE23" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF23">
         <v>0</v>
@@ -9464,7 +9482,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -9572,7 +9590,7 @@
         <v>0.1</v>
       </c>
       <c r="AM24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AN24">
         <v>-1</v>
@@ -9671,10 +9689,10 @@
         <v>0</v>
       </c>
       <c r="CD24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF24">
         <v>0</v>
@@ -9689,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="CJ24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.15">
@@ -9697,7 +9715,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9805,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -9907,10 +9925,10 @@
         <v>0</v>
       </c>
       <c r="CD25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF25">
         <v>0</v>
@@ -9933,7 +9951,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10041,7 +10059,7 @@
         <v>10</v>
       </c>
       <c r="AL26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM26">
         <v>0</v>
@@ -10143,10 +10161,10 @@
         <v>0</v>
       </c>
       <c r="CD26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE26" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE26" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF26">
         <v>0</v>
@@ -10169,7 +10187,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10277,7 +10295,7 @@
         <v>8</v>
       </c>
       <c r="AL27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -10295,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS27">
         <v>0</v>
@@ -10379,10 +10397,10 @@
         <v>0</v>
       </c>
       <c r="CD27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF27">
         <v>0</v>
@@ -10405,7 +10423,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -10612,10 +10630,10 @@
         <v>0</v>
       </c>
       <c r="CD28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF28">
         <v>0</v>
@@ -10638,7 +10656,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10848,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="CD29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE29" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE29" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF29">
         <v>0</v>
@@ -10874,7 +10892,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10982,7 +11000,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -11000,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="AR30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -11057,7 +11075,7 @@
         <v>-1</v>
       </c>
       <c r="BR30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BT30">
         <v>2</v>
@@ -11087,10 +11105,10 @@
         <v>0</v>
       </c>
       <c r="CD30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF30">
         <v>0</v>
@@ -11113,7 +11131,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -11239,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="AR31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -11323,10 +11341,10 @@
         <v>0</v>
       </c>
       <c r="CD31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE31" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE31" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF31">
         <v>0</v>
@@ -11349,7 +11367,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -11559,10 +11577,10 @@
         <v>0</v>
       </c>
       <c r="CD32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CE32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF32">
         <v>0</v>
@@ -11585,7 +11603,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -11693,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="AL33" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AM33">
         <v>0</v>
@@ -11711,7 +11729,7 @@
         <v>1</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS33">
         <v>0</v>
@@ -11795,10 +11813,10 @@
         <v>0</v>
       </c>
       <c r="CD33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF33">
         <v>0</v>
@@ -11821,7 +11839,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -11929,64 +11947,64 @@
         <v>4</v>
       </c>
       <c r="AL34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO34">
-        <v>2</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-      <c r="AQ34">
-        <v>1</v>
-      </c>
-      <c r="AR34" s="2" t="s">
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>2</v>
+      </c>
+      <c r="AW34">
+        <v>2</v>
+      </c>
+      <c r="AX34">
+        <v>2</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AS34">
-        <v>0</v>
-      </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>2</v>
-      </c>
-      <c r="AW34">
-        <v>2</v>
-      </c>
-      <c r="AX34">
-        <v>2</v>
-      </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
-        <v>1</v>
-      </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BF34">
-        <v>0</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="BM34">
         <v>10</v>
@@ -12031,10 +12049,10 @@
         <v>0</v>
       </c>
       <c r="CD34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF34">
         <v>0</v>
@@ -12057,7 +12075,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12183,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AS35">
         <v>0</v>
@@ -12267,10 +12285,10 @@
         <v>0</v>
       </c>
       <c r="CD35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF35">
         <v>1</v>
@@ -12285,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="CJ35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:88" x14ac:dyDescent="0.15">
@@ -12293,7 +12311,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12398,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -12500,10 +12518,10 @@
         <v>0</v>
       </c>
       <c r="CD36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE36" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE36" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF36">
         <v>0</v>
@@ -12526,7 +12544,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -12733,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="CD37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF37">
         <v>0</v>
@@ -12759,7 +12777,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12867,25 +12885,25 @@
         <v>8</v>
       </c>
       <c r="AL38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>-1</v>
+      </c>
+      <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="s">
         <v>107</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>-1</v>
-      </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38">
-        <v>1</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>108</v>
       </c>
       <c r="AS38">
         <v>0</v>
@@ -12966,10 +12984,10 @@
         <v>0</v>
       </c>
       <c r="CD38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE38" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF38">
         <v>0</v>
@@ -12984,7 +13002,7 @@
         <v>3</v>
       </c>
       <c r="CJ38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:88" x14ac:dyDescent="0.15">
@@ -12992,7 +13010,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -13100,10 +13118,10 @@
         <v>26</v>
       </c>
       <c r="AL39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AN39">
         <v>1.5</v>
@@ -13118,7 +13136,7 @@
         <v>0.8</v>
       </c>
       <c r="AR39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AS39">
         <v>0</v>
@@ -13199,10 +13217,10 @@
         <v>0</v>
       </c>
       <c r="CD39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF39">
         <v>0</v>
@@ -13225,7 +13243,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -13333,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -13438,10 +13456,10 @@
         <v>0</v>
       </c>
       <c r="CD40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE40" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE40" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF40">
         <v>0</v>
@@ -13464,7 +13482,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -13572,7 +13590,7 @@
         <v>10</v>
       </c>
       <c r="AL41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -13590,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="AR41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS41">
         <v>0</v>
@@ -13674,10 +13692,10 @@
         <v>0</v>
       </c>
       <c r="CD41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE41" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE41" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF41">
         <v>0</v>
@@ -13700,7 +13718,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -13808,10 +13826,10 @@
         <v>19.5</v>
       </c>
       <c r="AL42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM42" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AN42">
         <v>2.5</v>
@@ -13826,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AS42">
         <v>0</v>
@@ -13907,10 +13925,10 @@
         <v>0</v>
       </c>
       <c r="CD42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE42" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF42">
         <v>0</v>
@@ -13933,7 +13951,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -14137,10 +14155,10 @@
         <v>0</v>
       </c>
       <c r="CD43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE43" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE43" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF43">
         <v>0</v>
@@ -14163,7 +14181,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -14271,10 +14289,10 @@
         <v>4</v>
       </c>
       <c r="AL44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AN44">
         <v>4</v>
@@ -14289,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="AR44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS44">
         <v>0</v>
@@ -14373,10 +14391,10 @@
         <v>0</v>
       </c>
       <c r="CD44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF44">
         <v>0</v>
@@ -14399,7 +14417,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -14609,10 +14627,10 @@
         <v>0</v>
       </c>
       <c r="CD45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE45" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE45" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF45">
         <v>0</v>
@@ -14635,7 +14653,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -14743,7 +14761,7 @@
         <v>6</v>
       </c>
       <c r="AL46" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -14761,16 +14779,16 @@
         <v>1</v>
       </c>
       <c r="AR46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="s">
         <v>126</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>127</v>
       </c>
       <c r="AV46">
         <v>2</v>
@@ -14846,10 +14864,10 @@
         <v>0</v>
       </c>
       <c r="CD46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF46">
         <v>0</v>
@@ -14872,7 +14890,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -14983,7 +15001,7 @@
         <v>10</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN47">
         <v>3</v>
@@ -14998,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS47">
         <v>0</v>
@@ -15085,10 +15103,10 @@
         <v>0</v>
       </c>
       <c r="CD47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF47">
         <v>0</v>
@@ -15103,7 +15121,7 @@
         <v>6</v>
       </c>
       <c r="CJ47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:88" x14ac:dyDescent="0.15">
@@ -15111,7 +15129,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -15222,7 +15240,7 @@
         <v>10</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN48">
         <v>3</v>
@@ -15237,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS48">
         <v>0</v>
@@ -15324,10 +15342,10 @@
         <v>0</v>
       </c>
       <c r="CD48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF48">
         <v>0</v>
@@ -15342,7 +15360,7 @@
         <v>6</v>
       </c>
       <c r="CJ48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.15">
@@ -15350,7 +15368,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15461,7 +15479,7 @@
         <v>10</v>
       </c>
       <c r="AM49" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN49">
         <v>3</v>
@@ -15476,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="AR49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS49">
         <v>0</v>
@@ -15560,10 +15578,10 @@
         <v>0</v>
       </c>
       <c r="CD49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF49">
         <v>0</v>
@@ -15578,7 +15596,7 @@
         <v>6</v>
       </c>
       <c r="CJ49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.15">
@@ -15586,7 +15604,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15694,10 +15712,10 @@
         <v>10</v>
       </c>
       <c r="AL50" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AM50" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN50">
         <v>1.5</v>
@@ -15712,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="AR50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS50">
         <v>0</v>
@@ -15796,10 +15814,10 @@
         <v>0</v>
       </c>
       <c r="CD50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE50" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF50">
         <v>0</v>
@@ -15822,7 +15840,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -15933,7 +15951,7 @@
         <v>16</v>
       </c>
       <c r="AM51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN51">
         <v>1.5</v>
@@ -15948,46 +15966,46 @@
         <v>1</v>
       </c>
       <c r="AR51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>2</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>2</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>1</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BL51" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="AS51">
-        <v>0</v>
-      </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>2</v>
-      </c>
-      <c r="AX51">
-        <v>2</v>
-      </c>
-      <c r="BA51">
-        <v>0</v>
-      </c>
-      <c r="BB51">
-        <v>0</v>
-      </c>
-      <c r="BC51">
-        <v>1</v>
-      </c>
-      <c r="BD51">
-        <v>0</v>
-      </c>
-      <c r="BF51">
-        <v>0</v>
-      </c>
-      <c r="BG51">
-        <v>0</v>
-      </c>
-      <c r="BH51">
-        <v>0</v>
-      </c>
-      <c r="BL51" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="BM51">
         <v>0.2</v>
@@ -16032,10 +16050,10 @@
         <v>0</v>
       </c>
       <c r="CD51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF51">
         <v>0</v>
@@ -16058,7 +16076,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -16169,52 +16187,52 @@
         <v>0.1</v>
       </c>
       <c r="AM52" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN52">
+        <v>-1</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>2</v>
+      </c>
+      <c r="AX52">
+        <v>2</v>
+      </c>
+      <c r="BA52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+      <c r="BC52">
+        <v>1</v>
+      </c>
+      <c r="BD52">
+        <v>2</v>
+      </c>
+      <c r="BE52" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="AN52">
-        <v>-1</v>
-      </c>
-      <c r="AO52">
-        <v>2</v>
-      </c>
-      <c r="AP52">
-        <v>0</v>
-      </c>
-      <c r="AQ52">
-        <v>1</v>
-      </c>
-      <c r="AR52">
-        <v>0</v>
-      </c>
-      <c r="AS52">
-        <v>0</v>
-      </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AV52">
-        <v>2</v>
-      </c>
-      <c r="AW52">
-        <v>2</v>
-      </c>
-      <c r="AX52">
-        <v>2</v>
-      </c>
-      <c r="BA52">
-        <v>1</v>
-      </c>
-      <c r="BB52">
-        <v>1</v>
-      </c>
-      <c r="BC52">
-        <v>1</v>
-      </c>
-      <c r="BD52">
-        <v>2</v>
-      </c>
-      <c r="BE52" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="BF52">
         <v>0</v>
@@ -16268,10 +16286,10 @@
         <v>0</v>
       </c>
       <c r="CD52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF52">
         <v>0</v>
@@ -16294,7 +16312,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -16501,10 +16519,10 @@
         <v>0</v>
       </c>
       <c r="CD53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE53" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE53" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF53">
         <v>0</v>
@@ -16527,7 +16545,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -16635,7 +16653,7 @@
         <v>15</v>
       </c>
       <c r="AL54" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -16653,7 +16671,7 @@
         <v>1</v>
       </c>
       <c r="AR54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -16707,7 +16725,7 @@
         <v>-1</v>
       </c>
       <c r="BR54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BT54">
         <v>1</v>
@@ -16737,10 +16755,10 @@
         <v>0</v>
       </c>
       <c r="CD54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF54">
         <v>0</v>
@@ -16763,7 +16781,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -16970,10 +16988,10 @@
         <v>0</v>
       </c>
       <c r="CD55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE55" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE55" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF55">
         <v>0</v>
@@ -16996,7 +17014,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -17104,7 +17122,7 @@
         <v>12</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AM56">
         <v>0</v>
@@ -17122,46 +17140,46 @@
         <v>1</v>
       </c>
       <c r="AR56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>2</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>1</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>2</v>
-      </c>
-      <c r="AW56">
-        <v>2</v>
-      </c>
-      <c r="AX56">
-        <v>2</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>1</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="BM56">
         <v>10</v>
@@ -17206,10 +17224,10 @@
         <v>0</v>
       </c>
       <c r="CD56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE56" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF56">
         <v>0</v>
@@ -17232,7 +17250,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -17340,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AN57">
         <v>-1</v>
@@ -17436,10 +17454,10 @@
         <v>0</v>
       </c>
       <c r="CD57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF57">
         <v>0</v>
@@ -17462,7 +17480,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -17567,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="AL58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM58">
         <v>0</v>
@@ -17672,10 +17690,10 @@
         <v>0</v>
       </c>
       <c r="CD58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE58" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE58" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF58">
         <v>0</v>
@@ -17698,7 +17716,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -17806,25 +17824,25 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN59">
+        <v>-1</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="AM59" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN59">
-        <v>-1</v>
-      </c>
-      <c r="AO59">
-        <v>2</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="AS59">
         <v>0</v>
@@ -17908,10 +17926,10 @@
         <v>0</v>
       </c>
       <c r="CD59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE59" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE59" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF59">
         <v>0</v>
@@ -17934,7 +17952,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -18042,7 +18060,7 @@
         <v>3</v>
       </c>
       <c r="AL60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM60">
         <v>0</v>
@@ -18060,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="AR60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS60">
         <v>0</v>
@@ -18147,10 +18165,10 @@
         <v>0</v>
       </c>
       <c r="CD60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF60">
         <v>0</v>
@@ -18173,7 +18191,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -18281,7 +18299,7 @@
         <v>8</v>
       </c>
       <c r="AL61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AM61">
         <v>0</v>
@@ -18299,7 +18317,7 @@
         <v>1</v>
       </c>
       <c r="AR61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AS61">
         <v>0</v>
@@ -18386,10 +18404,10 @@
         <v>0</v>
       </c>
       <c r="CD61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE61" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE61" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF61">
         <v>0</v>
@@ -18412,7 +18430,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -18520,10 +18538,10 @@
         <v>2.75</v>
       </c>
       <c r="AL62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM62" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="AM62" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="AN62">
         <v>2.75</v>
@@ -18538,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="AR62" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS62">
         <v>0</v>
@@ -18619,10 +18637,10 @@
         <v>0</v>
       </c>
       <c r="CD62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF62">
         <v>0</v>
@@ -18645,7 +18663,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -18753,25 +18771,25 @@
         <v>3</v>
       </c>
       <c r="AL63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN63">
+        <v>-1</v>
+      </c>
+      <c r="AO63">
+        <v>2</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="AN63">
-        <v>-1</v>
-      </c>
-      <c r="AO63">
-        <v>2</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>1</v>
-      </c>
-      <c r="AR63" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="AS63">
         <v>0</v>
@@ -18852,10 +18870,10 @@
         <v>0</v>
       </c>
       <c r="CD63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE63" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE63" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF63">
         <v>0</v>
@@ -18870,7 +18888,7 @@
         <v>7</v>
       </c>
       <c r="CJ63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.15">
@@ -18878,7 +18896,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -18989,7 +19007,7 @@
         <v>6</v>
       </c>
       <c r="AM64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN64">
         <v>-1</v>
@@ -19004,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AS64">
         <v>0</v>
@@ -19088,10 +19106,10 @@
         <v>0</v>
       </c>
       <c r="CD64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE64" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE64" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF64">
         <v>0</v>
@@ -19114,7 +19132,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -19141,7 +19159,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L65">
         <v>5</v>
@@ -19319,10 +19337,10 @@
         <v>0</v>
       </c>
       <c r="CD65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF65">
         <v>0</v>
@@ -19345,7 +19363,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -19552,10 +19570,10 @@
         <v>0</v>
       </c>
       <c r="CD66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE66" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE66" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF66">
         <v>0</v>
@@ -19578,7 +19596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -19704,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="AR67" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS67">
         <v>0</v>
@@ -19788,10 +19806,10 @@
         <v>0</v>
       </c>
       <c r="CD67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE67" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE67" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF67">
         <v>0</v>
@@ -19814,7 +19832,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -19922,7 +19940,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -19940,7 +19958,7 @@
         <v>1</v>
       </c>
       <c r="AR68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS68">
         <v>0</v>
@@ -20024,10 +20042,10 @@
         <v>0</v>
       </c>
       <c r="CD68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF68">
         <v>0</v>
@@ -20050,7 +20068,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -20158,7 +20176,7 @@
         <v>6</v>
       </c>
       <c r="AL69" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM69">
         <v>0</v>
@@ -20176,7 +20194,7 @@
         <v>1</v>
       </c>
       <c r="AR69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS69">
         <v>0</v>
@@ -20215,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="BI69" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BM69">
         <v>10</v>
@@ -20260,10 +20278,10 @@
         <v>0</v>
       </c>
       <c r="CD69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF69">
         <v>0</v>
@@ -20286,7 +20304,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -20391,10 +20409,10 @@
         <v>14</v>
       </c>
       <c r="AL70" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AN70">
         <v>-1</v>
@@ -20409,7 +20427,7 @@
         <v>1</v>
       </c>
       <c r="AR70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS70">
         <v>0</v>
@@ -20496,10 +20514,10 @@
         <v>0</v>
       </c>
       <c r="CD70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF70">
         <v>0</v>
@@ -20522,7 +20540,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -20630,34 +20648,34 @@
         <v>8</v>
       </c>
       <c r="AL71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>-1</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AM71">
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <v>-1</v>
-      </c>
-      <c r="AO71">
-        <v>2</v>
-      </c>
-      <c r="AP71">
-        <v>0</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
-      </c>
-      <c r="AR71" s="2" t="s">
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71" t="s">
         <v>196</v>
-      </c>
-      <c r="AS71">
-        <v>0</v>
-      </c>
-      <c r="AT71">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>197</v>
       </c>
       <c r="AV71">
         <v>2</v>
@@ -20732,10 +20750,10 @@
         <v>0</v>
       </c>
       <c r="CD71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE71" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE71" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF71">
         <v>0</v>
@@ -20758,7 +20776,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -20866,7 +20884,7 @@
         <v>2.6</v>
       </c>
       <c r="AL72" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM72">
         <v>0</v>
@@ -20884,7 +20902,7 @@
         <v>1</v>
       </c>
       <c r="AR72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS72">
         <v>0</v>
@@ -20926,7 +20944,7 @@
         <v>0</v>
       </c>
       <c r="BI72" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BM72">
         <v>10</v>
@@ -20971,10 +20989,10 @@
         <v>0</v>
       </c>
       <c r="CD72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF72">
         <v>0</v>
@@ -20997,7 +21015,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -21123,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="AR73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS73">
         <v>0</v>
@@ -21186,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="BV73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BW73">
         <v>0.5</v>
@@ -21210,10 +21228,10 @@
         <v>0</v>
       </c>
       <c r="CD73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF73">
         <v>0</v>
@@ -21236,7 +21254,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -21449,10 +21467,10 @@
         <v>0</v>
       </c>
       <c r="CD74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE74" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="CE74" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="CF74">
         <v>0</v>
@@ -21475,7 +21493,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -21526,7 +21544,7 @@
         <v>19</v>
       </c>
       <c r="S75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -21586,7 +21604,7 @@
         <v>0</v>
       </c>
       <c r="AM75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN75">
         <v>2</v>
@@ -21667,7 +21685,7 @@
         <v>0.5</v>
       </c>
       <c r="BW75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BX75">
         <v>2</v>
@@ -21688,10 +21706,10 @@
         <v>0</v>
       </c>
       <c r="CD75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF75">
         <v>0</v>
@@ -21714,7 +21732,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -21822,25 +21840,25 @@
         <v>4.75</v>
       </c>
       <c r="AL76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>-1</v>
+      </c>
+      <c r="AO76">
+        <v>2</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="AM76">
-        <v>0</v>
-      </c>
-      <c r="AN76">
-        <v>-1</v>
-      </c>
-      <c r="AO76">
-        <v>2</v>
-      </c>
-      <c r="AP76">
-        <v>0</v>
-      </c>
-      <c r="AQ76">
-        <v>1</v>
-      </c>
-      <c r="AR76" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="AS76">
         <v>0</v>
@@ -21918,16 +21936,16 @@
         <v>1</v>
       </c>
       <c r="CB76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CC76">
         <v>0</v>
       </c>
       <c r="CD76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF76">
         <v>2</v>
@@ -21950,7 +21968,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -22055,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AM77">
         <v>0</v>
@@ -22160,10 +22178,10 @@
         <v>0</v>
       </c>
       <c r="CD77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF77">
         <v>0</v>
@@ -22186,7 +22204,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -22396,10 +22414,10 @@
         <v>0</v>
       </c>
       <c r="CD78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF78">
         <v>0</v>
@@ -22414,7 +22432,7 @@
         <v>8</v>
       </c>
       <c r="CJ78" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.15">
@@ -22422,7 +22440,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -22545,16 +22563,16 @@
         <v>1</v>
       </c>
       <c r="AR79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="s">
         <v>218</v>
-      </c>
-      <c r="AS79">
-        <v>0</v>
-      </c>
-      <c r="AT79">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>219</v>
       </c>
       <c r="AV79">
         <v>2</v>
@@ -22629,10 +22647,10 @@
         <v>0</v>
       </c>
       <c r="CD79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF79">
         <v>0</v>
@@ -22655,7 +22673,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -22736,7 +22754,7 @@
         <v>2</v>
       </c>
       <c r="AD80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE80">
         <v>0</v>
@@ -22862,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="CD80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE80" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF80">
         <v>0</v>
@@ -22888,7 +22906,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -22969,7 +22987,7 @@
         <v>2</v>
       </c>
       <c r="AD81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE81">
         <v>0</v>
@@ -23092,10 +23110,10 @@
         <v>0</v>
       </c>
       <c r="CD81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE81" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF81">
         <v>0</v>
@@ -23118,7 +23136,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -23199,7 +23217,7 @@
         <v>2</v>
       </c>
       <c r="AD82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE82">
         <v>0</v>
@@ -23322,10 +23340,10 @@
         <v>0</v>
       </c>
       <c r="CD82" s="2" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="CE82" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF82">
         <v>0</v>
@@ -23348,7 +23366,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -23432,7 +23450,7 @@
         <v>2</v>
       </c>
       <c r="AD83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE83">
         <v>0</v>
@@ -23558,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="CD83" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE83" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF83">
         <v>0</v>
@@ -23584,7 +23602,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -23665,7 +23683,7 @@
         <v>2</v>
       </c>
       <c r="AD84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE84">
         <v>0</v>
@@ -23788,10 +23806,10 @@
         <v>0</v>
       </c>
       <c r="CD84" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE84" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF84">
         <v>0</v>
@@ -23814,7 +23832,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -23897,8 +23915,8 @@
       <c r="AC85" s="4">
         <v>2</v>
       </c>
-      <c r="AD85" s="4">
-        <v>4</v>
+      <c r="AD85">
+        <v>5</v>
       </c>
       <c r="AE85" s="4">
         <v>0</v>
@@ -23959,7 +23977,7 @@
         <v>2</v>
       </c>
       <c r="AY85" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AZ85" s="4"/>
       <c r="BA85" s="4">
@@ -24034,10 +24052,10 @@
         <v>0</v>
       </c>
       <c r="CD85" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE85" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CF85" s="4">
         <v>0</v>
@@ -24060,7 +24078,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -24143,8 +24161,8 @@
       <c r="AC86" s="4">
         <v>2</v>
       </c>
-      <c r="AD86" s="4">
-        <v>4</v>
+      <c r="AD86">
+        <v>5</v>
       </c>
       <c r="AE86" s="4">
         <v>0</v>
@@ -24171,7 +24189,7 @@
         <v>30</v>
       </c>
       <c r="AM86" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN86" s="4">
         <v>12</v>
@@ -24280,10 +24298,10 @@
         <v>0</v>
       </c>
       <c r="CD86" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE86" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF86" s="4">
         <v>0</v>
@@ -24306,7 +24324,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -24389,8 +24407,8 @@
       <c r="AC87" s="4">
         <v>2</v>
       </c>
-      <c r="AD87" s="4">
-        <v>4</v>
+      <c r="AD87">
+        <v>5</v>
       </c>
       <c r="AE87" s="4">
         <v>0</v>
@@ -24441,7 +24459,7 @@
         <v>0</v>
       </c>
       <c r="AU87" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AV87" s="4">
         <v>2</v>
@@ -24528,10 +24546,10 @@
         <v>0</v>
       </c>
       <c r="CD87" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CE87" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="CF87" s="4">
         <v>0</v>
@@ -24554,7 +24572,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -24637,8 +24655,8 @@
       <c r="AC88" s="4">
         <v>2</v>
       </c>
-      <c r="AD88" s="4">
-        <v>4</v>
+      <c r="AD88">
+        <v>5</v>
       </c>
       <c r="AE88" s="4">
         <v>0</v>
@@ -24665,7 +24683,7 @@
         <v>55</v>
       </c>
       <c r="AM88" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN88" s="4">
         <v>-1</v>
@@ -24772,10 +24790,10 @@
         <v>160</v>
       </c>
       <c r="CD88" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE88" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF88" s="4">
         <v>0</v>
@@ -24798,7 +24816,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -24881,8 +24899,8 @@
       <c r="AC89" s="4">
         <v>2</v>
       </c>
-      <c r="AD89" s="4">
-        <v>4</v>
+      <c r="AD89">
+        <v>5</v>
       </c>
       <c r="AE89" s="4">
         <v>0</v>
@@ -24909,7 +24927,7 @@
         <v>30</v>
       </c>
       <c r="AM89" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN89" s="4">
         <v>12</v>
@@ -25018,10 +25036,10 @@
         <v>0</v>
       </c>
       <c r="CD89" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE89" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF89" s="4">
         <v>0</v>
@@ -25044,7 +25062,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -25127,8 +25145,8 @@
       <c r="AC90" s="4">
         <v>2</v>
       </c>
-      <c r="AD90" s="4">
-        <v>4</v>
+      <c r="AD90">
+        <v>5</v>
       </c>
       <c r="AE90" s="4">
         <v>0</v>
@@ -25155,7 +25173,7 @@
         <v>65</v>
       </c>
       <c r="AM90" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN90" s="4">
         <v>-1</v>
@@ -25255,17 +25273,17 @@
       <c r="CA90" s="4">
         <v>1</v>
       </c>
-      <c r="CB90" s="4">
-        <v>275</v>
+      <c r="CB90" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="CC90">
         <v>0</v>
       </c>
       <c r="CD90" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE90" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF90" s="4">
         <v>2</v>
@@ -25288,7 +25306,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -25371,8 +25389,8 @@
       <c r="AC91" s="4">
         <v>2</v>
       </c>
-      <c r="AD91" s="4">
-        <v>4</v>
+      <c r="AD91">
+        <v>5</v>
       </c>
       <c r="AE91" s="4">
         <v>0</v>
@@ -25399,7 +25417,7 @@
         <v>60</v>
       </c>
       <c r="AM91" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN91" s="4">
         <v>12</v>
@@ -25508,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="CD91" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE91" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF91" s="4">
         <v>0</v>
@@ -25534,7 +25552,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -25618,7 +25636,7 @@
         <v>2</v>
       </c>
       <c r="AD92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE92">
         <v>0</v>
@@ -25741,10 +25759,10 @@
         <v>0</v>
       </c>
       <c r="CD92" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE92" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF92">
         <v>0</v>
@@ -25767,7 +25785,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -25850,8 +25868,8 @@
       <c r="AC93" s="4">
         <v>2</v>
       </c>
-      <c r="AD93" s="4">
-        <v>4</v>
+      <c r="AD93">
+        <v>5</v>
       </c>
       <c r="AE93" s="4">
         <v>0</v>
@@ -25878,7 +25896,7 @@
         <v>20</v>
       </c>
       <c r="AM93" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN93" s="4">
         <v>6</v>
@@ -25987,10 +26005,10 @@
         <v>0</v>
       </c>
       <c r="CD93" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE93" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF93" s="4">
         <v>0</v>
@@ -26013,7 +26031,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -26097,7 +26115,7 @@
         <v>2</v>
       </c>
       <c r="AD94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -26124,7 +26142,7 @@
         <v>35</v>
       </c>
       <c r="AM94" s="2" t="s">
-        <v>247</v>
+        <v>355</v>
       </c>
       <c r="AN94">
         <v>-1</v>
@@ -26220,10 +26238,10 @@
         <v>0</v>
       </c>
       <c r="CD94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE94" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="CE94" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="CF94">
         <v>0</v>
@@ -26246,7 +26264,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -26329,8 +26347,8 @@
       <c r="AC95" s="4">
         <v>2</v>
       </c>
-      <c r="AD95" s="4">
-        <v>4</v>
+      <c r="AD95">
+        <v>5</v>
       </c>
       <c r="AE95" s="4">
         <v>0</v>
@@ -26381,7 +26399,7 @@
         <v>0</v>
       </c>
       <c r="AU95" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AV95" s="4">
         <v>2</v>
@@ -26466,10 +26484,10 @@
         <v>0</v>
       </c>
       <c r="CD95" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE95" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF95" s="4">
         <v>0</v>
@@ -26492,7 +26510,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -26575,8 +26593,8 @@
       <c r="AC96" s="4">
         <v>2</v>
       </c>
-      <c r="AD96" s="4">
-        <v>4</v>
+      <c r="AD96">
+        <v>5</v>
       </c>
       <c r="AE96" s="4">
         <v>0</v>
@@ -26627,7 +26645,7 @@
         <v>0</v>
       </c>
       <c r="AU96" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AV96" s="4">
         <v>2</v>
@@ -26712,10 +26730,10 @@
         <v>0</v>
       </c>
       <c r="CD96" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE96" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF96" s="4">
         <v>0</v>
@@ -26738,7 +26756,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -26821,8 +26839,8 @@
       <c r="AC97" s="4">
         <v>2</v>
       </c>
-      <c r="AD97" s="4">
-        <v>4</v>
+      <c r="AD97">
+        <v>5</v>
       </c>
       <c r="AE97" s="4">
         <v>0</v>
@@ -26873,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="AU97" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AV97" s="4">
         <v>2</v>
@@ -26958,10 +26976,10 @@
         <v>0</v>
       </c>
       <c r="CD97" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE97" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF97" s="4">
         <v>0</v>
@@ -26984,7 +27002,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -27067,8 +27085,8 @@
       <c r="AC98" s="4">
         <v>2</v>
       </c>
-      <c r="AD98" s="4">
-        <v>4</v>
+      <c r="AD98">
+        <v>5</v>
       </c>
       <c r="AE98" s="4">
         <v>0</v>
@@ -27091,8 +27109,8 @@
       <c r="AK98" s="4">
         <v>0</v>
       </c>
-      <c r="AL98" s="4">
-        <v>195</v>
+      <c r="AL98" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="AM98" s="4">
         <v>0</v>
@@ -27202,10 +27220,10 @@
         <v>0</v>
       </c>
       <c r="CD98" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE98" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF98" s="4">
         <v>0</v>
@@ -27228,7 +27246,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -27311,8 +27329,8 @@
       <c r="AC99" s="4">
         <v>2</v>
       </c>
-      <c r="AD99" s="4">
-        <v>4</v>
+      <c r="AD99">
+        <v>5</v>
       </c>
       <c r="AE99" s="4">
         <v>0</v>
@@ -27363,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="AU99" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AV99" s="4">
         <v>2</v>
@@ -27448,10 +27466,10 @@
         <v>0</v>
       </c>
       <c r="CD99" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE99" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF99" s="4">
         <v>0</v>
@@ -27474,7 +27492,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -27555,7 +27573,7 @@
         <v>2</v>
       </c>
       <c r="AD100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE100">
         <v>0</v>
@@ -27678,10 +27696,10 @@
         <v>0</v>
       </c>
       <c r="CD100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF100">
         <v>0</v>
@@ -27704,7 +27722,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -27785,7 +27803,7 @@
         <v>2</v>
       </c>
       <c r="AD101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE101">
         <v>0</v>
@@ -27911,10 +27929,10 @@
         <v>0</v>
       </c>
       <c r="CD101" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE101" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF101">
         <v>0</v>
@@ -27937,7 +27955,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -28018,7 +28036,7 @@
         <v>2</v>
       </c>
       <c r="AD102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE102">
         <v>0</v>
@@ -28144,10 +28162,10 @@
         <v>0</v>
       </c>
       <c r="CD102" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE102" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF102">
         <v>0</v>
@@ -28170,7 +28188,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -28253,8 +28271,8 @@
       <c r="AC103" s="4">
         <v>2</v>
       </c>
-      <c r="AD103" s="4">
-        <v>4</v>
+      <c r="AD103">
+        <v>5</v>
       </c>
       <c r="AE103" s="4">
         <v>0</v>
@@ -28305,7 +28323,7 @@
         <v>0</v>
       </c>
       <c r="AU103" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AV103" s="4">
         <v>2</v>
@@ -28390,10 +28408,10 @@
         <v>0</v>
       </c>
       <c r="CD103" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE103" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF103" s="4">
         <v>0</v>
@@ -28416,7 +28434,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -28498,7 +28516,7 @@
         <v>2</v>
       </c>
       <c r="AD104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE104">
         <v>0</v>
@@ -28621,10 +28639,10 @@
         <v>0</v>
       </c>
       <c r="CD104" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE104" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF104">
         <v>0</v>
@@ -28647,7 +28665,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -28728,7 +28746,7 @@
         <v>2</v>
       </c>
       <c r="AD105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE105">
         <v>0</v>
@@ -28851,10 +28869,10 @@
         <v>0</v>
       </c>
       <c r="CD105" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE105" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF105">
         <v>0</v>
@@ -28877,7 +28895,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -28960,8 +28978,8 @@
       <c r="AC106" s="4">
         <v>2</v>
       </c>
-      <c r="AD106" s="4">
-        <v>4</v>
+      <c r="AD106">
+        <v>5</v>
       </c>
       <c r="AE106" s="4">
         <v>0</v>
@@ -29012,7 +29030,7 @@
         <v>0</v>
       </c>
       <c r="AU106" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AV106" s="4">
         <v>2</v>
@@ -29097,10 +29115,10 @@
         <v>0</v>
       </c>
       <c r="CD106" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE106" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF106" s="4">
         <v>0</v>
@@ -29123,7 +29141,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -29207,7 +29225,7 @@
         <v>2</v>
       </c>
       <c r="AD107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE107">
         <v>0</v>
@@ -29333,10 +29351,10 @@
         <v>0</v>
       </c>
       <c r="CD107" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE107" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF107">
         <v>0</v>
@@ -29359,7 +29377,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -29443,7 +29461,7 @@
         <v>2</v>
       </c>
       <c r="AD108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE108">
         <v>0</v>
@@ -29569,10 +29587,10 @@
         <v>0</v>
       </c>
       <c r="CD108" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE108" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF108">
         <v>0</v>
@@ -29595,7 +29613,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -29679,7 +29697,7 @@
         <v>2</v>
       </c>
       <c r="AD109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE109">
         <v>0</v>
@@ -29805,10 +29823,10 @@
         <v>0</v>
       </c>
       <c r="CD109" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE109" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF109">
         <v>0</v>
@@ -29831,7 +29849,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -29915,7 +29933,7 @@
         <v>2</v>
       </c>
       <c r="AD110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -29941,8 +29959,8 @@
       <c r="AL110">
         <v>30</v>
       </c>
-      <c r="AM110">
-        <v>200</v>
+      <c r="AM110" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="AN110">
         <v>9</v>
@@ -30041,10 +30059,10 @@
         <v>0</v>
       </c>
       <c r="CD110" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="CE110" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF110">
         <v>0</v>
@@ -30067,7 +30085,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -30151,7 +30169,7 @@
         <v>2</v>
       </c>
       <c r="AD111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE111">
         <v>0</v>
@@ -30193,7 +30211,7 @@
         <v>1</v>
       </c>
       <c r="AR111" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AS111">
         <v>0</v>
@@ -30250,7 +30268,7 @@
         <v>-1</v>
       </c>
       <c r="BR111" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BT111">
         <v>2</v>
@@ -30280,10 +30298,10 @@
         <v>0</v>
       </c>
       <c r="CD111" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE111" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF111">
         <v>0</v>
@@ -30306,7 +30324,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -30389,8 +30407,8 @@
       <c r="AC112" s="4">
         <v>2</v>
       </c>
-      <c r="AD112" s="4">
-        <v>4</v>
+      <c r="AD112">
+        <v>5</v>
       </c>
       <c r="AE112" s="4">
         <v>0</v>
@@ -30517,17 +30535,17 @@
       <c r="CA112" s="4">
         <v>3</v>
       </c>
-      <c r="CB112" s="4">
-        <v>0.2</v>
+      <c r="CB112" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="CC112">
         <v>0</v>
       </c>
       <c r="CD112" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE112" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF112" s="4">
         <v>2</v>
@@ -30550,7 +30568,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -30631,7 +30649,7 @@
         <v>2</v>
       </c>
       <c r="AD113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE113">
         <v>0</v>
@@ -30757,10 +30775,10 @@
         <v>0</v>
       </c>
       <c r="CD113" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE113" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CF113">
         <v>0</v>
@@ -30783,7 +30801,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -30866,8 +30884,8 @@
       <c r="AC114" s="4">
         <v>2</v>
       </c>
-      <c r="AD114" s="4">
-        <v>4</v>
+      <c r="AD114">
+        <v>5</v>
       </c>
       <c r="AE114" s="4">
         <v>0</v>
@@ -30928,7 +30946,7 @@
         <v>2</v>
       </c>
       <c r="AY114" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AZ114" s="4"/>
       <c r="BA114" s="4">
@@ -31003,10 +31021,10 @@
         <v>0</v>
       </c>
       <c r="CD114" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE114" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF114" s="4">
         <v>0</v>
@@ -31029,7 +31047,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -31113,7 +31131,7 @@
         <v>2</v>
       </c>
       <c r="AD115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE115">
         <v>0</v>
@@ -31237,10 +31255,10 @@
         <v>0</v>
       </c>
       <c r="CD115" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE115" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF115">
         <v>0</v>
@@ -31263,7 +31281,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -31344,7 +31362,7 @@
         <v>2</v>
       </c>
       <c r="AD116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -31467,10 +31485,10 @@
         <v>0</v>
       </c>
       <c r="CD116" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE116" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF116">
         <v>0</v>
@@ -31493,7 +31511,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
@@ -31576,8 +31594,8 @@
       <c r="AC117" s="4">
         <v>2</v>
       </c>
-      <c r="AD117" s="4">
-        <v>4</v>
+      <c r="AD117">
+        <v>5</v>
       </c>
       <c r="AE117" s="4">
         <v>0</v>
@@ -31628,7 +31646,7 @@
         <v>0</v>
       </c>
       <c r="AU117" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AV117" s="4">
         <v>2</v>
@@ -31713,10 +31731,10 @@
         <v>0</v>
       </c>
       <c r="CD117" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE117" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF117" s="4">
         <v>0</v>
@@ -31739,7 +31757,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -31820,7 +31838,7 @@
         <v>2</v>
       </c>
       <c r="AD118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE118">
         <v>0</v>
@@ -31946,10 +31964,10 @@
         <v>0</v>
       </c>
       <c r="CD118" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE118" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF118">
         <v>0</v>
@@ -31972,7 +31990,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -32055,8 +32073,8 @@
       <c r="AC119" s="4">
         <v>2</v>
       </c>
-      <c r="AD119" s="4">
-        <v>4</v>
+      <c r="AD119">
+        <v>5</v>
       </c>
       <c r="AE119" s="4">
         <v>0</v>
@@ -32107,7 +32125,7 @@
         <v>0</v>
       </c>
       <c r="AU119" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AV119" s="4">
         <v>2</v>
@@ -32192,10 +32210,10 @@
         <v>0</v>
       </c>
       <c r="CD119" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CE119" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF119" s="4">
         <v>0</v>
@@ -32218,7 +32236,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -32299,7 +32317,7 @@
         <v>2</v>
       </c>
       <c r="AD120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE120">
         <v>0</v>
@@ -32350,7 +32368,7 @@
         <v>0</v>
       </c>
       <c r="AU120" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AV120">
         <v>2</v>
@@ -32425,10 +32443,10 @@
         <v>0</v>
       </c>
       <c r="CD120" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CE120" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CF120">
         <v>0</v>
@@ -32451,7 +32469,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
@@ -32534,8 +32552,8 @@
       <c r="AC121" s="4">
         <v>2</v>
       </c>
-      <c r="AD121" s="4">
-        <v>4</v>
+      <c r="AD121">
+        <v>5</v>
       </c>
       <c r="AE121" s="4">
         <v>0</v>
@@ -32596,7 +32614,7 @@
         <v>2</v>
       </c>
       <c r="AY121" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AZ121" s="4"/>
       <c r="BA121" s="4">
@@ -32671,10 +32689,10 @@
         <v>0</v>
       </c>
       <c r="CD121" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE121" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CF121" s="4">
         <v>0</v>
@@ -32695,7 +32713,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/skills.xlsx
+++ b/bin/conf/skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
